--- a/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,141 +662,153 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5030700</v>
+        <v>4942500</v>
       </c>
       <c r="E8" s="3">
-        <v>4965200</v>
+        <v>5044300</v>
       </c>
       <c r="F8" s="3">
-        <v>4918200</v>
+        <v>4978600</v>
       </c>
       <c r="G8" s="3">
-        <v>4817100</v>
+        <v>4931500</v>
       </c>
       <c r="H8" s="3">
-        <v>4656800</v>
+        <v>4830100</v>
       </c>
       <c r="I8" s="3">
-        <v>4118000</v>
+        <v>4669400</v>
       </c>
       <c r="J8" s="3">
+        <v>4129100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3847300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3805700</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4271000</v>
+        <v>4231700</v>
       </c>
       <c r="E9" s="3">
-        <v>4065300</v>
+        <v>4282600</v>
       </c>
       <c r="F9" s="3">
-        <v>3907700</v>
+        <v>4076300</v>
       </c>
       <c r="G9" s="3">
-        <v>3760400</v>
+        <v>3918300</v>
       </c>
       <c r="H9" s="3">
-        <v>3597400</v>
+        <v>3770600</v>
       </c>
       <c r="I9" s="3">
-        <v>3334300</v>
+        <v>3607100</v>
       </c>
       <c r="J9" s="3">
+        <v>3343300</v>
+      </c>
+      <c r="K9" s="3">
         <v>6406800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3111500</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>759700</v>
+        <v>710900</v>
       </c>
       <c r="E10" s="3">
-        <v>899900</v>
+        <v>761700</v>
       </c>
       <c r="F10" s="3">
-        <v>1010400</v>
+        <v>902400</v>
       </c>
       <c r="G10" s="3">
-        <v>1056600</v>
+        <v>1013200</v>
       </c>
       <c r="H10" s="3">
-        <v>1059400</v>
+        <v>1059500</v>
       </c>
       <c r="I10" s="3">
-        <v>783700</v>
+        <v>1062300</v>
       </c>
       <c r="J10" s="3">
+        <v>785800</v>
+      </c>
+      <c r="K10" s="3">
         <v>-2559500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>694100</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,38 +821,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>433200</v>
+        <v>395500</v>
       </c>
       <c r="E12" s="3">
-        <v>454700</v>
+        <v>434400</v>
       </c>
       <c r="F12" s="3">
-        <v>450100</v>
+        <v>455900</v>
       </c>
       <c r="G12" s="3">
-        <v>404900</v>
+        <v>451300</v>
       </c>
       <c r="H12" s="3">
-        <v>454500</v>
+        <v>406000</v>
       </c>
       <c r="I12" s="3">
-        <v>415500</v>
+        <v>455700</v>
       </c>
       <c r="J12" s="3">
+        <v>416600</v>
+      </c>
+      <c r="K12" s="3">
         <v>651000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>306400</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -868,39 +884,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
-        <v>31400</v>
-      </c>
       <c r="F14" s="3">
-        <v>69100</v>
+        <v>31500</v>
       </c>
       <c r="G14" s="3">
-        <v>75400</v>
+        <v>69300</v>
       </c>
       <c r="H14" s="3">
-        <v>30000</v>
+        <v>75600</v>
       </c>
       <c r="I14" s="3">
-        <v>44300</v>
+        <v>30100</v>
       </c>
       <c r="J14" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K14" s="3">
         <v>236100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>68700</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -928,9 +950,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,68 +965,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4839400</v>
+        <v>4781300</v>
       </c>
       <c r="E17" s="3">
-        <v>4778200</v>
+        <v>4852500</v>
       </c>
       <c r="F17" s="3">
-        <v>4766100</v>
+        <v>4791100</v>
       </c>
       <c r="G17" s="3">
-        <v>4498100</v>
+        <v>4779000</v>
       </c>
       <c r="H17" s="3">
-        <v>4331800</v>
+        <v>4510300</v>
       </c>
       <c r="I17" s="3">
-        <v>4026300</v>
+        <v>4343500</v>
       </c>
       <c r="J17" s="3">
+        <v>4037200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3849100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3710000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>191300</v>
+        <v>161300</v>
       </c>
       <c r="E18" s="3">
-        <v>187000</v>
+        <v>191800</v>
       </c>
       <c r="F18" s="3">
-        <v>152000</v>
+        <v>187500</v>
       </c>
       <c r="G18" s="3">
-        <v>319000</v>
+        <v>152400</v>
       </c>
       <c r="H18" s="3">
-        <v>325000</v>
+        <v>319800</v>
       </c>
       <c r="I18" s="3">
-        <v>91700</v>
+        <v>325900</v>
       </c>
       <c r="J18" s="3">
+        <v>91900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>95700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1014,158 +1046,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-26500</v>
+        <v>127900</v>
       </c>
       <c r="E20" s="3">
-        <v>152400</v>
+        <v>-26600</v>
       </c>
       <c r="F20" s="3">
-        <v>50700</v>
+        <v>152800</v>
       </c>
       <c r="G20" s="3">
-        <v>152700</v>
+        <v>50900</v>
       </c>
       <c r="H20" s="3">
-        <v>151200</v>
+        <v>153200</v>
       </c>
       <c r="I20" s="3">
-        <v>408600</v>
+        <v>151600</v>
       </c>
       <c r="J20" s="3">
+        <v>409700</v>
+      </c>
+      <c r="K20" s="3">
         <v>249700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>222000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1899000</v>
+        <v>1933800</v>
       </c>
       <c r="E21" s="3">
-        <v>2108700</v>
+        <v>1898400</v>
       </c>
       <c r="F21" s="3">
-        <v>1934900</v>
+        <v>2108500</v>
       </c>
       <c r="G21" s="3">
-        <v>1986800</v>
+        <v>1934400</v>
       </c>
       <c r="H21" s="3">
-        <v>1830900</v>
+        <v>1987200</v>
       </c>
       <c r="I21" s="3">
-        <v>1780800</v>
+        <v>1831400</v>
       </c>
       <c r="J21" s="3">
+        <v>1781400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1442200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1371900</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>92100</v>
+        <v>97800</v>
       </c>
       <c r="E22" s="3">
-        <v>80100</v>
+        <v>92300</v>
       </c>
       <c r="F22" s="3">
-        <v>41600</v>
+        <v>80300</v>
       </c>
       <c r="G22" s="3">
-        <v>15600</v>
+        <v>41700</v>
       </c>
       <c r="H22" s="3">
-        <v>24800</v>
+        <v>15700</v>
       </c>
       <c r="I22" s="3">
+        <v>24900</v>
+      </c>
+      <c r="J22" s="3">
         <v>22600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>35800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11700</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>72700</v>
+        <v>191300</v>
       </c>
       <c r="E23" s="3">
-        <v>259400</v>
+        <v>72800</v>
       </c>
       <c r="F23" s="3">
-        <v>161200</v>
+        <v>260100</v>
       </c>
       <c r="G23" s="3">
-        <v>456100</v>
+        <v>161600</v>
       </c>
       <c r="H23" s="3">
-        <v>451400</v>
+        <v>457300</v>
       </c>
       <c r="I23" s="3">
-        <v>477700</v>
+        <v>452600</v>
       </c>
       <c r="J23" s="3">
+        <v>479000</v>
+      </c>
+      <c r="K23" s="3">
         <v>212100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>305900</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-15300</v>
       </c>
-      <c r="E24" s="3">
-        <v>38800</v>
-      </c>
       <c r="F24" s="3">
-        <v>32700</v>
+        <v>38900</v>
       </c>
       <c r="G24" s="3">
+        <v>32800</v>
+      </c>
+      <c r="H24" s="3">
         <v>29200</v>
       </c>
-      <c r="H24" s="3">
-        <v>103900</v>
-      </c>
       <c r="I24" s="3">
-        <v>75100</v>
+        <v>104200</v>
       </c>
       <c r="J24" s="3">
+        <v>75300</v>
+      </c>
+      <c r="K24" s="3">
         <v>71400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29800</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1193,69 +1241,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>87900</v>
+        <v>204400</v>
       </c>
       <c r="E26" s="3">
-        <v>220600</v>
+        <v>88100</v>
       </c>
       <c r="F26" s="3">
-        <v>128500</v>
+        <v>221200</v>
       </c>
       <c r="G26" s="3">
-        <v>426900</v>
+        <v>128800</v>
       </c>
       <c r="H26" s="3">
-        <v>347500</v>
+        <v>428100</v>
       </c>
       <c r="I26" s="3">
-        <v>402600</v>
+        <v>348400</v>
       </c>
       <c r="J26" s="3">
+        <v>403700</v>
+      </c>
+      <c r="K26" s="3">
         <v>140700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>276100</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>235200</v>
+        <v>323700</v>
       </c>
       <c r="E27" s="3">
-        <v>320300</v>
+        <v>235900</v>
       </c>
       <c r="F27" s="3">
-        <v>276600</v>
+        <v>321100</v>
       </c>
       <c r="G27" s="3">
-        <v>447300</v>
+        <v>277300</v>
       </c>
       <c r="H27" s="3">
-        <v>369500</v>
+        <v>448500</v>
       </c>
       <c r="I27" s="3">
-        <v>420100</v>
+        <v>370500</v>
       </c>
       <c r="J27" s="3">
+        <v>421200</v>
+      </c>
+      <c r="K27" s="3">
         <v>113500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>215400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1283,9 +1340,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1313,9 +1373,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1343,9 +1406,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1373,69 +1439,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>26500</v>
+        <v>-127900</v>
       </c>
       <c r="E32" s="3">
-        <v>-152400</v>
+        <v>26600</v>
       </c>
       <c r="F32" s="3">
-        <v>-50700</v>
+        <v>-152800</v>
       </c>
       <c r="G32" s="3">
-        <v>-152700</v>
+        <v>-50900</v>
       </c>
       <c r="H32" s="3">
-        <v>-151200</v>
+        <v>-153200</v>
       </c>
       <c r="I32" s="3">
-        <v>-408600</v>
+        <v>-151600</v>
       </c>
       <c r="J32" s="3">
+        <v>-409700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-249700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-222000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>235200</v>
+        <v>323700</v>
       </c>
       <c r="E33" s="3">
-        <v>320300</v>
+        <v>235900</v>
       </c>
       <c r="F33" s="3">
-        <v>276600</v>
+        <v>321100</v>
       </c>
       <c r="G33" s="3">
-        <v>447300</v>
+        <v>277300</v>
       </c>
       <c r="H33" s="3">
-        <v>369500</v>
+        <v>448500</v>
       </c>
       <c r="I33" s="3">
-        <v>420100</v>
+        <v>370500</v>
       </c>
       <c r="J33" s="3">
+        <v>421200</v>
+      </c>
+      <c r="K33" s="3">
         <v>113500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>215400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1463,74 +1538,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>235200</v>
+        <v>323700</v>
       </c>
       <c r="E35" s="3">
-        <v>320300</v>
+        <v>235900</v>
       </c>
       <c r="F35" s="3">
-        <v>276600</v>
+        <v>321100</v>
       </c>
       <c r="G35" s="3">
-        <v>447300</v>
+        <v>277300</v>
       </c>
       <c r="H35" s="3">
-        <v>369500</v>
+        <v>448500</v>
       </c>
       <c r="I35" s="3">
-        <v>420100</v>
+        <v>370500</v>
       </c>
       <c r="J35" s="3">
+        <v>421200</v>
+      </c>
+      <c r="K35" s="3">
         <v>113500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>215400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1543,8 +1627,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1557,278 +1642,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2782600</v>
+        <v>3189400</v>
       </c>
       <c r="E41" s="3">
-        <v>2716500</v>
+        <v>2794300</v>
       </c>
       <c r="F41" s="3">
-        <v>1915100</v>
+        <v>2727900</v>
       </c>
       <c r="G41" s="3">
-        <v>1772400</v>
+        <v>1923100</v>
       </c>
       <c r="H41" s="3">
-        <v>1520000</v>
+        <v>1779900</v>
       </c>
       <c r="I41" s="3">
-        <v>1690600</v>
+        <v>1526400</v>
       </c>
       <c r="J41" s="3">
+        <v>1697700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1565800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>115300</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>17600</v>
+        <v>24100</v>
       </c>
       <c r="E42" s="3">
-        <v>23800</v>
+        <v>17700</v>
       </c>
       <c r="F42" s="3">
-        <v>23800</v>
+        <v>23900</v>
       </c>
       <c r="G42" s="3">
-        <v>22100</v>
+        <v>23900</v>
       </c>
       <c r="H42" s="3">
-        <v>24600</v>
+        <v>22200</v>
       </c>
       <c r="I42" s="3">
-        <v>92100</v>
+        <v>24700</v>
       </c>
       <c r="J42" s="3">
+        <v>92400</v>
+      </c>
+      <c r="K42" s="3">
         <v>1595700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1675100</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>821400</v>
+        <v>889200</v>
       </c>
       <c r="E43" s="3">
-        <v>753600</v>
+        <v>824900</v>
       </c>
       <c r="F43" s="3">
-        <v>798300</v>
+        <v>756700</v>
       </c>
       <c r="G43" s="3">
-        <v>664800</v>
+        <v>801700</v>
       </c>
       <c r="H43" s="3">
-        <v>767100</v>
+        <v>667600</v>
       </c>
       <c r="I43" s="3">
-        <v>585500</v>
+        <v>770300</v>
       </c>
       <c r="J43" s="3">
+        <v>588000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1142100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>499600</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>605400</v>
+        <v>725300</v>
       </c>
       <c r="E44" s="3">
-        <v>607200</v>
+        <v>608000</v>
       </c>
       <c r="F44" s="3">
-        <v>565300</v>
+        <v>609800</v>
       </c>
       <c r="G44" s="3">
-        <v>586800</v>
+        <v>567700</v>
       </c>
       <c r="H44" s="3">
-        <v>455200</v>
+        <v>589200</v>
       </c>
       <c r="I44" s="3">
-        <v>465400</v>
+        <v>457100</v>
       </c>
       <c r="J44" s="3">
+        <v>467400</v>
+      </c>
+      <c r="K44" s="3">
         <v>866300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>414400</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>469100</v>
+        <v>307400</v>
       </c>
       <c r="E45" s="3">
-        <v>527300</v>
+        <v>471100</v>
       </c>
       <c r="F45" s="3">
-        <v>371700</v>
+        <v>529500</v>
       </c>
       <c r="G45" s="3">
-        <v>107500</v>
+        <v>373300</v>
       </c>
       <c r="H45" s="3">
-        <v>403000</v>
+        <v>107900</v>
       </c>
       <c r="I45" s="3">
-        <v>119800</v>
+        <v>404700</v>
       </c>
       <c r="J45" s="3">
+        <v>120300</v>
+      </c>
+      <c r="K45" s="3">
         <v>183000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>36600</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4696100</v>
+        <v>5135500</v>
       </c>
       <c r="E46" s="3">
-        <v>4628500</v>
+        <v>4715900</v>
       </c>
       <c r="F46" s="3">
-        <v>3674200</v>
+        <v>4648000</v>
       </c>
       <c r="G46" s="3">
-        <v>3153600</v>
+        <v>3689700</v>
       </c>
       <c r="H46" s="3">
-        <v>3221700</v>
+        <v>3166900</v>
       </c>
       <c r="I46" s="3">
-        <v>2953400</v>
+        <v>3235200</v>
       </c>
       <c r="J46" s="3">
+        <v>2965800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2661700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2741100</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1114400</v>
+        <v>1380900</v>
       </c>
       <c r="E47" s="3">
-        <v>1131600</v>
+        <v>1119100</v>
       </c>
       <c r="F47" s="3">
-        <v>1156300</v>
+        <v>1136400</v>
       </c>
       <c r="G47" s="3">
-        <v>1335400</v>
+        <v>1161200</v>
       </c>
       <c r="H47" s="3">
-        <v>2056800</v>
+        <v>1341000</v>
       </c>
       <c r="I47" s="3">
-        <v>1001900</v>
+        <v>2065500</v>
       </c>
       <c r="J47" s="3">
+        <v>1006100</v>
+      </c>
+      <c r="K47" s="3">
         <v>2310700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1301900</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>5770900</v>
+        <v>5306700</v>
       </c>
       <c r="E48" s="3">
-        <v>6852500</v>
+        <v>5795200</v>
       </c>
       <c r="F48" s="3">
-        <v>7522200</v>
+        <v>6881300</v>
       </c>
       <c r="G48" s="3">
-        <v>6278400</v>
+        <v>7553800</v>
       </c>
       <c r="H48" s="3">
-        <v>5579500</v>
+        <v>6304800</v>
       </c>
       <c r="I48" s="3">
-        <v>10813300</v>
+        <v>5603000</v>
       </c>
       <c r="J48" s="3">
+        <v>10858900</v>
+      </c>
+      <c r="K48" s="3">
         <v>10614700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4869500</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>99500</v>
+        <v>173600</v>
       </c>
       <c r="E49" s="3">
-        <v>126000</v>
+        <v>99900</v>
       </c>
       <c r="F49" s="3">
-        <v>136000</v>
+        <v>126500</v>
       </c>
       <c r="G49" s="3">
-        <v>149800</v>
+        <v>136500</v>
       </c>
       <c r="H49" s="3">
-        <v>150800</v>
+        <v>150400</v>
       </c>
       <c r="I49" s="3">
-        <v>315300</v>
+        <v>151400</v>
       </c>
       <c r="J49" s="3">
+        <v>316600</v>
+      </c>
+      <c r="K49" s="3">
         <v>138200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1856,9 +1969,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1886,39 +2002,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>445900</v>
+        <v>367500</v>
       </c>
       <c r="E52" s="3">
-        <v>369200</v>
+        <v>447800</v>
       </c>
       <c r="F52" s="3">
-        <v>371500</v>
+        <v>370800</v>
       </c>
       <c r="G52" s="3">
-        <v>303600</v>
+        <v>373000</v>
       </c>
       <c r="H52" s="3">
-        <v>220100</v>
+        <v>304900</v>
       </c>
       <c r="I52" s="3">
-        <v>249200</v>
+        <v>221000</v>
       </c>
       <c r="J52" s="3">
+        <v>250300</v>
+      </c>
+      <c r="K52" s="3">
         <v>281300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>201400</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1946,39 +2068,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>12126800</v>
+        <v>12364300</v>
       </c>
       <c r="E54" s="3">
-        <v>13107700</v>
+        <v>12177800</v>
       </c>
       <c r="F54" s="3">
-        <v>12860200</v>
+        <v>13162900</v>
       </c>
       <c r="G54" s="3">
-        <v>11220800</v>
+        <v>12914300</v>
       </c>
       <c r="H54" s="3">
-        <v>10418600</v>
+        <v>11268100</v>
       </c>
       <c r="I54" s="3">
-        <v>9775600</v>
+        <v>10462400</v>
       </c>
       <c r="J54" s="3">
+        <v>9816700</v>
+      </c>
+      <c r="K54" s="3">
         <v>9353200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9125300</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1991,8 +2119,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2005,188 +2134,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>226200</v>
+        <v>296500</v>
       </c>
       <c r="E57" s="3">
-        <v>217400</v>
+        <v>227200</v>
       </c>
       <c r="F57" s="3">
-        <v>228000</v>
+        <v>218300</v>
       </c>
       <c r="G57" s="3">
-        <v>198000</v>
+        <v>229000</v>
       </c>
       <c r="H57" s="3">
-        <v>205100</v>
+        <v>198900</v>
       </c>
       <c r="I57" s="3">
-        <v>246600</v>
+        <v>206000</v>
       </c>
       <c r="J57" s="3">
+        <v>247600</v>
+      </c>
+      <c r="K57" s="3">
         <v>416800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>163400</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>606200</v>
+        <v>1248500</v>
       </c>
       <c r="E58" s="3">
-        <v>1756400</v>
+        <v>608700</v>
       </c>
       <c r="F58" s="3">
-        <v>1032800</v>
+        <v>1763800</v>
       </c>
       <c r="G58" s="3">
-        <v>402700</v>
+        <v>1037100</v>
       </c>
       <c r="H58" s="3">
-        <v>333500</v>
+        <v>404400</v>
       </c>
       <c r="I58" s="3">
-        <v>704700</v>
+        <v>334900</v>
       </c>
       <c r="J58" s="3">
+        <v>707700</v>
+      </c>
+      <c r="K58" s="3">
         <v>975200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>567900</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>827300</v>
+        <v>883600</v>
       </c>
       <c r="E59" s="3">
-        <v>955100</v>
+        <v>830700</v>
       </c>
       <c r="F59" s="3">
-        <v>1133200</v>
+        <v>959100</v>
       </c>
       <c r="G59" s="3">
-        <v>1003900</v>
+        <v>1138000</v>
       </c>
       <c r="H59" s="3">
-        <v>1061400</v>
+        <v>1008200</v>
       </c>
       <c r="I59" s="3">
-        <v>652000</v>
+        <v>1065900</v>
       </c>
       <c r="J59" s="3">
+        <v>654700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1274000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>667900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1659700</v>
+        <v>2428700</v>
       </c>
       <c r="E60" s="3">
-        <v>2928900</v>
+        <v>1666600</v>
       </c>
       <c r="F60" s="3">
-        <v>2394000</v>
+        <v>2941200</v>
       </c>
       <c r="G60" s="3">
-        <v>1604600</v>
+        <v>2404100</v>
       </c>
       <c r="H60" s="3">
-        <v>1600000</v>
+        <v>1611400</v>
       </c>
       <c r="I60" s="3">
-        <v>1603300</v>
+        <v>1606700</v>
       </c>
       <c r="J60" s="3">
+        <v>1610000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1334400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1399200</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>2231200</v>
+        <v>1781900</v>
       </c>
       <c r="E61" s="3">
-        <v>1773400</v>
+        <v>2240600</v>
       </c>
       <c r="F61" s="3">
-        <v>2019800</v>
+        <v>1780900</v>
       </c>
       <c r="G61" s="3">
-        <v>1580700</v>
+        <v>2028300</v>
       </c>
       <c r="H61" s="3">
-        <v>1110900</v>
+        <v>1587300</v>
       </c>
       <c r="I61" s="3">
-        <v>945100</v>
+        <v>1115600</v>
       </c>
       <c r="J61" s="3">
+        <v>949100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1069500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>687900</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1366500</v>
+        <v>1232800</v>
       </c>
       <c r="E62" s="3">
-        <v>1286500</v>
+        <v>1372300</v>
       </c>
       <c r="F62" s="3">
-        <v>1171000</v>
+        <v>1292000</v>
       </c>
       <c r="G62" s="3">
-        <v>425000</v>
+        <v>1175900</v>
       </c>
       <c r="H62" s="3">
-        <v>223800</v>
+        <v>426800</v>
       </c>
       <c r="I62" s="3">
-        <v>254500</v>
+        <v>224800</v>
       </c>
       <c r="J62" s="3">
+        <v>255500</v>
+      </c>
+      <c r="K62" s="3">
         <v>365900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>120800</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2214,9 +2362,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2244,9 +2395,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2274,39 +2428,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>5272900</v>
+        <v>5457000</v>
       </c>
       <c r="E66" s="3">
-        <v>6020700</v>
+        <v>5295100</v>
       </c>
       <c r="F66" s="3">
-        <v>5656700</v>
+        <v>6046000</v>
       </c>
       <c r="G66" s="3">
-        <v>3677800</v>
+        <v>5680500</v>
       </c>
       <c r="H66" s="3">
-        <v>3062800</v>
+        <v>3693300</v>
       </c>
       <c r="I66" s="3">
-        <v>2946500</v>
+        <v>3075700</v>
       </c>
       <c r="J66" s="3">
+        <v>2958900</v>
+      </c>
+      <c r="K66" s="3">
         <v>2730600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2351000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2319,8 +2479,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2348,9 +2509,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2378,9 +2542,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2408,9 +2575,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2438,39 +2608,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>2048400</v>
+        <v>2042500</v>
       </c>
       <c r="E72" s="3">
-        <v>1598700</v>
+        <v>2057100</v>
       </c>
       <c r="F72" s="3">
-        <v>1585000</v>
+        <v>1605400</v>
       </c>
       <c r="G72" s="3">
-        <v>1686500</v>
+        <v>1591700</v>
       </c>
       <c r="H72" s="3">
-        <v>1474700</v>
+        <v>1693600</v>
       </c>
       <c r="I72" s="3">
-        <v>1274000</v>
+        <v>1480900</v>
       </c>
       <c r="J72" s="3">
+        <v>1279300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1872000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>798900</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2498,9 +2674,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2528,9 +2707,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2558,39 +2740,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>6853900</v>
+        <v>6907300</v>
       </c>
       <c r="E76" s="3">
-        <v>7087100</v>
+        <v>6882700</v>
       </c>
       <c r="F76" s="3">
-        <v>7203400</v>
+        <v>7116900</v>
       </c>
       <c r="G76" s="3">
-        <v>7543000</v>
+        <v>7233800</v>
       </c>
       <c r="H76" s="3">
-        <v>7355800</v>
+        <v>7574800</v>
       </c>
       <c r="I76" s="3">
-        <v>6829100</v>
+        <v>7386700</v>
       </c>
       <c r="J76" s="3">
+        <v>6857800</v>
+      </c>
+      <c r="K76" s="3">
         <v>6622600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6774300</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2618,74 +2806,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>235200</v>
+        <v>323700</v>
       </c>
       <c r="E81" s="3">
-        <v>320300</v>
+        <v>235900</v>
       </c>
       <c r="F81" s="3">
-        <v>276600</v>
+        <v>321100</v>
       </c>
       <c r="G81" s="3">
-        <v>447300</v>
+        <v>277300</v>
       </c>
       <c r="H81" s="3">
-        <v>369500</v>
+        <v>448500</v>
       </c>
       <c r="I81" s="3">
-        <v>420100</v>
+        <v>370500</v>
       </c>
       <c r="J81" s="3">
+        <v>421200</v>
+      </c>
+      <c r="K81" s="3">
         <v>113500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>215400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2698,38 +2895,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1731100</v>
+        <v>1647100</v>
       </c>
       <c r="E83" s="3">
-        <v>1766100</v>
+        <v>1735800</v>
       </c>
       <c r="F83" s="3">
-        <v>1729000</v>
+        <v>1770800</v>
       </c>
       <c r="G83" s="3">
-        <v>1512400</v>
+        <v>1733700</v>
       </c>
       <c r="H83" s="3">
-        <v>1352300</v>
+        <v>1516500</v>
       </c>
       <c r="I83" s="3">
-        <v>1278300</v>
+        <v>1355900</v>
       </c>
       <c r="J83" s="3">
+        <v>1281700</v>
+      </c>
+      <c r="K83" s="3">
         <v>1192100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1055600</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2757,9 +2958,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2787,9 +2991,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2817,9 +3024,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2847,9 +3057,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2877,39 +3090,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1694100</v>
+        <v>1831100</v>
       </c>
       <c r="E89" s="3">
-        <v>1745300</v>
+        <v>1698700</v>
       </c>
       <c r="F89" s="3">
-        <v>1544900</v>
+        <v>1750000</v>
       </c>
       <c r="G89" s="3">
-        <v>1988600</v>
+        <v>1549100</v>
       </c>
       <c r="H89" s="3">
-        <v>1489700</v>
+        <v>1993900</v>
       </c>
       <c r="I89" s="3">
-        <v>1445900</v>
+        <v>1493700</v>
       </c>
       <c r="J89" s="3">
+        <v>1449800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1343600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1358300</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2922,38 +3141,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-651600</v>
+        <v>-550900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1471300</v>
+        <v>-653300</v>
       </c>
       <c r="F91" s="3">
-        <v>-3045300</v>
+        <v>-1475300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2012400</v>
+        <v>-3053500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1438100</v>
+        <v>-2017800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1094600</v>
+        <v>-1442000</v>
       </c>
       <c r="J91" s="3">
+        <v>-1097600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1754100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1751400</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2981,9 +3204,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3011,39 +3237,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-515500</v>
+        <v>-1056600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1177900</v>
+        <v>-516900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2663700</v>
+        <v>-1181100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2277700</v>
+        <v>-2670900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1417100</v>
+        <v>-2283800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1048200</v>
+        <v>-1420900</v>
       </c>
       <c r="J94" s="3">
+        <v>-1051100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1633800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1797500</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3056,38 +3288,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-284600</v>
+        <v>-230500</v>
       </c>
       <c r="E96" s="3">
-        <v>-203000</v>
+        <v>-285400</v>
       </c>
       <c r="F96" s="3">
-        <v>-229700</v>
+        <v>-203500</v>
       </c>
       <c r="G96" s="3">
-        <v>-230800</v>
+        <v>-230300</v>
       </c>
       <c r="H96" s="3">
-        <v>-208000</v>
+        <v>-231400</v>
       </c>
       <c r="I96" s="3">
-        <v>-168300</v>
+        <v>-208500</v>
       </c>
       <c r="J96" s="3">
+        <v>-168800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-210100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-457100</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3115,9 +3351,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3145,9 +3384,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3175,97 +3417,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1113700</v>
+        <v>-329100</v>
       </c>
       <c r="E100" s="3">
-        <v>304700</v>
+        <v>-1116700</v>
       </c>
       <c r="F100" s="3">
-        <v>1290300</v>
+        <v>305500</v>
       </c>
       <c r="G100" s="3">
-        <v>500500</v>
+        <v>1293800</v>
       </c>
       <c r="H100" s="3">
-        <v>-274700</v>
+        <v>501900</v>
       </c>
       <c r="I100" s="3">
-        <v>-130500</v>
+        <v>-275400</v>
       </c>
       <c r="J100" s="3">
+        <v>-130900</v>
+      </c>
+      <c r="K100" s="3">
         <v>119300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>323600</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="E101" s="3">
         <v>1200</v>
       </c>
-      <c r="E101" s="3">
-        <v>-70700</v>
-      </c>
       <c r="F101" s="3">
-        <v>-29000</v>
+        <v>-70900</v>
       </c>
       <c r="G101" s="3">
-        <v>24000</v>
+        <v>-29100</v>
       </c>
       <c r="H101" s="3">
-        <v>48500</v>
+        <v>24100</v>
       </c>
       <c r="I101" s="3">
+        <v>48600</v>
+      </c>
+      <c r="J101" s="3">
         <v>10300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-47800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>43800</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>66100</v>
+        <v>394600</v>
       </c>
       <c r="E102" s="3">
-        <v>801400</v>
+        <v>66300</v>
       </c>
       <c r="F102" s="3">
-        <v>142600</v>
+        <v>803600</v>
       </c>
       <c r="G102" s="3">
-        <v>235400</v>
+        <v>143000</v>
       </c>
       <c r="H102" s="3">
-        <v>-153600</v>
+        <v>236100</v>
       </c>
       <c r="I102" s="3">
-        <v>277500</v>
+        <v>-154000</v>
       </c>
       <c r="J102" s="3">
+        <v>278200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-218600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-71800</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4942500</v>
+        <v>5049200</v>
       </c>
       <c r="E8" s="3">
-        <v>5044300</v>
+        <v>5153200</v>
       </c>
       <c r="F8" s="3">
-        <v>4978600</v>
+        <v>5086100</v>
       </c>
       <c r="G8" s="3">
-        <v>4931500</v>
+        <v>5037900</v>
       </c>
       <c r="H8" s="3">
-        <v>4830100</v>
+        <v>4934400</v>
       </c>
       <c r="I8" s="3">
-        <v>4669400</v>
+        <v>4770200</v>
       </c>
       <c r="J8" s="3">
-        <v>4129100</v>
+        <v>4218300</v>
       </c>
       <c r="K8" s="3">
         <v>3847300</v>
@@ -747,25 +747,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4231700</v>
+        <v>4323000</v>
       </c>
       <c r="E9" s="3">
-        <v>4282600</v>
+        <v>4375000</v>
       </c>
       <c r="F9" s="3">
-        <v>4076300</v>
+        <v>4164300</v>
       </c>
       <c r="G9" s="3">
-        <v>3918300</v>
+        <v>4002900</v>
       </c>
       <c r="H9" s="3">
-        <v>3770600</v>
+        <v>3852000</v>
       </c>
       <c r="I9" s="3">
-        <v>3607100</v>
+        <v>3685000</v>
       </c>
       <c r="J9" s="3">
-        <v>3343300</v>
+        <v>3415500</v>
       </c>
       <c r="K9" s="3">
         <v>6406800</v>
@@ -780,25 +780,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>710900</v>
+        <v>726200</v>
       </c>
       <c r="E10" s="3">
-        <v>761700</v>
+        <v>778200</v>
       </c>
       <c r="F10" s="3">
-        <v>902400</v>
+        <v>921900</v>
       </c>
       <c r="G10" s="3">
-        <v>1013200</v>
+        <v>1035000</v>
       </c>
       <c r="H10" s="3">
-        <v>1059500</v>
+        <v>1082400</v>
       </c>
       <c r="I10" s="3">
-        <v>1062300</v>
+        <v>1085200</v>
       </c>
       <c r="J10" s="3">
-        <v>785800</v>
+        <v>802800</v>
       </c>
       <c r="K10" s="3">
         <v>-2559500</v>
@@ -828,25 +828,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>395500</v>
+        <v>404100</v>
       </c>
       <c r="E12" s="3">
-        <v>434400</v>
+        <v>443800</v>
       </c>
       <c r="F12" s="3">
-        <v>455900</v>
+        <v>465700</v>
       </c>
       <c r="G12" s="3">
-        <v>451300</v>
+        <v>461000</v>
       </c>
       <c r="H12" s="3">
-        <v>406000</v>
+        <v>414800</v>
       </c>
       <c r="I12" s="3">
-        <v>455700</v>
+        <v>465500</v>
       </c>
       <c r="J12" s="3">
-        <v>416600</v>
+        <v>425600</v>
       </c>
       <c r="K12" s="3">
         <v>651000</v>
@@ -894,25 +894,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-1800</v>
+        <v>-4700</v>
       </c>
       <c r="E14" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F14" s="3">
-        <v>31500</v>
+        <v>32200</v>
       </c>
       <c r="G14" s="3">
-        <v>69300</v>
+        <v>55300</v>
       </c>
       <c r="H14" s="3">
-        <v>75600</v>
+        <v>42400</v>
       </c>
       <c r="I14" s="3">
-        <v>30100</v>
+        <v>30700</v>
       </c>
       <c r="J14" s="3">
-        <v>44400</v>
+        <v>45400</v>
       </c>
       <c r="K14" s="3">
         <v>236100</v>
@@ -972,25 +972,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4781300</v>
+        <v>4884500</v>
       </c>
       <c r="E17" s="3">
-        <v>4852500</v>
+        <v>4957200</v>
       </c>
       <c r="F17" s="3">
-        <v>4791100</v>
+        <v>4894600</v>
       </c>
       <c r="G17" s="3">
-        <v>4779000</v>
+        <v>4882200</v>
       </c>
       <c r="H17" s="3">
-        <v>4510300</v>
+        <v>4607600</v>
       </c>
       <c r="I17" s="3">
-        <v>4343500</v>
+        <v>4437300</v>
       </c>
       <c r="J17" s="3">
-        <v>4037200</v>
+        <v>4124400</v>
       </c>
       <c r="K17" s="3">
         <v>3849100</v>
@@ -1005,25 +1005,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>161300</v>
+        <v>164800</v>
       </c>
       <c r="E18" s="3">
-        <v>191800</v>
+        <v>195900</v>
       </c>
       <c r="F18" s="3">
-        <v>187500</v>
+        <v>191600</v>
       </c>
       <c r="G18" s="3">
-        <v>152400</v>
+        <v>155700</v>
       </c>
       <c r="H18" s="3">
-        <v>319800</v>
+        <v>326700</v>
       </c>
       <c r="I18" s="3">
-        <v>325900</v>
+        <v>332900</v>
       </c>
       <c r="J18" s="3">
-        <v>91900</v>
+        <v>93900</v>
       </c>
       <c r="K18" s="3">
         <v>-1800</v>
@@ -1053,25 +1053,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>127900</v>
+        <v>130600</v>
       </c>
       <c r="E20" s="3">
-        <v>-26600</v>
+        <v>-27200</v>
       </c>
       <c r="F20" s="3">
-        <v>152800</v>
+        <v>156100</v>
       </c>
       <c r="G20" s="3">
-        <v>50900</v>
+        <v>52000</v>
       </c>
       <c r="H20" s="3">
-        <v>153200</v>
+        <v>156500</v>
       </c>
       <c r="I20" s="3">
-        <v>151600</v>
+        <v>154900</v>
       </c>
       <c r="J20" s="3">
-        <v>409700</v>
+        <v>418500</v>
       </c>
       <c r="K20" s="3">
         <v>249700</v>
@@ -1086,25 +1086,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1933800</v>
+        <v>1977600</v>
       </c>
       <c r="E21" s="3">
-        <v>1898400</v>
+        <v>1941500</v>
       </c>
       <c r="F21" s="3">
-        <v>2108500</v>
+        <v>2156200</v>
       </c>
       <c r="G21" s="3">
-        <v>1934400</v>
+        <v>1978300</v>
       </c>
       <c r="H21" s="3">
-        <v>1987200</v>
+        <v>2032000</v>
       </c>
       <c r="I21" s="3">
-        <v>1831400</v>
+        <v>1872600</v>
       </c>
       <c r="J21" s="3">
-        <v>1781400</v>
+        <v>1821400</v>
       </c>
       <c r="K21" s="3">
         <v>1442200</v>
@@ -1119,25 +1119,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>97800</v>
+        <v>100000</v>
       </c>
       <c r="E22" s="3">
-        <v>92300</v>
+        <v>94300</v>
       </c>
       <c r="F22" s="3">
-        <v>80300</v>
+        <v>82000</v>
       </c>
       <c r="G22" s="3">
-        <v>41700</v>
+        <v>42600</v>
       </c>
       <c r="H22" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="I22" s="3">
-        <v>24900</v>
+        <v>25400</v>
       </c>
       <c r="J22" s="3">
-        <v>22600</v>
+        <v>23100</v>
       </c>
       <c r="K22" s="3">
         <v>35800</v>
@@ -1152,25 +1152,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>191300</v>
+        <v>195400</v>
       </c>
       <c r="E23" s="3">
-        <v>72800</v>
+        <v>74400</v>
       </c>
       <c r="F23" s="3">
-        <v>260100</v>
+        <v>265700</v>
       </c>
       <c r="G23" s="3">
-        <v>161600</v>
+        <v>165100</v>
       </c>
       <c r="H23" s="3">
-        <v>457300</v>
+        <v>467200</v>
       </c>
       <c r="I23" s="3">
-        <v>452600</v>
+        <v>462400</v>
       </c>
       <c r="J23" s="3">
-        <v>479000</v>
+        <v>489300</v>
       </c>
       <c r="K23" s="3">
         <v>212100</v>
@@ -1185,25 +1185,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-13100</v>
+        <v>-13400</v>
       </c>
       <c r="E24" s="3">
-        <v>-15300</v>
+        <v>-15600</v>
       </c>
       <c r="F24" s="3">
-        <v>38900</v>
+        <v>39800</v>
       </c>
       <c r="G24" s="3">
-        <v>32800</v>
+        <v>33500</v>
       </c>
       <c r="H24" s="3">
-        <v>29200</v>
+        <v>29900</v>
       </c>
       <c r="I24" s="3">
-        <v>104200</v>
+        <v>106500</v>
       </c>
       <c r="J24" s="3">
-        <v>75300</v>
+        <v>76900</v>
       </c>
       <c r="K24" s="3">
         <v>71400</v>
@@ -1251,25 +1251,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>204400</v>
+        <v>208800</v>
       </c>
       <c r="E26" s="3">
-        <v>88100</v>
+        <v>90000</v>
       </c>
       <c r="F26" s="3">
-        <v>221200</v>
+        <v>225900</v>
       </c>
       <c r="G26" s="3">
-        <v>128800</v>
+        <v>131600</v>
       </c>
       <c r="H26" s="3">
-        <v>428100</v>
+        <v>437300</v>
       </c>
       <c r="I26" s="3">
-        <v>348400</v>
+        <v>355900</v>
       </c>
       <c r="J26" s="3">
-        <v>403700</v>
+        <v>412400</v>
       </c>
       <c r="K26" s="3">
         <v>140700</v>
@@ -1284,25 +1284,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>323700</v>
+        <v>330700</v>
       </c>
       <c r="E27" s="3">
-        <v>235900</v>
+        <v>241000</v>
       </c>
       <c r="F27" s="3">
-        <v>321100</v>
+        <v>328100</v>
       </c>
       <c r="G27" s="3">
-        <v>277300</v>
+        <v>283300</v>
       </c>
       <c r="H27" s="3">
-        <v>448500</v>
+        <v>458200</v>
       </c>
       <c r="I27" s="3">
-        <v>370500</v>
+        <v>378500</v>
       </c>
       <c r="J27" s="3">
-        <v>421200</v>
+        <v>430300</v>
       </c>
       <c r="K27" s="3">
         <v>113500</v>
@@ -1449,25 +1449,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-127900</v>
+        <v>-130600</v>
       </c>
       <c r="E32" s="3">
-        <v>26600</v>
+        <v>27200</v>
       </c>
       <c r="F32" s="3">
-        <v>-152800</v>
+        <v>-156100</v>
       </c>
       <c r="G32" s="3">
-        <v>-50900</v>
+        <v>-52000</v>
       </c>
       <c r="H32" s="3">
-        <v>-153200</v>
+        <v>-156500</v>
       </c>
       <c r="I32" s="3">
-        <v>-151600</v>
+        <v>-154900</v>
       </c>
       <c r="J32" s="3">
-        <v>-409700</v>
+        <v>-418500</v>
       </c>
       <c r="K32" s="3">
         <v>-249700</v>
@@ -1482,25 +1482,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>323700</v>
+        <v>330700</v>
       </c>
       <c r="E33" s="3">
-        <v>235900</v>
+        <v>241000</v>
       </c>
       <c r="F33" s="3">
-        <v>321100</v>
+        <v>328100</v>
       </c>
       <c r="G33" s="3">
-        <v>277300</v>
+        <v>283300</v>
       </c>
       <c r="H33" s="3">
-        <v>448500</v>
+        <v>458200</v>
       </c>
       <c r="I33" s="3">
-        <v>370500</v>
+        <v>378500</v>
       </c>
       <c r="J33" s="3">
-        <v>421200</v>
+        <v>430300</v>
       </c>
       <c r="K33" s="3">
         <v>113500</v>
@@ -1548,25 +1548,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>323700</v>
+        <v>330700</v>
       </c>
       <c r="E35" s="3">
-        <v>235900</v>
+        <v>241000</v>
       </c>
       <c r="F35" s="3">
-        <v>321100</v>
+        <v>328100</v>
       </c>
       <c r="G35" s="3">
-        <v>277300</v>
+        <v>283300</v>
       </c>
       <c r="H35" s="3">
-        <v>448500</v>
+        <v>458200</v>
       </c>
       <c r="I35" s="3">
-        <v>370500</v>
+        <v>378500</v>
       </c>
       <c r="J35" s="3">
-        <v>421200</v>
+        <v>430300</v>
       </c>
       <c r="K35" s="3">
         <v>113500</v>
@@ -1649,25 +1649,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3189400</v>
+        <v>3253400</v>
       </c>
       <c r="E41" s="3">
-        <v>2794300</v>
+        <v>2850400</v>
       </c>
       <c r="F41" s="3">
-        <v>2727900</v>
+        <v>2782700</v>
       </c>
       <c r="G41" s="3">
-        <v>1923100</v>
+        <v>1961700</v>
       </c>
       <c r="H41" s="3">
-        <v>1779900</v>
+        <v>1815600</v>
       </c>
       <c r="I41" s="3">
-        <v>1526400</v>
+        <v>1557000</v>
       </c>
       <c r="J41" s="3">
-        <v>1697700</v>
+        <v>1731800</v>
       </c>
       <c r="K41" s="3">
         <v>1565800</v>
@@ -1682,25 +1682,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>24100</v>
+        <v>24600</v>
       </c>
       <c r="E42" s="3">
-        <v>17700</v>
+        <v>18000</v>
       </c>
       <c r="F42" s="3">
-        <v>23900</v>
+        <v>24400</v>
       </c>
       <c r="G42" s="3">
-        <v>23900</v>
+        <v>24300</v>
       </c>
       <c r="H42" s="3">
-        <v>22200</v>
+        <v>22700</v>
       </c>
       <c r="I42" s="3">
-        <v>24700</v>
+        <v>25200</v>
       </c>
       <c r="J42" s="3">
-        <v>92400</v>
+        <v>94300</v>
       </c>
       <c r="K42" s="3">
         <v>1595700</v>
@@ -1715,25 +1715,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>889200</v>
+        <v>907100</v>
       </c>
       <c r="E43" s="3">
-        <v>824900</v>
+        <v>841400</v>
       </c>
       <c r="F43" s="3">
-        <v>756700</v>
+        <v>771900</v>
       </c>
       <c r="G43" s="3">
-        <v>801700</v>
+        <v>817800</v>
       </c>
       <c r="H43" s="3">
-        <v>667600</v>
+        <v>681000</v>
       </c>
       <c r="I43" s="3">
-        <v>770300</v>
+        <v>785700</v>
       </c>
       <c r="J43" s="3">
-        <v>588000</v>
+        <v>599800</v>
       </c>
       <c r="K43" s="3">
         <v>1142100</v>
@@ -1748,25 +1748,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>725300</v>
+        <v>739800</v>
       </c>
       <c r="E44" s="3">
-        <v>608000</v>
+        <v>620200</v>
       </c>
       <c r="F44" s="3">
-        <v>609800</v>
+        <v>622000</v>
       </c>
       <c r="G44" s="3">
-        <v>567700</v>
+        <v>579100</v>
       </c>
       <c r="H44" s="3">
-        <v>589200</v>
+        <v>601000</v>
       </c>
       <c r="I44" s="3">
-        <v>457100</v>
+        <v>466300</v>
       </c>
       <c r="J44" s="3">
-        <v>467400</v>
+        <v>476800</v>
       </c>
       <c r="K44" s="3">
         <v>866300</v>
@@ -1781,25 +1781,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>307400</v>
+        <v>313600</v>
       </c>
       <c r="E45" s="3">
-        <v>471100</v>
+        <v>480500</v>
       </c>
       <c r="F45" s="3">
-        <v>529500</v>
+        <v>540200</v>
       </c>
       <c r="G45" s="3">
-        <v>373300</v>
+        <v>380800</v>
       </c>
       <c r="H45" s="3">
-        <v>107900</v>
+        <v>110100</v>
       </c>
       <c r="I45" s="3">
-        <v>404700</v>
+        <v>412800</v>
       </c>
       <c r="J45" s="3">
-        <v>120300</v>
+        <v>122700</v>
       </c>
       <c r="K45" s="3">
         <v>183000</v>
@@ -1814,25 +1814,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5135500</v>
+        <v>5238500</v>
       </c>
       <c r="E46" s="3">
-        <v>4715900</v>
+        <v>4810500</v>
       </c>
       <c r="F46" s="3">
-        <v>4648000</v>
+        <v>4741200</v>
       </c>
       <c r="G46" s="3">
-        <v>3689700</v>
+        <v>3763700</v>
       </c>
       <c r="H46" s="3">
-        <v>3166900</v>
+        <v>3230400</v>
       </c>
       <c r="I46" s="3">
-        <v>3235200</v>
+        <v>3300100</v>
       </c>
       <c r="J46" s="3">
-        <v>2965800</v>
+        <v>3025300</v>
       </c>
       <c r="K46" s="3">
         <v>2661700</v>
@@ -1847,25 +1847,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1380900</v>
+        <v>1408600</v>
       </c>
       <c r="E47" s="3">
-        <v>1119100</v>
+        <v>1141500</v>
       </c>
       <c r="F47" s="3">
-        <v>1136400</v>
+        <v>1159200</v>
       </c>
       <c r="G47" s="3">
-        <v>1161200</v>
+        <v>1184500</v>
       </c>
       <c r="H47" s="3">
-        <v>1341000</v>
+        <v>1367900</v>
       </c>
       <c r="I47" s="3">
-        <v>2065500</v>
+        <v>2106900</v>
       </c>
       <c r="J47" s="3">
-        <v>1006100</v>
+        <v>1026300</v>
       </c>
       <c r="K47" s="3">
         <v>2310700</v>
@@ -1880,25 +1880,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>5306700</v>
+        <v>5413200</v>
       </c>
       <c r="E48" s="3">
-        <v>5795200</v>
+        <v>5911400</v>
       </c>
       <c r="F48" s="3">
-        <v>6881300</v>
+        <v>7019400</v>
       </c>
       <c r="G48" s="3">
-        <v>7553800</v>
+        <v>7705300</v>
       </c>
       <c r="H48" s="3">
-        <v>6304800</v>
+        <v>6431300</v>
       </c>
       <c r="I48" s="3">
-        <v>5603000</v>
+        <v>5715400</v>
       </c>
       <c r="J48" s="3">
-        <v>10858900</v>
+        <v>11076700</v>
       </c>
       <c r="K48" s="3">
         <v>10614700</v>
@@ -1913,25 +1913,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>173600</v>
+        <v>177100</v>
       </c>
       <c r="E49" s="3">
-        <v>99900</v>
+        <v>101900</v>
       </c>
       <c r="F49" s="3">
-        <v>126500</v>
+        <v>129000</v>
       </c>
       <c r="G49" s="3">
-        <v>136500</v>
+        <v>139300</v>
       </c>
       <c r="H49" s="3">
-        <v>150400</v>
+        <v>153500</v>
       </c>
       <c r="I49" s="3">
-        <v>151400</v>
+        <v>154400</v>
       </c>
       <c r="J49" s="3">
-        <v>316600</v>
+        <v>323000</v>
       </c>
       <c r="K49" s="3">
         <v>138200</v>
@@ -2012,25 +2012,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>367500</v>
+        <v>374900</v>
       </c>
       <c r="E52" s="3">
-        <v>447800</v>
+        <v>456800</v>
       </c>
       <c r="F52" s="3">
-        <v>370800</v>
+        <v>378200</v>
       </c>
       <c r="G52" s="3">
-        <v>373000</v>
+        <v>380500</v>
       </c>
       <c r="H52" s="3">
-        <v>304900</v>
+        <v>311000</v>
       </c>
       <c r="I52" s="3">
-        <v>221000</v>
+        <v>225500</v>
       </c>
       <c r="J52" s="3">
-        <v>250300</v>
+        <v>255300</v>
       </c>
       <c r="K52" s="3">
         <v>281300</v>
@@ -2078,25 +2078,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>12364300</v>
+        <v>12612300</v>
       </c>
       <c r="E54" s="3">
-        <v>12177800</v>
+        <v>12422100</v>
       </c>
       <c r="F54" s="3">
-        <v>13162900</v>
+        <v>13427000</v>
       </c>
       <c r="G54" s="3">
-        <v>12914300</v>
+        <v>13173300</v>
       </c>
       <c r="H54" s="3">
-        <v>11268100</v>
+        <v>11494100</v>
       </c>
       <c r="I54" s="3">
-        <v>10462400</v>
+        <v>10672300</v>
       </c>
       <c r="J54" s="3">
-        <v>9816700</v>
+        <v>10013600</v>
       </c>
       <c r="K54" s="3">
         <v>9353200</v>
@@ -2141,25 +2141,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>296500</v>
+        <v>302400</v>
       </c>
       <c r="E57" s="3">
-        <v>227200</v>
+        <v>231700</v>
       </c>
       <c r="F57" s="3">
-        <v>218300</v>
+        <v>222700</v>
       </c>
       <c r="G57" s="3">
-        <v>229000</v>
+        <v>233500</v>
       </c>
       <c r="H57" s="3">
-        <v>198900</v>
+        <v>202900</v>
       </c>
       <c r="I57" s="3">
-        <v>206000</v>
+        <v>210100</v>
       </c>
       <c r="J57" s="3">
-        <v>247600</v>
+        <v>252600</v>
       </c>
       <c r="K57" s="3">
         <v>416800</v>
@@ -2174,25 +2174,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1248500</v>
+        <v>1273600</v>
       </c>
       <c r="E58" s="3">
-        <v>608700</v>
+        <v>620900</v>
       </c>
       <c r="F58" s="3">
-        <v>1763800</v>
+        <v>1799200</v>
       </c>
       <c r="G58" s="3">
-        <v>1037100</v>
+        <v>1057900</v>
       </c>
       <c r="H58" s="3">
-        <v>404400</v>
+        <v>412500</v>
       </c>
       <c r="I58" s="3">
-        <v>334900</v>
+        <v>341600</v>
       </c>
       <c r="J58" s="3">
-        <v>707700</v>
+        <v>721900</v>
       </c>
       <c r="K58" s="3">
         <v>975200</v>
@@ -2207,25 +2207,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>883600</v>
+        <v>901400</v>
       </c>
       <c r="E59" s="3">
-        <v>830700</v>
+        <v>847400</v>
       </c>
       <c r="F59" s="3">
-        <v>959100</v>
+        <v>978400</v>
       </c>
       <c r="G59" s="3">
-        <v>1138000</v>
+        <v>1160800</v>
       </c>
       <c r="H59" s="3">
-        <v>1008200</v>
+        <v>1028400</v>
       </c>
       <c r="I59" s="3">
-        <v>1065900</v>
+        <v>1087300</v>
       </c>
       <c r="J59" s="3">
-        <v>654700</v>
+        <v>667900</v>
       </c>
       <c r="K59" s="3">
         <v>1274000</v>
@@ -2240,25 +2240,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2428700</v>
+        <v>2477400</v>
       </c>
       <c r="E60" s="3">
-        <v>1666600</v>
+        <v>1700100</v>
       </c>
       <c r="F60" s="3">
-        <v>2941200</v>
+        <v>3000200</v>
       </c>
       <c r="G60" s="3">
-        <v>2404100</v>
+        <v>2452300</v>
       </c>
       <c r="H60" s="3">
-        <v>1611400</v>
+        <v>1643700</v>
       </c>
       <c r="I60" s="3">
-        <v>1606700</v>
+        <v>1639000</v>
       </c>
       <c r="J60" s="3">
-        <v>1610000</v>
+        <v>1642300</v>
       </c>
       <c r="K60" s="3">
         <v>1334400</v>
@@ -2273,25 +2273,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1781900</v>
+        <v>1817600</v>
       </c>
       <c r="E61" s="3">
-        <v>2240600</v>
+        <v>2285500</v>
       </c>
       <c r="F61" s="3">
-        <v>1780900</v>
+        <v>1816600</v>
       </c>
       <c r="G61" s="3">
-        <v>2028300</v>
+        <v>2069000</v>
       </c>
       <c r="H61" s="3">
-        <v>1587300</v>
+        <v>1619200</v>
       </c>
       <c r="I61" s="3">
-        <v>1115600</v>
+        <v>1138000</v>
       </c>
       <c r="J61" s="3">
-        <v>949100</v>
+        <v>968100</v>
       </c>
       <c r="K61" s="3">
         <v>1069500</v>
@@ -2306,25 +2306,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1232800</v>
+        <v>1257500</v>
       </c>
       <c r="E62" s="3">
-        <v>1372300</v>
+        <v>1399800</v>
       </c>
       <c r="F62" s="3">
-        <v>1292000</v>
+        <v>1317900</v>
       </c>
       <c r="G62" s="3">
-        <v>1175900</v>
+        <v>1199500</v>
       </c>
       <c r="H62" s="3">
-        <v>426800</v>
+        <v>435400</v>
       </c>
       <c r="I62" s="3">
-        <v>224800</v>
+        <v>229300</v>
       </c>
       <c r="J62" s="3">
-        <v>255500</v>
+        <v>260700</v>
       </c>
       <c r="K62" s="3">
         <v>365900</v>
@@ -2438,25 +2438,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>5457000</v>
+        <v>5566500</v>
       </c>
       <c r="E66" s="3">
-        <v>5295100</v>
+        <v>5401300</v>
       </c>
       <c r="F66" s="3">
-        <v>6046000</v>
+        <v>6167300</v>
       </c>
       <c r="G66" s="3">
-        <v>5680500</v>
+        <v>5794500</v>
       </c>
       <c r="H66" s="3">
-        <v>3693300</v>
+        <v>3767300</v>
       </c>
       <c r="I66" s="3">
-        <v>3075700</v>
+        <v>3137400</v>
       </c>
       <c r="J66" s="3">
-        <v>2958900</v>
+        <v>3018300</v>
       </c>
       <c r="K66" s="3">
         <v>2730600</v>
@@ -2618,25 +2618,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>2042500</v>
+        <v>2083500</v>
       </c>
       <c r="E72" s="3">
-        <v>2057100</v>
+        <v>2098300</v>
       </c>
       <c r="F72" s="3">
-        <v>1605400</v>
+        <v>1637600</v>
       </c>
       <c r="G72" s="3">
-        <v>1591700</v>
+        <v>1623600</v>
       </c>
       <c r="H72" s="3">
-        <v>1693600</v>
+        <v>1727600</v>
       </c>
       <c r="I72" s="3">
-        <v>1480900</v>
+        <v>1510600</v>
       </c>
       <c r="J72" s="3">
-        <v>1279300</v>
+        <v>1305000</v>
       </c>
       <c r="K72" s="3">
         <v>1872000</v>
@@ -2750,25 +2750,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>6907300</v>
+        <v>7045800</v>
       </c>
       <c r="E76" s="3">
-        <v>6882700</v>
+        <v>7020800</v>
       </c>
       <c r="F76" s="3">
-        <v>7116900</v>
+        <v>7259700</v>
       </c>
       <c r="G76" s="3">
-        <v>7233800</v>
+        <v>7378900</v>
       </c>
       <c r="H76" s="3">
-        <v>7574800</v>
+        <v>7726700</v>
       </c>
       <c r="I76" s="3">
-        <v>7386700</v>
+        <v>7534900</v>
       </c>
       <c r="J76" s="3">
-        <v>6857800</v>
+        <v>6995400</v>
       </c>
       <c r="K76" s="3">
         <v>6622600</v>
@@ -2854,25 +2854,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>323700</v>
+        <v>330700</v>
       </c>
       <c r="E81" s="3">
-        <v>235900</v>
+        <v>241000</v>
       </c>
       <c r="F81" s="3">
-        <v>321100</v>
+        <v>328100</v>
       </c>
       <c r="G81" s="3">
-        <v>277300</v>
+        <v>283300</v>
       </c>
       <c r="H81" s="3">
-        <v>448500</v>
+        <v>458200</v>
       </c>
       <c r="I81" s="3">
-        <v>370500</v>
+        <v>378500</v>
       </c>
       <c r="J81" s="3">
-        <v>421200</v>
+        <v>430300</v>
       </c>
       <c r="K81" s="3">
         <v>113500</v>
@@ -2902,25 +2902,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1647100</v>
+        <v>1682700</v>
       </c>
       <c r="E83" s="3">
-        <v>1735800</v>
+        <v>1773300</v>
       </c>
       <c r="F83" s="3">
-        <v>1770800</v>
+        <v>1809100</v>
       </c>
       <c r="G83" s="3">
-        <v>1733700</v>
+        <v>1771100</v>
       </c>
       <c r="H83" s="3">
-        <v>1516500</v>
+        <v>1549200</v>
       </c>
       <c r="I83" s="3">
-        <v>1355900</v>
+        <v>1385200</v>
       </c>
       <c r="J83" s="3">
-        <v>1281700</v>
+        <v>1309400</v>
       </c>
       <c r="K83" s="3">
         <v>1192100</v>
@@ -3100,25 +3100,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1831100</v>
+        <v>1870600</v>
       </c>
       <c r="E89" s="3">
-        <v>1698700</v>
+        <v>1735400</v>
       </c>
       <c r="F89" s="3">
-        <v>1750000</v>
+        <v>1787800</v>
       </c>
       <c r="G89" s="3">
-        <v>1549100</v>
+        <v>1582600</v>
       </c>
       <c r="H89" s="3">
-        <v>1993900</v>
+        <v>2037000</v>
       </c>
       <c r="I89" s="3">
-        <v>1493700</v>
+        <v>1525900</v>
       </c>
       <c r="J89" s="3">
-        <v>1449800</v>
+        <v>1481100</v>
       </c>
       <c r="K89" s="3">
         <v>1343600</v>
@@ -3148,25 +3148,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-550900</v>
+        <v>-562800</v>
       </c>
       <c r="E91" s="3">
-        <v>-653300</v>
+        <v>-667400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1475300</v>
+        <v>-1507100</v>
       </c>
       <c r="G91" s="3">
-        <v>-3053500</v>
+        <v>-3119500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2017800</v>
+        <v>-2061400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1442000</v>
+        <v>-1473100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1097600</v>
+        <v>-1121300</v>
       </c>
       <c r="K91" s="3">
         <v>-1754100</v>
@@ -3247,25 +3247,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1056600</v>
+        <v>-1079400</v>
       </c>
       <c r="E94" s="3">
-        <v>-516900</v>
+        <v>-528100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1181100</v>
+        <v>-1206600</v>
       </c>
       <c r="G94" s="3">
-        <v>-2670900</v>
+        <v>-2728500</v>
       </c>
       <c r="H94" s="3">
-        <v>-2283800</v>
+        <v>-2333200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1420900</v>
+        <v>-1451600</v>
       </c>
       <c r="J94" s="3">
-        <v>-1051100</v>
+        <v>-1073800</v>
       </c>
       <c r="K94" s="3">
         <v>-1633800</v>
@@ -3295,25 +3295,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-230500</v>
+        <v>-235500</v>
       </c>
       <c r="E96" s="3">
-        <v>-285400</v>
+        <v>-291600</v>
       </c>
       <c r="F96" s="3">
-        <v>-203500</v>
+        <v>-207900</v>
       </c>
       <c r="G96" s="3">
-        <v>-230300</v>
+        <v>-235300</v>
       </c>
       <c r="H96" s="3">
-        <v>-231400</v>
+        <v>-236400</v>
       </c>
       <c r="I96" s="3">
-        <v>-208500</v>
+        <v>-213000</v>
       </c>
       <c r="J96" s="3">
-        <v>-168800</v>
+        <v>-172400</v>
       </c>
       <c r="K96" s="3">
         <v>-210100</v>
@@ -3427,25 +3427,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-329100</v>
+        <v>-336200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1116700</v>
+        <v>-1140800</v>
       </c>
       <c r="F100" s="3">
-        <v>305500</v>
+        <v>312100</v>
       </c>
       <c r="G100" s="3">
-        <v>1293800</v>
+        <v>1321800</v>
       </c>
       <c r="H100" s="3">
-        <v>501900</v>
+        <v>512700</v>
       </c>
       <c r="I100" s="3">
-        <v>-275400</v>
+        <v>-281300</v>
       </c>
       <c r="J100" s="3">
-        <v>-130900</v>
+        <v>-133700</v>
       </c>
       <c r="K100" s="3">
         <v>119300</v>
@@ -3460,25 +3460,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-50900</v>
+        <v>-52000</v>
       </c>
       <c r="E101" s="3">
         <v>1200</v>
       </c>
       <c r="F101" s="3">
-        <v>-70900</v>
+        <v>-72400</v>
       </c>
       <c r="G101" s="3">
-        <v>-29100</v>
+        <v>-29700</v>
       </c>
       <c r="H101" s="3">
-        <v>24100</v>
+        <v>24600</v>
       </c>
       <c r="I101" s="3">
-        <v>48600</v>
+        <v>49600</v>
       </c>
       <c r="J101" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="K101" s="3">
         <v>-47800</v>
@@ -3493,25 +3493,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>394600</v>
+        <v>403100</v>
       </c>
       <c r="E102" s="3">
-        <v>66300</v>
+        <v>67700</v>
       </c>
       <c r="F102" s="3">
-        <v>803600</v>
+        <v>820900</v>
       </c>
       <c r="G102" s="3">
-        <v>143000</v>
+        <v>146100</v>
       </c>
       <c r="H102" s="3">
-        <v>236100</v>
+        <v>241100</v>
       </c>
       <c r="I102" s="3">
-        <v>-154000</v>
+        <v>-157300</v>
       </c>
       <c r="J102" s="3">
-        <v>278200</v>
+        <v>284200</v>
       </c>
       <c r="K102" s="3">
         <v>-218600</v>

--- a/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5049200</v>
+        <v>5198900</v>
       </c>
       <c r="E8" s="3">
-        <v>5153200</v>
+        <v>5305900</v>
       </c>
       <c r="F8" s="3">
-        <v>5086100</v>
+        <v>5236900</v>
       </c>
       <c r="G8" s="3">
-        <v>5037900</v>
+        <v>5187300</v>
       </c>
       <c r="H8" s="3">
-        <v>4934400</v>
+        <v>5080700</v>
       </c>
       <c r="I8" s="3">
-        <v>4770200</v>
+        <v>4911600</v>
       </c>
       <c r="J8" s="3">
-        <v>4218300</v>
+        <v>4343300</v>
       </c>
       <c r="K8" s="3">
         <v>3847300</v>
@@ -747,25 +747,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4323000</v>
+        <v>4451200</v>
       </c>
       <c r="E9" s="3">
-        <v>4375000</v>
+        <v>4504700</v>
       </c>
       <c r="F9" s="3">
-        <v>4164300</v>
+        <v>4287700</v>
       </c>
       <c r="G9" s="3">
-        <v>4002900</v>
+        <v>4121600</v>
       </c>
       <c r="H9" s="3">
-        <v>3852000</v>
+        <v>3966200</v>
       </c>
       <c r="I9" s="3">
-        <v>3685000</v>
+        <v>3794200</v>
       </c>
       <c r="J9" s="3">
-        <v>3415500</v>
+        <v>3516700</v>
       </c>
       <c r="K9" s="3">
         <v>6406800</v>
@@ -780,25 +780,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>726200</v>
+        <v>747700</v>
       </c>
       <c r="E10" s="3">
-        <v>778200</v>
+        <v>801200</v>
       </c>
       <c r="F10" s="3">
-        <v>921900</v>
+        <v>949200</v>
       </c>
       <c r="G10" s="3">
-        <v>1035000</v>
+        <v>1065700</v>
       </c>
       <c r="H10" s="3">
-        <v>1082400</v>
+        <v>1114400</v>
       </c>
       <c r="I10" s="3">
-        <v>1085200</v>
+        <v>1117400</v>
       </c>
       <c r="J10" s="3">
-        <v>802800</v>
+        <v>826600</v>
       </c>
       <c r="K10" s="3">
         <v>-2559500</v>
@@ -828,25 +828,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>404100</v>
+        <v>416100</v>
       </c>
       <c r="E12" s="3">
-        <v>443800</v>
+        <v>456900</v>
       </c>
       <c r="F12" s="3">
-        <v>465700</v>
+        <v>479500</v>
       </c>
       <c r="G12" s="3">
-        <v>461000</v>
+        <v>474700</v>
       </c>
       <c r="H12" s="3">
-        <v>414800</v>
+        <v>427100</v>
       </c>
       <c r="I12" s="3">
-        <v>465500</v>
+        <v>479300</v>
       </c>
       <c r="J12" s="3">
-        <v>425600</v>
+        <v>438300</v>
       </c>
       <c r="K12" s="3">
         <v>651000</v>
@@ -894,25 +894,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="E14" s="3">
         <v>1600</v>
       </c>
       <c r="F14" s="3">
-        <v>32200</v>
+        <v>33200</v>
       </c>
       <c r="G14" s="3">
-        <v>55300</v>
+        <v>56900</v>
       </c>
       <c r="H14" s="3">
-        <v>42400</v>
+        <v>43700</v>
       </c>
       <c r="I14" s="3">
-        <v>30700</v>
+        <v>31600</v>
       </c>
       <c r="J14" s="3">
-        <v>45400</v>
+        <v>46800</v>
       </c>
       <c r="K14" s="3">
         <v>236100</v>
@@ -972,25 +972,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4884500</v>
+        <v>5029300</v>
       </c>
       <c r="E17" s="3">
-        <v>4957200</v>
+        <v>5104200</v>
       </c>
       <c r="F17" s="3">
-        <v>4894600</v>
+        <v>5039600</v>
       </c>
       <c r="G17" s="3">
-        <v>4882200</v>
+        <v>5026900</v>
       </c>
       <c r="H17" s="3">
-        <v>4607600</v>
+        <v>4744200</v>
       </c>
       <c r="I17" s="3">
-        <v>4437300</v>
+        <v>4568800</v>
       </c>
       <c r="J17" s="3">
-        <v>4124400</v>
+        <v>4246600</v>
       </c>
       <c r="K17" s="3">
         <v>3849100</v>
@@ -1005,25 +1005,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>164800</v>
+        <v>169600</v>
       </c>
       <c r="E18" s="3">
-        <v>195900</v>
+        <v>201700</v>
       </c>
       <c r="F18" s="3">
-        <v>191600</v>
+        <v>197300</v>
       </c>
       <c r="G18" s="3">
-        <v>155700</v>
+        <v>160400</v>
       </c>
       <c r="H18" s="3">
-        <v>326700</v>
+        <v>336400</v>
       </c>
       <c r="I18" s="3">
-        <v>332900</v>
+        <v>342800</v>
       </c>
       <c r="J18" s="3">
-        <v>93900</v>
+        <v>96700</v>
       </c>
       <c r="K18" s="3">
         <v>-1800</v>
@@ -1053,25 +1053,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>130600</v>
+        <v>134500</v>
       </c>
       <c r="E20" s="3">
-        <v>-27200</v>
+        <v>-28000</v>
       </c>
       <c r="F20" s="3">
-        <v>156100</v>
+        <v>160700</v>
       </c>
       <c r="G20" s="3">
-        <v>52000</v>
+        <v>53500</v>
       </c>
       <c r="H20" s="3">
-        <v>156500</v>
+        <v>161100</v>
       </c>
       <c r="I20" s="3">
-        <v>154900</v>
+        <v>159500</v>
       </c>
       <c r="J20" s="3">
-        <v>418500</v>
+        <v>430900</v>
       </c>
       <c r="K20" s="3">
         <v>249700</v>
@@ -1086,25 +1086,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1977600</v>
+        <v>2037200</v>
       </c>
       <c r="E21" s="3">
-        <v>1941500</v>
+        <v>2000100</v>
       </c>
       <c r="F21" s="3">
-        <v>2156200</v>
+        <v>2221200</v>
       </c>
       <c r="G21" s="3">
-        <v>1978300</v>
+        <v>2038000</v>
       </c>
       <c r="H21" s="3">
-        <v>2032000</v>
+        <v>2093100</v>
       </c>
       <c r="I21" s="3">
-        <v>1872600</v>
+        <v>1929000</v>
       </c>
       <c r="J21" s="3">
-        <v>1821400</v>
+        <v>1876200</v>
       </c>
       <c r="K21" s="3">
         <v>1442200</v>
@@ -1119,25 +1119,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>100000</v>
+        <v>102900</v>
       </c>
       <c r="E22" s="3">
-        <v>94300</v>
+        <v>97100</v>
       </c>
       <c r="F22" s="3">
-        <v>82000</v>
+        <v>84400</v>
       </c>
       <c r="G22" s="3">
-        <v>42600</v>
+        <v>43800</v>
       </c>
       <c r="H22" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="I22" s="3">
-        <v>25400</v>
+        <v>26200</v>
       </c>
       <c r="J22" s="3">
-        <v>23100</v>
+        <v>23800</v>
       </c>
       <c r="K22" s="3">
         <v>35800</v>
@@ -1152,25 +1152,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>195400</v>
+        <v>201200</v>
       </c>
       <c r="E23" s="3">
-        <v>74400</v>
+        <v>76600</v>
       </c>
       <c r="F23" s="3">
-        <v>265700</v>
+        <v>273600</v>
       </c>
       <c r="G23" s="3">
-        <v>165100</v>
+        <v>170000</v>
       </c>
       <c r="H23" s="3">
-        <v>467200</v>
+        <v>481000</v>
       </c>
       <c r="I23" s="3">
-        <v>462400</v>
+        <v>476100</v>
       </c>
       <c r="J23" s="3">
-        <v>489300</v>
+        <v>503800</v>
       </c>
       <c r="K23" s="3">
         <v>212100</v>
@@ -1185,25 +1185,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-13400</v>
+        <v>-13800</v>
       </c>
       <c r="E24" s="3">
-        <v>-15600</v>
+        <v>-16100</v>
       </c>
       <c r="F24" s="3">
-        <v>39800</v>
+        <v>40900</v>
       </c>
       <c r="G24" s="3">
-        <v>33500</v>
+        <v>34500</v>
       </c>
       <c r="H24" s="3">
-        <v>29900</v>
+        <v>30700</v>
       </c>
       <c r="I24" s="3">
-        <v>106500</v>
+        <v>109600</v>
       </c>
       <c r="J24" s="3">
-        <v>76900</v>
+        <v>79200</v>
       </c>
       <c r="K24" s="3">
         <v>71400</v>
@@ -1251,25 +1251,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>208800</v>
+        <v>215000</v>
       </c>
       <c r="E26" s="3">
-        <v>90000</v>
+        <v>92700</v>
       </c>
       <c r="F26" s="3">
-        <v>225900</v>
+        <v>232600</v>
       </c>
       <c r="G26" s="3">
-        <v>131600</v>
+        <v>135500</v>
       </c>
       <c r="H26" s="3">
-        <v>437300</v>
+        <v>450300</v>
       </c>
       <c r="I26" s="3">
-        <v>355900</v>
+        <v>366500</v>
       </c>
       <c r="J26" s="3">
-        <v>412400</v>
+        <v>424600</v>
       </c>
       <c r="K26" s="3">
         <v>140700</v>
@@ -1284,25 +1284,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>330700</v>
+        <v>340500</v>
       </c>
       <c r="E27" s="3">
-        <v>241000</v>
+        <v>248100</v>
       </c>
       <c r="F27" s="3">
-        <v>328100</v>
+        <v>337800</v>
       </c>
       <c r="G27" s="3">
-        <v>283300</v>
+        <v>291700</v>
       </c>
       <c r="H27" s="3">
-        <v>458200</v>
+        <v>471800</v>
       </c>
       <c r="I27" s="3">
-        <v>378500</v>
+        <v>389700</v>
       </c>
       <c r="J27" s="3">
-        <v>430300</v>
+        <v>443100</v>
       </c>
       <c r="K27" s="3">
         <v>113500</v>
@@ -1449,25 +1449,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-130600</v>
+        <v>-134500</v>
       </c>
       <c r="E32" s="3">
-        <v>27200</v>
+        <v>28000</v>
       </c>
       <c r="F32" s="3">
-        <v>-156100</v>
+        <v>-160700</v>
       </c>
       <c r="G32" s="3">
-        <v>-52000</v>
+        <v>-53500</v>
       </c>
       <c r="H32" s="3">
-        <v>-156500</v>
+        <v>-161100</v>
       </c>
       <c r="I32" s="3">
-        <v>-154900</v>
+        <v>-159500</v>
       </c>
       <c r="J32" s="3">
-        <v>-418500</v>
+        <v>-430900</v>
       </c>
       <c r="K32" s="3">
         <v>-249700</v>
@@ -1482,25 +1482,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>330700</v>
+        <v>340500</v>
       </c>
       <c r="E33" s="3">
-        <v>241000</v>
+        <v>248100</v>
       </c>
       <c r="F33" s="3">
-        <v>328100</v>
+        <v>337800</v>
       </c>
       <c r="G33" s="3">
-        <v>283300</v>
+        <v>291700</v>
       </c>
       <c r="H33" s="3">
-        <v>458200</v>
+        <v>471800</v>
       </c>
       <c r="I33" s="3">
-        <v>378500</v>
+        <v>389700</v>
       </c>
       <c r="J33" s="3">
-        <v>430300</v>
+        <v>443100</v>
       </c>
       <c r="K33" s="3">
         <v>113500</v>
@@ -1548,25 +1548,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>330700</v>
+        <v>340500</v>
       </c>
       <c r="E35" s="3">
-        <v>241000</v>
+        <v>248100</v>
       </c>
       <c r="F35" s="3">
-        <v>328100</v>
+        <v>337800</v>
       </c>
       <c r="G35" s="3">
-        <v>283300</v>
+        <v>291700</v>
       </c>
       <c r="H35" s="3">
-        <v>458200</v>
+        <v>471800</v>
       </c>
       <c r="I35" s="3">
-        <v>378500</v>
+        <v>389700</v>
       </c>
       <c r="J35" s="3">
-        <v>430300</v>
+        <v>443100</v>
       </c>
       <c r="K35" s="3">
         <v>113500</v>
@@ -1649,25 +1649,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3253400</v>
+        <v>3349900</v>
       </c>
       <c r="E41" s="3">
-        <v>2850400</v>
+        <v>2934900</v>
       </c>
       <c r="F41" s="3">
-        <v>2782700</v>
+        <v>2865100</v>
       </c>
       <c r="G41" s="3">
-        <v>1961700</v>
+        <v>2019900</v>
       </c>
       <c r="H41" s="3">
-        <v>1815600</v>
+        <v>1869400</v>
       </c>
       <c r="I41" s="3">
-        <v>1557000</v>
+        <v>1603200</v>
       </c>
       <c r="J41" s="3">
-        <v>1731800</v>
+        <v>1783100</v>
       </c>
       <c r="K41" s="3">
         <v>1565800</v>
@@ -1682,25 +1682,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>24600</v>
+        <v>25400</v>
       </c>
       <c r="E42" s="3">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="F42" s="3">
-        <v>24400</v>
+        <v>25100</v>
       </c>
       <c r="G42" s="3">
-        <v>24300</v>
+        <v>25100</v>
       </c>
       <c r="H42" s="3">
-        <v>22700</v>
+        <v>23300</v>
       </c>
       <c r="I42" s="3">
-        <v>25200</v>
+        <v>26000</v>
       </c>
       <c r="J42" s="3">
-        <v>94300</v>
+        <v>97100</v>
       </c>
       <c r="K42" s="3">
         <v>1595700</v>
@@ -1715,25 +1715,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>907100</v>
+        <v>934000</v>
       </c>
       <c r="E43" s="3">
-        <v>841400</v>
+        <v>866400</v>
       </c>
       <c r="F43" s="3">
-        <v>771900</v>
+        <v>794800</v>
       </c>
       <c r="G43" s="3">
-        <v>817800</v>
+        <v>842000</v>
       </c>
       <c r="H43" s="3">
-        <v>681000</v>
+        <v>701200</v>
       </c>
       <c r="I43" s="3">
-        <v>785700</v>
+        <v>809000</v>
       </c>
       <c r="J43" s="3">
-        <v>599800</v>
+        <v>617600</v>
       </c>
       <c r="K43" s="3">
         <v>1142100</v>
@@ -1748,25 +1748,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>739800</v>
+        <v>761800</v>
       </c>
       <c r="E44" s="3">
-        <v>620200</v>
+        <v>638600</v>
       </c>
       <c r="F44" s="3">
-        <v>622000</v>
+        <v>640500</v>
       </c>
       <c r="G44" s="3">
-        <v>579100</v>
+        <v>596300</v>
       </c>
       <c r="H44" s="3">
-        <v>601000</v>
+        <v>618900</v>
       </c>
       <c r="I44" s="3">
-        <v>466300</v>
+        <v>480100</v>
       </c>
       <c r="J44" s="3">
-        <v>476800</v>
+        <v>490900</v>
       </c>
       <c r="K44" s="3">
         <v>866300</v>
@@ -1781,25 +1781,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>313600</v>
+        <v>322900</v>
       </c>
       <c r="E45" s="3">
-        <v>480500</v>
+        <v>494800</v>
       </c>
       <c r="F45" s="3">
-        <v>540200</v>
+        <v>556200</v>
       </c>
       <c r="G45" s="3">
-        <v>380800</v>
+        <v>392000</v>
       </c>
       <c r="H45" s="3">
-        <v>110100</v>
+        <v>113300</v>
       </c>
       <c r="I45" s="3">
-        <v>412800</v>
+        <v>425100</v>
       </c>
       <c r="J45" s="3">
-        <v>122700</v>
+        <v>126400</v>
       </c>
       <c r="K45" s="3">
         <v>183000</v>
@@ -1814,25 +1814,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5238500</v>
+        <v>5393800</v>
       </c>
       <c r="E46" s="3">
-        <v>4810500</v>
+        <v>4953100</v>
       </c>
       <c r="F46" s="3">
-        <v>4741200</v>
+        <v>4881700</v>
       </c>
       <c r="G46" s="3">
-        <v>3763700</v>
+        <v>3875300</v>
       </c>
       <c r="H46" s="3">
-        <v>3230400</v>
+        <v>3326200</v>
       </c>
       <c r="I46" s="3">
-        <v>3300100</v>
+        <v>3398000</v>
       </c>
       <c r="J46" s="3">
-        <v>3025300</v>
+        <v>3115000</v>
       </c>
       <c r="K46" s="3">
         <v>2661700</v>
@@ -1847,25 +1847,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1408600</v>
+        <v>1450300</v>
       </c>
       <c r="E47" s="3">
-        <v>1141500</v>
+        <v>1175400</v>
       </c>
       <c r="F47" s="3">
-        <v>1159200</v>
+        <v>1193500</v>
       </c>
       <c r="G47" s="3">
-        <v>1184500</v>
+        <v>1219600</v>
       </c>
       <c r="H47" s="3">
-        <v>1367900</v>
+        <v>1408500</v>
       </c>
       <c r="I47" s="3">
-        <v>2106900</v>
+        <v>2169400</v>
       </c>
       <c r="J47" s="3">
-        <v>1026300</v>
+        <v>1056700</v>
       </c>
       <c r="K47" s="3">
         <v>2310700</v>
@@ -1880,25 +1880,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>5413200</v>
+        <v>5573600</v>
       </c>
       <c r="E48" s="3">
-        <v>5911400</v>
+        <v>6086700</v>
       </c>
       <c r="F48" s="3">
-        <v>7019400</v>
+        <v>7227500</v>
       </c>
       <c r="G48" s="3">
-        <v>7705300</v>
+        <v>7933800</v>
       </c>
       <c r="H48" s="3">
-        <v>6431300</v>
+        <v>6622000</v>
       </c>
       <c r="I48" s="3">
-        <v>5715400</v>
+        <v>5884800</v>
       </c>
       <c r="J48" s="3">
-        <v>11076700</v>
+        <v>11405100</v>
       </c>
       <c r="K48" s="3">
         <v>10614700</v>
@@ -1913,25 +1913,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>177100</v>
+        <v>182400</v>
       </c>
       <c r="E49" s="3">
-        <v>101900</v>
+        <v>105000</v>
       </c>
       <c r="F49" s="3">
-        <v>129000</v>
+        <v>132900</v>
       </c>
       <c r="G49" s="3">
-        <v>139300</v>
+        <v>143400</v>
       </c>
       <c r="H49" s="3">
-        <v>153500</v>
+        <v>158000</v>
       </c>
       <c r="I49" s="3">
-        <v>154400</v>
+        <v>159000</v>
       </c>
       <c r="J49" s="3">
-        <v>323000</v>
+        <v>332500</v>
       </c>
       <c r="K49" s="3">
         <v>138200</v>
@@ -2012,25 +2012,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>374900</v>
+        <v>386000</v>
       </c>
       <c r="E52" s="3">
-        <v>456800</v>
+        <v>470300</v>
       </c>
       <c r="F52" s="3">
-        <v>378200</v>
+        <v>389400</v>
       </c>
       <c r="G52" s="3">
-        <v>380500</v>
+        <v>391800</v>
       </c>
       <c r="H52" s="3">
-        <v>311000</v>
+        <v>320200</v>
       </c>
       <c r="I52" s="3">
-        <v>225500</v>
+        <v>232200</v>
       </c>
       <c r="J52" s="3">
-        <v>255300</v>
+        <v>262800</v>
       </c>
       <c r="K52" s="3">
         <v>281300</v>
@@ -2078,25 +2078,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>12612300</v>
+        <v>12986200</v>
       </c>
       <c r="E54" s="3">
-        <v>12422100</v>
+        <v>12790300</v>
       </c>
       <c r="F54" s="3">
-        <v>13427000</v>
+        <v>13825000</v>
       </c>
       <c r="G54" s="3">
-        <v>13173300</v>
+        <v>13563900</v>
       </c>
       <c r="H54" s="3">
-        <v>11494100</v>
+        <v>11834800</v>
       </c>
       <c r="I54" s="3">
-        <v>10672300</v>
+        <v>10988700</v>
       </c>
       <c r="J54" s="3">
-        <v>10013600</v>
+        <v>10310500</v>
       </c>
       <c r="K54" s="3">
         <v>9353200</v>
@@ -2141,25 +2141,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>302400</v>
+        <v>311400</v>
       </c>
       <c r="E57" s="3">
-        <v>231700</v>
+        <v>238600</v>
       </c>
       <c r="F57" s="3">
-        <v>222700</v>
+        <v>229300</v>
       </c>
       <c r="G57" s="3">
-        <v>233500</v>
+        <v>240500</v>
       </c>
       <c r="H57" s="3">
-        <v>202900</v>
+        <v>208900</v>
       </c>
       <c r="I57" s="3">
-        <v>210100</v>
+        <v>216400</v>
       </c>
       <c r="J57" s="3">
-        <v>252600</v>
+        <v>260100</v>
       </c>
       <c r="K57" s="3">
         <v>416800</v>
@@ -2174,25 +2174,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1273600</v>
+        <v>1311300</v>
       </c>
       <c r="E58" s="3">
-        <v>620900</v>
+        <v>639300</v>
       </c>
       <c r="F58" s="3">
-        <v>1799200</v>
+        <v>1852600</v>
       </c>
       <c r="G58" s="3">
-        <v>1057900</v>
+        <v>1089300</v>
       </c>
       <c r="H58" s="3">
-        <v>412500</v>
+        <v>424700</v>
       </c>
       <c r="I58" s="3">
-        <v>341600</v>
+        <v>351700</v>
       </c>
       <c r="J58" s="3">
-        <v>721900</v>
+        <v>743300</v>
       </c>
       <c r="K58" s="3">
         <v>975200</v>
@@ -2207,25 +2207,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>901400</v>
+        <v>928100</v>
       </c>
       <c r="E59" s="3">
-        <v>847400</v>
+        <v>872500</v>
       </c>
       <c r="F59" s="3">
-        <v>978400</v>
+        <v>1007400</v>
       </c>
       <c r="G59" s="3">
-        <v>1160800</v>
+        <v>1195200</v>
       </c>
       <c r="H59" s="3">
-        <v>1028400</v>
+        <v>1058900</v>
       </c>
       <c r="I59" s="3">
-        <v>1087300</v>
+        <v>1119500</v>
       </c>
       <c r="J59" s="3">
-        <v>667900</v>
+        <v>687700</v>
       </c>
       <c r="K59" s="3">
         <v>1274000</v>
@@ -2240,25 +2240,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2477400</v>
+        <v>2550800</v>
       </c>
       <c r="E60" s="3">
-        <v>1700100</v>
+        <v>1750500</v>
       </c>
       <c r="F60" s="3">
-        <v>3000200</v>
+        <v>3089200</v>
       </c>
       <c r="G60" s="3">
-        <v>2452300</v>
+        <v>2525000</v>
       </c>
       <c r="H60" s="3">
-        <v>1643700</v>
+        <v>1692500</v>
       </c>
       <c r="I60" s="3">
-        <v>1639000</v>
+        <v>1687600</v>
       </c>
       <c r="J60" s="3">
-        <v>1642300</v>
+        <v>1691000</v>
       </c>
       <c r="K60" s="3">
         <v>1334400</v>
@@ -2273,25 +2273,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1817600</v>
+        <v>1871500</v>
       </c>
       <c r="E61" s="3">
-        <v>2285500</v>
+        <v>2353300</v>
       </c>
       <c r="F61" s="3">
-        <v>1816600</v>
+        <v>1870400</v>
       </c>
       <c r="G61" s="3">
-        <v>2069000</v>
+        <v>2130400</v>
       </c>
       <c r="H61" s="3">
-        <v>1619200</v>
+        <v>1667200</v>
       </c>
       <c r="I61" s="3">
-        <v>1138000</v>
+        <v>1171700</v>
       </c>
       <c r="J61" s="3">
-        <v>968100</v>
+        <v>996800</v>
       </c>
       <c r="K61" s="3">
         <v>1069500</v>
@@ -2306,25 +2306,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1257500</v>
+        <v>1294800</v>
       </c>
       <c r="E62" s="3">
-        <v>1399800</v>
+        <v>1441300</v>
       </c>
       <c r="F62" s="3">
-        <v>1317900</v>
+        <v>1356900</v>
       </c>
       <c r="G62" s="3">
-        <v>1199500</v>
+        <v>1235000</v>
       </c>
       <c r="H62" s="3">
-        <v>435400</v>
+        <v>448300</v>
       </c>
       <c r="I62" s="3">
-        <v>229300</v>
+        <v>236100</v>
       </c>
       <c r="J62" s="3">
-        <v>260700</v>
+        <v>268400</v>
       </c>
       <c r="K62" s="3">
         <v>365900</v>
@@ -2438,25 +2438,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>5566500</v>
+        <v>5731500</v>
       </c>
       <c r="E66" s="3">
-        <v>5401300</v>
+        <v>5561400</v>
       </c>
       <c r="F66" s="3">
-        <v>6167300</v>
+        <v>6350100</v>
       </c>
       <c r="G66" s="3">
-        <v>5794500</v>
+        <v>5966200</v>
       </c>
       <c r="H66" s="3">
-        <v>3767300</v>
+        <v>3879000</v>
       </c>
       <c r="I66" s="3">
-        <v>3137400</v>
+        <v>3230400</v>
       </c>
       <c r="J66" s="3">
-        <v>3018300</v>
+        <v>3107700</v>
       </c>
       <c r="K66" s="3">
         <v>2730600</v>
@@ -2618,25 +2618,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>2083500</v>
+        <v>2145200</v>
       </c>
       <c r="E72" s="3">
-        <v>2098300</v>
+        <v>2160500</v>
       </c>
       <c r="F72" s="3">
-        <v>1637600</v>
+        <v>1686200</v>
       </c>
       <c r="G72" s="3">
-        <v>1623600</v>
+        <v>1671700</v>
       </c>
       <c r="H72" s="3">
-        <v>1727600</v>
+        <v>1778800</v>
       </c>
       <c r="I72" s="3">
-        <v>1510600</v>
+        <v>1555400</v>
       </c>
       <c r="J72" s="3">
-        <v>1305000</v>
+        <v>1343700</v>
       </c>
       <c r="K72" s="3">
         <v>1872000</v>
@@ -2750,25 +2750,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>7045800</v>
+        <v>7254700</v>
       </c>
       <c r="E76" s="3">
-        <v>7020800</v>
+        <v>7228900</v>
       </c>
       <c r="F76" s="3">
-        <v>7259700</v>
+        <v>7474900</v>
       </c>
       <c r="G76" s="3">
-        <v>7378900</v>
+        <v>7597600</v>
       </c>
       <c r="H76" s="3">
-        <v>7726700</v>
+        <v>7955800</v>
       </c>
       <c r="I76" s="3">
-        <v>7534900</v>
+        <v>7758300</v>
       </c>
       <c r="J76" s="3">
-        <v>6995400</v>
+        <v>7202800</v>
       </c>
       <c r="K76" s="3">
         <v>6622600</v>
@@ -2854,25 +2854,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>330700</v>
+        <v>340500</v>
       </c>
       <c r="E81" s="3">
-        <v>241000</v>
+        <v>248100</v>
       </c>
       <c r="F81" s="3">
-        <v>328100</v>
+        <v>337800</v>
       </c>
       <c r="G81" s="3">
-        <v>283300</v>
+        <v>291700</v>
       </c>
       <c r="H81" s="3">
-        <v>458200</v>
+        <v>471800</v>
       </c>
       <c r="I81" s="3">
-        <v>378500</v>
+        <v>389700</v>
       </c>
       <c r="J81" s="3">
-        <v>430300</v>
+        <v>443100</v>
       </c>
       <c r="K81" s="3">
         <v>113500</v>
@@ -2902,25 +2902,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1682700</v>
+        <v>1732600</v>
       </c>
       <c r="E83" s="3">
-        <v>1773300</v>
+        <v>1825900</v>
       </c>
       <c r="F83" s="3">
-        <v>1809100</v>
+        <v>1862700</v>
       </c>
       <c r="G83" s="3">
-        <v>1771100</v>
+        <v>1823600</v>
       </c>
       <c r="H83" s="3">
-        <v>1549200</v>
+        <v>1595200</v>
       </c>
       <c r="I83" s="3">
-        <v>1385200</v>
+        <v>1426300</v>
       </c>
       <c r="J83" s="3">
-        <v>1309400</v>
+        <v>1348200</v>
       </c>
       <c r="K83" s="3">
         <v>1192100</v>
@@ -3100,25 +3100,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1870600</v>
+        <v>1926000</v>
       </c>
       <c r="E89" s="3">
-        <v>1735400</v>
+        <v>1786800</v>
       </c>
       <c r="F89" s="3">
-        <v>1787800</v>
+        <v>1840800</v>
       </c>
       <c r="G89" s="3">
-        <v>1582600</v>
+        <v>1629500</v>
       </c>
       <c r="H89" s="3">
-        <v>2037000</v>
+        <v>2097400</v>
       </c>
       <c r="I89" s="3">
-        <v>1525900</v>
+        <v>1571200</v>
       </c>
       <c r="J89" s="3">
-        <v>1481100</v>
+        <v>1525000</v>
       </c>
       <c r="K89" s="3">
         <v>1343600</v>
@@ -3148,25 +3148,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-562800</v>
+        <v>-579500</v>
       </c>
       <c r="E91" s="3">
-        <v>-667400</v>
+        <v>-687200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1507100</v>
+        <v>-1551800</v>
       </c>
       <c r="G91" s="3">
-        <v>-3119500</v>
+        <v>-3211900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2061400</v>
+        <v>-2122500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1473100</v>
+        <v>-1516800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1121300</v>
+        <v>-1154500</v>
       </c>
       <c r="K91" s="3">
         <v>-1754100</v>
@@ -3247,25 +3247,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1079400</v>
+        <v>-1111400</v>
       </c>
       <c r="E94" s="3">
-        <v>-528100</v>
+        <v>-543700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1206600</v>
+        <v>-1242400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2728500</v>
+        <v>-2809400</v>
       </c>
       <c r="H94" s="3">
-        <v>-2333200</v>
+        <v>-2402300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1451600</v>
+        <v>-1494600</v>
       </c>
       <c r="J94" s="3">
-        <v>-1073800</v>
+        <v>-1105600</v>
       </c>
       <c r="K94" s="3">
         <v>-1633800</v>
@@ -3295,25 +3295,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-235500</v>
+        <v>-242400</v>
       </c>
       <c r="E96" s="3">
-        <v>-291600</v>
+        <v>-300200</v>
       </c>
       <c r="F96" s="3">
-        <v>-207900</v>
+        <v>-214100</v>
       </c>
       <c r="G96" s="3">
-        <v>-235300</v>
+        <v>-242300</v>
       </c>
       <c r="H96" s="3">
-        <v>-236400</v>
+        <v>-243400</v>
       </c>
       <c r="I96" s="3">
-        <v>-213000</v>
+        <v>-219400</v>
       </c>
       <c r="J96" s="3">
-        <v>-172400</v>
+        <v>-177600</v>
       </c>
       <c r="K96" s="3">
         <v>-210100</v>
@@ -3427,25 +3427,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-336200</v>
+        <v>-346100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1140800</v>
+        <v>-1174600</v>
       </c>
       <c r="F100" s="3">
-        <v>312100</v>
+        <v>321400</v>
       </c>
       <c r="G100" s="3">
-        <v>1321800</v>
+        <v>1360900</v>
       </c>
       <c r="H100" s="3">
-        <v>512700</v>
+        <v>527900</v>
       </c>
       <c r="I100" s="3">
-        <v>-281300</v>
+        <v>-289700</v>
       </c>
       <c r="J100" s="3">
-        <v>-133700</v>
+        <v>-137700</v>
       </c>
       <c r="K100" s="3">
         <v>119300</v>
@@ -3460,25 +3460,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-52000</v>
+        <v>-53500</v>
       </c>
       <c r="E101" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F101" s="3">
-        <v>-72400</v>
+        <v>-74500</v>
       </c>
       <c r="G101" s="3">
-        <v>-29700</v>
+        <v>-30600</v>
       </c>
       <c r="H101" s="3">
-        <v>24600</v>
+        <v>25300</v>
       </c>
       <c r="I101" s="3">
-        <v>49600</v>
+        <v>51100</v>
       </c>
       <c r="J101" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="K101" s="3">
         <v>-47800</v>
@@ -3493,25 +3493,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>403100</v>
+        <v>415000</v>
       </c>
       <c r="E102" s="3">
-        <v>67700</v>
+        <v>69700</v>
       </c>
       <c r="F102" s="3">
-        <v>820900</v>
+        <v>845300</v>
       </c>
       <c r="G102" s="3">
-        <v>146100</v>
+        <v>150400</v>
       </c>
       <c r="H102" s="3">
-        <v>241100</v>
+        <v>248300</v>
       </c>
       <c r="I102" s="3">
-        <v>-157300</v>
+        <v>-162000</v>
       </c>
       <c r="J102" s="3">
-        <v>284200</v>
+        <v>292600</v>
       </c>
       <c r="K102" s="3">
         <v>-218600</v>

--- a/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,153 +662,165 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5198900</v>
+        <v>6179900</v>
       </c>
       <c r="E8" s="3">
-        <v>5305900</v>
+        <v>5179600</v>
       </c>
       <c r="F8" s="3">
-        <v>5236900</v>
+        <v>5286300</v>
       </c>
       <c r="G8" s="3">
-        <v>5187300</v>
+        <v>5217500</v>
       </c>
       <c r="H8" s="3">
-        <v>5080700</v>
+        <v>5168100</v>
       </c>
       <c r="I8" s="3">
-        <v>4911600</v>
+        <v>5061800</v>
       </c>
       <c r="J8" s="3">
+        <v>4893400</v>
+      </c>
+      <c r="K8" s="3">
         <v>4343300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3847300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3805700</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4451200</v>
+        <v>4816900</v>
       </c>
       <c r="E9" s="3">
-        <v>4504700</v>
+        <v>4434700</v>
       </c>
       <c r="F9" s="3">
-        <v>4287700</v>
+        <v>4488000</v>
       </c>
       <c r="G9" s="3">
-        <v>4121600</v>
+        <v>4271800</v>
       </c>
       <c r="H9" s="3">
-        <v>3966200</v>
+        <v>4106300</v>
       </c>
       <c r="I9" s="3">
-        <v>3794200</v>
+        <v>3951500</v>
       </c>
       <c r="J9" s="3">
+        <v>3780200</v>
+      </c>
+      <c r="K9" s="3">
         <v>3516700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6406800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3111500</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>747700</v>
+        <v>1362900</v>
       </c>
       <c r="E10" s="3">
-        <v>801200</v>
+        <v>745000</v>
       </c>
       <c r="F10" s="3">
-        <v>949200</v>
+        <v>798300</v>
       </c>
       <c r="G10" s="3">
-        <v>1065700</v>
+        <v>945700</v>
       </c>
       <c r="H10" s="3">
-        <v>1114400</v>
+        <v>1061800</v>
       </c>
       <c r="I10" s="3">
-        <v>1117400</v>
+        <v>1110300</v>
       </c>
       <c r="J10" s="3">
+        <v>1113200</v>
+      </c>
+      <c r="K10" s="3">
         <v>826600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-2559500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>694100</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,41 +834,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>416100</v>
+        <v>450700</v>
       </c>
       <c r="E12" s="3">
-        <v>456900</v>
+        <v>414500</v>
       </c>
       <c r="F12" s="3">
-        <v>479500</v>
+        <v>455200</v>
       </c>
       <c r="G12" s="3">
-        <v>474700</v>
+        <v>477800</v>
       </c>
       <c r="H12" s="3">
-        <v>427100</v>
+        <v>473000</v>
       </c>
       <c r="I12" s="3">
-        <v>479300</v>
+        <v>425500</v>
       </c>
       <c r="J12" s="3">
+        <v>477600</v>
+      </c>
+      <c r="K12" s="3">
         <v>438300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>651000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>306400</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,42 +903,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-4900</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3">
-        <v>33200</v>
-      </c>
       <c r="G14" s="3">
-        <v>56900</v>
+        <v>33000</v>
       </c>
       <c r="H14" s="3">
-        <v>43700</v>
+        <v>56700</v>
       </c>
       <c r="I14" s="3">
-        <v>31600</v>
+        <v>43500</v>
       </c>
       <c r="J14" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K14" s="3">
         <v>46800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>236100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>68700</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -953,9 +975,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,74 +991,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5029300</v>
+        <v>5410700</v>
       </c>
       <c r="E17" s="3">
-        <v>5104200</v>
+        <v>5010600</v>
       </c>
       <c r="F17" s="3">
-        <v>5039600</v>
+        <v>5085300</v>
       </c>
       <c r="G17" s="3">
-        <v>5026900</v>
+        <v>5021000</v>
       </c>
       <c r="H17" s="3">
-        <v>4744200</v>
+        <v>5008300</v>
       </c>
       <c r="I17" s="3">
-        <v>4568800</v>
+        <v>4726600</v>
       </c>
       <c r="J17" s="3">
+        <v>4551900</v>
+      </c>
+      <c r="K17" s="3">
         <v>4246600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3849100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3710000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>169600</v>
+        <v>769200</v>
       </c>
       <c r="E18" s="3">
-        <v>201700</v>
+        <v>169000</v>
       </c>
       <c r="F18" s="3">
-        <v>197300</v>
+        <v>201000</v>
       </c>
       <c r="G18" s="3">
-        <v>160400</v>
+        <v>196500</v>
       </c>
       <c r="H18" s="3">
-        <v>336400</v>
+        <v>159800</v>
       </c>
       <c r="I18" s="3">
-        <v>342800</v>
+        <v>335200</v>
       </c>
       <c r="J18" s="3">
+        <v>341500</v>
+      </c>
+      <c r="K18" s="3">
         <v>96700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>95700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1047,173 +1079,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>134500</v>
+        <v>276900</v>
       </c>
       <c r="E20" s="3">
-        <v>-28000</v>
+        <v>134000</v>
       </c>
       <c r="F20" s="3">
-        <v>160700</v>
+        <v>-27900</v>
       </c>
       <c r="G20" s="3">
-        <v>53500</v>
+        <v>160100</v>
       </c>
       <c r="H20" s="3">
-        <v>161100</v>
+        <v>53300</v>
       </c>
       <c r="I20" s="3">
-        <v>159500</v>
+        <v>160500</v>
       </c>
       <c r="J20" s="3">
+        <v>156800</v>
+      </c>
+      <c r="K20" s="3">
         <v>430900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>249700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>222000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2037200</v>
+        <v>2762700</v>
       </c>
       <c r="E21" s="3">
-        <v>2000100</v>
+        <v>2036600</v>
       </c>
       <c r="F21" s="3">
-        <v>2221200</v>
+        <v>2000000</v>
       </c>
       <c r="G21" s="3">
-        <v>2038000</v>
+        <v>2220400</v>
       </c>
       <c r="H21" s="3">
-        <v>2093100</v>
+        <v>2037700</v>
       </c>
       <c r="I21" s="3">
-        <v>1929000</v>
+        <v>2091700</v>
       </c>
       <c r="J21" s="3">
+        <v>1925400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1876200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1442200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1371900</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>102900</v>
+        <v>70100</v>
       </c>
       <c r="E22" s="3">
-        <v>97100</v>
+        <v>102500</v>
       </c>
       <c r="F22" s="3">
-        <v>84400</v>
+        <v>96800</v>
       </c>
       <c r="G22" s="3">
-        <v>43800</v>
+        <v>84100</v>
       </c>
       <c r="H22" s="3">
-        <v>16500</v>
+        <v>43700</v>
       </c>
       <c r="I22" s="3">
-        <v>26200</v>
+        <v>16400</v>
       </c>
       <c r="J22" s="3">
+        <v>26100</v>
+      </c>
+      <c r="K22" s="3">
         <v>23800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>35800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11700</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>201200</v>
+        <v>976000</v>
       </c>
       <c r="E23" s="3">
-        <v>76600</v>
+        <v>200500</v>
       </c>
       <c r="F23" s="3">
-        <v>273600</v>
+        <v>76300</v>
       </c>
       <c r="G23" s="3">
-        <v>170000</v>
+        <v>272600</v>
       </c>
       <c r="H23" s="3">
-        <v>481000</v>
+        <v>169400</v>
       </c>
       <c r="I23" s="3">
-        <v>476100</v>
+        <v>479200</v>
       </c>
       <c r="J23" s="3">
+        <v>472300</v>
+      </c>
+      <c r="K23" s="3">
         <v>503800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>212100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>305900</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-13800</v>
+        <v>26100</v>
       </c>
       <c r="E24" s="3">
-        <v>-16100</v>
+        <v>-13700</v>
       </c>
       <c r="F24" s="3">
-        <v>40900</v>
+        <v>-16000</v>
       </c>
       <c r="G24" s="3">
-        <v>34500</v>
+        <v>40800</v>
       </c>
       <c r="H24" s="3">
-        <v>30700</v>
+        <v>34400</v>
       </c>
       <c r="I24" s="3">
-        <v>109600</v>
+        <v>30600</v>
       </c>
       <c r="J24" s="3">
+        <v>71100</v>
+      </c>
+      <c r="K24" s="3">
         <v>79200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>71400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29800</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1244,75 +1292,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>215000</v>
+        <v>950000</v>
       </c>
       <c r="E26" s="3">
-        <v>92700</v>
+        <v>214200</v>
       </c>
       <c r="F26" s="3">
-        <v>232600</v>
+        <v>92400</v>
       </c>
       <c r="G26" s="3">
-        <v>135500</v>
+        <v>231800</v>
       </c>
       <c r="H26" s="3">
-        <v>450300</v>
+        <v>135000</v>
       </c>
       <c r="I26" s="3">
-        <v>366500</v>
+        <v>448600</v>
       </c>
       <c r="J26" s="3">
+        <v>401200</v>
+      </c>
+      <c r="K26" s="3">
         <v>424600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>140700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>276100</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>340500</v>
+        <v>1020200</v>
       </c>
       <c r="E27" s="3">
-        <v>248100</v>
+        <v>339300</v>
       </c>
       <c r="F27" s="3">
-        <v>337800</v>
+        <v>247200</v>
       </c>
       <c r="G27" s="3">
-        <v>291700</v>
+        <v>336500</v>
       </c>
       <c r="H27" s="3">
-        <v>471800</v>
+        <v>290600</v>
       </c>
       <c r="I27" s="3">
-        <v>389700</v>
+        <v>470000</v>
       </c>
       <c r="J27" s="3">
+        <v>424300</v>
+      </c>
+      <c r="K27" s="3">
         <v>443100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>113500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>215400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1343,9 +1400,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1376,9 +1436,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1409,9 +1472,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1442,75 +1508,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-134500</v>
+        <v>-276900</v>
       </c>
       <c r="E32" s="3">
-        <v>28000</v>
+        <v>-134000</v>
       </c>
       <c r="F32" s="3">
-        <v>-160700</v>
+        <v>27900</v>
       </c>
       <c r="G32" s="3">
-        <v>-53500</v>
+        <v>-160100</v>
       </c>
       <c r="H32" s="3">
-        <v>-161100</v>
+        <v>-53300</v>
       </c>
       <c r="I32" s="3">
-        <v>-159500</v>
+        <v>-160500</v>
       </c>
       <c r="J32" s="3">
+        <v>-156800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-430900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-249700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-222000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>340500</v>
+        <v>1020200</v>
       </c>
       <c r="E33" s="3">
-        <v>248100</v>
+        <v>339300</v>
       </c>
       <c r="F33" s="3">
-        <v>337800</v>
+        <v>247200</v>
       </c>
       <c r="G33" s="3">
-        <v>291700</v>
+        <v>336500</v>
       </c>
       <c r="H33" s="3">
-        <v>471800</v>
+        <v>290600</v>
       </c>
       <c r="I33" s="3">
-        <v>389700</v>
+        <v>470000</v>
       </c>
       <c r="J33" s="3">
+        <v>424300</v>
+      </c>
+      <c r="K33" s="3">
         <v>443100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>113500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>215400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1541,80 +1616,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>340500</v>
+        <v>1020200</v>
       </c>
       <c r="E35" s="3">
-        <v>248100</v>
+        <v>339300</v>
       </c>
       <c r="F35" s="3">
-        <v>337800</v>
+        <v>247200</v>
       </c>
       <c r="G35" s="3">
-        <v>291700</v>
+        <v>336500</v>
       </c>
       <c r="H35" s="3">
-        <v>471800</v>
+        <v>290600</v>
       </c>
       <c r="I35" s="3">
-        <v>389700</v>
+        <v>470000</v>
       </c>
       <c r="J35" s="3">
+        <v>424300</v>
+      </c>
+      <c r="K35" s="3">
         <v>443100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>113500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>215400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1628,8 +1712,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1643,305 +1728,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3349900</v>
+        <v>3287000</v>
       </c>
       <c r="E41" s="3">
-        <v>2934900</v>
+        <v>3337500</v>
       </c>
       <c r="F41" s="3">
-        <v>2865100</v>
+        <v>2924000</v>
       </c>
       <c r="G41" s="3">
-        <v>2019900</v>
+        <v>2854500</v>
       </c>
       <c r="H41" s="3">
-        <v>1869400</v>
+        <v>2012400</v>
       </c>
       <c r="I41" s="3">
-        <v>1603200</v>
+        <v>1862500</v>
       </c>
       <c r="J41" s="3">
+        <v>1597300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1783100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1565800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>115300</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>25400</v>
+        <v>42500</v>
       </c>
       <c r="E42" s="3">
+        <v>25300</v>
+      </c>
+      <c r="F42" s="3">
         <v>18500</v>
-      </c>
-      <c r="F42" s="3">
-        <v>25100</v>
       </c>
       <c r="G42" s="3">
         <v>25100</v>
       </c>
       <c r="H42" s="3">
-        <v>23300</v>
+        <v>25000</v>
       </c>
       <c r="I42" s="3">
-        <v>26000</v>
+        <v>23200</v>
       </c>
       <c r="J42" s="3">
+        <v>25900</v>
+      </c>
+      <c r="K42" s="3">
         <v>97100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1595700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1675100</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>934000</v>
+        <v>1021900</v>
       </c>
       <c r="E43" s="3">
-        <v>866400</v>
+        <v>930500</v>
       </c>
       <c r="F43" s="3">
-        <v>794800</v>
+        <v>863100</v>
       </c>
       <c r="G43" s="3">
-        <v>842000</v>
+        <v>791900</v>
       </c>
       <c r="H43" s="3">
-        <v>701200</v>
+        <v>838900</v>
       </c>
       <c r="I43" s="3">
-        <v>809000</v>
+        <v>698600</v>
       </c>
       <c r="J43" s="3">
+        <v>806000</v>
+      </c>
+      <c r="K43" s="3">
         <v>617600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1142100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>499600</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>761800</v>
+        <v>788200</v>
       </c>
       <c r="E44" s="3">
-        <v>638600</v>
+        <v>758900</v>
       </c>
       <c r="F44" s="3">
-        <v>640500</v>
+        <v>636200</v>
       </c>
       <c r="G44" s="3">
-        <v>596300</v>
+        <v>638100</v>
       </c>
       <c r="H44" s="3">
-        <v>618900</v>
+        <v>594100</v>
       </c>
       <c r="I44" s="3">
-        <v>480100</v>
+        <v>616600</v>
       </c>
       <c r="J44" s="3">
+        <v>478300</v>
+      </c>
+      <c r="K44" s="3">
         <v>490900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>866300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>414400</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>322900</v>
+        <v>602900</v>
       </c>
       <c r="E45" s="3">
-        <v>494800</v>
+        <v>321700</v>
       </c>
       <c r="F45" s="3">
-        <v>556200</v>
+        <v>492900</v>
       </c>
       <c r="G45" s="3">
-        <v>392000</v>
+        <v>554100</v>
       </c>
       <c r="H45" s="3">
-        <v>113300</v>
+        <v>390600</v>
       </c>
       <c r="I45" s="3">
-        <v>425100</v>
+        <v>112900</v>
       </c>
       <c r="J45" s="3">
+        <v>423500</v>
+      </c>
+      <c r="K45" s="3">
         <v>126400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>183000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>36600</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5393800</v>
+        <v>5742500</v>
       </c>
       <c r="E46" s="3">
-        <v>4953100</v>
+        <v>5373800</v>
       </c>
       <c r="F46" s="3">
-        <v>4881700</v>
+        <v>4934700</v>
       </c>
       <c r="G46" s="3">
-        <v>3875300</v>
+        <v>4863700</v>
       </c>
       <c r="H46" s="3">
-        <v>3326200</v>
+        <v>3860900</v>
       </c>
       <c r="I46" s="3">
-        <v>3398000</v>
+        <v>3313800</v>
       </c>
       <c r="J46" s="3">
+        <v>3385400</v>
+      </c>
+      <c r="K46" s="3">
         <v>3115000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2661700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2741100</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1450300</v>
+        <v>1977400</v>
       </c>
       <c r="E47" s="3">
-        <v>1175400</v>
+        <v>1445000</v>
       </c>
       <c r="F47" s="3">
-        <v>1193500</v>
+        <v>1171000</v>
       </c>
       <c r="G47" s="3">
-        <v>1219600</v>
+        <v>1189100</v>
       </c>
       <c r="H47" s="3">
-        <v>1408500</v>
+        <v>1215100</v>
       </c>
       <c r="I47" s="3">
-        <v>2169400</v>
+        <v>1403300</v>
       </c>
       <c r="J47" s="3">
+        <v>2161300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1056700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2310700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1301900</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>5573600</v>
+        <v>4931800</v>
       </c>
       <c r="E48" s="3">
-        <v>6086700</v>
+        <v>5553000</v>
       </c>
       <c r="F48" s="3">
-        <v>7227500</v>
+        <v>6064100</v>
       </c>
       <c r="G48" s="3">
-        <v>7933800</v>
+        <v>7200700</v>
       </c>
       <c r="H48" s="3">
-        <v>6622000</v>
+        <v>7904400</v>
       </c>
       <c r="I48" s="3">
-        <v>5884800</v>
+        <v>6597400</v>
       </c>
       <c r="J48" s="3">
+        <v>5863000</v>
+      </c>
+      <c r="K48" s="3">
         <v>11405100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10614700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4869500</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>182400</v>
+        <v>170500</v>
       </c>
       <c r="E49" s="3">
-        <v>105000</v>
+        <v>181700</v>
       </c>
       <c r="F49" s="3">
-        <v>132900</v>
+        <v>104600</v>
       </c>
       <c r="G49" s="3">
-        <v>143400</v>
+        <v>132400</v>
       </c>
       <c r="H49" s="3">
-        <v>158000</v>
+        <v>142900</v>
       </c>
       <c r="I49" s="3">
-        <v>159000</v>
+        <v>157400</v>
       </c>
       <c r="J49" s="3">
+        <v>158400</v>
+      </c>
+      <c r="K49" s="3">
         <v>332500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>138200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11400</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1972,9 +2085,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2005,42 +2121,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>386000</v>
+        <v>372100</v>
       </c>
       <c r="E52" s="3">
-        <v>470300</v>
+        <v>384600</v>
       </c>
       <c r="F52" s="3">
-        <v>389400</v>
+        <v>468600</v>
       </c>
       <c r="G52" s="3">
-        <v>391800</v>
+        <v>388000</v>
       </c>
       <c r="H52" s="3">
-        <v>320200</v>
+        <v>390300</v>
       </c>
       <c r="I52" s="3">
-        <v>232200</v>
+        <v>319000</v>
       </c>
       <c r="J52" s="3">
+        <v>231300</v>
+      </c>
+      <c r="K52" s="3">
         <v>262800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>281300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>201400</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2071,42 +2193,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>12986200</v>
+        <v>13194200</v>
       </c>
       <c r="E54" s="3">
-        <v>12790300</v>
+        <v>12938000</v>
       </c>
       <c r="F54" s="3">
-        <v>13825000</v>
+        <v>12742900</v>
       </c>
       <c r="G54" s="3">
-        <v>13563900</v>
+        <v>13773800</v>
       </c>
       <c r="H54" s="3">
-        <v>11834800</v>
+        <v>13513600</v>
       </c>
       <c r="I54" s="3">
-        <v>10988700</v>
+        <v>11791000</v>
       </c>
       <c r="J54" s="3">
+        <v>10947900</v>
+      </c>
+      <c r="K54" s="3">
         <v>10310500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9353200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9125300</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2120,8 +2248,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2135,206 +2264,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>311400</v>
+        <v>274800</v>
       </c>
       <c r="E57" s="3">
-        <v>238600</v>
+        <v>310300</v>
       </c>
       <c r="F57" s="3">
-        <v>229300</v>
+        <v>237700</v>
       </c>
       <c r="G57" s="3">
-        <v>240500</v>
+        <v>228400</v>
       </c>
       <c r="H57" s="3">
-        <v>208900</v>
+        <v>239600</v>
       </c>
       <c r="I57" s="3">
-        <v>216400</v>
+        <v>208100</v>
       </c>
       <c r="J57" s="3">
+        <v>215500</v>
+      </c>
+      <c r="K57" s="3">
         <v>260100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>416800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>163400</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1311300</v>
+        <v>1348800</v>
       </c>
       <c r="E58" s="3">
-        <v>639300</v>
+        <v>1306500</v>
       </c>
       <c r="F58" s="3">
-        <v>1852600</v>
+        <v>637000</v>
       </c>
       <c r="G58" s="3">
-        <v>1089300</v>
+        <v>1845700</v>
       </c>
       <c r="H58" s="3">
-        <v>424700</v>
+        <v>1085300</v>
       </c>
       <c r="I58" s="3">
-        <v>351700</v>
+        <v>423100</v>
       </c>
       <c r="J58" s="3">
+        <v>350400</v>
+      </c>
+      <c r="K58" s="3">
         <v>743300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>975200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>567900</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>928100</v>
+        <v>1111000</v>
       </c>
       <c r="E59" s="3">
-        <v>872500</v>
+        <v>924700</v>
       </c>
       <c r="F59" s="3">
-        <v>1007400</v>
+        <v>869300</v>
       </c>
       <c r="G59" s="3">
-        <v>1195200</v>
+        <v>1003600</v>
       </c>
       <c r="H59" s="3">
-        <v>1058900</v>
+        <v>1190800</v>
       </c>
       <c r="I59" s="3">
-        <v>1119500</v>
+        <v>1054900</v>
       </c>
       <c r="J59" s="3">
+        <v>1115400</v>
+      </c>
+      <c r="K59" s="3">
         <v>687700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1274000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>667900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2550800</v>
+        <v>2734600</v>
       </c>
       <c r="E60" s="3">
-        <v>1750500</v>
+        <v>2541400</v>
       </c>
       <c r="F60" s="3">
-        <v>3089200</v>
+        <v>1744000</v>
       </c>
       <c r="G60" s="3">
-        <v>2525000</v>
+        <v>3077700</v>
       </c>
       <c r="H60" s="3">
-        <v>1692500</v>
+        <v>2515600</v>
       </c>
       <c r="I60" s="3">
-        <v>1687600</v>
+        <v>1686200</v>
       </c>
       <c r="J60" s="3">
+        <v>1681300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1691000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1334400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1399200</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1871500</v>
+        <v>1041400</v>
       </c>
       <c r="E61" s="3">
-        <v>2353300</v>
+        <v>1864500</v>
       </c>
       <c r="F61" s="3">
-        <v>1870400</v>
+        <v>2344600</v>
       </c>
       <c r="G61" s="3">
-        <v>2130400</v>
+        <v>1863500</v>
       </c>
       <c r="H61" s="3">
-        <v>1667200</v>
+        <v>2122500</v>
       </c>
       <c r="I61" s="3">
-        <v>1171700</v>
+        <v>1661000</v>
       </c>
       <c r="J61" s="3">
+        <v>1167400</v>
+      </c>
+      <c r="K61" s="3">
         <v>996800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1069500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>687900</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1294800</v>
+        <v>1177900</v>
       </c>
       <c r="E62" s="3">
-        <v>1441300</v>
+        <v>1290000</v>
       </c>
       <c r="F62" s="3">
-        <v>1356900</v>
+        <v>1436000</v>
       </c>
       <c r="G62" s="3">
-        <v>1235000</v>
+        <v>1351900</v>
       </c>
       <c r="H62" s="3">
-        <v>448300</v>
+        <v>1230500</v>
       </c>
       <c r="I62" s="3">
-        <v>236100</v>
+        <v>446600</v>
       </c>
       <c r="J62" s="3">
+        <v>235200</v>
+      </c>
+      <c r="K62" s="3">
         <v>268400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>365900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>120800</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2365,9 +2513,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2398,9 +2549,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2431,42 +2585,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>5731500</v>
+        <v>4957900</v>
       </c>
       <c r="E66" s="3">
-        <v>5561400</v>
+        <v>5710200</v>
       </c>
       <c r="F66" s="3">
-        <v>6350100</v>
+        <v>5540800</v>
       </c>
       <c r="G66" s="3">
-        <v>5966200</v>
+        <v>6326600</v>
       </c>
       <c r="H66" s="3">
-        <v>3879000</v>
+        <v>5944100</v>
       </c>
       <c r="I66" s="3">
-        <v>3230400</v>
+        <v>3864600</v>
       </c>
       <c r="J66" s="3">
+        <v>3218400</v>
+      </c>
+      <c r="K66" s="3">
         <v>3107700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2730600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2351000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2480,8 +2640,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2512,9 +2673,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2545,9 +2709,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2578,9 +2745,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2611,42 +2781,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>2145200</v>
+        <v>2802200</v>
       </c>
       <c r="E72" s="3">
-        <v>2160500</v>
+        <v>2137300</v>
       </c>
       <c r="F72" s="3">
-        <v>1686200</v>
+        <v>2152500</v>
       </c>
       <c r="G72" s="3">
-        <v>1671700</v>
+        <v>1679900</v>
       </c>
       <c r="H72" s="3">
-        <v>1778800</v>
+        <v>1665500</v>
       </c>
       <c r="I72" s="3">
-        <v>1555400</v>
+        <v>1772200</v>
       </c>
       <c r="J72" s="3">
+        <v>1549600</v>
+      </c>
+      <c r="K72" s="3">
         <v>1343700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1872000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>798900</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2677,9 +2853,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2710,9 +2889,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2743,42 +2925,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>7254700</v>
+        <v>8236300</v>
       </c>
       <c r="E76" s="3">
-        <v>7228900</v>
+        <v>7227800</v>
       </c>
       <c r="F76" s="3">
-        <v>7474900</v>
+        <v>7202100</v>
       </c>
       <c r="G76" s="3">
-        <v>7597600</v>
+        <v>7447200</v>
       </c>
       <c r="H76" s="3">
-        <v>7955800</v>
+        <v>7569500</v>
       </c>
       <c r="I76" s="3">
-        <v>7758300</v>
+        <v>7926300</v>
       </c>
       <c r="J76" s="3">
+        <v>7729500</v>
+      </c>
+      <c r="K76" s="3">
         <v>7202800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6622600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6774300</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2809,80 +2997,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>340500</v>
+        <v>1020200</v>
       </c>
       <c r="E81" s="3">
-        <v>248100</v>
+        <v>339300</v>
       </c>
       <c r="F81" s="3">
-        <v>337800</v>
+        <v>247200</v>
       </c>
       <c r="G81" s="3">
-        <v>291700</v>
+        <v>336500</v>
       </c>
       <c r="H81" s="3">
-        <v>471800</v>
+        <v>290600</v>
       </c>
       <c r="I81" s="3">
-        <v>389700</v>
+        <v>470000</v>
       </c>
       <c r="J81" s="3">
+        <v>424300</v>
+      </c>
+      <c r="K81" s="3">
         <v>443100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>113500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>215400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2896,41 +3093,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1732600</v>
+        <v>1709300</v>
       </c>
       <c r="E83" s="3">
-        <v>1825900</v>
+        <v>1726200</v>
       </c>
       <c r="F83" s="3">
-        <v>1862700</v>
+        <v>1819100</v>
       </c>
       <c r="G83" s="3">
-        <v>1823600</v>
+        <v>1855800</v>
       </c>
       <c r="H83" s="3">
-        <v>1595200</v>
+        <v>1816800</v>
       </c>
       <c r="I83" s="3">
-        <v>1426300</v>
+        <v>1589300</v>
       </c>
       <c r="J83" s="3">
+        <v>1421000</v>
+      </c>
+      <c r="K83" s="3">
         <v>1348200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1192100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1055600</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2961,9 +3162,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2994,9 +3198,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3027,9 +3234,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3060,9 +3270,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3093,42 +3306,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1926000</v>
+        <v>2297800</v>
       </c>
       <c r="E89" s="3">
-        <v>1786800</v>
+        <v>1918900</v>
       </c>
       <c r="F89" s="3">
-        <v>1840800</v>
+        <v>1780200</v>
       </c>
       <c r="G89" s="3">
-        <v>1629500</v>
+        <v>1834000</v>
       </c>
       <c r="H89" s="3">
-        <v>2097400</v>
+        <v>1623400</v>
       </c>
       <c r="I89" s="3">
-        <v>1571200</v>
+        <v>2089600</v>
       </c>
       <c r="J89" s="3">
+        <v>1565300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1525000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1343600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1358300</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3142,41 +3361,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-579500</v>
+        <v>-920800</v>
       </c>
       <c r="E91" s="3">
-        <v>-687200</v>
+        <v>-577300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1551800</v>
+        <v>-684700</v>
       </c>
       <c r="G91" s="3">
-        <v>-3211900</v>
+        <v>-1546100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2122500</v>
+        <v>-3200000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1516800</v>
+        <v>-2114600</v>
       </c>
       <c r="J91" s="3">
+        <v>-1511100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1154500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1754100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1751400</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3207,9 +3430,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3240,42 +3466,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1111400</v>
+        <v>-1401900</v>
       </c>
       <c r="E94" s="3">
-        <v>-543700</v>
+        <v>-1107300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1242400</v>
+        <v>-541700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2809400</v>
+        <v>-1237800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2402300</v>
+        <v>-2799000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1494600</v>
+        <v>-2393400</v>
       </c>
       <c r="J94" s="3">
+        <v>-1489100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1105600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1633800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1797500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3289,41 +3521,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-242400</v>
+        <v>-341300</v>
       </c>
       <c r="E96" s="3">
-        <v>-300200</v>
+        <v>-241500</v>
       </c>
       <c r="F96" s="3">
-        <v>-214100</v>
+        <v>-299100</v>
       </c>
       <c r="G96" s="3">
-        <v>-242300</v>
+        <v>-213300</v>
       </c>
       <c r="H96" s="3">
-        <v>-243400</v>
+        <v>-241400</v>
       </c>
       <c r="I96" s="3">
-        <v>-219400</v>
+        <v>-242500</v>
       </c>
       <c r="J96" s="3">
+        <v>-218500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-177600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-210100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-457100</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3354,9 +3590,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3387,9 +3626,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3420,106 +3662,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-346100</v>
+        <v>-894800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1174600</v>
+        <v>-344900</v>
       </c>
       <c r="F100" s="3">
-        <v>321400</v>
+        <v>-1170300</v>
       </c>
       <c r="G100" s="3">
-        <v>1360900</v>
+        <v>320200</v>
       </c>
       <c r="H100" s="3">
-        <v>527900</v>
+        <v>1355900</v>
       </c>
       <c r="I100" s="3">
-        <v>-289700</v>
+        <v>526000</v>
       </c>
       <c r="J100" s="3">
+        <v>-288600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-137700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>119300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>323600</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-53500</v>
+        <v>-51600</v>
       </c>
       <c r="E101" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="F101" s="3">
         <v>1300</v>
       </c>
-      <c r="F101" s="3">
-        <v>-74500</v>
-      </c>
       <c r="G101" s="3">
-        <v>-30600</v>
+        <v>-74300</v>
       </c>
       <c r="H101" s="3">
-        <v>25300</v>
+        <v>-30500</v>
       </c>
       <c r="I101" s="3">
-        <v>51100</v>
+        <v>25200</v>
       </c>
       <c r="J101" s="3">
+        <v>50900</v>
+      </c>
+      <c r="K101" s="3">
         <v>10900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-47800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>43800</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>415000</v>
+        <v>-50500</v>
       </c>
       <c r="E102" s="3">
-        <v>69700</v>
+        <v>413500</v>
       </c>
       <c r="F102" s="3">
-        <v>845300</v>
+        <v>69500</v>
       </c>
       <c r="G102" s="3">
-        <v>150400</v>
+        <v>842100</v>
       </c>
       <c r="H102" s="3">
-        <v>248300</v>
+        <v>149900</v>
       </c>
       <c r="I102" s="3">
-        <v>-162000</v>
+        <v>247400</v>
       </c>
       <c r="J102" s="3">
+        <v>-161400</v>
+      </c>
+      <c r="K102" s="3">
         <v>292600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-218600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-71800</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6179900</v>
+        <v>6340800</v>
       </c>
       <c r="E8" s="3">
-        <v>5179600</v>
+        <v>5314500</v>
       </c>
       <c r="F8" s="3">
-        <v>5286300</v>
+        <v>5423900</v>
       </c>
       <c r="G8" s="3">
-        <v>5217500</v>
+        <v>5353300</v>
       </c>
       <c r="H8" s="3">
-        <v>5168100</v>
+        <v>5302600</v>
       </c>
       <c r="I8" s="3">
-        <v>5061800</v>
+        <v>5193600</v>
       </c>
       <c r="J8" s="3">
-        <v>4893400</v>
+        <v>5020800</v>
       </c>
       <c r="K8" s="3">
         <v>4343300</v>
@@ -753,25 +753,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4816900</v>
+        <v>4942400</v>
       </c>
       <c r="E9" s="3">
-        <v>4434700</v>
+        <v>4550200</v>
       </c>
       <c r="F9" s="3">
-        <v>4488000</v>
+        <v>4604900</v>
       </c>
       <c r="G9" s="3">
-        <v>4271800</v>
+        <v>4383100</v>
       </c>
       <c r="H9" s="3">
-        <v>4106300</v>
+        <v>4213200</v>
       </c>
       <c r="I9" s="3">
-        <v>3951500</v>
+        <v>4054400</v>
       </c>
       <c r="J9" s="3">
-        <v>3780200</v>
+        <v>3878600</v>
       </c>
       <c r="K9" s="3">
         <v>3516700</v>
@@ -789,25 +789,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1362900</v>
+        <v>1398400</v>
       </c>
       <c r="E10" s="3">
-        <v>745000</v>
+        <v>764400</v>
       </c>
       <c r="F10" s="3">
-        <v>798300</v>
+        <v>819000</v>
       </c>
       <c r="G10" s="3">
-        <v>945700</v>
+        <v>970300</v>
       </c>
       <c r="H10" s="3">
-        <v>1061800</v>
+        <v>1089400</v>
       </c>
       <c r="I10" s="3">
-        <v>1110300</v>
+        <v>1139200</v>
       </c>
       <c r="J10" s="3">
-        <v>1113200</v>
+        <v>1142200</v>
       </c>
       <c r="K10" s="3">
         <v>826600</v>
@@ -841,25 +841,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>450700</v>
+        <v>462400</v>
       </c>
       <c r="E12" s="3">
-        <v>414500</v>
+        <v>425300</v>
       </c>
       <c r="F12" s="3">
-        <v>455200</v>
+        <v>467100</v>
       </c>
       <c r="G12" s="3">
-        <v>477800</v>
+        <v>490200</v>
       </c>
       <c r="H12" s="3">
-        <v>473000</v>
+        <v>485300</v>
       </c>
       <c r="I12" s="3">
-        <v>425500</v>
+        <v>436600</v>
       </c>
       <c r="J12" s="3">
-        <v>477600</v>
+        <v>490000</v>
       </c>
       <c r="K12" s="3">
         <v>438300</v>
@@ -916,22 +916,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="F14" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G14" s="3">
-        <v>33000</v>
+        <v>33900</v>
       </c>
       <c r="H14" s="3">
-        <v>56700</v>
+        <v>58200</v>
       </c>
       <c r="I14" s="3">
-        <v>43500</v>
+        <v>44700</v>
       </c>
       <c r="J14" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="K14" s="3">
         <v>46800</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5410700</v>
+        <v>5551600</v>
       </c>
       <c r="E17" s="3">
-        <v>5010600</v>
+        <v>5141100</v>
       </c>
       <c r="F17" s="3">
-        <v>5085300</v>
+        <v>5217700</v>
       </c>
       <c r="G17" s="3">
-        <v>5021000</v>
+        <v>5151700</v>
       </c>
       <c r="H17" s="3">
-        <v>5008300</v>
+        <v>5138700</v>
       </c>
       <c r="I17" s="3">
-        <v>4726600</v>
+        <v>4849700</v>
       </c>
       <c r="J17" s="3">
-        <v>4551900</v>
+        <v>4670400</v>
       </c>
       <c r="K17" s="3">
         <v>4246600</v>
@@ -1034,25 +1034,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>769200</v>
+        <v>789200</v>
       </c>
       <c r="E18" s="3">
-        <v>169000</v>
+        <v>173400</v>
       </c>
       <c r="F18" s="3">
-        <v>201000</v>
+        <v>206200</v>
       </c>
       <c r="G18" s="3">
-        <v>196500</v>
+        <v>201600</v>
       </c>
       <c r="H18" s="3">
-        <v>159800</v>
+        <v>163900</v>
       </c>
       <c r="I18" s="3">
-        <v>335200</v>
+        <v>343900</v>
       </c>
       <c r="J18" s="3">
-        <v>341500</v>
+        <v>350400</v>
       </c>
       <c r="K18" s="3">
         <v>96700</v>
@@ -1086,25 +1086,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>276900</v>
+        <v>284100</v>
       </c>
       <c r="E20" s="3">
-        <v>134000</v>
+        <v>137500</v>
       </c>
       <c r="F20" s="3">
-        <v>-27900</v>
+        <v>-28600</v>
       </c>
       <c r="G20" s="3">
-        <v>160100</v>
+        <v>164300</v>
       </c>
       <c r="H20" s="3">
-        <v>53300</v>
+        <v>54700</v>
       </c>
       <c r="I20" s="3">
-        <v>160500</v>
+        <v>164700</v>
       </c>
       <c r="J20" s="3">
-        <v>156800</v>
+        <v>160900</v>
       </c>
       <c r="K20" s="3">
         <v>430900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2762700</v>
+        <v>2824200</v>
       </c>
       <c r="E21" s="3">
-        <v>2036600</v>
+        <v>2079000</v>
       </c>
       <c r="F21" s="3">
-        <v>2000000</v>
+        <v>2041000</v>
       </c>
       <c r="G21" s="3">
-        <v>2220400</v>
+        <v>2266900</v>
       </c>
       <c r="H21" s="3">
-        <v>2037700</v>
+        <v>2079600</v>
       </c>
       <c r="I21" s="3">
-        <v>2091700</v>
+        <v>2136500</v>
       </c>
       <c r="J21" s="3">
-        <v>1925400</v>
+        <v>1966900</v>
       </c>
       <c r="K21" s="3">
         <v>1876200</v>
@@ -1158,25 +1158,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>70100</v>
+        <v>71900</v>
       </c>
       <c r="E22" s="3">
-        <v>102500</v>
+        <v>105200</v>
       </c>
       <c r="F22" s="3">
-        <v>96800</v>
+        <v>99300</v>
       </c>
       <c r="G22" s="3">
-        <v>84100</v>
+        <v>86300</v>
       </c>
       <c r="H22" s="3">
-        <v>43700</v>
+        <v>44800</v>
       </c>
       <c r="I22" s="3">
-        <v>16400</v>
+        <v>16900</v>
       </c>
       <c r="J22" s="3">
-        <v>26100</v>
+        <v>26800</v>
       </c>
       <c r="K22" s="3">
         <v>23800</v>
@@ -1194,25 +1194,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>976000</v>
+        <v>1001400</v>
       </c>
       <c r="E23" s="3">
-        <v>200500</v>
+        <v>205700</v>
       </c>
       <c r="F23" s="3">
-        <v>76300</v>
+        <v>78300</v>
       </c>
       <c r="G23" s="3">
-        <v>272600</v>
+        <v>279700</v>
       </c>
       <c r="H23" s="3">
-        <v>169400</v>
+        <v>173800</v>
       </c>
       <c r="I23" s="3">
-        <v>479200</v>
+        <v>491700</v>
       </c>
       <c r="J23" s="3">
-        <v>472300</v>
+        <v>484600</v>
       </c>
       <c r="K23" s="3">
         <v>503800</v>
@@ -1230,25 +1230,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>26100</v>
+        <v>26700</v>
       </c>
       <c r="E24" s="3">
-        <v>-13700</v>
+        <v>-14100</v>
       </c>
       <c r="F24" s="3">
-        <v>-16000</v>
+        <v>-16400</v>
       </c>
       <c r="G24" s="3">
-        <v>40800</v>
+        <v>41900</v>
       </c>
       <c r="H24" s="3">
-        <v>34400</v>
+        <v>35300</v>
       </c>
       <c r="I24" s="3">
-        <v>30600</v>
+        <v>31400</v>
       </c>
       <c r="J24" s="3">
-        <v>71100</v>
+        <v>72900</v>
       </c>
       <c r="K24" s="3">
         <v>79200</v>
@@ -1302,25 +1302,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>950000</v>
+        <v>974700</v>
       </c>
       <c r="E26" s="3">
-        <v>214200</v>
+        <v>219800</v>
       </c>
       <c r="F26" s="3">
-        <v>92400</v>
+        <v>94800</v>
       </c>
       <c r="G26" s="3">
-        <v>231800</v>
+        <v>237800</v>
       </c>
       <c r="H26" s="3">
-        <v>135000</v>
+        <v>138500</v>
       </c>
       <c r="I26" s="3">
-        <v>448600</v>
+        <v>460300</v>
       </c>
       <c r="J26" s="3">
-        <v>401200</v>
+        <v>411700</v>
       </c>
       <c r="K26" s="3">
         <v>424600</v>
@@ -1338,25 +1338,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1020200</v>
+        <v>1046700</v>
       </c>
       <c r="E27" s="3">
-        <v>339300</v>
+        <v>348100</v>
       </c>
       <c r="F27" s="3">
-        <v>247200</v>
+        <v>253600</v>
       </c>
       <c r="G27" s="3">
-        <v>336500</v>
+        <v>345300</v>
       </c>
       <c r="H27" s="3">
-        <v>290600</v>
+        <v>298200</v>
       </c>
       <c r="I27" s="3">
-        <v>470000</v>
+        <v>482300</v>
       </c>
       <c r="J27" s="3">
-        <v>424300</v>
+        <v>435400</v>
       </c>
       <c r="K27" s="3">
         <v>443100</v>
@@ -1518,25 +1518,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-276900</v>
+        <v>-284100</v>
       </c>
       <c r="E32" s="3">
-        <v>-134000</v>
+        <v>-137500</v>
       </c>
       <c r="F32" s="3">
-        <v>27900</v>
+        <v>28600</v>
       </c>
       <c r="G32" s="3">
-        <v>-160100</v>
+        <v>-164300</v>
       </c>
       <c r="H32" s="3">
-        <v>-53300</v>
+        <v>-54700</v>
       </c>
       <c r="I32" s="3">
-        <v>-160500</v>
+        <v>-164700</v>
       </c>
       <c r="J32" s="3">
-        <v>-156800</v>
+        <v>-160900</v>
       </c>
       <c r="K32" s="3">
         <v>-430900</v>
@@ -1554,25 +1554,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1020200</v>
+        <v>1046700</v>
       </c>
       <c r="E33" s="3">
-        <v>339300</v>
+        <v>348100</v>
       </c>
       <c r="F33" s="3">
-        <v>247200</v>
+        <v>253600</v>
       </c>
       <c r="G33" s="3">
-        <v>336500</v>
+        <v>345300</v>
       </c>
       <c r="H33" s="3">
-        <v>290600</v>
+        <v>298200</v>
       </c>
       <c r="I33" s="3">
-        <v>470000</v>
+        <v>482300</v>
       </c>
       <c r="J33" s="3">
-        <v>424300</v>
+        <v>435400</v>
       </c>
       <c r="K33" s="3">
         <v>443100</v>
@@ -1626,25 +1626,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1020200</v>
+        <v>1046700</v>
       </c>
       <c r="E35" s="3">
-        <v>339300</v>
+        <v>348100</v>
       </c>
       <c r="F35" s="3">
-        <v>247200</v>
+        <v>253600</v>
       </c>
       <c r="G35" s="3">
-        <v>336500</v>
+        <v>345300</v>
       </c>
       <c r="H35" s="3">
-        <v>290600</v>
+        <v>298200</v>
       </c>
       <c r="I35" s="3">
-        <v>470000</v>
+        <v>482300</v>
       </c>
       <c r="J35" s="3">
-        <v>424300</v>
+        <v>435400</v>
       </c>
       <c r="K35" s="3">
         <v>443100</v>
@@ -1735,25 +1735,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3287000</v>
+        <v>3372600</v>
       </c>
       <c r="E41" s="3">
-        <v>3337500</v>
+        <v>3424400</v>
       </c>
       <c r="F41" s="3">
-        <v>2924000</v>
+        <v>3000100</v>
       </c>
       <c r="G41" s="3">
-        <v>2854500</v>
+        <v>2928900</v>
       </c>
       <c r="H41" s="3">
-        <v>2012400</v>
+        <v>2064800</v>
       </c>
       <c r="I41" s="3">
-        <v>1862500</v>
+        <v>1911000</v>
       </c>
       <c r="J41" s="3">
-        <v>1597300</v>
+        <v>1638800</v>
       </c>
       <c r="K41" s="3">
         <v>1783100</v>
@@ -1771,25 +1771,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>42500</v>
+        <v>43600</v>
       </c>
       <c r="E42" s="3">
-        <v>25300</v>
+        <v>25900</v>
       </c>
       <c r="F42" s="3">
-        <v>18500</v>
+        <v>19000</v>
       </c>
       <c r="G42" s="3">
-        <v>25100</v>
+        <v>25700</v>
       </c>
       <c r="H42" s="3">
-        <v>25000</v>
+        <v>25600</v>
       </c>
       <c r="I42" s="3">
-        <v>23200</v>
+        <v>23800</v>
       </c>
       <c r="J42" s="3">
-        <v>25900</v>
+        <v>26500</v>
       </c>
       <c r="K42" s="3">
         <v>97100</v>
@@ -1807,25 +1807,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1021900</v>
+        <v>1048500</v>
       </c>
       <c r="E43" s="3">
-        <v>930500</v>
+        <v>954700</v>
       </c>
       <c r="F43" s="3">
-        <v>863100</v>
+        <v>885600</v>
       </c>
       <c r="G43" s="3">
-        <v>791900</v>
+        <v>812500</v>
       </c>
       <c r="H43" s="3">
-        <v>838900</v>
+        <v>860800</v>
       </c>
       <c r="I43" s="3">
-        <v>698600</v>
+        <v>716800</v>
       </c>
       <c r="J43" s="3">
-        <v>806000</v>
+        <v>827000</v>
       </c>
       <c r="K43" s="3">
         <v>617600</v>
@@ -1843,25 +1843,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>788200</v>
+        <v>808700</v>
       </c>
       <c r="E44" s="3">
-        <v>758900</v>
+        <v>778700</v>
       </c>
       <c r="F44" s="3">
-        <v>636200</v>
+        <v>652800</v>
       </c>
       <c r="G44" s="3">
-        <v>638100</v>
+        <v>654700</v>
       </c>
       <c r="H44" s="3">
-        <v>594100</v>
+        <v>609500</v>
       </c>
       <c r="I44" s="3">
-        <v>616600</v>
+        <v>632600</v>
       </c>
       <c r="J44" s="3">
-        <v>478300</v>
+        <v>490800</v>
       </c>
       <c r="K44" s="3">
         <v>490900</v>
@@ -1879,25 +1879,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>602900</v>
+        <v>618600</v>
       </c>
       <c r="E45" s="3">
-        <v>321700</v>
+        <v>330000</v>
       </c>
       <c r="F45" s="3">
-        <v>492900</v>
+        <v>505800</v>
       </c>
       <c r="G45" s="3">
-        <v>554100</v>
+        <v>568500</v>
       </c>
       <c r="H45" s="3">
-        <v>390600</v>
+        <v>400800</v>
       </c>
       <c r="I45" s="3">
-        <v>112900</v>
+        <v>115900</v>
       </c>
       <c r="J45" s="3">
-        <v>423500</v>
+        <v>434500</v>
       </c>
       <c r="K45" s="3">
         <v>126400</v>
@@ -1915,25 +1915,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5742500</v>
+        <v>5892000</v>
       </c>
       <c r="E46" s="3">
-        <v>5373800</v>
+        <v>5513700</v>
       </c>
       <c r="F46" s="3">
-        <v>4934700</v>
+        <v>5063200</v>
       </c>
       <c r="G46" s="3">
-        <v>4863700</v>
+        <v>4990300</v>
       </c>
       <c r="H46" s="3">
-        <v>3860900</v>
+        <v>3961400</v>
       </c>
       <c r="I46" s="3">
-        <v>3313800</v>
+        <v>3400100</v>
       </c>
       <c r="J46" s="3">
-        <v>3385400</v>
+        <v>3473500</v>
       </c>
       <c r="K46" s="3">
         <v>3115000</v>
@@ -1951,25 +1951,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1977400</v>
+        <v>2028900</v>
       </c>
       <c r="E47" s="3">
-        <v>1445000</v>
+        <v>1482600</v>
       </c>
       <c r="F47" s="3">
-        <v>1171000</v>
+        <v>1201500</v>
       </c>
       <c r="G47" s="3">
-        <v>1189100</v>
+        <v>1220100</v>
       </c>
       <c r="H47" s="3">
-        <v>1215100</v>
+        <v>1246700</v>
       </c>
       <c r="I47" s="3">
-        <v>1403300</v>
+        <v>1439800</v>
       </c>
       <c r="J47" s="3">
-        <v>2161300</v>
+        <v>2217600</v>
       </c>
       <c r="K47" s="3">
         <v>1056700</v>
@@ -1987,25 +1987,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>4931800</v>
+        <v>5060200</v>
       </c>
       <c r="E48" s="3">
-        <v>5553000</v>
+        <v>5697600</v>
       </c>
       <c r="F48" s="3">
-        <v>6064100</v>
+        <v>6222000</v>
       </c>
       <c r="G48" s="3">
-        <v>7200700</v>
+        <v>7388200</v>
       </c>
       <c r="H48" s="3">
-        <v>7904400</v>
+        <v>8110200</v>
       </c>
       <c r="I48" s="3">
-        <v>6597400</v>
+        <v>6769200</v>
       </c>
       <c r="J48" s="3">
-        <v>5863000</v>
+        <v>6015600</v>
       </c>
       <c r="K48" s="3">
         <v>11405100</v>
@@ -2023,25 +2023,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>170500</v>
+        <v>174900</v>
       </c>
       <c r="E49" s="3">
-        <v>181700</v>
+        <v>186400</v>
       </c>
       <c r="F49" s="3">
-        <v>104600</v>
+        <v>107300</v>
       </c>
       <c r="G49" s="3">
-        <v>132400</v>
+        <v>135800</v>
       </c>
       <c r="H49" s="3">
-        <v>142900</v>
+        <v>146600</v>
       </c>
       <c r="I49" s="3">
-        <v>157400</v>
+        <v>161500</v>
       </c>
       <c r="J49" s="3">
-        <v>158400</v>
+        <v>162600</v>
       </c>
       <c r="K49" s="3">
         <v>332500</v>
@@ -2131,25 +2131,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>372100</v>
+        <v>381800</v>
       </c>
       <c r="E52" s="3">
-        <v>384600</v>
+        <v>394600</v>
       </c>
       <c r="F52" s="3">
-        <v>468600</v>
+        <v>480800</v>
       </c>
       <c r="G52" s="3">
-        <v>388000</v>
+        <v>398100</v>
       </c>
       <c r="H52" s="3">
-        <v>390300</v>
+        <v>400500</v>
       </c>
       <c r="I52" s="3">
-        <v>319000</v>
+        <v>327300</v>
       </c>
       <c r="J52" s="3">
-        <v>231300</v>
+        <v>237300</v>
       </c>
       <c r="K52" s="3">
         <v>262800</v>
@@ -2203,25 +2203,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>13194200</v>
+        <v>13537700</v>
       </c>
       <c r="E54" s="3">
-        <v>12938000</v>
+        <v>13274900</v>
       </c>
       <c r="F54" s="3">
-        <v>12742900</v>
+        <v>13074700</v>
       </c>
       <c r="G54" s="3">
-        <v>13773800</v>
+        <v>14132400</v>
       </c>
       <c r="H54" s="3">
-        <v>13513600</v>
+        <v>13865500</v>
       </c>
       <c r="I54" s="3">
-        <v>11791000</v>
+        <v>12098000</v>
       </c>
       <c r="J54" s="3">
-        <v>10947900</v>
+        <v>11233000</v>
       </c>
       <c r="K54" s="3">
         <v>10310500</v>
@@ -2271,25 +2271,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>274800</v>
+        <v>281900</v>
       </c>
       <c r="E57" s="3">
-        <v>310300</v>
+        <v>318300</v>
       </c>
       <c r="F57" s="3">
-        <v>237700</v>
+        <v>243900</v>
       </c>
       <c r="G57" s="3">
-        <v>228400</v>
+        <v>234400</v>
       </c>
       <c r="H57" s="3">
-        <v>239600</v>
+        <v>245800</v>
       </c>
       <c r="I57" s="3">
-        <v>208100</v>
+        <v>213500</v>
       </c>
       <c r="J57" s="3">
-        <v>215500</v>
+        <v>221200</v>
       </c>
       <c r="K57" s="3">
         <v>260100</v>
@@ -2307,25 +2307,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1348800</v>
+        <v>1383900</v>
       </c>
       <c r="E58" s="3">
-        <v>1306500</v>
+        <v>1340500</v>
       </c>
       <c r="F58" s="3">
-        <v>637000</v>
+        <v>653600</v>
       </c>
       <c r="G58" s="3">
-        <v>1845700</v>
+        <v>1893700</v>
       </c>
       <c r="H58" s="3">
-        <v>1085300</v>
+        <v>1113500</v>
       </c>
       <c r="I58" s="3">
-        <v>423100</v>
+        <v>434100</v>
       </c>
       <c r="J58" s="3">
-        <v>350400</v>
+        <v>359500</v>
       </c>
       <c r="K58" s="3">
         <v>743300</v>
@@ -2343,25 +2343,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1111000</v>
+        <v>1140000</v>
       </c>
       <c r="E59" s="3">
-        <v>924700</v>
+        <v>948700</v>
       </c>
       <c r="F59" s="3">
-        <v>869300</v>
+        <v>891900</v>
       </c>
       <c r="G59" s="3">
-        <v>1003600</v>
+        <v>1029800</v>
       </c>
       <c r="H59" s="3">
-        <v>1190800</v>
+        <v>1221800</v>
       </c>
       <c r="I59" s="3">
-        <v>1054900</v>
+        <v>1082400</v>
       </c>
       <c r="J59" s="3">
-        <v>1115400</v>
+        <v>1144400</v>
       </c>
       <c r="K59" s="3">
         <v>687700</v>
@@ -2379,25 +2379,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2734600</v>
+        <v>2805800</v>
       </c>
       <c r="E60" s="3">
-        <v>2541400</v>
+        <v>2607500</v>
       </c>
       <c r="F60" s="3">
-        <v>1744000</v>
+        <v>1789400</v>
       </c>
       <c r="G60" s="3">
-        <v>3077700</v>
+        <v>3157900</v>
       </c>
       <c r="H60" s="3">
-        <v>2515600</v>
+        <v>2581100</v>
       </c>
       <c r="I60" s="3">
-        <v>1686200</v>
+        <v>1730100</v>
       </c>
       <c r="J60" s="3">
-        <v>1681300</v>
+        <v>1725100</v>
       </c>
       <c r="K60" s="3">
         <v>1691000</v>
@@ -2415,25 +2415,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1041400</v>
+        <v>1068600</v>
       </c>
       <c r="E61" s="3">
-        <v>1864500</v>
+        <v>1913100</v>
       </c>
       <c r="F61" s="3">
-        <v>2344600</v>
+        <v>2405600</v>
       </c>
       <c r="G61" s="3">
-        <v>1863500</v>
+        <v>1912000</v>
       </c>
       <c r="H61" s="3">
-        <v>2122500</v>
+        <v>2177700</v>
       </c>
       <c r="I61" s="3">
-        <v>1661000</v>
+        <v>1704200</v>
       </c>
       <c r="J61" s="3">
-        <v>1167400</v>
+        <v>1197800</v>
       </c>
       <c r="K61" s="3">
         <v>996800</v>
@@ -2451,25 +2451,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1177900</v>
+        <v>1208500</v>
       </c>
       <c r="E62" s="3">
-        <v>1290000</v>
+        <v>1323600</v>
       </c>
       <c r="F62" s="3">
-        <v>1436000</v>
+        <v>1473300</v>
       </c>
       <c r="G62" s="3">
-        <v>1351900</v>
+        <v>1387100</v>
       </c>
       <c r="H62" s="3">
-        <v>1230500</v>
+        <v>1262500</v>
       </c>
       <c r="I62" s="3">
-        <v>446600</v>
+        <v>458300</v>
       </c>
       <c r="J62" s="3">
-        <v>235200</v>
+        <v>241300</v>
       </c>
       <c r="K62" s="3">
         <v>268400</v>
@@ -2595,25 +2595,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>4957900</v>
+        <v>5087000</v>
       </c>
       <c r="E66" s="3">
-        <v>5710200</v>
+        <v>5858900</v>
       </c>
       <c r="F66" s="3">
-        <v>5540800</v>
+        <v>5685100</v>
       </c>
       <c r="G66" s="3">
-        <v>6326600</v>
+        <v>6491300</v>
       </c>
       <c r="H66" s="3">
-        <v>5944100</v>
+        <v>6098900</v>
       </c>
       <c r="I66" s="3">
-        <v>3864600</v>
+        <v>3965300</v>
       </c>
       <c r="J66" s="3">
-        <v>3218400</v>
+        <v>3302200</v>
       </c>
       <c r="K66" s="3">
         <v>3107700</v>
@@ -2791,25 +2791,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>2802200</v>
+        <v>2875100</v>
       </c>
       <c r="E72" s="3">
-        <v>2137300</v>
+        <v>2192900</v>
       </c>
       <c r="F72" s="3">
-        <v>2152500</v>
+        <v>2208600</v>
       </c>
       <c r="G72" s="3">
-        <v>1679900</v>
+        <v>1723600</v>
       </c>
       <c r="H72" s="3">
-        <v>1665500</v>
+        <v>1708900</v>
       </c>
       <c r="I72" s="3">
-        <v>1772200</v>
+        <v>1818400</v>
       </c>
       <c r="J72" s="3">
-        <v>1549600</v>
+        <v>1590000</v>
       </c>
       <c r="K72" s="3">
         <v>1343700</v>
@@ -2935,25 +2935,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>8236300</v>
+        <v>8450800</v>
       </c>
       <c r="E76" s="3">
-        <v>7227800</v>
+        <v>7416000</v>
       </c>
       <c r="F76" s="3">
-        <v>7202100</v>
+        <v>7389700</v>
       </c>
       <c r="G76" s="3">
-        <v>7447200</v>
+        <v>7641100</v>
       </c>
       <c r="H76" s="3">
-        <v>7569500</v>
+        <v>7766600</v>
       </c>
       <c r="I76" s="3">
-        <v>7926300</v>
+        <v>8132700</v>
       </c>
       <c r="J76" s="3">
-        <v>7729500</v>
+        <v>7930800</v>
       </c>
       <c r="K76" s="3">
         <v>7202800</v>
@@ -3048,25 +3048,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1020200</v>
+        <v>1046700</v>
       </c>
       <c r="E81" s="3">
-        <v>339300</v>
+        <v>348100</v>
       </c>
       <c r="F81" s="3">
-        <v>247200</v>
+        <v>253600</v>
       </c>
       <c r="G81" s="3">
-        <v>336500</v>
+        <v>345300</v>
       </c>
       <c r="H81" s="3">
-        <v>290600</v>
+        <v>298200</v>
       </c>
       <c r="I81" s="3">
-        <v>470000</v>
+        <v>482300</v>
       </c>
       <c r="J81" s="3">
-        <v>424300</v>
+        <v>435400</v>
       </c>
       <c r="K81" s="3">
         <v>443100</v>
@@ -3100,25 +3100,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1709300</v>
+        <v>1753800</v>
       </c>
       <c r="E83" s="3">
-        <v>1726200</v>
+        <v>1771100</v>
       </c>
       <c r="F83" s="3">
-        <v>1819100</v>
+        <v>1866500</v>
       </c>
       <c r="G83" s="3">
-        <v>1855800</v>
+        <v>1904100</v>
       </c>
       <c r="H83" s="3">
-        <v>1816800</v>
+        <v>1864100</v>
       </c>
       <c r="I83" s="3">
-        <v>1589300</v>
+        <v>1630600</v>
       </c>
       <c r="J83" s="3">
-        <v>1421000</v>
+        <v>1458000</v>
       </c>
       <c r="K83" s="3">
         <v>1348200</v>
@@ -3316,25 +3316,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>2297800</v>
+        <v>2357600</v>
       </c>
       <c r="E89" s="3">
-        <v>1918900</v>
+        <v>1968900</v>
       </c>
       <c r="F89" s="3">
-        <v>1780200</v>
+        <v>1826500</v>
       </c>
       <c r="G89" s="3">
-        <v>1834000</v>
+        <v>1881700</v>
       </c>
       <c r="H89" s="3">
-        <v>1623400</v>
+        <v>1665700</v>
       </c>
       <c r="I89" s="3">
-        <v>2089600</v>
+        <v>2144000</v>
       </c>
       <c r="J89" s="3">
-        <v>1565300</v>
+        <v>1606100</v>
       </c>
       <c r="K89" s="3">
         <v>1525000</v>
@@ -3368,25 +3368,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-920800</v>
+        <v>-944700</v>
       </c>
       <c r="E91" s="3">
-        <v>-577300</v>
+        <v>-592400</v>
       </c>
       <c r="F91" s="3">
-        <v>-684700</v>
+        <v>-702500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1546100</v>
+        <v>-1586300</v>
       </c>
       <c r="H91" s="3">
-        <v>-3200000</v>
+        <v>-3283400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2114600</v>
+        <v>-2169700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1511100</v>
+        <v>-1550500</v>
       </c>
       <c r="K91" s="3">
         <v>-1154500</v>
@@ -3476,25 +3476,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1401900</v>
+        <v>-1438400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1107300</v>
+        <v>-1136100</v>
       </c>
       <c r="F94" s="3">
-        <v>-541700</v>
+        <v>-555800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1237800</v>
+        <v>-1270000</v>
       </c>
       <c r="H94" s="3">
-        <v>-2799000</v>
+        <v>-2871900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2393400</v>
+        <v>-2455700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1489100</v>
+        <v>-1527800</v>
       </c>
       <c r="K94" s="3">
         <v>-1105600</v>
@@ -3528,25 +3528,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-341300</v>
+        <v>-350200</v>
       </c>
       <c r="E96" s="3">
-        <v>-241500</v>
+        <v>-247800</v>
       </c>
       <c r="F96" s="3">
-        <v>-299100</v>
+        <v>-306900</v>
       </c>
       <c r="G96" s="3">
-        <v>-213300</v>
+        <v>-218900</v>
       </c>
       <c r="H96" s="3">
-        <v>-241400</v>
+        <v>-247700</v>
       </c>
       <c r="I96" s="3">
-        <v>-242500</v>
+        <v>-248800</v>
       </c>
       <c r="J96" s="3">
-        <v>-218500</v>
+        <v>-224200</v>
       </c>
       <c r="K96" s="3">
         <v>-177600</v>
@@ -3672,25 +3672,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-894800</v>
+        <v>-918100</v>
       </c>
       <c r="E100" s="3">
-        <v>-344900</v>
+        <v>-353800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1170300</v>
+        <v>-1200800</v>
       </c>
       <c r="G100" s="3">
-        <v>320200</v>
+        <v>328500</v>
       </c>
       <c r="H100" s="3">
-        <v>1355900</v>
+        <v>1391200</v>
       </c>
       <c r="I100" s="3">
-        <v>526000</v>
+        <v>539700</v>
       </c>
       <c r="J100" s="3">
-        <v>-288600</v>
+        <v>-296100</v>
       </c>
       <c r="K100" s="3">
         <v>-137700</v>
@@ -3708,25 +3708,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-51600</v>
+        <v>-53000</v>
       </c>
       <c r="E101" s="3">
-        <v>-53300</v>
+        <v>-54700</v>
       </c>
       <c r="F101" s="3">
         <v>1300</v>
       </c>
       <c r="G101" s="3">
-        <v>-74300</v>
+        <v>-76200</v>
       </c>
       <c r="H101" s="3">
-        <v>-30500</v>
+        <v>-31300</v>
       </c>
       <c r="I101" s="3">
-        <v>25200</v>
+        <v>25900</v>
       </c>
       <c r="J101" s="3">
-        <v>50900</v>
+        <v>52300</v>
       </c>
       <c r="K101" s="3">
         <v>10900</v>
@@ -3744,25 +3744,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-50500</v>
+        <v>-51800</v>
       </c>
       <c r="E102" s="3">
-        <v>413500</v>
+        <v>424300</v>
       </c>
       <c r="F102" s="3">
-        <v>69500</v>
+        <v>71300</v>
       </c>
       <c r="G102" s="3">
-        <v>842100</v>
+        <v>864100</v>
       </c>
       <c r="H102" s="3">
-        <v>149900</v>
+        <v>153800</v>
       </c>
       <c r="I102" s="3">
-        <v>247400</v>
+        <v>253800</v>
       </c>
       <c r="J102" s="3">
-        <v>-161400</v>
+        <v>-165600</v>
       </c>
       <c r="K102" s="3">
         <v>292600</v>

--- a/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6340800</v>
+        <v>6309000</v>
       </c>
       <c r="E8" s="3">
-        <v>5314500</v>
+        <v>5287800</v>
       </c>
       <c r="F8" s="3">
-        <v>5423900</v>
+        <v>5396700</v>
       </c>
       <c r="G8" s="3">
-        <v>5353300</v>
+        <v>5326500</v>
       </c>
       <c r="H8" s="3">
-        <v>5302600</v>
+        <v>5276000</v>
       </c>
       <c r="I8" s="3">
-        <v>5193600</v>
+        <v>5167500</v>
       </c>
       <c r="J8" s="3">
-        <v>5020800</v>
+        <v>4995600</v>
       </c>
       <c r="K8" s="3">
         <v>4343300</v>
@@ -753,25 +753,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4942400</v>
+        <v>4917600</v>
       </c>
       <c r="E9" s="3">
-        <v>4550200</v>
+        <v>4527300</v>
       </c>
       <c r="F9" s="3">
-        <v>4604900</v>
+        <v>4581800</v>
       </c>
       <c r="G9" s="3">
-        <v>4383100</v>
+        <v>4361100</v>
       </c>
       <c r="H9" s="3">
-        <v>4213200</v>
+        <v>4192100</v>
       </c>
       <c r="I9" s="3">
-        <v>4054400</v>
+        <v>4034000</v>
       </c>
       <c r="J9" s="3">
-        <v>3878600</v>
+        <v>3859100</v>
       </c>
       <c r="K9" s="3">
         <v>3516700</v>
@@ -789,25 +789,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1398400</v>
+        <v>1391400</v>
       </c>
       <c r="E10" s="3">
-        <v>764400</v>
+        <v>760500</v>
       </c>
       <c r="F10" s="3">
-        <v>819000</v>
+        <v>814900</v>
       </c>
       <c r="G10" s="3">
-        <v>970300</v>
+        <v>965400</v>
       </c>
       <c r="H10" s="3">
-        <v>1089400</v>
+        <v>1083900</v>
       </c>
       <c r="I10" s="3">
-        <v>1139200</v>
+        <v>1133500</v>
       </c>
       <c r="J10" s="3">
-        <v>1142200</v>
+        <v>1136500</v>
       </c>
       <c r="K10" s="3">
         <v>826600</v>
@@ -841,25 +841,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>462400</v>
+        <v>460100</v>
       </c>
       <c r="E12" s="3">
-        <v>425300</v>
+        <v>423200</v>
       </c>
       <c r="F12" s="3">
-        <v>467100</v>
+        <v>464700</v>
       </c>
       <c r="G12" s="3">
-        <v>490200</v>
+        <v>487700</v>
       </c>
       <c r="H12" s="3">
-        <v>485300</v>
+        <v>482800</v>
       </c>
       <c r="I12" s="3">
-        <v>436600</v>
+        <v>434400</v>
       </c>
       <c r="J12" s="3">
-        <v>490000</v>
+        <v>487500</v>
       </c>
       <c r="K12" s="3">
         <v>438300</v>
@@ -916,22 +916,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-5000</v>
+        <v>-1900</v>
       </c>
       <c r="F14" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G14" s="3">
-        <v>33900</v>
+        <v>33700</v>
       </c>
       <c r="H14" s="3">
-        <v>58200</v>
+        <v>74100</v>
       </c>
       <c r="I14" s="3">
-        <v>44700</v>
+        <v>80900</v>
       </c>
       <c r="J14" s="3">
-        <v>10900</v>
+        <v>32200</v>
       </c>
       <c r="K14" s="3">
         <v>46800</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5551600</v>
+        <v>5523700</v>
       </c>
       <c r="E17" s="3">
-        <v>5141100</v>
+        <v>5115300</v>
       </c>
       <c r="F17" s="3">
-        <v>5217700</v>
+        <v>5191500</v>
       </c>
       <c r="G17" s="3">
-        <v>5151700</v>
+        <v>5125800</v>
       </c>
       <c r="H17" s="3">
-        <v>5138700</v>
+        <v>5112900</v>
       </c>
       <c r="I17" s="3">
-        <v>4849700</v>
+        <v>4825400</v>
       </c>
       <c r="J17" s="3">
-        <v>4670400</v>
+        <v>4647000</v>
       </c>
       <c r="K17" s="3">
         <v>4246600</v>
@@ -1034,25 +1034,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>789200</v>
+        <v>785200</v>
       </c>
       <c r="E18" s="3">
-        <v>173400</v>
+        <v>172500</v>
       </c>
       <c r="F18" s="3">
-        <v>206200</v>
+        <v>205200</v>
       </c>
       <c r="G18" s="3">
-        <v>201600</v>
+        <v>200600</v>
       </c>
       <c r="H18" s="3">
-        <v>163900</v>
+        <v>163100</v>
       </c>
       <c r="I18" s="3">
-        <v>343900</v>
+        <v>342200</v>
       </c>
       <c r="J18" s="3">
-        <v>350400</v>
+        <v>348700</v>
       </c>
       <c r="K18" s="3">
         <v>96700</v>
@@ -1086,25 +1086,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>284100</v>
+        <v>282700</v>
       </c>
       <c r="E20" s="3">
-        <v>137500</v>
+        <v>136800</v>
       </c>
       <c r="F20" s="3">
-        <v>-28600</v>
+        <v>-28500</v>
       </c>
       <c r="G20" s="3">
-        <v>164300</v>
+        <v>163500</v>
       </c>
       <c r="H20" s="3">
-        <v>54700</v>
+        <v>54400</v>
       </c>
       <c r="I20" s="3">
-        <v>164700</v>
+        <v>163900</v>
       </c>
       <c r="J20" s="3">
-        <v>160900</v>
+        <v>160100</v>
       </c>
       <c r="K20" s="3">
         <v>430900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2824200</v>
+        <v>2825200</v>
       </c>
       <c r="E21" s="3">
-        <v>2079000</v>
+        <v>2083900</v>
       </c>
       <c r="F21" s="3">
-        <v>2041000</v>
+        <v>2046800</v>
       </c>
       <c r="G21" s="3">
-        <v>2266900</v>
+        <v>2272000</v>
       </c>
       <c r="H21" s="3">
-        <v>2079600</v>
+        <v>2085300</v>
       </c>
       <c r="I21" s="3">
-        <v>2136500</v>
+        <v>2139800</v>
       </c>
       <c r="J21" s="3">
-        <v>1966900</v>
+        <v>1969600</v>
       </c>
       <c r="K21" s="3">
         <v>1876200</v>
@@ -1158,25 +1158,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>71900</v>
+        <v>71500</v>
       </c>
       <c r="E22" s="3">
-        <v>105200</v>
+        <v>104700</v>
       </c>
       <c r="F22" s="3">
-        <v>99300</v>
+        <v>98800</v>
       </c>
       <c r="G22" s="3">
-        <v>86300</v>
+        <v>85900</v>
       </c>
       <c r="H22" s="3">
-        <v>44800</v>
+        <v>44600</v>
       </c>
       <c r="I22" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="J22" s="3">
-        <v>26800</v>
+        <v>26600</v>
       </c>
       <c r="K22" s="3">
         <v>23800</v>
@@ -1194,25 +1194,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1001400</v>
+        <v>996400</v>
       </c>
       <c r="E23" s="3">
-        <v>205700</v>
+        <v>204600</v>
       </c>
       <c r="F23" s="3">
-        <v>78300</v>
+        <v>77900</v>
       </c>
       <c r="G23" s="3">
-        <v>279700</v>
+        <v>278200</v>
       </c>
       <c r="H23" s="3">
-        <v>173800</v>
+        <v>172900</v>
       </c>
       <c r="I23" s="3">
-        <v>491700</v>
+        <v>489200</v>
       </c>
       <c r="J23" s="3">
-        <v>484600</v>
+        <v>482200</v>
       </c>
       <c r="K23" s="3">
         <v>503800</v>
@@ -1230,25 +1230,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>26700</v>
+        <v>26600</v>
       </c>
       <c r="E24" s="3">
-        <v>-14100</v>
+        <v>-14000</v>
       </c>
       <c r="F24" s="3">
         <v>-16400</v>
       </c>
       <c r="G24" s="3">
-        <v>41900</v>
+        <v>41600</v>
       </c>
       <c r="H24" s="3">
-        <v>35300</v>
+        <v>35100</v>
       </c>
       <c r="I24" s="3">
-        <v>31400</v>
+        <v>31300</v>
       </c>
       <c r="J24" s="3">
-        <v>72900</v>
+        <v>72600</v>
       </c>
       <c r="K24" s="3">
         <v>79200</v>
@@ -1302,25 +1302,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>974700</v>
+        <v>969800</v>
       </c>
       <c r="E26" s="3">
-        <v>219800</v>
+        <v>218700</v>
       </c>
       <c r="F26" s="3">
-        <v>94800</v>
+        <v>94300</v>
       </c>
       <c r="G26" s="3">
-        <v>237800</v>
+        <v>236600</v>
       </c>
       <c r="H26" s="3">
-        <v>138500</v>
+        <v>137800</v>
       </c>
       <c r="I26" s="3">
-        <v>460300</v>
+        <v>458000</v>
       </c>
       <c r="J26" s="3">
-        <v>411700</v>
+        <v>409600</v>
       </c>
       <c r="K26" s="3">
         <v>424600</v>
@@ -1338,25 +1338,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1046700</v>
+        <v>1041500</v>
       </c>
       <c r="E27" s="3">
-        <v>348100</v>
+        <v>346400</v>
       </c>
       <c r="F27" s="3">
-        <v>253600</v>
+        <v>252400</v>
       </c>
       <c r="G27" s="3">
-        <v>345300</v>
+        <v>343600</v>
       </c>
       <c r="H27" s="3">
-        <v>298200</v>
+        <v>296700</v>
       </c>
       <c r="I27" s="3">
-        <v>482300</v>
+        <v>479800</v>
       </c>
       <c r="J27" s="3">
-        <v>435400</v>
+        <v>433200</v>
       </c>
       <c r="K27" s="3">
         <v>443100</v>
@@ -1518,25 +1518,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-284100</v>
+        <v>-282700</v>
       </c>
       <c r="E32" s="3">
-        <v>-137500</v>
+        <v>-136800</v>
       </c>
       <c r="F32" s="3">
-        <v>28600</v>
+        <v>28500</v>
       </c>
       <c r="G32" s="3">
-        <v>-164300</v>
+        <v>-163500</v>
       </c>
       <c r="H32" s="3">
-        <v>-54700</v>
+        <v>-54400</v>
       </c>
       <c r="I32" s="3">
-        <v>-164700</v>
+        <v>-163900</v>
       </c>
       <c r="J32" s="3">
-        <v>-160900</v>
+        <v>-160100</v>
       </c>
       <c r="K32" s="3">
         <v>-430900</v>
@@ -1554,25 +1554,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1046700</v>
+        <v>1041500</v>
       </c>
       <c r="E33" s="3">
-        <v>348100</v>
+        <v>346400</v>
       </c>
       <c r="F33" s="3">
-        <v>253600</v>
+        <v>252400</v>
       </c>
       <c r="G33" s="3">
-        <v>345300</v>
+        <v>343600</v>
       </c>
       <c r="H33" s="3">
-        <v>298200</v>
+        <v>296700</v>
       </c>
       <c r="I33" s="3">
-        <v>482300</v>
+        <v>479800</v>
       </c>
       <c r="J33" s="3">
-        <v>435400</v>
+        <v>433200</v>
       </c>
       <c r="K33" s="3">
         <v>443100</v>
@@ -1626,25 +1626,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1046700</v>
+        <v>1041500</v>
       </c>
       <c r="E35" s="3">
-        <v>348100</v>
+        <v>346400</v>
       </c>
       <c r="F35" s="3">
-        <v>253600</v>
+        <v>252400</v>
       </c>
       <c r="G35" s="3">
-        <v>345300</v>
+        <v>343600</v>
       </c>
       <c r="H35" s="3">
-        <v>298200</v>
+        <v>296700</v>
       </c>
       <c r="I35" s="3">
-        <v>482300</v>
+        <v>479800</v>
       </c>
       <c r="J35" s="3">
-        <v>435400</v>
+        <v>433200</v>
       </c>
       <c r="K35" s="3">
         <v>443100</v>
@@ -1735,25 +1735,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3372600</v>
+        <v>3355600</v>
       </c>
       <c r="E41" s="3">
-        <v>3424400</v>
+        <v>3407200</v>
       </c>
       <c r="F41" s="3">
-        <v>3000100</v>
+        <v>2985100</v>
       </c>
       <c r="G41" s="3">
-        <v>2928900</v>
+        <v>2914100</v>
       </c>
       <c r="H41" s="3">
-        <v>2064800</v>
+        <v>2054400</v>
       </c>
       <c r="I41" s="3">
-        <v>1911000</v>
+        <v>1901400</v>
       </c>
       <c r="J41" s="3">
-        <v>1638800</v>
+        <v>1630600</v>
       </c>
       <c r="K41" s="3">
         <v>1783100</v>
@@ -1771,25 +1771,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>43600</v>
+        <v>43400</v>
       </c>
       <c r="E42" s="3">
-        <v>25900</v>
+        <v>25800</v>
       </c>
       <c r="F42" s="3">
-        <v>19000</v>
+        <v>18900</v>
       </c>
       <c r="G42" s="3">
-        <v>25700</v>
+        <v>25600</v>
       </c>
       <c r="H42" s="3">
-        <v>25600</v>
+        <v>25500</v>
       </c>
       <c r="I42" s="3">
-        <v>23800</v>
+        <v>23700</v>
       </c>
       <c r="J42" s="3">
-        <v>26500</v>
+        <v>26400</v>
       </c>
       <c r="K42" s="3">
         <v>97100</v>
@@ -1807,25 +1807,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1048500</v>
+        <v>1043200</v>
       </c>
       <c r="E43" s="3">
-        <v>954700</v>
+        <v>949900</v>
       </c>
       <c r="F43" s="3">
-        <v>885600</v>
+        <v>881200</v>
       </c>
       <c r="G43" s="3">
-        <v>812500</v>
+        <v>808400</v>
       </c>
       <c r="H43" s="3">
-        <v>860800</v>
+        <v>856400</v>
       </c>
       <c r="I43" s="3">
-        <v>716800</v>
+        <v>713200</v>
       </c>
       <c r="J43" s="3">
-        <v>827000</v>
+        <v>822900</v>
       </c>
       <c r="K43" s="3">
         <v>617600</v>
@@ -1843,25 +1843,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>808700</v>
+        <v>804700</v>
       </c>
       <c r="E44" s="3">
-        <v>778700</v>
+        <v>774800</v>
       </c>
       <c r="F44" s="3">
-        <v>652800</v>
+        <v>649500</v>
       </c>
       <c r="G44" s="3">
-        <v>654700</v>
+        <v>651400</v>
       </c>
       <c r="H44" s="3">
-        <v>609500</v>
+        <v>606500</v>
       </c>
       <c r="I44" s="3">
-        <v>632600</v>
+        <v>629400</v>
       </c>
       <c r="J44" s="3">
-        <v>490800</v>
+        <v>488300</v>
       </c>
       <c r="K44" s="3">
         <v>490900</v>
@@ -1879,25 +1879,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>618600</v>
+        <v>615500</v>
       </c>
       <c r="E45" s="3">
-        <v>330000</v>
+        <v>328400</v>
       </c>
       <c r="F45" s="3">
-        <v>505800</v>
+        <v>503200</v>
       </c>
       <c r="G45" s="3">
-        <v>568500</v>
+        <v>565700</v>
       </c>
       <c r="H45" s="3">
-        <v>400800</v>
+        <v>398700</v>
       </c>
       <c r="I45" s="3">
-        <v>115900</v>
+        <v>115300</v>
       </c>
       <c r="J45" s="3">
-        <v>434500</v>
+        <v>432300</v>
       </c>
       <c r="K45" s="3">
         <v>126400</v>
@@ -1915,25 +1915,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5892000</v>
+        <v>5862400</v>
       </c>
       <c r="E46" s="3">
-        <v>5513700</v>
+        <v>5486100</v>
       </c>
       <c r="F46" s="3">
-        <v>5063200</v>
+        <v>5037800</v>
       </c>
       <c r="G46" s="3">
-        <v>4990300</v>
+        <v>4965200</v>
       </c>
       <c r="H46" s="3">
-        <v>3961400</v>
+        <v>3941600</v>
       </c>
       <c r="I46" s="3">
-        <v>3400100</v>
+        <v>3383100</v>
       </c>
       <c r="J46" s="3">
-        <v>3473500</v>
+        <v>3456100</v>
       </c>
       <c r="K46" s="3">
         <v>3115000</v>
@@ -1951,25 +1951,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2028900</v>
+        <v>2018700</v>
       </c>
       <c r="E47" s="3">
-        <v>1482600</v>
+        <v>1475200</v>
       </c>
       <c r="F47" s="3">
-        <v>1201500</v>
+        <v>1195500</v>
       </c>
       <c r="G47" s="3">
-        <v>1220100</v>
+        <v>1213900</v>
       </c>
       <c r="H47" s="3">
-        <v>1246700</v>
+        <v>1240500</v>
       </c>
       <c r="I47" s="3">
-        <v>1439800</v>
+        <v>1432600</v>
       </c>
       <c r="J47" s="3">
-        <v>2217600</v>
+        <v>2206500</v>
       </c>
       <c r="K47" s="3">
         <v>1056700</v>
@@ -1987,25 +1987,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>5060200</v>
+        <v>5034800</v>
       </c>
       <c r="E48" s="3">
-        <v>5697600</v>
+        <v>5669000</v>
       </c>
       <c r="F48" s="3">
-        <v>6222000</v>
+        <v>6190800</v>
       </c>
       <c r="G48" s="3">
-        <v>7388200</v>
+        <v>7351100</v>
       </c>
       <c r="H48" s="3">
-        <v>8110200</v>
+        <v>8069500</v>
       </c>
       <c r="I48" s="3">
-        <v>6769200</v>
+        <v>6735200</v>
       </c>
       <c r="J48" s="3">
-        <v>6015600</v>
+        <v>5985400</v>
       </c>
       <c r="K48" s="3">
         <v>11405100</v>
@@ -2023,25 +2023,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>174900</v>
+        <v>174000</v>
       </c>
       <c r="E49" s="3">
-        <v>186400</v>
+        <v>185500</v>
       </c>
       <c r="F49" s="3">
-        <v>107300</v>
+        <v>106700</v>
       </c>
       <c r="G49" s="3">
-        <v>135800</v>
+        <v>135100</v>
       </c>
       <c r="H49" s="3">
-        <v>146600</v>
+        <v>145900</v>
       </c>
       <c r="I49" s="3">
-        <v>161500</v>
+        <v>160700</v>
       </c>
       <c r="J49" s="3">
-        <v>162600</v>
+        <v>161700</v>
       </c>
       <c r="K49" s="3">
         <v>332500</v>
@@ -2131,25 +2131,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>381800</v>
+        <v>379800</v>
       </c>
       <c r="E52" s="3">
-        <v>394600</v>
+        <v>392600</v>
       </c>
       <c r="F52" s="3">
-        <v>480800</v>
+        <v>478300</v>
       </c>
       <c r="G52" s="3">
-        <v>398100</v>
+        <v>396100</v>
       </c>
       <c r="H52" s="3">
-        <v>400500</v>
+        <v>398500</v>
       </c>
       <c r="I52" s="3">
-        <v>327300</v>
+        <v>325700</v>
       </c>
       <c r="J52" s="3">
-        <v>237300</v>
+        <v>236100</v>
       </c>
       <c r="K52" s="3">
         <v>262800</v>
@@ -2203,25 +2203,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>13537700</v>
+        <v>13469800</v>
       </c>
       <c r="E54" s="3">
-        <v>13274900</v>
+        <v>13208300</v>
       </c>
       <c r="F54" s="3">
-        <v>13074700</v>
+        <v>13009100</v>
       </c>
       <c r="G54" s="3">
-        <v>14132400</v>
+        <v>14061500</v>
       </c>
       <c r="H54" s="3">
-        <v>13865500</v>
+        <v>13795900</v>
       </c>
       <c r="I54" s="3">
-        <v>12098000</v>
+        <v>12037200</v>
       </c>
       <c r="J54" s="3">
-        <v>11233000</v>
+        <v>11176600</v>
       </c>
       <c r="K54" s="3">
         <v>10310500</v>
@@ -2271,25 +2271,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>281900</v>
+        <v>280500</v>
       </c>
       <c r="E57" s="3">
-        <v>318300</v>
+        <v>316700</v>
       </c>
       <c r="F57" s="3">
-        <v>243900</v>
+        <v>242700</v>
       </c>
       <c r="G57" s="3">
-        <v>234400</v>
+        <v>233200</v>
       </c>
       <c r="H57" s="3">
-        <v>245800</v>
+        <v>244600</v>
       </c>
       <c r="I57" s="3">
-        <v>213500</v>
+        <v>212400</v>
       </c>
       <c r="J57" s="3">
-        <v>221200</v>
+        <v>220100</v>
       </c>
       <c r="K57" s="3">
         <v>260100</v>
@@ -2307,25 +2307,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1383900</v>
+        <v>1377000</v>
       </c>
       <c r="E58" s="3">
-        <v>1340500</v>
+        <v>1333700</v>
       </c>
       <c r="F58" s="3">
-        <v>653600</v>
+        <v>650300</v>
       </c>
       <c r="G58" s="3">
-        <v>1893700</v>
+        <v>1884200</v>
       </c>
       <c r="H58" s="3">
-        <v>1113500</v>
+        <v>1107900</v>
       </c>
       <c r="I58" s="3">
-        <v>434100</v>
+        <v>432000</v>
       </c>
       <c r="J58" s="3">
-        <v>359500</v>
+        <v>357700</v>
       </c>
       <c r="K58" s="3">
         <v>743300</v>
@@ -2343,25 +2343,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1140000</v>
+        <v>1134200</v>
       </c>
       <c r="E59" s="3">
-        <v>948700</v>
+        <v>944000</v>
       </c>
       <c r="F59" s="3">
-        <v>891900</v>
+        <v>887400</v>
       </c>
       <c r="G59" s="3">
-        <v>1029800</v>
+        <v>1024600</v>
       </c>
       <c r="H59" s="3">
-        <v>1221800</v>
+        <v>1215700</v>
       </c>
       <c r="I59" s="3">
-        <v>1082400</v>
+        <v>1077000</v>
       </c>
       <c r="J59" s="3">
-        <v>1144400</v>
+        <v>1138700</v>
       </c>
       <c r="K59" s="3">
         <v>687700</v>
@@ -2379,25 +2379,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2805800</v>
+        <v>2791700</v>
       </c>
       <c r="E60" s="3">
-        <v>2607500</v>
+        <v>2594400</v>
       </c>
       <c r="F60" s="3">
-        <v>1789400</v>
+        <v>1780400</v>
       </c>
       <c r="G60" s="3">
-        <v>3157900</v>
+        <v>3142000</v>
       </c>
       <c r="H60" s="3">
-        <v>2581100</v>
+        <v>2568200</v>
       </c>
       <c r="I60" s="3">
-        <v>1730100</v>
+        <v>1721400</v>
       </c>
       <c r="J60" s="3">
-        <v>1725100</v>
+        <v>1716400</v>
       </c>
       <c r="K60" s="3">
         <v>1691000</v>
@@ -2415,25 +2415,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1068600</v>
+        <v>1063200</v>
       </c>
       <c r="E61" s="3">
-        <v>1913100</v>
+        <v>1903500</v>
       </c>
       <c r="F61" s="3">
-        <v>2405600</v>
+        <v>2393500</v>
       </c>
       <c r="G61" s="3">
-        <v>1912000</v>
+        <v>1902400</v>
       </c>
       <c r="H61" s="3">
-        <v>2177700</v>
+        <v>2166800</v>
       </c>
       <c r="I61" s="3">
-        <v>1704200</v>
+        <v>1695700</v>
       </c>
       <c r="J61" s="3">
-        <v>1197800</v>
+        <v>1191800</v>
       </c>
       <c r="K61" s="3">
         <v>996800</v>
@@ -2451,25 +2451,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1208500</v>
+        <v>1202500</v>
       </c>
       <c r="E62" s="3">
-        <v>1323600</v>
+        <v>1316900</v>
       </c>
       <c r="F62" s="3">
-        <v>1473300</v>
+        <v>1466000</v>
       </c>
       <c r="G62" s="3">
-        <v>1387100</v>
+        <v>1380200</v>
       </c>
       <c r="H62" s="3">
-        <v>1262500</v>
+        <v>1256200</v>
       </c>
       <c r="I62" s="3">
-        <v>458300</v>
+        <v>456000</v>
       </c>
       <c r="J62" s="3">
-        <v>241300</v>
+        <v>240100</v>
       </c>
       <c r="K62" s="3">
         <v>268400</v>
@@ -2595,25 +2595,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>5087000</v>
+        <v>5061400</v>
       </c>
       <c r="E66" s="3">
-        <v>5858900</v>
+        <v>5829500</v>
       </c>
       <c r="F66" s="3">
-        <v>5685100</v>
+        <v>5656500</v>
       </c>
       <c r="G66" s="3">
-        <v>6491300</v>
+        <v>6458700</v>
       </c>
       <c r="H66" s="3">
-        <v>6098900</v>
+        <v>6068300</v>
       </c>
       <c r="I66" s="3">
-        <v>3965300</v>
+        <v>3945400</v>
       </c>
       <c r="J66" s="3">
-        <v>3302200</v>
+        <v>3285600</v>
       </c>
       <c r="K66" s="3">
         <v>3107700</v>
@@ -2791,25 +2791,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>2875100</v>
+        <v>2860700</v>
       </c>
       <c r="E72" s="3">
-        <v>2192900</v>
+        <v>2181900</v>
       </c>
       <c r="F72" s="3">
-        <v>2208600</v>
+        <v>2197500</v>
       </c>
       <c r="G72" s="3">
-        <v>1723600</v>
+        <v>1715000</v>
       </c>
       <c r="H72" s="3">
-        <v>1708900</v>
+        <v>1700300</v>
       </c>
       <c r="I72" s="3">
-        <v>1818400</v>
+        <v>1809200</v>
       </c>
       <c r="J72" s="3">
-        <v>1590000</v>
+        <v>1582000</v>
       </c>
       <c r="K72" s="3">
         <v>1343700</v>
@@ -2935,25 +2935,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>8450800</v>
+        <v>8408300</v>
       </c>
       <c r="E76" s="3">
-        <v>7416000</v>
+        <v>7378800</v>
       </c>
       <c r="F76" s="3">
-        <v>7389700</v>
+        <v>7352600</v>
       </c>
       <c r="G76" s="3">
-        <v>7641100</v>
+        <v>7602700</v>
       </c>
       <c r="H76" s="3">
-        <v>7766600</v>
+        <v>7727600</v>
       </c>
       <c r="I76" s="3">
-        <v>8132700</v>
+        <v>8091900</v>
       </c>
       <c r="J76" s="3">
-        <v>7930800</v>
+        <v>7891000</v>
       </c>
       <c r="K76" s="3">
         <v>7202800</v>
@@ -3048,25 +3048,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1046700</v>
+        <v>1041500</v>
       </c>
       <c r="E81" s="3">
-        <v>348100</v>
+        <v>346400</v>
       </c>
       <c r="F81" s="3">
-        <v>253600</v>
+        <v>252400</v>
       </c>
       <c r="G81" s="3">
-        <v>345300</v>
+        <v>343600</v>
       </c>
       <c r="H81" s="3">
-        <v>298200</v>
+        <v>296700</v>
       </c>
       <c r="I81" s="3">
-        <v>482300</v>
+        <v>479800</v>
       </c>
       <c r="J81" s="3">
-        <v>435400</v>
+        <v>433200</v>
       </c>
       <c r="K81" s="3">
         <v>443100</v>
@@ -3100,25 +3100,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1753800</v>
+        <v>1745000</v>
       </c>
       <c r="E83" s="3">
-        <v>1771100</v>
+        <v>1762200</v>
       </c>
       <c r="F83" s="3">
-        <v>1866500</v>
+        <v>1857100</v>
       </c>
       <c r="G83" s="3">
-        <v>1904100</v>
+        <v>1894600</v>
       </c>
       <c r="H83" s="3">
-        <v>1864100</v>
+        <v>1854800</v>
       </c>
       <c r="I83" s="3">
-        <v>1630600</v>
+        <v>1622400</v>
       </c>
       <c r="J83" s="3">
-        <v>1458000</v>
+        <v>1450700</v>
       </c>
       <c r="K83" s="3">
         <v>1348200</v>
@@ -3316,25 +3316,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>2357600</v>
+        <v>2345800</v>
       </c>
       <c r="E89" s="3">
-        <v>1968900</v>
+        <v>1959000</v>
       </c>
       <c r="F89" s="3">
-        <v>1826500</v>
+        <v>1817400</v>
       </c>
       <c r="G89" s="3">
-        <v>1881700</v>
+        <v>1872300</v>
       </c>
       <c r="H89" s="3">
-        <v>1665700</v>
+        <v>1657400</v>
       </c>
       <c r="I89" s="3">
-        <v>2144000</v>
+        <v>2133200</v>
       </c>
       <c r="J89" s="3">
-        <v>1606100</v>
+        <v>1598000</v>
       </c>
       <c r="K89" s="3">
         <v>1525000</v>
@@ -3368,25 +3368,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-944700</v>
+        <v>-940000</v>
       </c>
       <c r="E91" s="3">
-        <v>-592400</v>
+        <v>-589400</v>
       </c>
       <c r="F91" s="3">
-        <v>-702500</v>
+        <v>-699000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1586300</v>
+        <v>-1578400</v>
       </c>
       <c r="H91" s="3">
-        <v>-3283400</v>
+        <v>-3266900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2169700</v>
+        <v>-2158800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1550500</v>
+        <v>-1542700</v>
       </c>
       <c r="K91" s="3">
         <v>-1154500</v>
@@ -3476,25 +3476,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1438400</v>
+        <v>-1431200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1136100</v>
+        <v>-1130400</v>
       </c>
       <c r="F94" s="3">
-        <v>-555800</v>
+        <v>-553000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1270000</v>
+        <v>-1263600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2871900</v>
+        <v>-2857500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2455700</v>
+        <v>-2443400</v>
       </c>
       <c r="J94" s="3">
-        <v>-1527800</v>
+        <v>-1520200</v>
       </c>
       <c r="K94" s="3">
         <v>-1105600</v>
@@ -3528,25 +3528,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-350200</v>
+        <v>-348400</v>
       </c>
       <c r="E96" s="3">
-        <v>-247800</v>
+        <v>-246600</v>
       </c>
       <c r="F96" s="3">
-        <v>-306900</v>
+        <v>-305300</v>
       </c>
       <c r="G96" s="3">
-        <v>-218900</v>
+        <v>-217800</v>
       </c>
       <c r="H96" s="3">
-        <v>-247700</v>
+        <v>-246400</v>
       </c>
       <c r="I96" s="3">
-        <v>-248800</v>
+        <v>-247600</v>
       </c>
       <c r="J96" s="3">
-        <v>-224200</v>
+        <v>-223100</v>
       </c>
       <c r="K96" s="3">
         <v>-177600</v>
@@ -3672,25 +3672,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-918100</v>
+        <v>-913500</v>
       </c>
       <c r="E100" s="3">
-        <v>-353800</v>
+        <v>-352100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1200800</v>
+        <v>-1194700</v>
       </c>
       <c r="G100" s="3">
-        <v>328500</v>
+        <v>326900</v>
       </c>
       <c r="H100" s="3">
-        <v>1391200</v>
+        <v>1384200</v>
       </c>
       <c r="I100" s="3">
-        <v>539700</v>
+        <v>537000</v>
       </c>
       <c r="J100" s="3">
-        <v>-296100</v>
+        <v>-294600</v>
       </c>
       <c r="K100" s="3">
         <v>-137700</v>
@@ -3708,25 +3708,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-53000</v>
+        <v>-52700</v>
       </c>
       <c r="E101" s="3">
-        <v>-54700</v>
+        <v>-54400</v>
       </c>
       <c r="F101" s="3">
         <v>1300</v>
       </c>
       <c r="G101" s="3">
-        <v>-76200</v>
+        <v>-75800</v>
       </c>
       <c r="H101" s="3">
-        <v>-31300</v>
+        <v>-31100</v>
       </c>
       <c r="I101" s="3">
-        <v>25900</v>
+        <v>25700</v>
       </c>
       <c r="J101" s="3">
-        <v>52300</v>
+        <v>52000</v>
       </c>
       <c r="K101" s="3">
         <v>10900</v>
@@ -3744,25 +3744,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-51800</v>
+        <v>-51500</v>
       </c>
       <c r="E102" s="3">
-        <v>424300</v>
+        <v>422100</v>
       </c>
       <c r="F102" s="3">
-        <v>71300</v>
+        <v>70900</v>
       </c>
       <c r="G102" s="3">
-        <v>864100</v>
+        <v>859700</v>
       </c>
       <c r="H102" s="3">
-        <v>153800</v>
+        <v>153000</v>
       </c>
       <c r="I102" s="3">
-        <v>253800</v>
+        <v>252500</v>
       </c>
       <c r="J102" s="3">
-        <v>-165600</v>
+        <v>-164800</v>
       </c>
       <c r="K102" s="3">
         <v>292600</v>

--- a/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6309000</v>
+        <v>6369100</v>
       </c>
       <c r="E8" s="3">
-        <v>5287800</v>
+        <v>5338200</v>
       </c>
       <c r="F8" s="3">
-        <v>5396700</v>
+        <v>5448100</v>
       </c>
       <c r="G8" s="3">
-        <v>5326500</v>
+        <v>5377200</v>
       </c>
       <c r="H8" s="3">
-        <v>5276000</v>
+        <v>5326300</v>
       </c>
       <c r="I8" s="3">
-        <v>5167500</v>
+        <v>5216800</v>
       </c>
       <c r="J8" s="3">
-        <v>4995600</v>
+        <v>5043200</v>
       </c>
       <c r="K8" s="3">
         <v>4343300</v>
@@ -753,25 +753,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4917600</v>
+        <v>4964400</v>
       </c>
       <c r="E9" s="3">
-        <v>4527300</v>
+        <v>4570500</v>
       </c>
       <c r="F9" s="3">
-        <v>4581800</v>
+        <v>4625400</v>
       </c>
       <c r="G9" s="3">
-        <v>4361100</v>
+        <v>4402600</v>
       </c>
       <c r="H9" s="3">
-        <v>4192100</v>
+        <v>4232000</v>
       </c>
       <c r="I9" s="3">
-        <v>4034000</v>
+        <v>4072500</v>
       </c>
       <c r="J9" s="3">
-        <v>3859100</v>
+        <v>3895900</v>
       </c>
       <c r="K9" s="3">
         <v>3516700</v>
@@ -789,25 +789,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1391400</v>
+        <v>1404700</v>
       </c>
       <c r="E10" s="3">
-        <v>760500</v>
+        <v>767800</v>
       </c>
       <c r="F10" s="3">
-        <v>814900</v>
+        <v>822700</v>
       </c>
       <c r="G10" s="3">
-        <v>965400</v>
+        <v>974600</v>
       </c>
       <c r="H10" s="3">
-        <v>1083900</v>
+        <v>1094300</v>
       </c>
       <c r="I10" s="3">
-        <v>1133500</v>
+        <v>1144300</v>
       </c>
       <c r="J10" s="3">
-        <v>1136500</v>
+        <v>1147300</v>
       </c>
       <c r="K10" s="3">
         <v>826600</v>
@@ -841,25 +841,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>460100</v>
+        <v>464500</v>
       </c>
       <c r="E12" s="3">
-        <v>423200</v>
+        <v>427200</v>
       </c>
       <c r="F12" s="3">
-        <v>464700</v>
+        <v>469200</v>
       </c>
       <c r="G12" s="3">
-        <v>487700</v>
+        <v>492400</v>
       </c>
       <c r="H12" s="3">
-        <v>482800</v>
+        <v>487400</v>
       </c>
       <c r="I12" s="3">
-        <v>434400</v>
+        <v>438500</v>
       </c>
       <c r="J12" s="3">
-        <v>487500</v>
+        <v>492200</v>
       </c>
       <c r="K12" s="3">
         <v>438300</v>
@@ -919,19 +919,19 @@
         <v>-1900</v>
       </c>
       <c r="F14" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G14" s="3">
-        <v>33700</v>
+        <v>34000</v>
       </c>
       <c r="H14" s="3">
-        <v>74100</v>
+        <v>74800</v>
       </c>
       <c r="I14" s="3">
-        <v>80900</v>
+        <v>81600</v>
       </c>
       <c r="J14" s="3">
-        <v>32200</v>
+        <v>32500</v>
       </c>
       <c r="K14" s="3">
         <v>46800</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5523700</v>
+        <v>5576400</v>
       </c>
       <c r="E17" s="3">
-        <v>5115300</v>
+        <v>5164000</v>
       </c>
       <c r="F17" s="3">
-        <v>5191500</v>
+        <v>5241000</v>
       </c>
       <c r="G17" s="3">
-        <v>5125800</v>
+        <v>5174700</v>
       </c>
       <c r="H17" s="3">
-        <v>5112900</v>
+        <v>5161600</v>
       </c>
       <c r="I17" s="3">
-        <v>4825400</v>
+        <v>4871400</v>
       </c>
       <c r="J17" s="3">
-        <v>4647000</v>
+        <v>4691300</v>
       </c>
       <c r="K17" s="3">
         <v>4246600</v>
@@ -1034,25 +1034,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>785200</v>
+        <v>792700</v>
       </c>
       <c r="E18" s="3">
-        <v>172500</v>
+        <v>174200</v>
       </c>
       <c r="F18" s="3">
-        <v>205200</v>
+        <v>207200</v>
       </c>
       <c r="G18" s="3">
-        <v>200600</v>
+        <v>202500</v>
       </c>
       <c r="H18" s="3">
-        <v>163100</v>
+        <v>164700</v>
       </c>
       <c r="I18" s="3">
-        <v>342200</v>
+        <v>345400</v>
       </c>
       <c r="J18" s="3">
-        <v>348700</v>
+        <v>352000</v>
       </c>
       <c r="K18" s="3">
         <v>96700</v>
@@ -1086,25 +1086,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>282700</v>
+        <v>285400</v>
       </c>
       <c r="E20" s="3">
-        <v>136800</v>
+        <v>138100</v>
       </c>
       <c r="F20" s="3">
-        <v>-28500</v>
+        <v>-28700</v>
       </c>
       <c r="G20" s="3">
-        <v>163500</v>
+        <v>165100</v>
       </c>
       <c r="H20" s="3">
-        <v>54400</v>
+        <v>54900</v>
       </c>
       <c r="I20" s="3">
-        <v>163900</v>
+        <v>165400</v>
       </c>
       <c r="J20" s="3">
-        <v>160100</v>
+        <v>161600</v>
       </c>
       <c r="K20" s="3">
         <v>430900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2825200</v>
+        <v>2833900</v>
       </c>
       <c r="E21" s="3">
-        <v>2083900</v>
+        <v>2085400</v>
       </c>
       <c r="F21" s="3">
-        <v>2046800</v>
+        <v>2047000</v>
       </c>
       <c r="G21" s="3">
-        <v>2272000</v>
+        <v>2273800</v>
       </c>
       <c r="H21" s="3">
-        <v>2085300</v>
+        <v>2085800</v>
       </c>
       <c r="I21" s="3">
-        <v>2139800</v>
+        <v>2143300</v>
       </c>
       <c r="J21" s="3">
-        <v>1969600</v>
+        <v>1973200</v>
       </c>
       <c r="K21" s="3">
         <v>1876200</v>
@@ -1158,25 +1158,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>71500</v>
+        <v>72200</v>
       </c>
       <c r="E22" s="3">
-        <v>104700</v>
+        <v>105700</v>
       </c>
       <c r="F22" s="3">
-        <v>98800</v>
+        <v>99700</v>
       </c>
       <c r="G22" s="3">
-        <v>85900</v>
+        <v>86700</v>
       </c>
       <c r="H22" s="3">
-        <v>44600</v>
+        <v>45000</v>
       </c>
       <c r="I22" s="3">
-        <v>16800</v>
+        <v>16900</v>
       </c>
       <c r="J22" s="3">
-        <v>26600</v>
+        <v>26900</v>
       </c>
       <c r="K22" s="3">
         <v>23800</v>
@@ -1194,25 +1194,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>996400</v>
+        <v>1005900</v>
       </c>
       <c r="E23" s="3">
-        <v>204600</v>
+        <v>206600</v>
       </c>
       <c r="F23" s="3">
-        <v>77900</v>
+        <v>78700</v>
       </c>
       <c r="G23" s="3">
-        <v>278200</v>
+        <v>280900</v>
       </c>
       <c r="H23" s="3">
-        <v>172900</v>
+        <v>174600</v>
       </c>
       <c r="I23" s="3">
-        <v>489200</v>
+        <v>493900</v>
       </c>
       <c r="J23" s="3">
-        <v>482200</v>
+        <v>486700</v>
       </c>
       <c r="K23" s="3">
         <v>503800</v>
@@ -1230,25 +1230,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>26600</v>
+        <v>26900</v>
       </c>
       <c r="E24" s="3">
-        <v>-14000</v>
+        <v>-14200</v>
       </c>
       <c r="F24" s="3">
-        <v>-16400</v>
+        <v>-16500</v>
       </c>
       <c r="G24" s="3">
-        <v>41600</v>
+        <v>42000</v>
       </c>
       <c r="H24" s="3">
-        <v>35100</v>
+        <v>35400</v>
       </c>
       <c r="I24" s="3">
-        <v>31300</v>
+        <v>31600</v>
       </c>
       <c r="J24" s="3">
-        <v>72600</v>
+        <v>73300</v>
       </c>
       <c r="K24" s="3">
         <v>79200</v>
@@ -1302,25 +1302,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>969800</v>
+        <v>979000</v>
       </c>
       <c r="E26" s="3">
-        <v>218700</v>
+        <v>220800</v>
       </c>
       <c r="F26" s="3">
-        <v>94300</v>
+        <v>95200</v>
       </c>
       <c r="G26" s="3">
-        <v>236600</v>
+        <v>238900</v>
       </c>
       <c r="H26" s="3">
-        <v>137800</v>
+        <v>139100</v>
       </c>
       <c r="I26" s="3">
-        <v>458000</v>
+        <v>462300</v>
       </c>
       <c r="J26" s="3">
-        <v>409600</v>
+        <v>413500</v>
       </c>
       <c r="K26" s="3">
         <v>424600</v>
@@ -1338,25 +1338,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1041500</v>
+        <v>1051400</v>
       </c>
       <c r="E27" s="3">
-        <v>346400</v>
+        <v>349700</v>
       </c>
       <c r="F27" s="3">
-        <v>252400</v>
+        <v>254800</v>
       </c>
       <c r="G27" s="3">
-        <v>343600</v>
+        <v>346800</v>
       </c>
       <c r="H27" s="3">
-        <v>296700</v>
+        <v>299500</v>
       </c>
       <c r="I27" s="3">
-        <v>479800</v>
+        <v>484400</v>
       </c>
       <c r="J27" s="3">
-        <v>433200</v>
+        <v>437300</v>
       </c>
       <c r="K27" s="3">
         <v>443100</v>
@@ -1518,25 +1518,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-282700</v>
+        <v>-285400</v>
       </c>
       <c r="E32" s="3">
-        <v>-136800</v>
+        <v>-138100</v>
       </c>
       <c r="F32" s="3">
-        <v>28500</v>
+        <v>28700</v>
       </c>
       <c r="G32" s="3">
-        <v>-163500</v>
+        <v>-165100</v>
       </c>
       <c r="H32" s="3">
-        <v>-54400</v>
+        <v>-54900</v>
       </c>
       <c r="I32" s="3">
-        <v>-163900</v>
+        <v>-165400</v>
       </c>
       <c r="J32" s="3">
-        <v>-160100</v>
+        <v>-161600</v>
       </c>
       <c r="K32" s="3">
         <v>-430900</v>
@@ -1554,25 +1554,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1041500</v>
+        <v>1051400</v>
       </c>
       <c r="E33" s="3">
-        <v>346400</v>
+        <v>349700</v>
       </c>
       <c r="F33" s="3">
-        <v>252400</v>
+        <v>254800</v>
       </c>
       <c r="G33" s="3">
-        <v>343600</v>
+        <v>346800</v>
       </c>
       <c r="H33" s="3">
-        <v>296700</v>
+        <v>299500</v>
       </c>
       <c r="I33" s="3">
-        <v>479800</v>
+        <v>484400</v>
       </c>
       <c r="J33" s="3">
-        <v>433200</v>
+        <v>437300</v>
       </c>
       <c r="K33" s="3">
         <v>443100</v>
@@ -1626,25 +1626,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1041500</v>
+        <v>1051400</v>
       </c>
       <c r="E35" s="3">
-        <v>346400</v>
+        <v>349700</v>
       </c>
       <c r="F35" s="3">
-        <v>252400</v>
+        <v>254800</v>
       </c>
       <c r="G35" s="3">
-        <v>343600</v>
+        <v>346800</v>
       </c>
       <c r="H35" s="3">
-        <v>296700</v>
+        <v>299500</v>
       </c>
       <c r="I35" s="3">
-        <v>479800</v>
+        <v>484400</v>
       </c>
       <c r="J35" s="3">
-        <v>433200</v>
+        <v>437300</v>
       </c>
       <c r="K35" s="3">
         <v>443100</v>
@@ -1735,25 +1735,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3355600</v>
+        <v>3387600</v>
       </c>
       <c r="E41" s="3">
-        <v>3407200</v>
+        <v>3439600</v>
       </c>
       <c r="F41" s="3">
-        <v>2985100</v>
+        <v>3013500</v>
       </c>
       <c r="G41" s="3">
-        <v>2914100</v>
+        <v>2941900</v>
       </c>
       <c r="H41" s="3">
-        <v>2054400</v>
+        <v>2074000</v>
       </c>
       <c r="I41" s="3">
-        <v>1901400</v>
+        <v>1919500</v>
       </c>
       <c r="J41" s="3">
-        <v>1630600</v>
+        <v>1646200</v>
       </c>
       <c r="K41" s="3">
         <v>1783100</v>
@@ -1771,25 +1771,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>43400</v>
+        <v>43800</v>
       </c>
       <c r="E42" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F42" s="3">
+        <v>19000</v>
+      </c>
+      <c r="G42" s="3">
         <v>25800</v>
       </c>
-      <c r="F42" s="3">
-        <v>18900</v>
-      </c>
-      <c r="G42" s="3">
-        <v>25600</v>
-      </c>
       <c r="H42" s="3">
-        <v>25500</v>
+        <v>25700</v>
       </c>
       <c r="I42" s="3">
-        <v>23700</v>
+        <v>24000</v>
       </c>
       <c r="J42" s="3">
-        <v>26400</v>
+        <v>26700</v>
       </c>
       <c r="K42" s="3">
         <v>97100</v>
@@ -1807,25 +1807,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1043200</v>
+        <v>1053100</v>
       </c>
       <c r="E43" s="3">
-        <v>949900</v>
+        <v>959000</v>
       </c>
       <c r="F43" s="3">
-        <v>881200</v>
+        <v>889600</v>
       </c>
       <c r="G43" s="3">
-        <v>808400</v>
+        <v>816100</v>
       </c>
       <c r="H43" s="3">
-        <v>856400</v>
+        <v>864600</v>
       </c>
       <c r="I43" s="3">
-        <v>713200</v>
+        <v>720000</v>
       </c>
       <c r="J43" s="3">
-        <v>822900</v>
+        <v>830700</v>
       </c>
       <c r="K43" s="3">
         <v>617600</v>
@@ -1843,25 +1843,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>804700</v>
+        <v>812300</v>
       </c>
       <c r="E44" s="3">
-        <v>774800</v>
+        <v>782200</v>
       </c>
       <c r="F44" s="3">
-        <v>649500</v>
+        <v>655700</v>
       </c>
       <c r="G44" s="3">
-        <v>651400</v>
+        <v>657600</v>
       </c>
       <c r="H44" s="3">
-        <v>606500</v>
+        <v>612300</v>
       </c>
       <c r="I44" s="3">
-        <v>629400</v>
+        <v>635400</v>
       </c>
       <c r="J44" s="3">
-        <v>488300</v>
+        <v>493000</v>
       </c>
       <c r="K44" s="3">
         <v>490900</v>
@@ -1879,25 +1879,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>615500</v>
+        <v>621400</v>
       </c>
       <c r="E45" s="3">
-        <v>328400</v>
+        <v>331500</v>
       </c>
       <c r="F45" s="3">
-        <v>503200</v>
+        <v>508000</v>
       </c>
       <c r="G45" s="3">
-        <v>565700</v>
+        <v>571100</v>
       </c>
       <c r="H45" s="3">
-        <v>398700</v>
+        <v>402500</v>
       </c>
       <c r="I45" s="3">
-        <v>115300</v>
+        <v>116400</v>
       </c>
       <c r="J45" s="3">
-        <v>432300</v>
+        <v>436500</v>
       </c>
       <c r="K45" s="3">
         <v>126400</v>
@@ -1915,25 +1915,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5862400</v>
+        <v>5918300</v>
       </c>
       <c r="E46" s="3">
-        <v>5486100</v>
+        <v>5538300</v>
       </c>
       <c r="F46" s="3">
-        <v>5037800</v>
+        <v>5085800</v>
       </c>
       <c r="G46" s="3">
-        <v>4965200</v>
+        <v>5012600</v>
       </c>
       <c r="H46" s="3">
-        <v>3941600</v>
+        <v>3979100</v>
       </c>
       <c r="I46" s="3">
-        <v>3383100</v>
+        <v>3415300</v>
       </c>
       <c r="J46" s="3">
-        <v>3456100</v>
+        <v>3489000</v>
       </c>
       <c r="K46" s="3">
         <v>3115000</v>
@@ -1951,25 +1951,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2018700</v>
+        <v>2037900</v>
       </c>
       <c r="E47" s="3">
-        <v>1475200</v>
+        <v>1489200</v>
       </c>
       <c r="F47" s="3">
-        <v>1195500</v>
+        <v>1206900</v>
       </c>
       <c r="G47" s="3">
-        <v>1213900</v>
+        <v>1225500</v>
       </c>
       <c r="H47" s="3">
-        <v>1240500</v>
+        <v>1252300</v>
       </c>
       <c r="I47" s="3">
-        <v>1432600</v>
+        <v>1446200</v>
       </c>
       <c r="J47" s="3">
-        <v>2206500</v>
+        <v>2227500</v>
       </c>
       <c r="K47" s="3">
         <v>1056700</v>
@@ -1987,25 +1987,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>5034800</v>
+        <v>5082700</v>
       </c>
       <c r="E48" s="3">
-        <v>5669000</v>
+        <v>5723000</v>
       </c>
       <c r="F48" s="3">
-        <v>6190800</v>
+        <v>6249800</v>
       </c>
       <c r="G48" s="3">
-        <v>7351100</v>
+        <v>7421100</v>
       </c>
       <c r="H48" s="3">
-        <v>8069500</v>
+        <v>8146400</v>
       </c>
       <c r="I48" s="3">
-        <v>6735200</v>
+        <v>6799400</v>
       </c>
       <c r="J48" s="3">
-        <v>5985400</v>
+        <v>6042500</v>
       </c>
       <c r="K48" s="3">
         <v>11405100</v>
@@ -2023,25 +2023,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>174000</v>
+        <v>175700</v>
       </c>
       <c r="E49" s="3">
-        <v>185500</v>
+        <v>187200</v>
       </c>
       <c r="F49" s="3">
-        <v>106700</v>
+        <v>107800</v>
       </c>
       <c r="G49" s="3">
-        <v>135100</v>
+        <v>136400</v>
       </c>
       <c r="H49" s="3">
-        <v>145900</v>
+        <v>147300</v>
       </c>
       <c r="I49" s="3">
-        <v>160700</v>
+        <v>162200</v>
       </c>
       <c r="J49" s="3">
-        <v>161700</v>
+        <v>163300</v>
       </c>
       <c r="K49" s="3">
         <v>332500</v>
@@ -2131,25 +2131,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>379800</v>
+        <v>383500</v>
       </c>
       <c r="E52" s="3">
-        <v>392600</v>
+        <v>396400</v>
       </c>
       <c r="F52" s="3">
-        <v>478300</v>
+        <v>482900</v>
       </c>
       <c r="G52" s="3">
-        <v>396100</v>
+        <v>399800</v>
       </c>
       <c r="H52" s="3">
-        <v>398500</v>
+        <v>402300</v>
       </c>
       <c r="I52" s="3">
-        <v>325700</v>
+        <v>328800</v>
       </c>
       <c r="J52" s="3">
-        <v>236100</v>
+        <v>238400</v>
       </c>
       <c r="K52" s="3">
         <v>262800</v>
@@ -2203,25 +2203,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>13469800</v>
+        <v>13598100</v>
       </c>
       <c r="E54" s="3">
-        <v>13208300</v>
+        <v>13334100</v>
       </c>
       <c r="F54" s="3">
-        <v>13009100</v>
+        <v>13133100</v>
       </c>
       <c r="G54" s="3">
-        <v>14061500</v>
+        <v>14195500</v>
       </c>
       <c r="H54" s="3">
-        <v>13795900</v>
+        <v>13927300</v>
       </c>
       <c r="I54" s="3">
-        <v>12037200</v>
+        <v>12152000</v>
       </c>
       <c r="J54" s="3">
-        <v>11176600</v>
+        <v>11283100</v>
       </c>
       <c r="K54" s="3">
         <v>10310500</v>
@@ -2271,25 +2271,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>280500</v>
+        <v>283200</v>
       </c>
       <c r="E57" s="3">
-        <v>316700</v>
+        <v>319800</v>
       </c>
       <c r="F57" s="3">
-        <v>242700</v>
+        <v>245000</v>
       </c>
       <c r="G57" s="3">
-        <v>233200</v>
+        <v>235400</v>
       </c>
       <c r="H57" s="3">
-        <v>244600</v>
+        <v>246900</v>
       </c>
       <c r="I57" s="3">
-        <v>212400</v>
+        <v>214500</v>
       </c>
       <c r="J57" s="3">
-        <v>220100</v>
+        <v>222100</v>
       </c>
       <c r="K57" s="3">
         <v>260100</v>
@@ -2307,25 +2307,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1377000</v>
+        <v>1390100</v>
       </c>
       <c r="E58" s="3">
-        <v>1333700</v>
+        <v>1346500</v>
       </c>
       <c r="F58" s="3">
-        <v>650300</v>
+        <v>656500</v>
       </c>
       <c r="G58" s="3">
-        <v>1884200</v>
+        <v>1902200</v>
       </c>
       <c r="H58" s="3">
-        <v>1107900</v>
+        <v>1118500</v>
       </c>
       <c r="I58" s="3">
-        <v>432000</v>
+        <v>436100</v>
       </c>
       <c r="J58" s="3">
-        <v>357700</v>
+        <v>361100</v>
       </c>
       <c r="K58" s="3">
         <v>743300</v>
@@ -2343,25 +2343,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1134200</v>
+        <v>1145000</v>
       </c>
       <c r="E59" s="3">
-        <v>944000</v>
+        <v>953000</v>
       </c>
       <c r="F59" s="3">
-        <v>887400</v>
+        <v>895900</v>
       </c>
       <c r="G59" s="3">
-        <v>1024600</v>
+        <v>1034400</v>
       </c>
       <c r="H59" s="3">
-        <v>1215700</v>
+        <v>1227300</v>
       </c>
       <c r="I59" s="3">
-        <v>1077000</v>
+        <v>1087200</v>
       </c>
       <c r="J59" s="3">
-        <v>1138700</v>
+        <v>1149500</v>
       </c>
       <c r="K59" s="3">
         <v>687700</v>
@@ -2379,25 +2379,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2791700</v>
+        <v>2818300</v>
       </c>
       <c r="E60" s="3">
-        <v>2594400</v>
+        <v>2619200</v>
       </c>
       <c r="F60" s="3">
-        <v>1780400</v>
+        <v>1797400</v>
       </c>
       <c r="G60" s="3">
-        <v>3142000</v>
+        <v>3172000</v>
       </c>
       <c r="H60" s="3">
-        <v>2568200</v>
+        <v>2592700</v>
       </c>
       <c r="I60" s="3">
-        <v>1721400</v>
+        <v>1737800</v>
       </c>
       <c r="J60" s="3">
-        <v>1716400</v>
+        <v>1732800</v>
       </c>
       <c r="K60" s="3">
         <v>1691000</v>
@@ -2415,25 +2415,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1063200</v>
+        <v>1073300</v>
       </c>
       <c r="E61" s="3">
-        <v>1903500</v>
+        <v>1921600</v>
       </c>
       <c r="F61" s="3">
-        <v>2393500</v>
+        <v>2416300</v>
       </c>
       <c r="G61" s="3">
-        <v>1902400</v>
+        <v>1920600</v>
       </c>
       <c r="H61" s="3">
-        <v>2166800</v>
+        <v>2187400</v>
       </c>
       <c r="I61" s="3">
-        <v>1695700</v>
+        <v>1711800</v>
       </c>
       <c r="J61" s="3">
-        <v>1191800</v>
+        <v>1203100</v>
       </c>
       <c r="K61" s="3">
         <v>996800</v>
@@ -2451,25 +2451,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1202500</v>
+        <v>1213900</v>
       </c>
       <c r="E62" s="3">
-        <v>1316900</v>
+        <v>1329500</v>
       </c>
       <c r="F62" s="3">
-        <v>1466000</v>
+        <v>1479900</v>
       </c>
       <c r="G62" s="3">
-        <v>1380200</v>
+        <v>1393300</v>
       </c>
       <c r="H62" s="3">
-        <v>1256200</v>
+        <v>1268100</v>
       </c>
       <c r="I62" s="3">
-        <v>456000</v>
+        <v>460300</v>
       </c>
       <c r="J62" s="3">
-        <v>240100</v>
+        <v>242400</v>
       </c>
       <c r="K62" s="3">
         <v>268400</v>
@@ -2595,25 +2595,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>5061400</v>
+        <v>5109700</v>
       </c>
       <c r="E66" s="3">
-        <v>5829500</v>
+        <v>5885100</v>
       </c>
       <c r="F66" s="3">
-        <v>5656500</v>
+        <v>5710400</v>
       </c>
       <c r="G66" s="3">
-        <v>6458700</v>
+        <v>6520300</v>
       </c>
       <c r="H66" s="3">
-        <v>6068300</v>
+        <v>6126100</v>
       </c>
       <c r="I66" s="3">
-        <v>3945400</v>
+        <v>3983000</v>
       </c>
       <c r="J66" s="3">
-        <v>3285600</v>
+        <v>3317000</v>
       </c>
       <c r="K66" s="3">
         <v>3107700</v>
@@ -2791,25 +2791,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>2860700</v>
+        <v>2888000</v>
       </c>
       <c r="E72" s="3">
-        <v>2181900</v>
+        <v>2202700</v>
       </c>
       <c r="F72" s="3">
-        <v>2197500</v>
+        <v>2218400</v>
       </c>
       <c r="G72" s="3">
-        <v>1715000</v>
+        <v>1731300</v>
       </c>
       <c r="H72" s="3">
-        <v>1700300</v>
+        <v>1716500</v>
       </c>
       <c r="I72" s="3">
-        <v>1809200</v>
+        <v>1826500</v>
       </c>
       <c r="J72" s="3">
-        <v>1582000</v>
+        <v>1597100</v>
       </c>
       <c r="K72" s="3">
         <v>1343700</v>
@@ -2935,25 +2935,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>8408300</v>
+        <v>8488500</v>
       </c>
       <c r="E76" s="3">
-        <v>7378800</v>
+        <v>7449100</v>
       </c>
       <c r="F76" s="3">
-        <v>7352600</v>
+        <v>7422600</v>
       </c>
       <c r="G76" s="3">
-        <v>7602700</v>
+        <v>7675200</v>
       </c>
       <c r="H76" s="3">
-        <v>7727600</v>
+        <v>7801200</v>
       </c>
       <c r="I76" s="3">
-        <v>8091900</v>
+        <v>8169000</v>
       </c>
       <c r="J76" s="3">
-        <v>7891000</v>
+        <v>7966100</v>
       </c>
       <c r="K76" s="3">
         <v>7202800</v>
@@ -3048,25 +3048,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1041500</v>
+        <v>1051400</v>
       </c>
       <c r="E81" s="3">
-        <v>346400</v>
+        <v>349700</v>
       </c>
       <c r="F81" s="3">
-        <v>252400</v>
+        <v>254800</v>
       </c>
       <c r="G81" s="3">
-        <v>343600</v>
+        <v>346800</v>
       </c>
       <c r="H81" s="3">
-        <v>296700</v>
+        <v>299500</v>
       </c>
       <c r="I81" s="3">
-        <v>479800</v>
+        <v>484400</v>
       </c>
       <c r="J81" s="3">
-        <v>433200</v>
+        <v>437300</v>
       </c>
       <c r="K81" s="3">
         <v>443100</v>
@@ -3100,25 +3100,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1745000</v>
+        <v>1761700</v>
       </c>
       <c r="E83" s="3">
-        <v>1762200</v>
+        <v>1779000</v>
       </c>
       <c r="F83" s="3">
-        <v>1857100</v>
+        <v>1874800</v>
       </c>
       <c r="G83" s="3">
-        <v>1894600</v>
+        <v>1912600</v>
       </c>
       <c r="H83" s="3">
-        <v>1854800</v>
+        <v>1872400</v>
       </c>
       <c r="I83" s="3">
-        <v>1622400</v>
+        <v>1637900</v>
       </c>
       <c r="J83" s="3">
-        <v>1450700</v>
+        <v>1464500</v>
       </c>
       <c r="K83" s="3">
         <v>1348200</v>
@@ -3316,25 +3316,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>2345800</v>
+        <v>2368100</v>
       </c>
       <c r="E89" s="3">
-        <v>1959000</v>
+        <v>1977600</v>
       </c>
       <c r="F89" s="3">
-        <v>1817400</v>
+        <v>1834700</v>
       </c>
       <c r="G89" s="3">
-        <v>1872300</v>
+        <v>1890100</v>
       </c>
       <c r="H89" s="3">
-        <v>1657400</v>
+        <v>1673100</v>
       </c>
       <c r="I89" s="3">
-        <v>2133200</v>
+        <v>2153600</v>
       </c>
       <c r="J89" s="3">
-        <v>1598000</v>
+        <v>1613300</v>
       </c>
       <c r="K89" s="3">
         <v>1525000</v>
@@ -3368,25 +3368,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-940000</v>
+        <v>-949000</v>
       </c>
       <c r="E91" s="3">
-        <v>-589400</v>
+        <v>-595000</v>
       </c>
       <c r="F91" s="3">
-        <v>-699000</v>
+        <v>-705600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1578400</v>
+        <v>-1593400</v>
       </c>
       <c r="H91" s="3">
-        <v>-3266900</v>
+        <v>-3298000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2158800</v>
+        <v>-2179400</v>
       </c>
       <c r="J91" s="3">
-        <v>-1542700</v>
+        <v>-1557400</v>
       </c>
       <c r="K91" s="3">
         <v>-1154500</v>
@@ -3476,25 +3476,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1431200</v>
+        <v>-1444800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1130400</v>
+        <v>-1141200</v>
       </c>
       <c r="F94" s="3">
-        <v>-553000</v>
+        <v>-558300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1263600</v>
+        <v>-1275700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2857500</v>
+        <v>-2884700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2443400</v>
+        <v>-2466700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1520200</v>
+        <v>-1534700</v>
       </c>
       <c r="K94" s="3">
         <v>-1105600</v>
@@ -3528,25 +3528,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-348400</v>
+        <v>-351800</v>
       </c>
       <c r="E96" s="3">
-        <v>-246600</v>
+        <v>-248900</v>
       </c>
       <c r="F96" s="3">
-        <v>-305300</v>
+        <v>-308200</v>
       </c>
       <c r="G96" s="3">
-        <v>-217800</v>
+        <v>-219800</v>
       </c>
       <c r="H96" s="3">
-        <v>-246400</v>
+        <v>-248800</v>
       </c>
       <c r="I96" s="3">
-        <v>-247600</v>
+        <v>-249900</v>
       </c>
       <c r="J96" s="3">
-        <v>-223100</v>
+        <v>-225200</v>
       </c>
       <c r="K96" s="3">
         <v>-177600</v>
@@ -3672,25 +3672,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-913500</v>
+        <v>-922200</v>
       </c>
       <c r="E100" s="3">
-        <v>-352100</v>
+        <v>-355400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1194700</v>
+        <v>-1206100</v>
       </c>
       <c r="G100" s="3">
-        <v>326900</v>
+        <v>330000</v>
       </c>
       <c r="H100" s="3">
-        <v>1384200</v>
+        <v>1397400</v>
       </c>
       <c r="I100" s="3">
-        <v>537000</v>
+        <v>542100</v>
       </c>
       <c r="J100" s="3">
-        <v>-294600</v>
+        <v>-297400</v>
       </c>
       <c r="K100" s="3">
         <v>-137700</v>
@@ -3708,25 +3708,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-52700</v>
+        <v>-53200</v>
       </c>
       <c r="E101" s="3">
-        <v>-54400</v>
+        <v>-54900</v>
       </c>
       <c r="F101" s="3">
         <v>1300</v>
       </c>
       <c r="G101" s="3">
-        <v>-75800</v>
+        <v>-76500</v>
       </c>
       <c r="H101" s="3">
-        <v>-31100</v>
+        <v>-31400</v>
       </c>
       <c r="I101" s="3">
-        <v>25700</v>
+        <v>26000</v>
       </c>
       <c r="J101" s="3">
-        <v>52000</v>
+        <v>52500</v>
       </c>
       <c r="K101" s="3">
         <v>10900</v>
@@ -3744,25 +3744,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-51500</v>
+        <v>-52000</v>
       </c>
       <c r="E102" s="3">
-        <v>422100</v>
+        <v>426100</v>
       </c>
       <c r="F102" s="3">
-        <v>70900</v>
+        <v>71600</v>
       </c>
       <c r="G102" s="3">
-        <v>859700</v>
+        <v>867900</v>
       </c>
       <c r="H102" s="3">
-        <v>153000</v>
+        <v>154500</v>
       </c>
       <c r="I102" s="3">
-        <v>252500</v>
+        <v>254900</v>
       </c>
       <c r="J102" s="3">
-        <v>-164800</v>
+        <v>-166300</v>
       </c>
       <c r="K102" s="3">
         <v>292600</v>

--- a/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>UMC</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,165 +665,177 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6369100</v>
+        <v>7500100</v>
       </c>
       <c r="E8" s="3">
-        <v>5338200</v>
+        <v>6225900</v>
       </c>
       <c r="F8" s="3">
-        <v>5448100</v>
+        <v>5218200</v>
       </c>
       <c r="G8" s="3">
-        <v>5377200</v>
+        <v>5325600</v>
       </c>
       <c r="H8" s="3">
-        <v>5326300</v>
+        <v>5256300</v>
       </c>
       <c r="I8" s="3">
-        <v>5216800</v>
+        <v>5206500</v>
       </c>
       <c r="J8" s="3">
+        <v>5099500</v>
+      </c>
+      <c r="K8" s="3">
         <v>5043200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4343300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3847300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3805700</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4964400</v>
+        <v>4963300</v>
       </c>
       <c r="E9" s="3">
-        <v>4570500</v>
+        <v>4852800</v>
       </c>
       <c r="F9" s="3">
-        <v>4625400</v>
+        <v>4467700</v>
       </c>
       <c r="G9" s="3">
-        <v>4402600</v>
+        <v>4521400</v>
       </c>
       <c r="H9" s="3">
-        <v>4232000</v>
+        <v>4303600</v>
       </c>
       <c r="I9" s="3">
-        <v>4072500</v>
+        <v>4136800</v>
       </c>
       <c r="J9" s="3">
+        <v>3980900</v>
+      </c>
+      <c r="K9" s="3">
         <v>3895900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3516700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6406800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3111500</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1404700</v>
+        <v>2536900</v>
       </c>
       <c r="E10" s="3">
-        <v>767800</v>
+        <v>1373100</v>
       </c>
       <c r="F10" s="3">
-        <v>822700</v>
+        <v>750500</v>
       </c>
       <c r="G10" s="3">
-        <v>974600</v>
+        <v>804200</v>
       </c>
       <c r="H10" s="3">
-        <v>1094300</v>
+        <v>952700</v>
       </c>
       <c r="I10" s="3">
-        <v>1144300</v>
+        <v>1069700</v>
       </c>
       <c r="J10" s="3">
+        <v>1118600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1147300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>826600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-2559500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>694100</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>464500</v>
+        <v>455400</v>
       </c>
       <c r="E12" s="3">
-        <v>427200</v>
+        <v>454100</v>
       </c>
       <c r="F12" s="3">
-        <v>469200</v>
+        <v>417600</v>
       </c>
       <c r="G12" s="3">
-        <v>492400</v>
+        <v>458600</v>
       </c>
       <c r="H12" s="3">
-        <v>487400</v>
+        <v>481300</v>
       </c>
       <c r="I12" s="3">
-        <v>438500</v>
+        <v>476500</v>
       </c>
       <c r="J12" s="3">
+        <v>428700</v>
+      </c>
+      <c r="K12" s="3">
         <v>492200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>438300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>651000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>306400</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,45 +925,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1900</v>
       </c>
-      <c r="F14" s="3">
-        <v>1700</v>
-      </c>
       <c r="G14" s="3">
-        <v>34000</v>
+        <v>1600</v>
       </c>
       <c r="H14" s="3">
-        <v>74800</v>
+        <v>33300</v>
       </c>
       <c r="I14" s="3">
-        <v>81600</v>
+        <v>73200</v>
       </c>
       <c r="J14" s="3">
+        <v>79800</v>
+      </c>
+      <c r="K14" s="3">
         <v>32500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>46800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>236100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>68700</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5576400</v>
+        <v>5680200</v>
       </c>
       <c r="E17" s="3">
-        <v>5164000</v>
+        <v>5451000</v>
       </c>
       <c r="F17" s="3">
-        <v>5241000</v>
+        <v>5047900</v>
       </c>
       <c r="G17" s="3">
-        <v>5174700</v>
+        <v>5123100</v>
       </c>
       <c r="H17" s="3">
-        <v>5161600</v>
+        <v>5058300</v>
       </c>
       <c r="I17" s="3">
-        <v>4871400</v>
+        <v>5045600</v>
       </c>
       <c r="J17" s="3">
+        <v>4761800</v>
+      </c>
+      <c r="K17" s="3">
         <v>4691300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4246600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3849100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3710000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>792700</v>
+        <v>1819900</v>
       </c>
       <c r="E18" s="3">
-        <v>174200</v>
+        <v>774900</v>
       </c>
       <c r="F18" s="3">
-        <v>207200</v>
+        <v>170300</v>
       </c>
       <c r="G18" s="3">
         <v>202500</v>
       </c>
       <c r="H18" s="3">
-        <v>164700</v>
+        <v>198000</v>
       </c>
       <c r="I18" s="3">
-        <v>345400</v>
+        <v>160900</v>
       </c>
       <c r="J18" s="3">
+        <v>337700</v>
+      </c>
+      <c r="K18" s="3">
         <v>352000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>96700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>95700</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1080,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>285400</v>
+        <v>422000</v>
       </c>
       <c r="E20" s="3">
-        <v>138100</v>
+        <v>279000</v>
       </c>
       <c r="F20" s="3">
-        <v>-28700</v>
+        <v>135000</v>
       </c>
       <c r="G20" s="3">
-        <v>165100</v>
+        <v>-28100</v>
       </c>
       <c r="H20" s="3">
-        <v>54900</v>
+        <v>161300</v>
       </c>
       <c r="I20" s="3">
-        <v>165400</v>
+        <v>53700</v>
       </c>
       <c r="J20" s="3">
+        <v>161700</v>
+      </c>
+      <c r="K20" s="3">
         <v>161600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>430900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>249700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>222000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2833900</v>
+        <v>3905500</v>
       </c>
       <c r="E21" s="3">
-        <v>2085400</v>
+        <v>2782300</v>
       </c>
       <c r="F21" s="3">
-        <v>2047000</v>
+        <v>2050700</v>
       </c>
       <c r="G21" s="3">
-        <v>2273800</v>
+        <v>2013800</v>
       </c>
       <c r="H21" s="3">
-        <v>2085800</v>
+        <v>2235800</v>
       </c>
       <c r="I21" s="3">
-        <v>2143300</v>
+        <v>2051700</v>
       </c>
       <c r="J21" s="3">
+        <v>2106300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1973200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1876200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1442200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1371900</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>72200</v>
+        <v>65800</v>
       </c>
       <c r="E22" s="3">
-        <v>105700</v>
+        <v>70600</v>
       </c>
       <c r="F22" s="3">
-        <v>99700</v>
+        <v>103300</v>
       </c>
       <c r="G22" s="3">
-        <v>86700</v>
+        <v>97500</v>
       </c>
       <c r="H22" s="3">
-        <v>45000</v>
+        <v>84700</v>
       </c>
       <c r="I22" s="3">
-        <v>16900</v>
+        <v>44000</v>
       </c>
       <c r="J22" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K22" s="3">
         <v>26900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>35800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11700</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1005900</v>
+        <v>2176100</v>
       </c>
       <c r="E23" s="3">
-        <v>206600</v>
+        <v>983300</v>
       </c>
       <c r="F23" s="3">
-        <v>78700</v>
+        <v>202000</v>
       </c>
       <c r="G23" s="3">
-        <v>280900</v>
+        <v>76900</v>
       </c>
       <c r="H23" s="3">
-        <v>174600</v>
+        <v>274600</v>
       </c>
       <c r="I23" s="3">
-        <v>493900</v>
+        <v>170700</v>
       </c>
       <c r="J23" s="3">
+        <v>482800</v>
+      </c>
+      <c r="K23" s="3">
         <v>486700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>503800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>212100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>305900</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>26900</v>
+        <v>235600</v>
       </c>
       <c r="E24" s="3">
-        <v>-14200</v>
+        <v>26300</v>
       </c>
       <c r="F24" s="3">
-        <v>-16500</v>
+        <v>-13800</v>
       </c>
       <c r="G24" s="3">
-        <v>42000</v>
+        <v>-16100</v>
       </c>
       <c r="H24" s="3">
-        <v>35400</v>
+        <v>41100</v>
       </c>
       <c r="I24" s="3">
-        <v>31600</v>
+        <v>34600</v>
       </c>
       <c r="J24" s="3">
+        <v>30900</v>
+      </c>
+      <c r="K24" s="3">
         <v>73300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>79200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>71400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>29800</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1295,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>979000</v>
+        <v>1940500</v>
       </c>
       <c r="E26" s="3">
-        <v>220800</v>
+        <v>957000</v>
       </c>
       <c r="F26" s="3">
-        <v>95200</v>
+        <v>215800</v>
       </c>
       <c r="G26" s="3">
-        <v>238900</v>
+        <v>93100</v>
       </c>
       <c r="H26" s="3">
-        <v>139100</v>
+        <v>233500</v>
       </c>
       <c r="I26" s="3">
-        <v>462300</v>
+        <v>136000</v>
       </c>
       <c r="J26" s="3">
+        <v>451900</v>
+      </c>
+      <c r="K26" s="3">
         <v>413500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>424600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>140700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>276100</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1051400</v>
+        <v>1964000</v>
       </c>
       <c r="E27" s="3">
-        <v>349700</v>
+        <v>1027800</v>
       </c>
       <c r="F27" s="3">
-        <v>254800</v>
+        <v>341800</v>
       </c>
       <c r="G27" s="3">
-        <v>346800</v>
+        <v>249000</v>
       </c>
       <c r="H27" s="3">
-        <v>299500</v>
+        <v>339000</v>
       </c>
       <c r="I27" s="3">
-        <v>484400</v>
+        <v>292800</v>
       </c>
       <c r="J27" s="3">
+        <v>473500</v>
+      </c>
+      <c r="K27" s="3">
         <v>437300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>443100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>113500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>215400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1403,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1439,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1475,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1511,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-285400</v>
+        <v>-422000</v>
       </c>
       <c r="E32" s="3">
-        <v>-138100</v>
+        <v>-279000</v>
       </c>
       <c r="F32" s="3">
-        <v>28700</v>
+        <v>-135000</v>
       </c>
       <c r="G32" s="3">
-        <v>-165100</v>
+        <v>28100</v>
       </c>
       <c r="H32" s="3">
-        <v>-54900</v>
+        <v>-161300</v>
       </c>
       <c r="I32" s="3">
-        <v>-165400</v>
+        <v>-53700</v>
       </c>
       <c r="J32" s="3">
+        <v>-161700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-161600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-430900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-249700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-222000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1051400</v>
+        <v>1964000</v>
       </c>
       <c r="E33" s="3">
-        <v>349700</v>
+        <v>1027800</v>
       </c>
       <c r="F33" s="3">
-        <v>254800</v>
+        <v>341800</v>
       </c>
       <c r="G33" s="3">
-        <v>346800</v>
+        <v>249000</v>
       </c>
       <c r="H33" s="3">
-        <v>299500</v>
+        <v>339000</v>
       </c>
       <c r="I33" s="3">
-        <v>484400</v>
+        <v>292800</v>
       </c>
       <c r="J33" s="3">
+        <v>473500</v>
+      </c>
+      <c r="K33" s="3">
         <v>437300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>443100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>113500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>215400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1619,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1051400</v>
+        <v>1964000</v>
       </c>
       <c r="E35" s="3">
-        <v>349700</v>
+        <v>1027800</v>
       </c>
       <c r="F35" s="3">
-        <v>254800</v>
+        <v>341800</v>
       </c>
       <c r="G35" s="3">
-        <v>346800</v>
+        <v>249000</v>
       </c>
       <c r="H35" s="3">
-        <v>299500</v>
+        <v>339000</v>
       </c>
       <c r="I35" s="3">
-        <v>484400</v>
+        <v>292800</v>
       </c>
       <c r="J35" s="3">
+        <v>473500</v>
+      </c>
+      <c r="K35" s="3">
         <v>437300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>443100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>113500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>215400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1713,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1729,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3387600</v>
+        <v>4669600</v>
       </c>
       <c r="E41" s="3">
-        <v>3439600</v>
+        <v>3311400</v>
       </c>
       <c r="F41" s="3">
-        <v>3013500</v>
+        <v>3362300</v>
       </c>
       <c r="G41" s="3">
-        <v>2941900</v>
+        <v>2945700</v>
       </c>
       <c r="H41" s="3">
-        <v>2074000</v>
+        <v>2875800</v>
       </c>
       <c r="I41" s="3">
-        <v>1919500</v>
+        <v>2027400</v>
       </c>
       <c r="J41" s="3">
+        <v>1876400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1646200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1783100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1565800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>115300</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>43800</v>
+        <v>332600</v>
       </c>
       <c r="E42" s="3">
-        <v>26000</v>
+        <v>42800</v>
       </c>
       <c r="F42" s="3">
-        <v>19000</v>
+        <v>25400</v>
       </c>
       <c r="G42" s="3">
-        <v>25800</v>
+        <v>18600</v>
       </c>
       <c r="H42" s="3">
-        <v>25700</v>
+        <v>25200</v>
       </c>
       <c r="I42" s="3">
-        <v>24000</v>
+        <v>25100</v>
       </c>
       <c r="J42" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K42" s="3">
         <v>26700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>97100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1595700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1675100</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1053100</v>
+        <v>1280600</v>
       </c>
       <c r="E43" s="3">
-        <v>959000</v>
+        <v>1029500</v>
       </c>
       <c r="F43" s="3">
-        <v>889600</v>
+        <v>937400</v>
       </c>
       <c r="G43" s="3">
-        <v>816100</v>
+        <v>869600</v>
       </c>
       <c r="H43" s="3">
-        <v>864600</v>
+        <v>797800</v>
       </c>
       <c r="I43" s="3">
-        <v>720000</v>
+        <v>845100</v>
       </c>
       <c r="J43" s="3">
+        <v>703800</v>
+      </c>
+      <c r="K43" s="3">
         <v>830700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>617600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1142100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>499600</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>812300</v>
+        <v>810200</v>
       </c>
       <c r="E44" s="3">
-        <v>782200</v>
+        <v>794100</v>
       </c>
       <c r="F44" s="3">
-        <v>655700</v>
+        <v>764600</v>
       </c>
       <c r="G44" s="3">
-        <v>657600</v>
+        <v>640900</v>
       </c>
       <c r="H44" s="3">
-        <v>612300</v>
+        <v>642800</v>
       </c>
       <c r="I44" s="3">
-        <v>635400</v>
+        <v>598500</v>
       </c>
       <c r="J44" s="3">
+        <v>621200</v>
+      </c>
+      <c r="K44" s="3">
         <v>493000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>490900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>866300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>414400</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>621400</v>
+        <v>1120500</v>
       </c>
       <c r="E45" s="3">
-        <v>331500</v>
+        <v>607400</v>
       </c>
       <c r="F45" s="3">
-        <v>508000</v>
+        <v>324100</v>
       </c>
       <c r="G45" s="3">
-        <v>571100</v>
+        <v>496600</v>
       </c>
       <c r="H45" s="3">
-        <v>402500</v>
+        <v>558200</v>
       </c>
       <c r="I45" s="3">
-        <v>116400</v>
+        <v>393500</v>
       </c>
       <c r="J45" s="3">
+        <v>113800</v>
+      </c>
+      <c r="K45" s="3">
         <v>436500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>126400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>183000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>36600</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5918300</v>
+        <v>8213600</v>
       </c>
       <c r="E46" s="3">
-        <v>5538300</v>
+        <v>5785200</v>
       </c>
       <c r="F46" s="3">
-        <v>5085800</v>
+        <v>5413800</v>
       </c>
       <c r="G46" s="3">
-        <v>5012600</v>
+        <v>4971400</v>
       </c>
       <c r="H46" s="3">
-        <v>3979100</v>
+        <v>4899800</v>
       </c>
       <c r="I46" s="3">
-        <v>3415300</v>
+        <v>3889600</v>
       </c>
       <c r="J46" s="3">
+        <v>3338500</v>
+      </c>
+      <c r="K46" s="3">
         <v>3489000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3115000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2661700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2741100</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2037900</v>
+        <v>2554400</v>
       </c>
       <c r="E47" s="3">
-        <v>1489200</v>
+        <v>1992100</v>
       </c>
       <c r="F47" s="3">
-        <v>1206900</v>
+        <v>1455700</v>
       </c>
       <c r="G47" s="3">
-        <v>1225500</v>
+        <v>1179700</v>
       </c>
       <c r="H47" s="3">
-        <v>1252300</v>
+        <v>1197900</v>
       </c>
       <c r="I47" s="3">
-        <v>1446200</v>
+        <v>1224100</v>
       </c>
       <c r="J47" s="3">
+        <v>1413700</v>
+      </c>
+      <c r="K47" s="3">
         <v>2227500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1056700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2310700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1301900</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>5082700</v>
+        <v>5119200</v>
       </c>
       <c r="E48" s="3">
-        <v>5723000</v>
+        <v>4968400</v>
       </c>
       <c r="F48" s="3">
-        <v>6249800</v>
+        <v>5594300</v>
       </c>
       <c r="G48" s="3">
-        <v>7421100</v>
+        <v>6109200</v>
       </c>
       <c r="H48" s="3">
-        <v>8146400</v>
+        <v>7254200</v>
       </c>
       <c r="I48" s="3">
-        <v>6799400</v>
+        <v>7963200</v>
       </c>
       <c r="J48" s="3">
+        <v>6646500</v>
+      </c>
+      <c r="K48" s="3">
         <v>6042500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11405100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10614700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4869500</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>175700</v>
+        <v>128300</v>
       </c>
       <c r="E49" s="3">
-        <v>187200</v>
+        <v>171800</v>
       </c>
       <c r="F49" s="3">
-        <v>107800</v>
+        <v>183000</v>
       </c>
       <c r="G49" s="3">
-        <v>136400</v>
+        <v>105300</v>
       </c>
       <c r="H49" s="3">
-        <v>147300</v>
+        <v>133400</v>
       </c>
       <c r="I49" s="3">
-        <v>162200</v>
+        <v>143900</v>
       </c>
       <c r="J49" s="3">
+        <v>158600</v>
+      </c>
+      <c r="K49" s="3">
         <v>163300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>332500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>138200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11400</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2088,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2124,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>383500</v>
+        <v>337000</v>
       </c>
       <c r="E52" s="3">
-        <v>396400</v>
+        <v>374800</v>
       </c>
       <c r="F52" s="3">
-        <v>482900</v>
+        <v>387500</v>
       </c>
       <c r="G52" s="3">
-        <v>399800</v>
+        <v>472000</v>
       </c>
       <c r="H52" s="3">
-        <v>402300</v>
+        <v>390900</v>
       </c>
       <c r="I52" s="3">
-        <v>328800</v>
+        <v>393200</v>
       </c>
       <c r="J52" s="3">
+        <v>321400</v>
+      </c>
+      <c r="K52" s="3">
         <v>238400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>262800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>281300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>201400</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2196,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>13598100</v>
+        <v>16352500</v>
       </c>
       <c r="E54" s="3">
-        <v>13334100</v>
+        <v>13292400</v>
       </c>
       <c r="F54" s="3">
-        <v>13133100</v>
+        <v>13034300</v>
       </c>
       <c r="G54" s="3">
-        <v>14195500</v>
+        <v>12837700</v>
       </c>
       <c r="H54" s="3">
-        <v>13927300</v>
+        <v>13876200</v>
       </c>
       <c r="I54" s="3">
-        <v>12152000</v>
+        <v>13614100</v>
       </c>
       <c r="J54" s="3">
+        <v>11878700</v>
+      </c>
+      <c r="K54" s="3">
         <v>11283100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10310500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9353200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9125300</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2249,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2265,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>283200</v>
+        <v>294500</v>
       </c>
       <c r="E57" s="3">
-        <v>319800</v>
+        <v>276800</v>
       </c>
       <c r="F57" s="3">
-        <v>245000</v>
+        <v>312600</v>
       </c>
       <c r="G57" s="3">
-        <v>235400</v>
+        <v>239500</v>
       </c>
       <c r="H57" s="3">
-        <v>246900</v>
+        <v>230100</v>
       </c>
       <c r="I57" s="3">
-        <v>214500</v>
+        <v>241400</v>
       </c>
       <c r="J57" s="3">
+        <v>209600</v>
+      </c>
+      <c r="K57" s="3">
         <v>222100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>260100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>416800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>163400</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1390100</v>
+        <v>1401800</v>
       </c>
       <c r="E58" s="3">
-        <v>1346500</v>
+        <v>1358800</v>
       </c>
       <c r="F58" s="3">
-        <v>656500</v>
+        <v>1316200</v>
       </c>
       <c r="G58" s="3">
-        <v>1902200</v>
+        <v>641700</v>
       </c>
       <c r="H58" s="3">
-        <v>1118500</v>
+        <v>1859400</v>
       </c>
       <c r="I58" s="3">
-        <v>436100</v>
+        <v>1093300</v>
       </c>
       <c r="J58" s="3">
+        <v>426300</v>
+      </c>
+      <c r="K58" s="3">
         <v>361100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>743300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>975200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>567900</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1145000</v>
+        <v>2016700</v>
       </c>
       <c r="E59" s="3">
-        <v>953000</v>
+        <v>1119300</v>
       </c>
       <c r="F59" s="3">
-        <v>895900</v>
+        <v>931500</v>
       </c>
       <c r="G59" s="3">
-        <v>1034400</v>
+        <v>875800</v>
       </c>
       <c r="H59" s="3">
-        <v>1227300</v>
+        <v>1011100</v>
       </c>
       <c r="I59" s="3">
-        <v>1087200</v>
+        <v>1199700</v>
       </c>
       <c r="J59" s="3">
+        <v>1062800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1149500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>687700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1274000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>667900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>2818300</v>
+        <v>3713000</v>
       </c>
       <c r="E60" s="3">
-        <v>2619200</v>
+        <v>2755000</v>
       </c>
       <c r="F60" s="3">
-        <v>1797400</v>
+        <v>2560300</v>
       </c>
       <c r="G60" s="3">
-        <v>3172000</v>
+        <v>1757000</v>
       </c>
       <c r="H60" s="3">
-        <v>2592700</v>
+        <v>3100600</v>
       </c>
       <c r="I60" s="3">
-        <v>1737800</v>
+        <v>2534400</v>
       </c>
       <c r="J60" s="3">
+        <v>1698700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1732800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1691000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1334400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1399200</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1073300</v>
+        <v>1561200</v>
       </c>
       <c r="E61" s="3">
-        <v>1921600</v>
+        <v>1049200</v>
       </c>
       <c r="F61" s="3">
-        <v>2416300</v>
+        <v>1878400</v>
       </c>
       <c r="G61" s="3">
-        <v>1920600</v>
+        <v>2362000</v>
       </c>
       <c r="H61" s="3">
-        <v>2187400</v>
+        <v>1877400</v>
       </c>
       <c r="I61" s="3">
-        <v>1711800</v>
+        <v>2138300</v>
       </c>
       <c r="J61" s="3">
+        <v>1673300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1203100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>996800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1069500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>687900</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1213900</v>
+        <v>1177100</v>
       </c>
       <c r="E62" s="3">
-        <v>1329500</v>
+        <v>1186600</v>
       </c>
       <c r="F62" s="3">
-        <v>1479900</v>
+        <v>1299600</v>
       </c>
       <c r="G62" s="3">
-        <v>1393300</v>
+        <v>1446600</v>
       </c>
       <c r="H62" s="3">
-        <v>1268100</v>
+        <v>1362000</v>
       </c>
       <c r="I62" s="3">
-        <v>460300</v>
+        <v>1239600</v>
       </c>
       <c r="J62" s="3">
+        <v>450000</v>
+      </c>
+      <c r="K62" s="3">
         <v>242400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>268400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>365900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>120800</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2516,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2552,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2588,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>5109700</v>
+        <v>6459200</v>
       </c>
       <c r="E66" s="3">
-        <v>5885100</v>
+        <v>4994800</v>
       </c>
       <c r="F66" s="3">
-        <v>5710400</v>
+        <v>5752700</v>
       </c>
       <c r="G66" s="3">
-        <v>6520300</v>
+        <v>5582000</v>
       </c>
       <c r="H66" s="3">
-        <v>6126100</v>
+        <v>6373700</v>
       </c>
       <c r="I66" s="3">
-        <v>3983000</v>
+        <v>5988400</v>
       </c>
       <c r="J66" s="3">
+        <v>3893400</v>
+      </c>
+      <c r="K66" s="3">
         <v>3317000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3107700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2730600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2351000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2641,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2676,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2712,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2748,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2784,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>2888000</v>
+        <v>4062400</v>
       </c>
       <c r="E72" s="3">
-        <v>2202700</v>
+        <v>2823000</v>
       </c>
       <c r="F72" s="3">
-        <v>2218400</v>
+        <v>2153200</v>
       </c>
       <c r="G72" s="3">
-        <v>1731300</v>
+        <v>2168500</v>
       </c>
       <c r="H72" s="3">
-        <v>1716500</v>
+        <v>1692400</v>
       </c>
       <c r="I72" s="3">
-        <v>1826500</v>
+        <v>1677900</v>
       </c>
       <c r="J72" s="3">
+        <v>1785400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1597100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1343700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1872000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>798900</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2856,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2892,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2928,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>8488500</v>
+        <v>9893300</v>
       </c>
       <c r="E76" s="3">
-        <v>7449100</v>
+        <v>8297600</v>
       </c>
       <c r="F76" s="3">
-        <v>7422600</v>
+        <v>7281600</v>
       </c>
       <c r="G76" s="3">
-        <v>7675200</v>
+        <v>7255700</v>
       </c>
       <c r="H76" s="3">
-        <v>7801200</v>
+        <v>7502600</v>
       </c>
       <c r="I76" s="3">
-        <v>8169000</v>
+        <v>7625800</v>
       </c>
       <c r="J76" s="3">
+        <v>7985300</v>
+      </c>
+      <c r="K76" s="3">
         <v>7966100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7202800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6622600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6774300</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3000,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1051400</v>
+        <v>1964000</v>
       </c>
       <c r="E81" s="3">
-        <v>349700</v>
+        <v>1027800</v>
       </c>
       <c r="F81" s="3">
-        <v>254800</v>
+        <v>341800</v>
       </c>
       <c r="G81" s="3">
-        <v>346800</v>
+        <v>249000</v>
       </c>
       <c r="H81" s="3">
-        <v>299500</v>
+        <v>339000</v>
       </c>
       <c r="I81" s="3">
-        <v>484400</v>
+        <v>292800</v>
       </c>
       <c r="J81" s="3">
+        <v>473500</v>
+      </c>
+      <c r="K81" s="3">
         <v>437300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>443100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>113500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>215400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3094,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1761700</v>
+        <v>1657500</v>
       </c>
       <c r="E83" s="3">
-        <v>1779000</v>
+        <v>1722100</v>
       </c>
       <c r="F83" s="3">
-        <v>1874800</v>
+        <v>1739000</v>
       </c>
       <c r="G83" s="3">
-        <v>1912600</v>
+        <v>1832600</v>
       </c>
       <c r="H83" s="3">
-        <v>1872400</v>
+        <v>1869600</v>
       </c>
       <c r="I83" s="3">
-        <v>1637900</v>
+        <v>1830300</v>
       </c>
       <c r="J83" s="3">
+        <v>1601100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1464500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1348200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1192100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1055600</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3165,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3201,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3237,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3273,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3309,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>2368100</v>
+        <v>3181300</v>
       </c>
       <c r="E89" s="3">
-        <v>1977600</v>
+        <v>2314900</v>
       </c>
       <c r="F89" s="3">
-        <v>1834700</v>
+        <v>1933200</v>
       </c>
       <c r="G89" s="3">
-        <v>1890100</v>
+        <v>1793400</v>
       </c>
       <c r="H89" s="3">
-        <v>1673100</v>
+        <v>1847600</v>
       </c>
       <c r="I89" s="3">
-        <v>2153600</v>
+        <v>1635500</v>
       </c>
       <c r="J89" s="3">
+        <v>2105100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1613300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1525000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1343600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1358300</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3362,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-949000</v>
+        <v>-1691300</v>
       </c>
       <c r="E91" s="3">
-        <v>-595000</v>
+        <v>-927600</v>
       </c>
       <c r="F91" s="3">
-        <v>-705600</v>
+        <v>-581600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1593400</v>
+        <v>-689800</v>
       </c>
       <c r="H91" s="3">
-        <v>-3298000</v>
+        <v>-1557600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2179400</v>
+        <v>-3223900</v>
       </c>
       <c r="J91" s="3">
+        <v>-2130400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1557400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1154500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1754100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1751400</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3433,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3469,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1444800</v>
+        <v>-2188800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1141200</v>
+        <v>-1412300</v>
       </c>
       <c r="F94" s="3">
-        <v>-558300</v>
+        <v>-1115500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1275700</v>
+        <v>-545700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2884700</v>
+        <v>-1247000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2466700</v>
+        <v>-2819800</v>
       </c>
       <c r="J94" s="3">
+        <v>-2411200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1534700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1105600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1633800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1797500</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3522,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-351800</v>
+        <v>-699700</v>
       </c>
       <c r="E96" s="3">
-        <v>-248900</v>
+        <v>-343900</v>
       </c>
       <c r="F96" s="3">
-        <v>-308200</v>
+        <v>-243300</v>
       </c>
       <c r="G96" s="3">
-        <v>-219800</v>
+        <v>-301300</v>
       </c>
       <c r="H96" s="3">
-        <v>-248800</v>
+        <v>-214900</v>
       </c>
       <c r="I96" s="3">
-        <v>-249900</v>
+        <v>-243200</v>
       </c>
       <c r="J96" s="3">
+        <v>-244300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-225200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-177600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-210100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-457100</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3593,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3629,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3665,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-922200</v>
+        <v>439800</v>
       </c>
       <c r="E100" s="3">
-        <v>-355400</v>
+        <v>-901400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1206100</v>
+        <v>-347400</v>
       </c>
       <c r="G100" s="3">
-        <v>330000</v>
+        <v>-1179000</v>
       </c>
       <c r="H100" s="3">
-        <v>1397400</v>
+        <v>322600</v>
       </c>
       <c r="I100" s="3">
-        <v>542100</v>
+        <v>1366000</v>
       </c>
       <c r="J100" s="3">
+        <v>529900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-297400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-137700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>119300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>323600</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-53200</v>
+        <v>-74100</v>
       </c>
       <c r="E101" s="3">
-        <v>-54900</v>
+        <v>-52000</v>
       </c>
       <c r="F101" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="G101" s="3">
         <v>1300</v>
       </c>
-      <c r="G101" s="3">
-        <v>-76500</v>
-      </c>
       <c r="H101" s="3">
-        <v>-31400</v>
+        <v>-74800</v>
       </c>
       <c r="I101" s="3">
-        <v>26000</v>
+        <v>-30700</v>
       </c>
       <c r="J101" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K101" s="3">
         <v>52500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-47800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>43800</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-52000</v>
+        <v>1358200</v>
       </c>
       <c r="E102" s="3">
-        <v>426100</v>
+        <v>-50900</v>
       </c>
       <c r="F102" s="3">
-        <v>71600</v>
+        <v>416600</v>
       </c>
       <c r="G102" s="3">
-        <v>867900</v>
+        <v>70000</v>
       </c>
       <c r="H102" s="3">
-        <v>154500</v>
+        <v>848400</v>
       </c>
       <c r="I102" s="3">
-        <v>254900</v>
+        <v>151000</v>
       </c>
       <c r="J102" s="3">
+        <v>249200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-166300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>292600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-218600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-71800</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7500100</v>
+        <v>7131600</v>
       </c>
       <c r="E8" s="3">
-        <v>6225900</v>
+        <v>5920000</v>
       </c>
       <c r="F8" s="3">
-        <v>5218200</v>
+        <v>4961800</v>
       </c>
       <c r="G8" s="3">
-        <v>5325600</v>
+        <v>5063900</v>
       </c>
       <c r="H8" s="3">
-        <v>5256300</v>
+        <v>4998100</v>
       </c>
       <c r="I8" s="3">
-        <v>5206500</v>
+        <v>4950700</v>
       </c>
       <c r="J8" s="3">
-        <v>5099500</v>
+        <v>4848900</v>
       </c>
       <c r="K8" s="3">
         <v>5043200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4963300</v>
+        <v>4719400</v>
       </c>
       <c r="E9" s="3">
-        <v>4852800</v>
+        <v>4614300</v>
       </c>
       <c r="F9" s="3">
-        <v>4467700</v>
+        <v>4248200</v>
       </c>
       <c r="G9" s="3">
-        <v>4521400</v>
+        <v>4299300</v>
       </c>
       <c r="H9" s="3">
-        <v>4303600</v>
+        <v>4092200</v>
       </c>
       <c r="I9" s="3">
-        <v>4136800</v>
+        <v>3933600</v>
       </c>
       <c r="J9" s="3">
-        <v>3980900</v>
+        <v>3785300</v>
       </c>
       <c r="K9" s="3">
         <v>3895900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2536900</v>
+        <v>2412200</v>
       </c>
       <c r="E10" s="3">
-        <v>1373100</v>
+        <v>1305600</v>
       </c>
       <c r="F10" s="3">
-        <v>750500</v>
+        <v>713600</v>
       </c>
       <c r="G10" s="3">
-        <v>804200</v>
+        <v>764700</v>
       </c>
       <c r="H10" s="3">
-        <v>952700</v>
+        <v>905900</v>
       </c>
       <c r="I10" s="3">
-        <v>1069700</v>
+        <v>1017100</v>
       </c>
       <c r="J10" s="3">
-        <v>1118600</v>
+        <v>1063600</v>
       </c>
       <c r="K10" s="3">
         <v>1147300</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>455400</v>
+        <v>433100</v>
       </c>
       <c r="E12" s="3">
-        <v>454100</v>
+        <v>431700</v>
       </c>
       <c r="F12" s="3">
-        <v>417600</v>
+        <v>397100</v>
       </c>
       <c r="G12" s="3">
-        <v>458600</v>
+        <v>436100</v>
       </c>
       <c r="H12" s="3">
-        <v>481300</v>
+        <v>457700</v>
       </c>
       <c r="I12" s="3">
-        <v>476500</v>
+        <v>453100</v>
       </c>
       <c r="J12" s="3">
-        <v>428700</v>
+        <v>407600</v>
       </c>
       <c r="K12" s="3">
         <v>492200</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="G14" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H14" s="3">
-        <v>33300</v>
+        <v>31600</v>
       </c>
       <c r="I14" s="3">
-        <v>73200</v>
+        <v>69600</v>
       </c>
       <c r="J14" s="3">
-        <v>79800</v>
+        <v>75900</v>
       </c>
       <c r="K14" s="3">
         <v>32500</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5680200</v>
+        <v>5401200</v>
       </c>
       <c r="E17" s="3">
-        <v>5451000</v>
+        <v>5183200</v>
       </c>
       <c r="F17" s="3">
-        <v>5047900</v>
+        <v>4799900</v>
       </c>
       <c r="G17" s="3">
-        <v>5123100</v>
+        <v>4871400</v>
       </c>
       <c r="H17" s="3">
-        <v>5058300</v>
+        <v>4809800</v>
       </c>
       <c r="I17" s="3">
-        <v>5045600</v>
+        <v>4797700</v>
       </c>
       <c r="J17" s="3">
-        <v>4761800</v>
+        <v>4527800</v>
       </c>
       <c r="K17" s="3">
         <v>4691300</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1819900</v>
+        <v>1730500</v>
       </c>
       <c r="E18" s="3">
-        <v>774900</v>
+        <v>736800</v>
       </c>
       <c r="F18" s="3">
-        <v>170300</v>
+        <v>161900</v>
       </c>
       <c r="G18" s="3">
-        <v>202500</v>
+        <v>192500</v>
       </c>
       <c r="H18" s="3">
-        <v>198000</v>
+        <v>188300</v>
       </c>
       <c r="I18" s="3">
-        <v>160900</v>
+        <v>153000</v>
       </c>
       <c r="J18" s="3">
-        <v>337700</v>
+        <v>321100</v>
       </c>
       <c r="K18" s="3">
         <v>352000</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>422000</v>
+        <v>401300</v>
       </c>
       <c r="E20" s="3">
-        <v>279000</v>
+        <v>265300</v>
       </c>
       <c r="F20" s="3">
-        <v>135000</v>
+        <v>128400</v>
       </c>
       <c r="G20" s="3">
-        <v>-28100</v>
+        <v>-26700</v>
       </c>
       <c r="H20" s="3">
-        <v>161300</v>
+        <v>153400</v>
       </c>
       <c r="I20" s="3">
-        <v>53700</v>
+        <v>51100</v>
       </c>
       <c r="J20" s="3">
-        <v>161700</v>
+        <v>153700</v>
       </c>
       <c r="K20" s="3">
         <v>161600</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3905500</v>
+        <v>3714400</v>
       </c>
       <c r="E21" s="3">
-        <v>2782300</v>
+        <v>2646400</v>
       </c>
       <c r="F21" s="3">
-        <v>2050700</v>
+        <v>1950700</v>
       </c>
       <c r="G21" s="3">
-        <v>2013800</v>
+        <v>1915700</v>
       </c>
       <c r="H21" s="3">
-        <v>2235800</v>
+        <v>2126900</v>
       </c>
       <c r="I21" s="3">
-        <v>2051700</v>
+        <v>1951800</v>
       </c>
       <c r="J21" s="3">
-        <v>2106300</v>
+        <v>2003600</v>
       </c>
       <c r="K21" s="3">
         <v>1973200</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>65800</v>
+        <v>62500</v>
       </c>
       <c r="E22" s="3">
-        <v>70600</v>
+        <v>67100</v>
       </c>
       <c r="F22" s="3">
-        <v>103300</v>
+        <v>98200</v>
       </c>
       <c r="G22" s="3">
-        <v>97500</v>
+        <v>92700</v>
       </c>
       <c r="H22" s="3">
-        <v>84700</v>
+        <v>80600</v>
       </c>
       <c r="I22" s="3">
-        <v>44000</v>
+        <v>41800</v>
       </c>
       <c r="J22" s="3">
-        <v>16600</v>
+        <v>15700</v>
       </c>
       <c r="K22" s="3">
         <v>26900</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2176100</v>
+        <v>2069200</v>
       </c>
       <c r="E23" s="3">
-        <v>983300</v>
+        <v>935000</v>
       </c>
       <c r="F23" s="3">
-        <v>202000</v>
+        <v>192000</v>
       </c>
       <c r="G23" s="3">
-        <v>76900</v>
+        <v>73100</v>
       </c>
       <c r="H23" s="3">
-        <v>274600</v>
+        <v>261100</v>
       </c>
       <c r="I23" s="3">
-        <v>170700</v>
+        <v>162300</v>
       </c>
       <c r="J23" s="3">
-        <v>482800</v>
+        <v>459100</v>
       </c>
       <c r="K23" s="3">
         <v>486700</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>235600</v>
+        <v>224000</v>
       </c>
       <c r="E24" s="3">
-        <v>26300</v>
+        <v>25000</v>
       </c>
       <c r="F24" s="3">
-        <v>-13800</v>
+        <v>-13200</v>
       </c>
       <c r="G24" s="3">
-        <v>-16100</v>
+        <v>-15400</v>
       </c>
       <c r="H24" s="3">
-        <v>41100</v>
+        <v>39100</v>
       </c>
       <c r="I24" s="3">
-        <v>34600</v>
+        <v>32900</v>
       </c>
       <c r="J24" s="3">
-        <v>30900</v>
+        <v>29300</v>
       </c>
       <c r="K24" s="3">
         <v>73300</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1940500</v>
+        <v>1845200</v>
       </c>
       <c r="E26" s="3">
-        <v>957000</v>
+        <v>910000</v>
       </c>
       <c r="F26" s="3">
-        <v>215800</v>
+        <v>205200</v>
       </c>
       <c r="G26" s="3">
-        <v>93100</v>
+        <v>88500</v>
       </c>
       <c r="H26" s="3">
-        <v>233500</v>
+        <v>222000</v>
       </c>
       <c r="I26" s="3">
-        <v>136000</v>
+        <v>129300</v>
       </c>
       <c r="J26" s="3">
-        <v>451900</v>
+        <v>429700</v>
       </c>
       <c r="K26" s="3">
         <v>413500</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1964000</v>
+        <v>1867500</v>
       </c>
       <c r="E27" s="3">
-        <v>1027800</v>
+        <v>977300</v>
       </c>
       <c r="F27" s="3">
-        <v>341800</v>
+        <v>325000</v>
       </c>
       <c r="G27" s="3">
-        <v>249000</v>
+        <v>236800</v>
       </c>
       <c r="H27" s="3">
-        <v>339000</v>
+        <v>322400</v>
       </c>
       <c r="I27" s="3">
-        <v>292800</v>
+        <v>278400</v>
       </c>
       <c r="J27" s="3">
-        <v>473500</v>
+        <v>450300</v>
       </c>
       <c r="K27" s="3">
         <v>437300</v>
@@ -1590,25 +1590,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-422000</v>
+        <v>-401300</v>
       </c>
       <c r="E32" s="3">
-        <v>-279000</v>
+        <v>-265300</v>
       </c>
       <c r="F32" s="3">
-        <v>-135000</v>
+        <v>-128400</v>
       </c>
       <c r="G32" s="3">
-        <v>28100</v>
+        <v>26700</v>
       </c>
       <c r="H32" s="3">
-        <v>-161300</v>
+        <v>-153400</v>
       </c>
       <c r="I32" s="3">
-        <v>-53700</v>
+        <v>-51100</v>
       </c>
       <c r="J32" s="3">
-        <v>-161700</v>
+        <v>-153700</v>
       </c>
       <c r="K32" s="3">
         <v>-161600</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1964000</v>
+        <v>1867500</v>
       </c>
       <c r="E33" s="3">
-        <v>1027800</v>
+        <v>977300</v>
       </c>
       <c r="F33" s="3">
-        <v>341800</v>
+        <v>325000</v>
       </c>
       <c r="G33" s="3">
-        <v>249000</v>
+        <v>236800</v>
       </c>
       <c r="H33" s="3">
-        <v>339000</v>
+        <v>322400</v>
       </c>
       <c r="I33" s="3">
-        <v>292800</v>
+        <v>278400</v>
       </c>
       <c r="J33" s="3">
-        <v>473500</v>
+        <v>450300</v>
       </c>
       <c r="K33" s="3">
         <v>437300</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1964000</v>
+        <v>1867500</v>
       </c>
       <c r="E35" s="3">
-        <v>1027800</v>
+        <v>977300</v>
       </c>
       <c r="F35" s="3">
-        <v>341800</v>
+        <v>325000</v>
       </c>
       <c r="G35" s="3">
-        <v>249000</v>
+        <v>236800</v>
       </c>
       <c r="H35" s="3">
-        <v>339000</v>
+        <v>322400</v>
       </c>
       <c r="I35" s="3">
-        <v>292800</v>
+        <v>278400</v>
       </c>
       <c r="J35" s="3">
-        <v>473500</v>
+        <v>450300</v>
       </c>
       <c r="K35" s="3">
         <v>437300</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>4669600</v>
+        <v>4440200</v>
       </c>
       <c r="E41" s="3">
-        <v>3311400</v>
+        <v>3148700</v>
       </c>
       <c r="F41" s="3">
-        <v>3362300</v>
+        <v>3197100</v>
       </c>
       <c r="G41" s="3">
-        <v>2945700</v>
+        <v>2801000</v>
       </c>
       <c r="H41" s="3">
-        <v>2875800</v>
+        <v>2734500</v>
       </c>
       <c r="I41" s="3">
-        <v>2027400</v>
+        <v>1927700</v>
       </c>
       <c r="J41" s="3">
-        <v>1876400</v>
+        <v>1784200</v>
       </c>
       <c r="K41" s="3">
         <v>1646200</v>
@@ -1863,25 +1863,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>332600</v>
+        <v>316300</v>
       </c>
       <c r="E42" s="3">
-        <v>42800</v>
+        <v>40700</v>
       </c>
       <c r="F42" s="3">
-        <v>25400</v>
+        <v>24200</v>
       </c>
       <c r="G42" s="3">
-        <v>18600</v>
+        <v>17700</v>
       </c>
       <c r="H42" s="3">
-        <v>25200</v>
+        <v>24000</v>
       </c>
       <c r="I42" s="3">
-        <v>25100</v>
+        <v>23900</v>
       </c>
       <c r="J42" s="3">
-        <v>23400</v>
+        <v>22300</v>
       </c>
       <c r="K42" s="3">
         <v>26700</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1280600</v>
+        <v>1217700</v>
       </c>
       <c r="E43" s="3">
-        <v>1029500</v>
+        <v>978900</v>
       </c>
       <c r="F43" s="3">
-        <v>937400</v>
+        <v>891400</v>
       </c>
       <c r="G43" s="3">
-        <v>869600</v>
+        <v>826800</v>
       </c>
       <c r="H43" s="3">
-        <v>797800</v>
+        <v>758600</v>
       </c>
       <c r="I43" s="3">
-        <v>845100</v>
+        <v>803600</v>
       </c>
       <c r="J43" s="3">
-        <v>703800</v>
+        <v>669200</v>
       </c>
       <c r="K43" s="3">
         <v>830700</v>
@@ -1941,25 +1941,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>810200</v>
+        <v>770400</v>
       </c>
       <c r="E44" s="3">
-        <v>794100</v>
+        <v>755100</v>
       </c>
       <c r="F44" s="3">
-        <v>764600</v>
+        <v>727000</v>
       </c>
       <c r="G44" s="3">
-        <v>640900</v>
+        <v>609400</v>
       </c>
       <c r="H44" s="3">
-        <v>642800</v>
+        <v>611300</v>
       </c>
       <c r="I44" s="3">
-        <v>598500</v>
+        <v>569100</v>
       </c>
       <c r="J44" s="3">
-        <v>621200</v>
+        <v>590600</v>
       </c>
       <c r="K44" s="3">
         <v>493000</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1120500</v>
+        <v>1065400</v>
       </c>
       <c r="E45" s="3">
-        <v>607400</v>
+        <v>577600</v>
       </c>
       <c r="F45" s="3">
-        <v>324100</v>
+        <v>308100</v>
       </c>
       <c r="G45" s="3">
-        <v>496600</v>
+        <v>472200</v>
       </c>
       <c r="H45" s="3">
-        <v>558200</v>
+        <v>530800</v>
       </c>
       <c r="I45" s="3">
-        <v>393500</v>
+        <v>374200</v>
       </c>
       <c r="J45" s="3">
-        <v>113800</v>
+        <v>108200</v>
       </c>
       <c r="K45" s="3">
         <v>436500</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>8213600</v>
+        <v>7810000</v>
       </c>
       <c r="E46" s="3">
-        <v>5785200</v>
+        <v>5501000</v>
       </c>
       <c r="F46" s="3">
-        <v>5413800</v>
+        <v>5147800</v>
       </c>
       <c r="G46" s="3">
-        <v>4971400</v>
+        <v>4727200</v>
       </c>
       <c r="H46" s="3">
-        <v>4899800</v>
+        <v>4659100</v>
       </c>
       <c r="I46" s="3">
-        <v>3889600</v>
+        <v>3698500</v>
       </c>
       <c r="J46" s="3">
-        <v>3338500</v>
+        <v>3174500</v>
       </c>
       <c r="K46" s="3">
         <v>3489000</v>
@@ -2058,25 +2058,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2554400</v>
+        <v>2428900</v>
       </c>
       <c r="E47" s="3">
-        <v>1992100</v>
+        <v>1894200</v>
       </c>
       <c r="F47" s="3">
-        <v>1455700</v>
+        <v>1384200</v>
       </c>
       <c r="G47" s="3">
-        <v>1179700</v>
+        <v>1121800</v>
       </c>
       <c r="H47" s="3">
-        <v>1197900</v>
+        <v>1139100</v>
       </c>
       <c r="I47" s="3">
-        <v>1224100</v>
+        <v>1164000</v>
       </c>
       <c r="J47" s="3">
-        <v>1413700</v>
+        <v>1344200</v>
       </c>
       <c r="K47" s="3">
         <v>2227500</v>
@@ -2097,25 +2097,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>5119200</v>
+        <v>4867700</v>
       </c>
       <c r="E48" s="3">
-        <v>4968400</v>
+        <v>4724300</v>
       </c>
       <c r="F48" s="3">
-        <v>5594300</v>
+        <v>5319400</v>
       </c>
       <c r="G48" s="3">
-        <v>6109200</v>
+        <v>5809000</v>
       </c>
       <c r="H48" s="3">
-        <v>7254200</v>
+        <v>6897800</v>
       </c>
       <c r="I48" s="3">
-        <v>7963200</v>
+        <v>7571900</v>
       </c>
       <c r="J48" s="3">
-        <v>6646500</v>
+        <v>6319900</v>
       </c>
       <c r="K48" s="3">
         <v>6042500</v>
@@ -2136,25 +2136,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>128300</v>
+        <v>122000</v>
       </c>
       <c r="E49" s="3">
-        <v>171800</v>
+        <v>163300</v>
       </c>
       <c r="F49" s="3">
-        <v>183000</v>
+        <v>174000</v>
       </c>
       <c r="G49" s="3">
-        <v>105300</v>
+        <v>100200</v>
       </c>
       <c r="H49" s="3">
-        <v>133400</v>
+        <v>126800</v>
       </c>
       <c r="I49" s="3">
-        <v>143900</v>
+        <v>136900</v>
       </c>
       <c r="J49" s="3">
-        <v>158600</v>
+        <v>150800</v>
       </c>
       <c r="K49" s="3">
         <v>163300</v>
@@ -2253,25 +2253,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>337000</v>
+        <v>320400</v>
       </c>
       <c r="E52" s="3">
-        <v>374800</v>
+        <v>356400</v>
       </c>
       <c r="F52" s="3">
-        <v>387500</v>
+        <v>368400</v>
       </c>
       <c r="G52" s="3">
-        <v>472000</v>
+        <v>448800</v>
       </c>
       <c r="H52" s="3">
-        <v>390900</v>
+        <v>371600</v>
       </c>
       <c r="I52" s="3">
-        <v>393200</v>
+        <v>373900</v>
       </c>
       <c r="J52" s="3">
-        <v>321400</v>
+        <v>305600</v>
       </c>
       <c r="K52" s="3">
         <v>238400</v>
@@ -2331,25 +2331,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>16352500</v>
+        <v>15549000</v>
       </c>
       <c r="E54" s="3">
-        <v>13292400</v>
+        <v>12639200</v>
       </c>
       <c r="F54" s="3">
-        <v>13034300</v>
+        <v>12393900</v>
       </c>
       <c r="G54" s="3">
-        <v>12837700</v>
+        <v>12207000</v>
       </c>
       <c r="H54" s="3">
-        <v>13876200</v>
+        <v>13194400</v>
       </c>
       <c r="I54" s="3">
-        <v>13614100</v>
+        <v>12945200</v>
       </c>
       <c r="J54" s="3">
-        <v>11878700</v>
+        <v>11295000</v>
       </c>
       <c r="K54" s="3">
         <v>11283100</v>
@@ -2404,25 +2404,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>294500</v>
+        <v>280000</v>
       </c>
       <c r="E57" s="3">
-        <v>276800</v>
+        <v>263200</v>
       </c>
       <c r="F57" s="3">
-        <v>312600</v>
+        <v>297200</v>
       </c>
       <c r="G57" s="3">
-        <v>239500</v>
+        <v>227700</v>
       </c>
       <c r="H57" s="3">
-        <v>230100</v>
+        <v>218800</v>
       </c>
       <c r="I57" s="3">
-        <v>241400</v>
+        <v>229500</v>
       </c>
       <c r="J57" s="3">
-        <v>209600</v>
+        <v>199300</v>
       </c>
       <c r="K57" s="3">
         <v>222100</v>
@@ -2443,25 +2443,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1401800</v>
+        <v>1333000</v>
       </c>
       <c r="E58" s="3">
-        <v>1358800</v>
+        <v>1292100</v>
       </c>
       <c r="F58" s="3">
-        <v>1316200</v>
+        <v>1251500</v>
       </c>
       <c r="G58" s="3">
-        <v>641700</v>
+        <v>610200</v>
       </c>
       <c r="H58" s="3">
-        <v>1859400</v>
+        <v>1768100</v>
       </c>
       <c r="I58" s="3">
-        <v>1093300</v>
+        <v>1039600</v>
       </c>
       <c r="J58" s="3">
-        <v>426300</v>
+        <v>405300</v>
       </c>
       <c r="K58" s="3">
         <v>361100</v>
@@ -2482,25 +2482,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2016700</v>
+        <v>1917600</v>
       </c>
       <c r="E59" s="3">
-        <v>1119300</v>
+        <v>1064300</v>
       </c>
       <c r="F59" s="3">
-        <v>931500</v>
+        <v>885800</v>
       </c>
       <c r="G59" s="3">
-        <v>875800</v>
+        <v>832700</v>
       </c>
       <c r="H59" s="3">
-        <v>1011100</v>
+        <v>961400</v>
       </c>
       <c r="I59" s="3">
-        <v>1199700</v>
+        <v>1140700</v>
       </c>
       <c r="J59" s="3">
-        <v>1062800</v>
+        <v>1010600</v>
       </c>
       <c r="K59" s="3">
         <v>1149500</v>
@@ -2521,25 +2521,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3713000</v>
+        <v>3530600</v>
       </c>
       <c r="E60" s="3">
-        <v>2755000</v>
+        <v>2619600</v>
       </c>
       <c r="F60" s="3">
-        <v>2560300</v>
+        <v>2434500</v>
       </c>
       <c r="G60" s="3">
-        <v>1757000</v>
+        <v>1670600</v>
       </c>
       <c r="H60" s="3">
-        <v>3100600</v>
+        <v>2948300</v>
       </c>
       <c r="I60" s="3">
-        <v>2534400</v>
+        <v>2409800</v>
       </c>
       <c r="J60" s="3">
-        <v>1698700</v>
+        <v>1615300</v>
       </c>
       <c r="K60" s="3">
         <v>1732800</v>
@@ -2560,25 +2560,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1561200</v>
+        <v>1484500</v>
       </c>
       <c r="E61" s="3">
-        <v>1049200</v>
+        <v>997600</v>
       </c>
       <c r="F61" s="3">
-        <v>1878400</v>
+        <v>1786100</v>
       </c>
       <c r="G61" s="3">
-        <v>2362000</v>
+        <v>2245900</v>
       </c>
       <c r="H61" s="3">
-        <v>1877400</v>
+        <v>1785100</v>
       </c>
       <c r="I61" s="3">
-        <v>2138300</v>
+        <v>2033200</v>
       </c>
       <c r="J61" s="3">
-        <v>1673300</v>
+        <v>1591100</v>
       </c>
       <c r="K61" s="3">
         <v>1203100</v>
@@ -2599,25 +2599,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1177100</v>
+        <v>1119200</v>
       </c>
       <c r="E62" s="3">
-        <v>1186600</v>
+        <v>1128300</v>
       </c>
       <c r="F62" s="3">
-        <v>1299600</v>
+        <v>1235700</v>
       </c>
       <c r="G62" s="3">
-        <v>1446600</v>
+        <v>1375600</v>
       </c>
       <c r="H62" s="3">
-        <v>1362000</v>
+        <v>1295100</v>
       </c>
       <c r="I62" s="3">
-        <v>1239600</v>
+        <v>1178700</v>
       </c>
       <c r="J62" s="3">
-        <v>450000</v>
+        <v>427900</v>
       </c>
       <c r="K62" s="3">
         <v>242400</v>
@@ -2755,25 +2755,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6459200</v>
+        <v>6141800</v>
       </c>
       <c r="E66" s="3">
-        <v>4994800</v>
+        <v>4749400</v>
       </c>
       <c r="F66" s="3">
-        <v>5752700</v>
+        <v>5470100</v>
       </c>
       <c r="G66" s="3">
-        <v>5582000</v>
+        <v>5307800</v>
       </c>
       <c r="H66" s="3">
-        <v>6373700</v>
+        <v>6060500</v>
       </c>
       <c r="I66" s="3">
-        <v>5988400</v>
+        <v>5694100</v>
       </c>
       <c r="J66" s="3">
-        <v>3893400</v>
+        <v>3702100</v>
       </c>
       <c r="K66" s="3">
         <v>3317000</v>
@@ -2967,25 +2967,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4062400</v>
+        <v>3862800</v>
       </c>
       <c r="E72" s="3">
-        <v>2823000</v>
+        <v>2684300</v>
       </c>
       <c r="F72" s="3">
-        <v>2153200</v>
+        <v>2047400</v>
       </c>
       <c r="G72" s="3">
-        <v>2168500</v>
+        <v>2062000</v>
       </c>
       <c r="H72" s="3">
-        <v>1692400</v>
+        <v>1609200</v>
       </c>
       <c r="I72" s="3">
-        <v>1677900</v>
+        <v>1595500</v>
       </c>
       <c r="J72" s="3">
-        <v>1785400</v>
+        <v>1697700</v>
       </c>
       <c r="K72" s="3">
         <v>1597100</v>
@@ -3123,25 +3123,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>9893300</v>
+        <v>9407200</v>
       </c>
       <c r="E76" s="3">
-        <v>8297600</v>
+        <v>7889900</v>
       </c>
       <c r="F76" s="3">
-        <v>7281600</v>
+        <v>6923800</v>
       </c>
       <c r="G76" s="3">
-        <v>7255700</v>
+        <v>6899200</v>
       </c>
       <c r="H76" s="3">
-        <v>7502600</v>
+        <v>7133900</v>
       </c>
       <c r="I76" s="3">
-        <v>7625800</v>
+        <v>7251100</v>
       </c>
       <c r="J76" s="3">
-        <v>7985300</v>
+        <v>7592900</v>
       </c>
       <c r="K76" s="3">
         <v>7966100</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1964000</v>
+        <v>1867500</v>
       </c>
       <c r="E81" s="3">
-        <v>1027800</v>
+        <v>977300</v>
       </c>
       <c r="F81" s="3">
-        <v>341800</v>
+        <v>325000</v>
       </c>
       <c r="G81" s="3">
-        <v>249000</v>
+        <v>236800</v>
       </c>
       <c r="H81" s="3">
-        <v>339000</v>
+        <v>322400</v>
       </c>
       <c r="I81" s="3">
-        <v>292800</v>
+        <v>278400</v>
       </c>
       <c r="J81" s="3">
-        <v>473500</v>
+        <v>450300</v>
       </c>
       <c r="K81" s="3">
         <v>437300</v>
@@ -3301,25 +3301,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1657500</v>
+        <v>1576100</v>
       </c>
       <c r="E83" s="3">
-        <v>1722100</v>
+        <v>1637400</v>
       </c>
       <c r="F83" s="3">
-        <v>1739000</v>
+        <v>1653600</v>
       </c>
       <c r="G83" s="3">
-        <v>1832600</v>
+        <v>1742600</v>
       </c>
       <c r="H83" s="3">
-        <v>1869600</v>
+        <v>1777700</v>
       </c>
       <c r="I83" s="3">
-        <v>1830300</v>
+        <v>1740400</v>
       </c>
       <c r="J83" s="3">
-        <v>1601100</v>
+        <v>1522400</v>
       </c>
       <c r="K83" s="3">
         <v>1464500</v>
@@ -3535,25 +3535,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>3181300</v>
+        <v>3025000</v>
       </c>
       <c r="E89" s="3">
-        <v>2314900</v>
+        <v>2201100</v>
       </c>
       <c r="F89" s="3">
-        <v>1933200</v>
+        <v>1838200</v>
       </c>
       <c r="G89" s="3">
-        <v>1793400</v>
+        <v>1705300</v>
       </c>
       <c r="H89" s="3">
-        <v>1847600</v>
+        <v>1756800</v>
       </c>
       <c r="I89" s="3">
-        <v>1635500</v>
+        <v>1555200</v>
       </c>
       <c r="J89" s="3">
-        <v>2105100</v>
+        <v>2001700</v>
       </c>
       <c r="K89" s="3">
         <v>1613300</v>
@@ -3591,25 +3591,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-1691300</v>
+        <v>-1608200</v>
       </c>
       <c r="E91" s="3">
-        <v>-927600</v>
+        <v>-882000</v>
       </c>
       <c r="F91" s="3">
-        <v>-581600</v>
+        <v>-553000</v>
       </c>
       <c r="G91" s="3">
-        <v>-689800</v>
+        <v>-655900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1557600</v>
+        <v>-1481000</v>
       </c>
       <c r="I91" s="3">
-        <v>-3223900</v>
+        <v>-3065500</v>
       </c>
       <c r="J91" s="3">
-        <v>-2130400</v>
+        <v>-2025700</v>
       </c>
       <c r="K91" s="3">
         <v>-1557400</v>
@@ -3708,25 +3708,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-2188800</v>
+        <v>-2081200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1412300</v>
+        <v>-1342900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1115500</v>
+        <v>-1060700</v>
       </c>
       <c r="G94" s="3">
-        <v>-545700</v>
+        <v>-518900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1247000</v>
+        <v>-1185700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2819800</v>
+        <v>-2681300</v>
       </c>
       <c r="J94" s="3">
-        <v>-2411200</v>
+        <v>-2292700</v>
       </c>
       <c r="K94" s="3">
         <v>-1534700</v>
@@ -3764,25 +3764,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-699700</v>
+        <v>-665300</v>
       </c>
       <c r="E96" s="3">
-        <v>-343900</v>
+        <v>-327000</v>
       </c>
       <c r="F96" s="3">
-        <v>-243300</v>
+        <v>-231400</v>
       </c>
       <c r="G96" s="3">
-        <v>-301300</v>
+        <v>-286500</v>
       </c>
       <c r="H96" s="3">
-        <v>-214900</v>
+        <v>-204300</v>
       </c>
       <c r="I96" s="3">
-        <v>-243200</v>
+        <v>-231200</v>
       </c>
       <c r="J96" s="3">
-        <v>-244300</v>
+        <v>-232300</v>
       </c>
       <c r="K96" s="3">
         <v>-225200</v>
@@ -3920,25 +3920,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>439800</v>
+        <v>418200</v>
       </c>
       <c r="E100" s="3">
-        <v>-901400</v>
+        <v>-857100</v>
       </c>
       <c r="F100" s="3">
-        <v>-347400</v>
+        <v>-330300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1179000</v>
+        <v>-1121100</v>
       </c>
       <c r="H100" s="3">
-        <v>322600</v>
+        <v>306700</v>
       </c>
       <c r="I100" s="3">
-        <v>1366000</v>
+        <v>1298900</v>
       </c>
       <c r="J100" s="3">
-        <v>529900</v>
+        <v>503800</v>
       </c>
       <c r="K100" s="3">
         <v>-297400</v>
@@ -3959,25 +3959,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-74100</v>
+        <v>-70500</v>
       </c>
       <c r="E101" s="3">
-        <v>-52000</v>
+        <v>-49400</v>
       </c>
       <c r="F101" s="3">
-        <v>-53700</v>
+        <v>-51100</v>
       </c>
       <c r="G101" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H101" s="3">
-        <v>-74800</v>
+        <v>-71100</v>
       </c>
       <c r="I101" s="3">
-        <v>-30700</v>
+        <v>-29200</v>
       </c>
       <c r="J101" s="3">
-        <v>25400</v>
+        <v>24200</v>
       </c>
       <c r="K101" s="3">
         <v>52500</v>
@@ -3998,25 +3998,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1358200</v>
+        <v>1291500</v>
       </c>
       <c r="E102" s="3">
-        <v>-50900</v>
+        <v>-48400</v>
       </c>
       <c r="F102" s="3">
-        <v>416600</v>
+        <v>396100</v>
       </c>
       <c r="G102" s="3">
-        <v>70000</v>
+        <v>66500</v>
       </c>
       <c r="H102" s="3">
-        <v>848400</v>
+        <v>806700</v>
       </c>
       <c r="I102" s="3">
-        <v>151000</v>
+        <v>143600</v>
       </c>
       <c r="J102" s="3">
-        <v>249200</v>
+        <v>237000</v>
       </c>
       <c r="K102" s="3">
         <v>-166300</v>

--- a/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7131600</v>
+        <v>7050700</v>
       </c>
       <c r="E8" s="3">
-        <v>5920000</v>
+        <v>5852800</v>
       </c>
       <c r="F8" s="3">
-        <v>4961800</v>
+        <v>4905500</v>
       </c>
       <c r="G8" s="3">
-        <v>5063900</v>
+        <v>5006500</v>
       </c>
       <c r="H8" s="3">
-        <v>4998100</v>
+        <v>4941300</v>
       </c>
       <c r="I8" s="3">
-        <v>4950700</v>
+        <v>4894500</v>
       </c>
       <c r="J8" s="3">
-        <v>4848900</v>
+        <v>4793900</v>
       </c>
       <c r="K8" s="3">
         <v>5043200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4719400</v>
+        <v>4665800</v>
       </c>
       <c r="E9" s="3">
-        <v>4614300</v>
+        <v>4562000</v>
       </c>
       <c r="F9" s="3">
-        <v>4248200</v>
+        <v>4199900</v>
       </c>
       <c r="G9" s="3">
-        <v>4299300</v>
+        <v>4250500</v>
       </c>
       <c r="H9" s="3">
-        <v>4092200</v>
+        <v>4045700</v>
       </c>
       <c r="I9" s="3">
-        <v>3933600</v>
+        <v>3888900</v>
       </c>
       <c r="J9" s="3">
-        <v>3785300</v>
+        <v>3742300</v>
       </c>
       <c r="K9" s="3">
         <v>3895900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2412200</v>
+        <v>2384800</v>
       </c>
       <c r="E10" s="3">
-        <v>1305600</v>
+        <v>1290800</v>
       </c>
       <c r="F10" s="3">
-        <v>713600</v>
+        <v>705500</v>
       </c>
       <c r="G10" s="3">
-        <v>764700</v>
+        <v>756000</v>
       </c>
       <c r="H10" s="3">
-        <v>905900</v>
+        <v>895600</v>
       </c>
       <c r="I10" s="3">
-        <v>1017100</v>
+        <v>1005600</v>
       </c>
       <c r="J10" s="3">
-        <v>1063600</v>
+        <v>1051500</v>
       </c>
       <c r="K10" s="3">
         <v>1147300</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>433100</v>
+        <v>428100</v>
       </c>
       <c r="E12" s="3">
-        <v>431700</v>
+        <v>426800</v>
       </c>
       <c r="F12" s="3">
-        <v>397100</v>
+        <v>392600</v>
       </c>
       <c r="G12" s="3">
-        <v>436100</v>
+        <v>431100</v>
       </c>
       <c r="H12" s="3">
-        <v>457700</v>
+        <v>452500</v>
       </c>
       <c r="I12" s="3">
-        <v>453100</v>
+        <v>447900</v>
       </c>
       <c r="J12" s="3">
-        <v>407600</v>
+        <v>403000</v>
       </c>
       <c r="K12" s="3">
         <v>492200</v>
@@ -947,13 +947,13 @@
         <v>1500</v>
       </c>
       <c r="H14" s="3">
-        <v>31600</v>
+        <v>31300</v>
       </c>
       <c r="I14" s="3">
-        <v>69600</v>
+        <v>68800</v>
       </c>
       <c r="J14" s="3">
-        <v>75900</v>
+        <v>75000</v>
       </c>
       <c r="K14" s="3">
         <v>32500</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5401200</v>
+        <v>5339800</v>
       </c>
       <c r="E17" s="3">
-        <v>5183200</v>
+        <v>5124300</v>
       </c>
       <c r="F17" s="3">
-        <v>4799900</v>
+        <v>4745400</v>
       </c>
       <c r="G17" s="3">
-        <v>4871400</v>
+        <v>4816100</v>
       </c>
       <c r="H17" s="3">
-        <v>4809800</v>
+        <v>4755200</v>
       </c>
       <c r="I17" s="3">
-        <v>4797700</v>
+        <v>4743200</v>
       </c>
       <c r="J17" s="3">
-        <v>4527800</v>
+        <v>4476500</v>
       </c>
       <c r="K17" s="3">
         <v>4691300</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1730500</v>
+        <v>1710800</v>
       </c>
       <c r="E18" s="3">
-        <v>736800</v>
+        <v>728400</v>
       </c>
       <c r="F18" s="3">
-        <v>161900</v>
+        <v>160100</v>
       </c>
       <c r="G18" s="3">
-        <v>192500</v>
+        <v>190400</v>
       </c>
       <c r="H18" s="3">
-        <v>188300</v>
+        <v>186100</v>
       </c>
       <c r="I18" s="3">
-        <v>153000</v>
+        <v>151300</v>
       </c>
       <c r="J18" s="3">
-        <v>321100</v>
+        <v>317400</v>
       </c>
       <c r="K18" s="3">
         <v>352000</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>401300</v>
+        <v>396700</v>
       </c>
       <c r="E20" s="3">
-        <v>265300</v>
+        <v>262300</v>
       </c>
       <c r="F20" s="3">
-        <v>128400</v>
+        <v>126900</v>
       </c>
       <c r="G20" s="3">
-        <v>-26700</v>
+        <v>-26400</v>
       </c>
       <c r="H20" s="3">
-        <v>153400</v>
+        <v>151700</v>
       </c>
       <c r="I20" s="3">
-        <v>51100</v>
+        <v>50500</v>
       </c>
       <c r="J20" s="3">
-        <v>153700</v>
+        <v>152000</v>
       </c>
       <c r="K20" s="3">
         <v>161600</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3714400</v>
+        <v>3664800</v>
       </c>
       <c r="E21" s="3">
-        <v>2646400</v>
+        <v>2608600</v>
       </c>
       <c r="F21" s="3">
-        <v>1950700</v>
+        <v>1920800</v>
       </c>
       <c r="G21" s="3">
-        <v>1915700</v>
+        <v>1885700</v>
       </c>
       <c r="H21" s="3">
-        <v>2126900</v>
+        <v>2094300</v>
       </c>
       <c r="I21" s="3">
-        <v>1951800</v>
+        <v>1921400</v>
       </c>
       <c r="J21" s="3">
-        <v>2003600</v>
+        <v>1973700</v>
       </c>
       <c r="K21" s="3">
         <v>1973200</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>62500</v>
+        <v>61800</v>
       </c>
       <c r="E22" s="3">
-        <v>67100</v>
+        <v>66300</v>
       </c>
       <c r="F22" s="3">
-        <v>98200</v>
+        <v>97100</v>
       </c>
       <c r="G22" s="3">
-        <v>92700</v>
+        <v>91600</v>
       </c>
       <c r="H22" s="3">
-        <v>80600</v>
+        <v>79700</v>
       </c>
       <c r="I22" s="3">
-        <v>41800</v>
+        <v>41400</v>
       </c>
       <c r="J22" s="3">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="K22" s="3">
         <v>26900</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2069200</v>
+        <v>2045700</v>
       </c>
       <c r="E23" s="3">
-        <v>935000</v>
+        <v>924400</v>
       </c>
       <c r="F23" s="3">
-        <v>192000</v>
+        <v>189800</v>
       </c>
       <c r="G23" s="3">
-        <v>73100</v>
+        <v>72300</v>
       </c>
       <c r="H23" s="3">
-        <v>261100</v>
+        <v>258100</v>
       </c>
       <c r="I23" s="3">
-        <v>162300</v>
+        <v>160400</v>
       </c>
       <c r="J23" s="3">
-        <v>459100</v>
+        <v>453900</v>
       </c>
       <c r="K23" s="3">
         <v>486700</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>224000</v>
+        <v>221500</v>
       </c>
       <c r="E24" s="3">
-        <v>25000</v>
+        <v>24700</v>
       </c>
       <c r="F24" s="3">
-        <v>-13200</v>
+        <v>-13000</v>
       </c>
       <c r="G24" s="3">
-        <v>-15400</v>
+        <v>-15200</v>
       </c>
       <c r="H24" s="3">
-        <v>39100</v>
+        <v>38600</v>
       </c>
       <c r="I24" s="3">
-        <v>32900</v>
+        <v>32600</v>
       </c>
       <c r="J24" s="3">
-        <v>29300</v>
+        <v>29000</v>
       </c>
       <c r="K24" s="3">
         <v>73300</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1845200</v>
+        <v>1824200</v>
       </c>
       <c r="E26" s="3">
-        <v>910000</v>
+        <v>899700</v>
       </c>
       <c r="F26" s="3">
-        <v>205200</v>
+        <v>202900</v>
       </c>
       <c r="G26" s="3">
-        <v>88500</v>
+        <v>87500</v>
       </c>
       <c r="H26" s="3">
-        <v>222000</v>
+        <v>219500</v>
       </c>
       <c r="I26" s="3">
-        <v>129300</v>
+        <v>127900</v>
       </c>
       <c r="J26" s="3">
-        <v>429700</v>
+        <v>424900</v>
       </c>
       <c r="K26" s="3">
         <v>413500</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1867500</v>
+        <v>1846300</v>
       </c>
       <c r="E27" s="3">
-        <v>977300</v>
+        <v>966200</v>
       </c>
       <c r="F27" s="3">
-        <v>325000</v>
+        <v>321300</v>
       </c>
       <c r="G27" s="3">
-        <v>236800</v>
+        <v>234100</v>
       </c>
       <c r="H27" s="3">
-        <v>322400</v>
+        <v>318700</v>
       </c>
       <c r="I27" s="3">
-        <v>278400</v>
+        <v>275200</v>
       </c>
       <c r="J27" s="3">
-        <v>450300</v>
+        <v>445100</v>
       </c>
       <c r="K27" s="3">
         <v>437300</v>
@@ -1590,25 +1590,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-401300</v>
+        <v>-396700</v>
       </c>
       <c r="E32" s="3">
-        <v>-265300</v>
+        <v>-262300</v>
       </c>
       <c r="F32" s="3">
-        <v>-128400</v>
+        <v>-126900</v>
       </c>
       <c r="G32" s="3">
-        <v>26700</v>
+        <v>26400</v>
       </c>
       <c r="H32" s="3">
-        <v>-153400</v>
+        <v>-151700</v>
       </c>
       <c r="I32" s="3">
-        <v>-51100</v>
+        <v>-50500</v>
       </c>
       <c r="J32" s="3">
-        <v>-153700</v>
+        <v>-152000</v>
       </c>
       <c r="K32" s="3">
         <v>-161600</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1867500</v>
+        <v>1846300</v>
       </c>
       <c r="E33" s="3">
-        <v>977300</v>
+        <v>966200</v>
       </c>
       <c r="F33" s="3">
-        <v>325000</v>
+        <v>321300</v>
       </c>
       <c r="G33" s="3">
-        <v>236800</v>
+        <v>234100</v>
       </c>
       <c r="H33" s="3">
-        <v>322400</v>
+        <v>318700</v>
       </c>
       <c r="I33" s="3">
-        <v>278400</v>
+        <v>275200</v>
       </c>
       <c r="J33" s="3">
-        <v>450300</v>
+        <v>445100</v>
       </c>
       <c r="K33" s="3">
         <v>437300</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1867500</v>
+        <v>1846300</v>
       </c>
       <c r="E35" s="3">
-        <v>977300</v>
+        <v>966200</v>
       </c>
       <c r="F35" s="3">
-        <v>325000</v>
+        <v>321300</v>
       </c>
       <c r="G35" s="3">
-        <v>236800</v>
+        <v>234100</v>
       </c>
       <c r="H35" s="3">
-        <v>322400</v>
+        <v>318700</v>
       </c>
       <c r="I35" s="3">
-        <v>278400</v>
+        <v>275200</v>
       </c>
       <c r="J35" s="3">
-        <v>450300</v>
+        <v>445100</v>
       </c>
       <c r="K35" s="3">
         <v>437300</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>4440200</v>
+        <v>4389800</v>
       </c>
       <c r="E41" s="3">
-        <v>3148700</v>
+        <v>3113000</v>
       </c>
       <c r="F41" s="3">
-        <v>3197100</v>
+        <v>3160800</v>
       </c>
       <c r="G41" s="3">
-        <v>2801000</v>
+        <v>2769200</v>
       </c>
       <c r="H41" s="3">
-        <v>2734500</v>
+        <v>2703400</v>
       </c>
       <c r="I41" s="3">
-        <v>1927700</v>
+        <v>1905900</v>
       </c>
       <c r="J41" s="3">
-        <v>1784200</v>
+        <v>1763900</v>
       </c>
       <c r="K41" s="3">
         <v>1646200</v>
@@ -1863,25 +1863,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>316300</v>
+        <v>312700</v>
       </c>
       <c r="E42" s="3">
-        <v>40700</v>
+        <v>40300</v>
       </c>
       <c r="F42" s="3">
-        <v>24200</v>
+        <v>23900</v>
       </c>
       <c r="G42" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="H42" s="3">
-        <v>24000</v>
+        <v>23700</v>
       </c>
       <c r="I42" s="3">
-        <v>23900</v>
+        <v>23600</v>
       </c>
       <c r="J42" s="3">
-        <v>22300</v>
+        <v>22000</v>
       </c>
       <c r="K42" s="3">
         <v>26700</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1217700</v>
+        <v>1203800</v>
       </c>
       <c r="E43" s="3">
-        <v>978900</v>
+        <v>967800</v>
       </c>
       <c r="F43" s="3">
-        <v>891400</v>
+        <v>881200</v>
       </c>
       <c r="G43" s="3">
-        <v>826800</v>
+        <v>817500</v>
       </c>
       <c r="H43" s="3">
-        <v>758600</v>
+        <v>749900</v>
       </c>
       <c r="I43" s="3">
-        <v>803600</v>
+        <v>794500</v>
       </c>
       <c r="J43" s="3">
-        <v>669200</v>
+        <v>661600</v>
       </c>
       <c r="K43" s="3">
         <v>830700</v>
@@ -1941,25 +1941,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>770400</v>
+        <v>761700</v>
       </c>
       <c r="E44" s="3">
-        <v>755100</v>
+        <v>746500</v>
       </c>
       <c r="F44" s="3">
-        <v>727000</v>
+        <v>718800</v>
       </c>
       <c r="G44" s="3">
-        <v>609400</v>
+        <v>602500</v>
       </c>
       <c r="H44" s="3">
-        <v>611300</v>
+        <v>604300</v>
       </c>
       <c r="I44" s="3">
-        <v>569100</v>
+        <v>562600</v>
       </c>
       <c r="J44" s="3">
-        <v>590600</v>
+        <v>583900</v>
       </c>
       <c r="K44" s="3">
         <v>493000</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1065400</v>
+        <v>1053300</v>
       </c>
       <c r="E45" s="3">
-        <v>577600</v>
+        <v>571000</v>
       </c>
       <c r="F45" s="3">
-        <v>308100</v>
+        <v>304600</v>
       </c>
       <c r="G45" s="3">
-        <v>472200</v>
+        <v>466800</v>
       </c>
       <c r="H45" s="3">
-        <v>530800</v>
+        <v>524800</v>
       </c>
       <c r="I45" s="3">
-        <v>374200</v>
+        <v>369900</v>
       </c>
       <c r="J45" s="3">
-        <v>108200</v>
+        <v>106900</v>
       </c>
       <c r="K45" s="3">
         <v>436500</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>7810000</v>
+        <v>7721400</v>
       </c>
       <c r="E46" s="3">
-        <v>5501000</v>
+        <v>5438500</v>
       </c>
       <c r="F46" s="3">
-        <v>5147800</v>
+        <v>5089400</v>
       </c>
       <c r="G46" s="3">
-        <v>4727200</v>
+        <v>4673500</v>
       </c>
       <c r="H46" s="3">
-        <v>4659100</v>
+        <v>4606200</v>
       </c>
       <c r="I46" s="3">
-        <v>3698500</v>
+        <v>3656500</v>
       </c>
       <c r="J46" s="3">
-        <v>3174500</v>
+        <v>3138400</v>
       </c>
       <c r="K46" s="3">
         <v>3489000</v>
@@ -2058,25 +2058,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2428900</v>
+        <v>2401300</v>
       </c>
       <c r="E47" s="3">
-        <v>1894200</v>
+        <v>1872700</v>
       </c>
       <c r="F47" s="3">
-        <v>1384200</v>
+        <v>1368500</v>
       </c>
       <c r="G47" s="3">
-        <v>1121800</v>
+        <v>1109000</v>
       </c>
       <c r="H47" s="3">
-        <v>1139100</v>
+        <v>1126200</v>
       </c>
       <c r="I47" s="3">
-        <v>1164000</v>
+        <v>1150800</v>
       </c>
       <c r="J47" s="3">
-        <v>1344200</v>
+        <v>1329000</v>
       </c>
       <c r="K47" s="3">
         <v>2227500</v>
@@ -2097,25 +2097,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>4867700</v>
+        <v>4812500</v>
       </c>
       <c r="E48" s="3">
-        <v>4724300</v>
+        <v>4670700</v>
       </c>
       <c r="F48" s="3">
-        <v>5319400</v>
+        <v>5259000</v>
       </c>
       <c r="G48" s="3">
-        <v>5809000</v>
+        <v>5743100</v>
       </c>
       <c r="H48" s="3">
-        <v>6897800</v>
+        <v>6819500</v>
       </c>
       <c r="I48" s="3">
-        <v>7571900</v>
+        <v>7486000</v>
       </c>
       <c r="J48" s="3">
-        <v>6319900</v>
+        <v>6248200</v>
       </c>
       <c r="K48" s="3">
         <v>6042500</v>
@@ -2136,25 +2136,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>122000</v>
+        <v>120600</v>
       </c>
       <c r="E49" s="3">
-        <v>163300</v>
+        <v>161500</v>
       </c>
       <c r="F49" s="3">
-        <v>174000</v>
+        <v>172100</v>
       </c>
       <c r="G49" s="3">
-        <v>100200</v>
+        <v>99000</v>
       </c>
       <c r="H49" s="3">
-        <v>126800</v>
+        <v>125400</v>
       </c>
       <c r="I49" s="3">
-        <v>136900</v>
+        <v>135300</v>
       </c>
       <c r="J49" s="3">
-        <v>150800</v>
+        <v>149100</v>
       </c>
       <c r="K49" s="3">
         <v>163300</v>
@@ -2253,25 +2253,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>320400</v>
+        <v>316800</v>
       </c>
       <c r="E52" s="3">
-        <v>356400</v>
+        <v>352400</v>
       </c>
       <c r="F52" s="3">
-        <v>368400</v>
+        <v>364200</v>
       </c>
       <c r="G52" s="3">
-        <v>448800</v>
+        <v>443800</v>
       </c>
       <c r="H52" s="3">
-        <v>371600</v>
+        <v>367400</v>
       </c>
       <c r="I52" s="3">
-        <v>373900</v>
+        <v>369700</v>
       </c>
       <c r="J52" s="3">
-        <v>305600</v>
+        <v>302100</v>
       </c>
       <c r="K52" s="3">
         <v>238400</v>
@@ -2331,25 +2331,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>15549000</v>
+        <v>15372500</v>
       </c>
       <c r="E54" s="3">
-        <v>12639200</v>
+        <v>12495800</v>
       </c>
       <c r="F54" s="3">
-        <v>12393900</v>
+        <v>12253200</v>
       </c>
       <c r="G54" s="3">
-        <v>12207000</v>
+        <v>12068400</v>
       </c>
       <c r="H54" s="3">
-        <v>13194400</v>
+        <v>13044700</v>
       </c>
       <c r="I54" s="3">
-        <v>12945200</v>
+        <v>12798300</v>
       </c>
       <c r="J54" s="3">
-        <v>11295000</v>
+        <v>11166800</v>
       </c>
       <c r="K54" s="3">
         <v>11283100</v>
@@ -2404,25 +2404,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>280000</v>
+        <v>276900</v>
       </c>
       <c r="E57" s="3">
-        <v>263200</v>
+        <v>260200</v>
       </c>
       <c r="F57" s="3">
-        <v>297200</v>
+        <v>293800</v>
       </c>
       <c r="G57" s="3">
-        <v>227700</v>
+        <v>225100</v>
       </c>
       <c r="H57" s="3">
-        <v>218800</v>
+        <v>216300</v>
       </c>
       <c r="I57" s="3">
-        <v>229500</v>
+        <v>226900</v>
       </c>
       <c r="J57" s="3">
-        <v>199300</v>
+        <v>197100</v>
       </c>
       <c r="K57" s="3">
         <v>222100</v>
@@ -2443,25 +2443,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1333000</v>
+        <v>1317800</v>
       </c>
       <c r="E58" s="3">
-        <v>1292100</v>
+        <v>1277400</v>
       </c>
       <c r="F58" s="3">
-        <v>1251500</v>
+        <v>1237300</v>
       </c>
       <c r="G58" s="3">
-        <v>610200</v>
+        <v>603300</v>
       </c>
       <c r="H58" s="3">
-        <v>1768100</v>
+        <v>1748000</v>
       </c>
       <c r="I58" s="3">
-        <v>1039600</v>
+        <v>1027800</v>
       </c>
       <c r="J58" s="3">
-        <v>405300</v>
+        <v>400700</v>
       </c>
       <c r="K58" s="3">
         <v>361100</v>
@@ -2482,25 +2482,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1917600</v>
+        <v>1895800</v>
       </c>
       <c r="E59" s="3">
-        <v>1064300</v>
+        <v>1052200</v>
       </c>
       <c r="F59" s="3">
-        <v>885800</v>
+        <v>875700</v>
       </c>
       <c r="G59" s="3">
-        <v>832700</v>
+        <v>823300</v>
       </c>
       <c r="H59" s="3">
-        <v>961400</v>
+        <v>950500</v>
       </c>
       <c r="I59" s="3">
-        <v>1140700</v>
+        <v>1127800</v>
       </c>
       <c r="J59" s="3">
-        <v>1010600</v>
+        <v>999100</v>
       </c>
       <c r="K59" s="3">
         <v>1149500</v>
@@ -2521,25 +2521,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3530600</v>
+        <v>3490500</v>
       </c>
       <c r="E60" s="3">
-        <v>2619600</v>
+        <v>2589900</v>
       </c>
       <c r="F60" s="3">
-        <v>2434500</v>
+        <v>2406800</v>
       </c>
       <c r="G60" s="3">
-        <v>1670600</v>
+        <v>1651700</v>
       </c>
       <c r="H60" s="3">
-        <v>2948300</v>
+        <v>2914800</v>
       </c>
       <c r="I60" s="3">
-        <v>2409800</v>
+        <v>2382500</v>
       </c>
       <c r="J60" s="3">
-        <v>1615300</v>
+        <v>1596900</v>
       </c>
       <c r="K60" s="3">
         <v>1732800</v>
@@ -2560,25 +2560,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1484500</v>
+        <v>1467700</v>
       </c>
       <c r="E61" s="3">
-        <v>997600</v>
+        <v>986300</v>
       </c>
       <c r="F61" s="3">
-        <v>1786100</v>
+        <v>1765900</v>
       </c>
       <c r="G61" s="3">
-        <v>2245900</v>
+        <v>2220400</v>
       </c>
       <c r="H61" s="3">
-        <v>1785100</v>
+        <v>1764900</v>
       </c>
       <c r="I61" s="3">
-        <v>2033200</v>
+        <v>2010100</v>
       </c>
       <c r="J61" s="3">
-        <v>1591100</v>
+        <v>1573100</v>
       </c>
       <c r="K61" s="3">
         <v>1203100</v>
@@ -2599,25 +2599,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1119200</v>
+        <v>1106500</v>
       </c>
       <c r="E62" s="3">
-        <v>1128300</v>
+        <v>1115500</v>
       </c>
       <c r="F62" s="3">
-        <v>1235700</v>
+        <v>1221700</v>
       </c>
       <c r="G62" s="3">
-        <v>1375600</v>
+        <v>1359900</v>
       </c>
       <c r="H62" s="3">
-        <v>1295100</v>
+        <v>1280400</v>
       </c>
       <c r="I62" s="3">
-        <v>1178700</v>
+        <v>1165300</v>
       </c>
       <c r="J62" s="3">
-        <v>427900</v>
+        <v>423000</v>
       </c>
       <c r="K62" s="3">
         <v>242400</v>
@@ -2755,25 +2755,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6141800</v>
+        <v>6072100</v>
       </c>
       <c r="E66" s="3">
-        <v>4749400</v>
+        <v>4695500</v>
       </c>
       <c r="F66" s="3">
-        <v>5470100</v>
+        <v>5408000</v>
       </c>
       <c r="G66" s="3">
-        <v>5307800</v>
+        <v>5247500</v>
       </c>
       <c r="H66" s="3">
-        <v>6060500</v>
+        <v>5991700</v>
       </c>
       <c r="I66" s="3">
-        <v>5694100</v>
+        <v>5629500</v>
       </c>
       <c r="J66" s="3">
-        <v>3702100</v>
+        <v>3660100</v>
       </c>
       <c r="K66" s="3">
         <v>3317000</v>
@@ -2967,25 +2967,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>3862800</v>
+        <v>3818900</v>
       </c>
       <c r="E72" s="3">
-        <v>2684300</v>
+        <v>2653800</v>
       </c>
       <c r="F72" s="3">
-        <v>2047400</v>
+        <v>2024200</v>
       </c>
       <c r="G72" s="3">
-        <v>2062000</v>
+        <v>2038600</v>
       </c>
       <c r="H72" s="3">
-        <v>1609200</v>
+        <v>1591000</v>
       </c>
       <c r="I72" s="3">
-        <v>1595500</v>
+        <v>1577400</v>
       </c>
       <c r="J72" s="3">
-        <v>1697700</v>
+        <v>1678400</v>
       </c>
       <c r="K72" s="3">
         <v>1597100</v>
@@ -3123,25 +3123,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>9407200</v>
+        <v>9300400</v>
       </c>
       <c r="E76" s="3">
-        <v>7889900</v>
+        <v>7800300</v>
       </c>
       <c r="F76" s="3">
-        <v>6923800</v>
+        <v>6845200</v>
       </c>
       <c r="G76" s="3">
-        <v>6899200</v>
+        <v>6820900</v>
       </c>
       <c r="H76" s="3">
-        <v>7133900</v>
+        <v>7053000</v>
       </c>
       <c r="I76" s="3">
-        <v>7251100</v>
+        <v>7168800</v>
       </c>
       <c r="J76" s="3">
-        <v>7592900</v>
+        <v>7506800</v>
       </c>
       <c r="K76" s="3">
         <v>7966100</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1867500</v>
+        <v>1846300</v>
       </c>
       <c r="E81" s="3">
-        <v>977300</v>
+        <v>966200</v>
       </c>
       <c r="F81" s="3">
-        <v>325000</v>
+        <v>321300</v>
       </c>
       <c r="G81" s="3">
-        <v>236800</v>
+        <v>234100</v>
       </c>
       <c r="H81" s="3">
-        <v>322400</v>
+        <v>318700</v>
       </c>
       <c r="I81" s="3">
-        <v>278400</v>
+        <v>275200</v>
       </c>
       <c r="J81" s="3">
-        <v>450300</v>
+        <v>445100</v>
       </c>
       <c r="K81" s="3">
         <v>437300</v>
@@ -3301,25 +3301,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1576100</v>
+        <v>1558200</v>
       </c>
       <c r="E83" s="3">
-        <v>1637400</v>
+        <v>1618900</v>
       </c>
       <c r="F83" s="3">
-        <v>1653600</v>
+        <v>1634800</v>
       </c>
       <c r="G83" s="3">
-        <v>1742600</v>
+        <v>1722800</v>
       </c>
       <c r="H83" s="3">
-        <v>1777700</v>
+        <v>1757600</v>
       </c>
       <c r="I83" s="3">
-        <v>1740400</v>
+        <v>1720700</v>
       </c>
       <c r="J83" s="3">
-        <v>1522400</v>
+        <v>1505100</v>
       </c>
       <c r="K83" s="3">
         <v>1464500</v>
@@ -3535,25 +3535,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>3025000</v>
+        <v>2990600</v>
       </c>
       <c r="E89" s="3">
-        <v>2201100</v>
+        <v>2176200</v>
       </c>
       <c r="F89" s="3">
-        <v>1838200</v>
+        <v>1817300</v>
       </c>
       <c r="G89" s="3">
-        <v>1705300</v>
+        <v>1685900</v>
       </c>
       <c r="H89" s="3">
-        <v>1756800</v>
+        <v>1736900</v>
       </c>
       <c r="I89" s="3">
-        <v>1555200</v>
+        <v>1537500</v>
       </c>
       <c r="J89" s="3">
-        <v>2001700</v>
+        <v>1979000</v>
       </c>
       <c r="K89" s="3">
         <v>1613300</v>
@@ -3591,25 +3591,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-1608200</v>
+        <v>-1589900</v>
       </c>
       <c r="E91" s="3">
-        <v>-882000</v>
+        <v>-872000</v>
       </c>
       <c r="F91" s="3">
-        <v>-553000</v>
+        <v>-546800</v>
       </c>
       <c r="G91" s="3">
-        <v>-655900</v>
+        <v>-648400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1481000</v>
+        <v>-1464200</v>
       </c>
       <c r="I91" s="3">
-        <v>-3065500</v>
+        <v>-3030700</v>
       </c>
       <c r="J91" s="3">
-        <v>-2025700</v>
+        <v>-2002700</v>
       </c>
       <c r="K91" s="3">
         <v>-1557400</v>
@@ -3708,25 +3708,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-2081200</v>
+        <v>-2057600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1342900</v>
+        <v>-1327700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1060700</v>
+        <v>-1048700</v>
       </c>
       <c r="G94" s="3">
-        <v>-518900</v>
+        <v>-513000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1185700</v>
+        <v>-1172300</v>
       </c>
       <c r="I94" s="3">
-        <v>-2681300</v>
+        <v>-2650800</v>
       </c>
       <c r="J94" s="3">
-        <v>-2292700</v>
+        <v>-2266700</v>
       </c>
       <c r="K94" s="3">
         <v>-1534700</v>
@@ -3764,25 +3764,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-665300</v>
+        <v>-657700</v>
       </c>
       <c r="E96" s="3">
-        <v>-327000</v>
+        <v>-323200</v>
       </c>
       <c r="F96" s="3">
-        <v>-231400</v>
+        <v>-228800</v>
       </c>
       <c r="G96" s="3">
-        <v>-286500</v>
+        <v>-283300</v>
       </c>
       <c r="H96" s="3">
-        <v>-204300</v>
+        <v>-202000</v>
       </c>
       <c r="I96" s="3">
-        <v>-231200</v>
+        <v>-228600</v>
       </c>
       <c r="J96" s="3">
-        <v>-232300</v>
+        <v>-229700</v>
       </c>
       <c r="K96" s="3">
         <v>-225200</v>
@@ -3920,25 +3920,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>418200</v>
+        <v>413400</v>
       </c>
       <c r="E100" s="3">
-        <v>-857100</v>
+        <v>-847400</v>
       </c>
       <c r="F100" s="3">
-        <v>-330300</v>
+        <v>-326600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1121100</v>
+        <v>-1108300</v>
       </c>
       <c r="H100" s="3">
-        <v>306700</v>
+        <v>303200</v>
       </c>
       <c r="I100" s="3">
-        <v>1298900</v>
+        <v>1284100</v>
       </c>
       <c r="J100" s="3">
-        <v>503800</v>
+        <v>498100</v>
       </c>
       <c r="K100" s="3">
         <v>-297400</v>
@@ -3959,25 +3959,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-70500</v>
+        <v>-69700</v>
       </c>
       <c r="E101" s="3">
-        <v>-49400</v>
+        <v>-48900</v>
       </c>
       <c r="F101" s="3">
-        <v>-51100</v>
+        <v>-50500</v>
       </c>
       <c r="G101" s="3">
         <v>1200</v>
       </c>
       <c r="H101" s="3">
-        <v>-71100</v>
+        <v>-70300</v>
       </c>
       <c r="I101" s="3">
-        <v>-29200</v>
+        <v>-28800</v>
       </c>
       <c r="J101" s="3">
-        <v>24200</v>
+        <v>23900</v>
       </c>
       <c r="K101" s="3">
         <v>52500</v>
@@ -3998,25 +3998,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1291500</v>
+        <v>1276800</v>
       </c>
       <c r="E102" s="3">
-        <v>-48400</v>
+        <v>-47800</v>
       </c>
       <c r="F102" s="3">
-        <v>396100</v>
+        <v>391600</v>
       </c>
       <c r="G102" s="3">
-        <v>66500</v>
+        <v>65800</v>
       </c>
       <c r="H102" s="3">
-        <v>806700</v>
+        <v>797600</v>
       </c>
       <c r="I102" s="3">
-        <v>143600</v>
+        <v>142000</v>
       </c>
       <c r="J102" s="3">
-        <v>237000</v>
+        <v>234300</v>
       </c>
       <c r="K102" s="3">
         <v>-166300</v>

--- a/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7050700</v>
+        <v>6790800</v>
       </c>
       <c r="E8" s="3">
-        <v>5852800</v>
+        <v>5637100</v>
       </c>
       <c r="F8" s="3">
-        <v>4905500</v>
+        <v>4724700</v>
       </c>
       <c r="G8" s="3">
-        <v>5006500</v>
+        <v>4821900</v>
       </c>
       <c r="H8" s="3">
-        <v>4941300</v>
+        <v>4759200</v>
       </c>
       <c r="I8" s="3">
-        <v>4894500</v>
+        <v>4714100</v>
       </c>
       <c r="J8" s="3">
-        <v>4793900</v>
+        <v>4617200</v>
       </c>
       <c r="K8" s="3">
         <v>5043200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4665800</v>
+        <v>4493800</v>
       </c>
       <c r="E9" s="3">
-        <v>4562000</v>
+        <v>4393800</v>
       </c>
       <c r="F9" s="3">
-        <v>4199900</v>
+        <v>4045100</v>
       </c>
       <c r="G9" s="3">
-        <v>4250500</v>
+        <v>4093800</v>
       </c>
       <c r="H9" s="3">
-        <v>4045700</v>
+        <v>3896600</v>
       </c>
       <c r="I9" s="3">
-        <v>3888900</v>
+        <v>3745600</v>
       </c>
       <c r="J9" s="3">
-        <v>3742300</v>
+        <v>3604400</v>
       </c>
       <c r="K9" s="3">
         <v>3895900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2384800</v>
+        <v>2296900</v>
       </c>
       <c r="E10" s="3">
-        <v>1290800</v>
+        <v>1243200</v>
       </c>
       <c r="F10" s="3">
-        <v>705500</v>
+        <v>679500</v>
       </c>
       <c r="G10" s="3">
-        <v>756000</v>
+        <v>728100</v>
       </c>
       <c r="H10" s="3">
-        <v>895600</v>
+        <v>862600</v>
       </c>
       <c r="I10" s="3">
-        <v>1005600</v>
+        <v>968500</v>
       </c>
       <c r="J10" s="3">
-        <v>1051500</v>
+        <v>1012800</v>
       </c>
       <c r="K10" s="3">
         <v>1147300</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>428100</v>
+        <v>412400</v>
       </c>
       <c r="E12" s="3">
-        <v>426800</v>
+        <v>411100</v>
       </c>
       <c r="F12" s="3">
-        <v>392600</v>
+        <v>378100</v>
       </c>
       <c r="G12" s="3">
-        <v>431100</v>
+        <v>415200</v>
       </c>
       <c r="H12" s="3">
-        <v>452500</v>
+        <v>435800</v>
       </c>
       <c r="I12" s="3">
-        <v>447900</v>
+        <v>431400</v>
       </c>
       <c r="J12" s="3">
-        <v>403000</v>
+        <v>388100</v>
       </c>
       <c r="K12" s="3">
         <v>492200</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="G14" s="3">
         <v>1500</v>
       </c>
       <c r="H14" s="3">
-        <v>31300</v>
+        <v>30100</v>
       </c>
       <c r="I14" s="3">
-        <v>68800</v>
+        <v>66200</v>
       </c>
       <c r="J14" s="3">
-        <v>75000</v>
+        <v>72300</v>
       </c>
       <c r="K14" s="3">
         <v>32500</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5339800</v>
+        <v>5143000</v>
       </c>
       <c r="E17" s="3">
-        <v>5124300</v>
+        <v>4935500</v>
       </c>
       <c r="F17" s="3">
-        <v>4745400</v>
+        <v>4570500</v>
       </c>
       <c r="G17" s="3">
-        <v>4816100</v>
+        <v>4638600</v>
       </c>
       <c r="H17" s="3">
-        <v>4755200</v>
+        <v>4579900</v>
       </c>
       <c r="I17" s="3">
-        <v>4743200</v>
+        <v>4568400</v>
       </c>
       <c r="J17" s="3">
-        <v>4476500</v>
+        <v>4311500</v>
       </c>
       <c r="K17" s="3">
         <v>4691300</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1710800</v>
+        <v>1647800</v>
       </c>
       <c r="E18" s="3">
-        <v>728400</v>
+        <v>701600</v>
       </c>
       <c r="F18" s="3">
-        <v>160100</v>
+        <v>154200</v>
       </c>
       <c r="G18" s="3">
-        <v>190400</v>
+        <v>183300</v>
       </c>
       <c r="H18" s="3">
-        <v>186100</v>
+        <v>179300</v>
       </c>
       <c r="I18" s="3">
-        <v>151300</v>
+        <v>145700</v>
       </c>
       <c r="J18" s="3">
-        <v>317400</v>
+        <v>305700</v>
       </c>
       <c r="K18" s="3">
         <v>352000</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>396700</v>
+        <v>382100</v>
       </c>
       <c r="E20" s="3">
-        <v>262300</v>
+        <v>252600</v>
       </c>
       <c r="F20" s="3">
-        <v>126900</v>
+        <v>122200</v>
       </c>
       <c r="G20" s="3">
-        <v>-26400</v>
+        <v>-25400</v>
       </c>
       <c r="H20" s="3">
-        <v>151700</v>
+        <v>146100</v>
       </c>
       <c r="I20" s="3">
-        <v>50500</v>
+        <v>48600</v>
       </c>
       <c r="J20" s="3">
-        <v>152000</v>
+        <v>146400</v>
       </c>
       <c r="K20" s="3">
         <v>161600</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3664800</v>
+        <v>3504200</v>
       </c>
       <c r="E21" s="3">
-        <v>2608600</v>
+        <v>2486000</v>
       </c>
       <c r="F21" s="3">
-        <v>1920800</v>
+        <v>1823300</v>
       </c>
       <c r="G21" s="3">
-        <v>1885700</v>
+        <v>1788100</v>
       </c>
       <c r="H21" s="3">
-        <v>2094300</v>
+        <v>1988400</v>
       </c>
       <c r="I21" s="3">
-        <v>1921400</v>
+        <v>1822500</v>
       </c>
       <c r="J21" s="3">
-        <v>1973700</v>
+        <v>1876300</v>
       </c>
       <c r="K21" s="3">
         <v>1973200</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>61800</v>
+        <v>59600</v>
       </c>
       <c r="E22" s="3">
-        <v>66300</v>
+        <v>63900</v>
       </c>
       <c r="F22" s="3">
-        <v>97100</v>
+        <v>93500</v>
       </c>
       <c r="G22" s="3">
-        <v>91600</v>
+        <v>88300</v>
       </c>
       <c r="H22" s="3">
-        <v>79700</v>
+        <v>76700</v>
       </c>
       <c r="I22" s="3">
-        <v>41400</v>
+        <v>39800</v>
       </c>
       <c r="J22" s="3">
-        <v>15600</v>
+        <v>15000</v>
       </c>
       <c r="K22" s="3">
         <v>26900</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2045700</v>
+        <v>1970300</v>
       </c>
       <c r="E23" s="3">
-        <v>924400</v>
+        <v>890300</v>
       </c>
       <c r="F23" s="3">
-        <v>189800</v>
+        <v>182900</v>
       </c>
       <c r="G23" s="3">
-        <v>72300</v>
+        <v>69600</v>
       </c>
       <c r="H23" s="3">
-        <v>258100</v>
+        <v>248600</v>
       </c>
       <c r="I23" s="3">
-        <v>160400</v>
+        <v>154500</v>
       </c>
       <c r="J23" s="3">
-        <v>453900</v>
+        <v>437100</v>
       </c>
       <c r="K23" s="3">
         <v>486700</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>221500</v>
+        <v>213300</v>
       </c>
       <c r="E24" s="3">
-        <v>24700</v>
+        <v>23800</v>
       </c>
       <c r="F24" s="3">
-        <v>-13000</v>
+        <v>-12500</v>
       </c>
       <c r="G24" s="3">
-        <v>-15200</v>
+        <v>-14600</v>
       </c>
       <c r="H24" s="3">
-        <v>38600</v>
+        <v>37200</v>
       </c>
       <c r="I24" s="3">
-        <v>32600</v>
+        <v>31400</v>
       </c>
       <c r="J24" s="3">
-        <v>29000</v>
+        <v>27900</v>
       </c>
       <c r="K24" s="3">
         <v>73300</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1824200</v>
+        <v>1757000</v>
       </c>
       <c r="E26" s="3">
-        <v>899700</v>
+        <v>866500</v>
       </c>
       <c r="F26" s="3">
-        <v>202900</v>
+        <v>195400</v>
       </c>
       <c r="G26" s="3">
-        <v>87500</v>
+        <v>84300</v>
       </c>
       <c r="H26" s="3">
-        <v>219500</v>
+        <v>211400</v>
       </c>
       <c r="I26" s="3">
-        <v>127900</v>
+        <v>123200</v>
       </c>
       <c r="J26" s="3">
-        <v>424900</v>
+        <v>409200</v>
       </c>
       <c r="K26" s="3">
         <v>413500</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1846300</v>
+        <v>1778300</v>
       </c>
       <c r="E27" s="3">
-        <v>966200</v>
+        <v>930600</v>
       </c>
       <c r="F27" s="3">
-        <v>321300</v>
+        <v>309500</v>
       </c>
       <c r="G27" s="3">
-        <v>234100</v>
+        <v>225500</v>
       </c>
       <c r="H27" s="3">
-        <v>318700</v>
+        <v>307000</v>
       </c>
       <c r="I27" s="3">
-        <v>275200</v>
+        <v>265100</v>
       </c>
       <c r="J27" s="3">
-        <v>445100</v>
+        <v>428700</v>
       </c>
       <c r="K27" s="3">
         <v>437300</v>
@@ -1590,25 +1590,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-396700</v>
+        <v>-382100</v>
       </c>
       <c r="E32" s="3">
-        <v>-262300</v>
+        <v>-252600</v>
       </c>
       <c r="F32" s="3">
-        <v>-126900</v>
+        <v>-122200</v>
       </c>
       <c r="G32" s="3">
-        <v>26400</v>
+        <v>25400</v>
       </c>
       <c r="H32" s="3">
-        <v>-151700</v>
+        <v>-146100</v>
       </c>
       <c r="I32" s="3">
-        <v>-50500</v>
+        <v>-48600</v>
       </c>
       <c r="J32" s="3">
-        <v>-152000</v>
+        <v>-146400</v>
       </c>
       <c r="K32" s="3">
         <v>-161600</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1846300</v>
+        <v>1778300</v>
       </c>
       <c r="E33" s="3">
-        <v>966200</v>
+        <v>930600</v>
       </c>
       <c r="F33" s="3">
-        <v>321300</v>
+        <v>309500</v>
       </c>
       <c r="G33" s="3">
-        <v>234100</v>
+        <v>225500</v>
       </c>
       <c r="H33" s="3">
-        <v>318700</v>
+        <v>307000</v>
       </c>
       <c r="I33" s="3">
-        <v>275200</v>
+        <v>265100</v>
       </c>
       <c r="J33" s="3">
-        <v>445100</v>
+        <v>428700</v>
       </c>
       <c r="K33" s="3">
         <v>437300</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1846300</v>
+        <v>1778300</v>
       </c>
       <c r="E35" s="3">
-        <v>966200</v>
+        <v>930600</v>
       </c>
       <c r="F35" s="3">
-        <v>321300</v>
+        <v>309500</v>
       </c>
       <c r="G35" s="3">
-        <v>234100</v>
+        <v>225500</v>
       </c>
       <c r="H35" s="3">
-        <v>318700</v>
+        <v>307000</v>
       </c>
       <c r="I35" s="3">
-        <v>275200</v>
+        <v>265100</v>
       </c>
       <c r="J35" s="3">
-        <v>445100</v>
+        <v>428700</v>
       </c>
       <c r="K35" s="3">
         <v>437300</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>4389800</v>
+        <v>4228000</v>
       </c>
       <c r="E41" s="3">
-        <v>3113000</v>
+        <v>2998300</v>
       </c>
       <c r="F41" s="3">
-        <v>3160800</v>
+        <v>3044300</v>
       </c>
       <c r="G41" s="3">
-        <v>2769200</v>
+        <v>2667100</v>
       </c>
       <c r="H41" s="3">
-        <v>2703400</v>
+        <v>2603800</v>
       </c>
       <c r="I41" s="3">
-        <v>1905900</v>
+        <v>1835600</v>
       </c>
       <c r="J41" s="3">
-        <v>1763900</v>
+        <v>1698900</v>
       </c>
       <c r="K41" s="3">
         <v>1646200</v>
@@ -1863,25 +1863,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>312700</v>
+        <v>301200</v>
       </c>
       <c r="E42" s="3">
-        <v>40300</v>
+        <v>38800</v>
       </c>
       <c r="F42" s="3">
-        <v>23900</v>
+        <v>23000</v>
       </c>
       <c r="G42" s="3">
-        <v>17500</v>
+        <v>16800</v>
       </c>
       <c r="H42" s="3">
-        <v>23700</v>
+        <v>22900</v>
       </c>
       <c r="I42" s="3">
-        <v>23600</v>
+        <v>22800</v>
       </c>
       <c r="J42" s="3">
-        <v>22000</v>
+        <v>21200</v>
       </c>
       <c r="K42" s="3">
         <v>26700</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1203800</v>
+        <v>1159500</v>
       </c>
       <c r="E43" s="3">
-        <v>967800</v>
+        <v>932100</v>
       </c>
       <c r="F43" s="3">
-        <v>881200</v>
+        <v>848800</v>
       </c>
       <c r="G43" s="3">
-        <v>817500</v>
+        <v>787300</v>
       </c>
       <c r="H43" s="3">
-        <v>749900</v>
+        <v>722300</v>
       </c>
       <c r="I43" s="3">
-        <v>794500</v>
+        <v>765200</v>
       </c>
       <c r="J43" s="3">
-        <v>661600</v>
+        <v>637300</v>
       </c>
       <c r="K43" s="3">
         <v>830700</v>
@@ -1941,25 +1941,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>761700</v>
+        <v>733600</v>
       </c>
       <c r="E44" s="3">
-        <v>746500</v>
+        <v>719000</v>
       </c>
       <c r="F44" s="3">
-        <v>718800</v>
+        <v>692300</v>
       </c>
       <c r="G44" s="3">
-        <v>602500</v>
+        <v>580300</v>
       </c>
       <c r="H44" s="3">
-        <v>604300</v>
+        <v>582000</v>
       </c>
       <c r="I44" s="3">
-        <v>562600</v>
+        <v>541900</v>
       </c>
       <c r="J44" s="3">
-        <v>583900</v>
+        <v>562400</v>
       </c>
       <c r="K44" s="3">
         <v>493000</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1053300</v>
+        <v>1014500</v>
       </c>
       <c r="E45" s="3">
-        <v>571000</v>
+        <v>550000</v>
       </c>
       <c r="F45" s="3">
-        <v>304600</v>
+        <v>293400</v>
       </c>
       <c r="G45" s="3">
-        <v>466800</v>
+        <v>449600</v>
       </c>
       <c r="H45" s="3">
-        <v>524800</v>
+        <v>505400</v>
       </c>
       <c r="I45" s="3">
-        <v>369900</v>
+        <v>356300</v>
       </c>
       <c r="J45" s="3">
-        <v>106900</v>
+        <v>103000</v>
       </c>
       <c r="K45" s="3">
         <v>436500</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>7721400</v>
+        <v>7436800</v>
       </c>
       <c r="E46" s="3">
-        <v>5438500</v>
+        <v>5238100</v>
       </c>
       <c r="F46" s="3">
-        <v>5089400</v>
+        <v>4901800</v>
       </c>
       <c r="G46" s="3">
-        <v>4673500</v>
+        <v>4501200</v>
       </c>
       <c r="H46" s="3">
-        <v>4606200</v>
+        <v>4436400</v>
       </c>
       <c r="I46" s="3">
-        <v>3656500</v>
+        <v>3521800</v>
       </c>
       <c r="J46" s="3">
-        <v>3138400</v>
+        <v>3022800</v>
       </c>
       <c r="K46" s="3">
         <v>3489000</v>
@@ -2058,25 +2058,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2401300</v>
+        <v>2312800</v>
       </c>
       <c r="E47" s="3">
-        <v>1872700</v>
+        <v>1803700</v>
       </c>
       <c r="F47" s="3">
-        <v>1368500</v>
+        <v>1318000</v>
       </c>
       <c r="G47" s="3">
-        <v>1109000</v>
+        <v>1068100</v>
       </c>
       <c r="H47" s="3">
-        <v>1126200</v>
+        <v>1084600</v>
       </c>
       <c r="I47" s="3">
-        <v>1150800</v>
+        <v>1108400</v>
       </c>
       <c r="J47" s="3">
-        <v>1329000</v>
+        <v>1280000</v>
       </c>
       <c r="K47" s="3">
         <v>2227500</v>
@@ -2097,25 +2097,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>4812500</v>
+        <v>4635100</v>
       </c>
       <c r="E48" s="3">
-        <v>4670700</v>
+        <v>4498600</v>
       </c>
       <c r="F48" s="3">
-        <v>5259000</v>
+        <v>5065200</v>
       </c>
       <c r="G48" s="3">
-        <v>5743100</v>
+        <v>5531400</v>
       </c>
       <c r="H48" s="3">
-        <v>6819500</v>
+        <v>6568200</v>
       </c>
       <c r="I48" s="3">
-        <v>7486000</v>
+        <v>7210000</v>
       </c>
       <c r="J48" s="3">
-        <v>6248200</v>
+        <v>6017900</v>
       </c>
       <c r="K48" s="3">
         <v>6042500</v>
@@ -2136,25 +2136,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>120600</v>
+        <v>116200</v>
       </c>
       <c r="E49" s="3">
-        <v>161500</v>
+        <v>155500</v>
       </c>
       <c r="F49" s="3">
-        <v>172100</v>
+        <v>165700</v>
       </c>
       <c r="G49" s="3">
-        <v>99000</v>
+        <v>95400</v>
       </c>
       <c r="H49" s="3">
-        <v>125400</v>
+        <v>120700</v>
       </c>
       <c r="I49" s="3">
-        <v>135300</v>
+        <v>130300</v>
       </c>
       <c r="J49" s="3">
-        <v>149100</v>
+        <v>143600</v>
       </c>
       <c r="K49" s="3">
         <v>163300</v>
@@ -2253,25 +2253,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>316800</v>
+        <v>305100</v>
       </c>
       <c r="E52" s="3">
-        <v>352400</v>
+        <v>339400</v>
       </c>
       <c r="F52" s="3">
-        <v>364200</v>
+        <v>350800</v>
       </c>
       <c r="G52" s="3">
-        <v>443800</v>
+        <v>427400</v>
       </c>
       <c r="H52" s="3">
-        <v>367400</v>
+        <v>353900</v>
       </c>
       <c r="I52" s="3">
-        <v>369700</v>
+        <v>356100</v>
       </c>
       <c r="J52" s="3">
-        <v>302100</v>
+        <v>291000</v>
       </c>
       <c r="K52" s="3">
         <v>238400</v>
@@ -2331,25 +2331,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>15372500</v>
+        <v>14805900</v>
       </c>
       <c r="E54" s="3">
-        <v>12495800</v>
+        <v>12035200</v>
       </c>
       <c r="F54" s="3">
-        <v>12253200</v>
+        <v>11801600</v>
       </c>
       <c r="G54" s="3">
-        <v>12068400</v>
+        <v>11623600</v>
       </c>
       <c r="H54" s="3">
-        <v>13044700</v>
+        <v>12563900</v>
       </c>
       <c r="I54" s="3">
-        <v>12798300</v>
+        <v>12326600</v>
       </c>
       <c r="J54" s="3">
-        <v>11166800</v>
+        <v>10755300</v>
       </c>
       <c r="K54" s="3">
         <v>11283100</v>
@@ -2404,25 +2404,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>276900</v>
+        <v>266600</v>
       </c>
       <c r="E57" s="3">
-        <v>260200</v>
+        <v>250600</v>
       </c>
       <c r="F57" s="3">
-        <v>293800</v>
+        <v>283000</v>
       </c>
       <c r="G57" s="3">
-        <v>225100</v>
+        <v>216800</v>
       </c>
       <c r="H57" s="3">
-        <v>216300</v>
+        <v>208400</v>
       </c>
       <c r="I57" s="3">
-        <v>226900</v>
+        <v>218500</v>
       </c>
       <c r="J57" s="3">
-        <v>197100</v>
+        <v>189800</v>
       </c>
       <c r="K57" s="3">
         <v>222100</v>
@@ -2443,25 +2443,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1317800</v>
+        <v>1269300</v>
       </c>
       <c r="E58" s="3">
-        <v>1277400</v>
+        <v>1230300</v>
       </c>
       <c r="F58" s="3">
-        <v>1237300</v>
+        <v>1191700</v>
       </c>
       <c r="G58" s="3">
-        <v>603300</v>
+        <v>581000</v>
       </c>
       <c r="H58" s="3">
-        <v>1748000</v>
+        <v>1683600</v>
       </c>
       <c r="I58" s="3">
-        <v>1027800</v>
+        <v>989900</v>
       </c>
       <c r="J58" s="3">
-        <v>400700</v>
+        <v>386000</v>
       </c>
       <c r="K58" s="3">
         <v>361100</v>
@@ -2482,25 +2482,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1895800</v>
+        <v>1825900</v>
       </c>
       <c r="E59" s="3">
-        <v>1052200</v>
+        <v>1013400</v>
       </c>
       <c r="F59" s="3">
-        <v>875700</v>
+        <v>843400</v>
       </c>
       <c r="G59" s="3">
-        <v>823300</v>
+        <v>792900</v>
       </c>
       <c r="H59" s="3">
-        <v>950500</v>
+        <v>915500</v>
       </c>
       <c r="I59" s="3">
-        <v>1127800</v>
+        <v>1086200</v>
       </c>
       <c r="J59" s="3">
-        <v>999100</v>
+        <v>962300</v>
       </c>
       <c r="K59" s="3">
         <v>1149500</v>
@@ -2521,25 +2521,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3490500</v>
+        <v>3361900</v>
       </c>
       <c r="E60" s="3">
-        <v>2589900</v>
+        <v>2494400</v>
       </c>
       <c r="F60" s="3">
-        <v>2406800</v>
+        <v>2318100</v>
       </c>
       <c r="G60" s="3">
-        <v>1651700</v>
+        <v>1590800</v>
       </c>
       <c r="H60" s="3">
-        <v>2914800</v>
+        <v>2807400</v>
       </c>
       <c r="I60" s="3">
-        <v>2382500</v>
+        <v>2294700</v>
       </c>
       <c r="J60" s="3">
-        <v>1596900</v>
+        <v>1538100</v>
       </c>
       <c r="K60" s="3">
         <v>1732800</v>
@@ -2560,25 +2560,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1467700</v>
+        <v>1413600</v>
       </c>
       <c r="E61" s="3">
-        <v>986300</v>
+        <v>950000</v>
       </c>
       <c r="F61" s="3">
-        <v>1765900</v>
+        <v>1700800</v>
       </c>
       <c r="G61" s="3">
-        <v>2220400</v>
+        <v>2138600</v>
       </c>
       <c r="H61" s="3">
-        <v>1764900</v>
+        <v>1699800</v>
       </c>
       <c r="I61" s="3">
-        <v>2010100</v>
+        <v>1936000</v>
       </c>
       <c r="J61" s="3">
-        <v>1573100</v>
+        <v>1515100</v>
       </c>
       <c r="K61" s="3">
         <v>1203100</v>
@@ -2599,25 +2599,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1106500</v>
+        <v>1065700</v>
       </c>
       <c r="E62" s="3">
-        <v>1115500</v>
+        <v>1074400</v>
       </c>
       <c r="F62" s="3">
-        <v>1221700</v>
+        <v>1176700</v>
       </c>
       <c r="G62" s="3">
-        <v>1359900</v>
+        <v>1309800</v>
       </c>
       <c r="H62" s="3">
-        <v>1280400</v>
+        <v>1233200</v>
       </c>
       <c r="I62" s="3">
-        <v>1165300</v>
+        <v>1122400</v>
       </c>
       <c r="J62" s="3">
-        <v>423000</v>
+        <v>407400</v>
       </c>
       <c r="K62" s="3">
         <v>242400</v>
@@ -2755,25 +2755,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6072100</v>
+        <v>5848300</v>
       </c>
       <c r="E66" s="3">
-        <v>4695500</v>
+        <v>4522400</v>
       </c>
       <c r="F66" s="3">
-        <v>5408000</v>
+        <v>5208700</v>
       </c>
       <c r="G66" s="3">
-        <v>5247500</v>
+        <v>5054100</v>
       </c>
       <c r="H66" s="3">
-        <v>5991700</v>
+        <v>5770900</v>
       </c>
       <c r="I66" s="3">
-        <v>5629500</v>
+        <v>5422000</v>
       </c>
       <c r="J66" s="3">
-        <v>3660100</v>
+        <v>3525200</v>
       </c>
       <c r="K66" s="3">
         <v>3317000</v>
@@ -2967,25 +2967,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>3818900</v>
+        <v>3678200</v>
       </c>
       <c r="E72" s="3">
-        <v>2653800</v>
+        <v>2556000</v>
       </c>
       <c r="F72" s="3">
-        <v>2024200</v>
+        <v>1949600</v>
       </c>
       <c r="G72" s="3">
-        <v>2038600</v>
+        <v>1963400</v>
       </c>
       <c r="H72" s="3">
-        <v>1591000</v>
+        <v>1532300</v>
       </c>
       <c r="I72" s="3">
-        <v>1577400</v>
+        <v>1519200</v>
       </c>
       <c r="J72" s="3">
-        <v>1678400</v>
+        <v>1616600</v>
       </c>
       <c r="K72" s="3">
         <v>1597100</v>
@@ -3123,25 +3123,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>9300400</v>
+        <v>8957600</v>
       </c>
       <c r="E76" s="3">
-        <v>7800300</v>
+        <v>7512800</v>
       </c>
       <c r="F76" s="3">
-        <v>6845200</v>
+        <v>6592900</v>
       </c>
       <c r="G76" s="3">
-        <v>6820900</v>
+        <v>6569500</v>
       </c>
       <c r="H76" s="3">
-        <v>7053000</v>
+        <v>6793000</v>
       </c>
       <c r="I76" s="3">
-        <v>7168800</v>
+        <v>6904600</v>
       </c>
       <c r="J76" s="3">
-        <v>7506800</v>
+        <v>7230100</v>
       </c>
       <c r="K76" s="3">
         <v>7966100</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1846300</v>
+        <v>1778300</v>
       </c>
       <c r="E81" s="3">
-        <v>966200</v>
+        <v>930600</v>
       </c>
       <c r="F81" s="3">
-        <v>321300</v>
+        <v>309500</v>
       </c>
       <c r="G81" s="3">
-        <v>234100</v>
+        <v>225500</v>
       </c>
       <c r="H81" s="3">
-        <v>318700</v>
+        <v>307000</v>
       </c>
       <c r="I81" s="3">
-        <v>275200</v>
+        <v>265100</v>
       </c>
       <c r="J81" s="3">
-        <v>445100</v>
+        <v>428700</v>
       </c>
       <c r="K81" s="3">
         <v>437300</v>
@@ -3301,25 +3301,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1558200</v>
+        <v>1500700</v>
       </c>
       <c r="E83" s="3">
-        <v>1618900</v>
+        <v>1559200</v>
       </c>
       <c r="F83" s="3">
-        <v>1634800</v>
+        <v>1574500</v>
       </c>
       <c r="G83" s="3">
-        <v>1722800</v>
+        <v>1659300</v>
       </c>
       <c r="H83" s="3">
-        <v>1757600</v>
+        <v>1692800</v>
       </c>
       <c r="I83" s="3">
-        <v>1720700</v>
+        <v>1657200</v>
       </c>
       <c r="J83" s="3">
-        <v>1505100</v>
+        <v>1449700</v>
       </c>
       <c r="K83" s="3">
         <v>1464500</v>
@@ -3535,25 +3535,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>2990600</v>
+        <v>2880400</v>
       </c>
       <c r="E89" s="3">
-        <v>2176200</v>
+        <v>2096000</v>
       </c>
       <c r="F89" s="3">
-        <v>1817300</v>
+        <v>1750300</v>
       </c>
       <c r="G89" s="3">
-        <v>1685900</v>
+        <v>1623800</v>
       </c>
       <c r="H89" s="3">
-        <v>1736900</v>
+        <v>1672900</v>
       </c>
       <c r="I89" s="3">
-        <v>1537500</v>
+        <v>1480800</v>
       </c>
       <c r="J89" s="3">
-        <v>1979000</v>
+        <v>1906000</v>
       </c>
       <c r="K89" s="3">
         <v>1613300</v>
@@ -3591,25 +3591,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-1589900</v>
+        <v>-1531300</v>
       </c>
       <c r="E91" s="3">
-        <v>-872000</v>
+        <v>-839900</v>
       </c>
       <c r="F91" s="3">
-        <v>-546800</v>
+        <v>-526600</v>
       </c>
       <c r="G91" s="3">
-        <v>-648400</v>
+        <v>-624500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1464200</v>
+        <v>-1410300</v>
       </c>
       <c r="I91" s="3">
-        <v>-3030700</v>
+        <v>-2919000</v>
       </c>
       <c r="J91" s="3">
-        <v>-2002700</v>
+        <v>-1928900</v>
       </c>
       <c r="K91" s="3">
         <v>-1557400</v>
@@ -3708,25 +3708,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-2057600</v>
+        <v>-1981800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1327700</v>
+        <v>-1278800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1048700</v>
+        <v>-1010000</v>
       </c>
       <c r="G94" s="3">
-        <v>-513000</v>
+        <v>-494100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1172300</v>
+        <v>-1129000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2650800</v>
+        <v>-2553100</v>
       </c>
       <c r="J94" s="3">
-        <v>-2266700</v>
+        <v>-2183200</v>
       </c>
       <c r="K94" s="3">
         <v>-1534700</v>
@@ -3764,25 +3764,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-657700</v>
+        <v>-633500</v>
       </c>
       <c r="E96" s="3">
-        <v>-323200</v>
+        <v>-311300</v>
       </c>
       <c r="F96" s="3">
-        <v>-228800</v>
+        <v>-220300</v>
       </c>
       <c r="G96" s="3">
-        <v>-283300</v>
+        <v>-272800</v>
       </c>
       <c r="H96" s="3">
-        <v>-202000</v>
+        <v>-194600</v>
       </c>
       <c r="I96" s="3">
-        <v>-228600</v>
+        <v>-220200</v>
       </c>
       <c r="J96" s="3">
-        <v>-229700</v>
+        <v>-221200</v>
       </c>
       <c r="K96" s="3">
         <v>-225200</v>
@@ -3920,25 +3920,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>413400</v>
+        <v>398200</v>
       </c>
       <c r="E100" s="3">
-        <v>-847400</v>
+        <v>-816200</v>
       </c>
       <c r="F100" s="3">
-        <v>-326600</v>
+        <v>-314600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1108300</v>
+        <v>-1067500</v>
       </c>
       <c r="H100" s="3">
-        <v>303200</v>
+        <v>292100</v>
       </c>
       <c r="I100" s="3">
-        <v>1284100</v>
+        <v>1236800</v>
       </c>
       <c r="J100" s="3">
-        <v>498100</v>
+        <v>479800</v>
       </c>
       <c r="K100" s="3">
         <v>-297400</v>
@@ -3959,25 +3959,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-69700</v>
+        <v>-67100</v>
       </c>
       <c r="E101" s="3">
-        <v>-48900</v>
+        <v>-47100</v>
       </c>
       <c r="F101" s="3">
-        <v>-50500</v>
+        <v>-48600</v>
       </c>
       <c r="G101" s="3">
         <v>1200</v>
       </c>
       <c r="H101" s="3">
-        <v>-70300</v>
+        <v>-67700</v>
       </c>
       <c r="I101" s="3">
-        <v>-28800</v>
+        <v>-27800</v>
       </c>
       <c r="J101" s="3">
-        <v>23900</v>
+        <v>23000</v>
       </c>
       <c r="K101" s="3">
         <v>52500</v>
@@ -3998,25 +3998,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1276800</v>
+        <v>1229700</v>
       </c>
       <c r="E102" s="3">
-        <v>-47800</v>
+        <v>-46000</v>
       </c>
       <c r="F102" s="3">
-        <v>391600</v>
+        <v>377200</v>
       </c>
       <c r="G102" s="3">
-        <v>65800</v>
+        <v>63400</v>
       </c>
       <c r="H102" s="3">
-        <v>797600</v>
+        <v>768200</v>
       </c>
       <c r="I102" s="3">
-        <v>142000</v>
+        <v>136700</v>
       </c>
       <c r="J102" s="3">
-        <v>234300</v>
+        <v>225600</v>
       </c>
       <c r="K102" s="3">
         <v>-166300</v>

--- a/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>UMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6790800</v>
+        <v>9038400</v>
       </c>
       <c r="E8" s="3">
-        <v>5637100</v>
+        <v>6907900</v>
       </c>
       <c r="F8" s="3">
-        <v>4724700</v>
+        <v>5734300</v>
       </c>
       <c r="G8" s="3">
-        <v>4821900</v>
+        <v>4806200</v>
       </c>
       <c r="H8" s="3">
-        <v>4759200</v>
+        <v>4905100</v>
       </c>
       <c r="I8" s="3">
-        <v>4714100</v>
+        <v>4841300</v>
       </c>
       <c r="J8" s="3">
+        <v>4795400</v>
+      </c>
+      <c r="K8" s="3">
         <v>4617200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5043200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4343300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3847300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3805700</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4493800</v>
+        <v>4959900</v>
       </c>
       <c r="E9" s="3">
-        <v>4393800</v>
+        <v>4571400</v>
       </c>
       <c r="F9" s="3">
-        <v>4045100</v>
+        <v>4469600</v>
       </c>
       <c r="G9" s="3">
-        <v>4093800</v>
+        <v>4114900</v>
       </c>
       <c r="H9" s="3">
-        <v>3896600</v>
+        <v>4164400</v>
       </c>
       <c r="I9" s="3">
-        <v>3745600</v>
+        <v>3963800</v>
       </c>
       <c r="J9" s="3">
+        <v>3810200</v>
+      </c>
+      <c r="K9" s="3">
         <v>3604400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3895900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3516700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6406800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3111500</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2296900</v>
+        <v>4078500</v>
       </c>
       <c r="E10" s="3">
-        <v>1243200</v>
+        <v>2336600</v>
       </c>
       <c r="F10" s="3">
-        <v>679500</v>
+        <v>1264700</v>
       </c>
       <c r="G10" s="3">
-        <v>728100</v>
+        <v>691200</v>
       </c>
       <c r="H10" s="3">
-        <v>862600</v>
+        <v>740700</v>
       </c>
       <c r="I10" s="3">
-        <v>968500</v>
+        <v>877500</v>
       </c>
       <c r="J10" s="3">
+        <v>985200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1012800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1147300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>826600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-2559500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>694100</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>412400</v>
+        <v>420100</v>
       </c>
       <c r="E12" s="3">
-        <v>411100</v>
+        <v>419500</v>
       </c>
       <c r="F12" s="3">
-        <v>378100</v>
+        <v>418200</v>
       </c>
       <c r="G12" s="3">
-        <v>415200</v>
+        <v>384600</v>
       </c>
       <c r="H12" s="3">
-        <v>435800</v>
+        <v>422400</v>
       </c>
       <c r="I12" s="3">
-        <v>431400</v>
+        <v>443300</v>
       </c>
       <c r="J12" s="3">
+        <v>438900</v>
+      </c>
+      <c r="K12" s="3">
         <v>388100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>492200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>438300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>651000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>306400</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,48 +944,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
-        <v>30100</v>
-      </c>
       <c r="I14" s="3">
-        <v>66200</v>
+        <v>30700</v>
       </c>
       <c r="J14" s="3">
+        <v>67400</v>
+      </c>
+      <c r="K14" s="3">
         <v>72300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>32500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>46800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>236100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>68700</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5143000</v>
+        <v>5656200</v>
       </c>
       <c r="E17" s="3">
-        <v>4935500</v>
+        <v>5231800</v>
       </c>
       <c r="F17" s="3">
-        <v>4570500</v>
+        <v>5020600</v>
       </c>
       <c r="G17" s="3">
-        <v>4638600</v>
+        <v>4649400</v>
       </c>
       <c r="H17" s="3">
-        <v>4579900</v>
+        <v>4718600</v>
       </c>
       <c r="I17" s="3">
-        <v>4568400</v>
+        <v>4658900</v>
       </c>
       <c r="J17" s="3">
+        <v>4647200</v>
+      </c>
+      <c r="K17" s="3">
         <v>4311500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4691300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4246600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3849100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3710000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1647800</v>
+        <v>3382200</v>
       </c>
       <c r="E18" s="3">
-        <v>701600</v>
+        <v>1676200</v>
       </c>
       <c r="F18" s="3">
-        <v>154200</v>
+        <v>713700</v>
       </c>
       <c r="G18" s="3">
-        <v>183300</v>
+        <v>156800</v>
       </c>
       <c r="H18" s="3">
-        <v>179300</v>
+        <v>186500</v>
       </c>
       <c r="I18" s="3">
-        <v>145700</v>
+        <v>182400</v>
       </c>
       <c r="J18" s="3">
+        <v>148200</v>
+      </c>
+      <c r="K18" s="3">
         <v>305700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>352000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>96700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>95700</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>382100</v>
+        <v>116400</v>
       </c>
       <c r="E20" s="3">
-        <v>252600</v>
+        <v>388700</v>
       </c>
       <c r="F20" s="3">
-        <v>122200</v>
+        <v>256900</v>
       </c>
       <c r="G20" s="3">
-        <v>-25400</v>
+        <v>124300</v>
       </c>
       <c r="H20" s="3">
-        <v>146100</v>
+        <v>-25900</v>
       </c>
       <c r="I20" s="3">
-        <v>48600</v>
+        <v>148600</v>
       </c>
       <c r="J20" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K20" s="3">
         <v>146400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>161600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>430900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>249700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>222000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3504200</v>
+        <v>4935900</v>
       </c>
       <c r="E21" s="3">
-        <v>2486000</v>
+        <v>3596700</v>
       </c>
       <c r="F21" s="3">
-        <v>1823300</v>
+        <v>2562100</v>
       </c>
       <c r="G21" s="3">
-        <v>1788100</v>
+        <v>1888300</v>
       </c>
       <c r="H21" s="3">
-        <v>1988400</v>
+        <v>1854300</v>
       </c>
       <c r="I21" s="3">
-        <v>1822500</v>
+        <v>2058800</v>
       </c>
       <c r="J21" s="3">
+        <v>1889200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1876300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1973200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1876200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1442200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1371900</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>59600</v>
+        <v>57900</v>
       </c>
       <c r="E22" s="3">
-        <v>63900</v>
+        <v>60600</v>
       </c>
       <c r="F22" s="3">
-        <v>93500</v>
+        <v>65000</v>
       </c>
       <c r="G22" s="3">
-        <v>88300</v>
+        <v>95100</v>
       </c>
       <c r="H22" s="3">
-        <v>76700</v>
+        <v>89800</v>
       </c>
       <c r="I22" s="3">
-        <v>39800</v>
+        <v>78100</v>
       </c>
       <c r="J22" s="3">
+        <v>40500</v>
+      </c>
+      <c r="K22" s="3">
         <v>15000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>35800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11700</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1970300</v>
+        <v>3440700</v>
       </c>
       <c r="E23" s="3">
-        <v>890300</v>
+        <v>2004300</v>
       </c>
       <c r="F23" s="3">
-        <v>182900</v>
+        <v>905600</v>
       </c>
       <c r="G23" s="3">
-        <v>69600</v>
+        <v>186000</v>
       </c>
       <c r="H23" s="3">
-        <v>248600</v>
+        <v>70800</v>
       </c>
       <c r="I23" s="3">
-        <v>154500</v>
+        <v>252900</v>
       </c>
       <c r="J23" s="3">
+        <v>157200</v>
+      </c>
+      <c r="K23" s="3">
         <v>437100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>486700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>503800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>212100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>305900</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>213300</v>
+        <v>586300</v>
       </c>
       <c r="E24" s="3">
-        <v>23800</v>
+        <v>217000</v>
       </c>
       <c r="F24" s="3">
-        <v>-12500</v>
+        <v>24200</v>
       </c>
       <c r="G24" s="3">
-        <v>-14600</v>
+        <v>-12700</v>
       </c>
       <c r="H24" s="3">
-        <v>37200</v>
+        <v>-14900</v>
       </c>
       <c r="I24" s="3">
-        <v>31400</v>
+        <v>37900</v>
       </c>
       <c r="J24" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K24" s="3">
         <v>27900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>73300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>79200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>71400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>29800</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1757000</v>
+        <v>2854400</v>
       </c>
       <c r="E26" s="3">
-        <v>866500</v>
+        <v>1787300</v>
       </c>
       <c r="F26" s="3">
-        <v>195400</v>
+        <v>881500</v>
       </c>
       <c r="G26" s="3">
-        <v>84300</v>
+        <v>198800</v>
       </c>
       <c r="H26" s="3">
-        <v>211400</v>
+        <v>85700</v>
       </c>
       <c r="I26" s="3">
-        <v>123200</v>
+        <v>215100</v>
       </c>
       <c r="J26" s="3">
+        <v>125300</v>
+      </c>
+      <c r="K26" s="3">
         <v>409200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>413500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>424600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>140700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>276100</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1778300</v>
+        <v>2827800</v>
       </c>
       <c r="E27" s="3">
-        <v>930600</v>
+        <v>1809000</v>
       </c>
       <c r="F27" s="3">
-        <v>309500</v>
+        <v>946600</v>
       </c>
       <c r="G27" s="3">
-        <v>225500</v>
+        <v>314800</v>
       </c>
       <c r="H27" s="3">
-        <v>307000</v>
+        <v>229400</v>
       </c>
       <c r="I27" s="3">
-        <v>265100</v>
+        <v>312300</v>
       </c>
       <c r="J27" s="3">
+        <v>269700</v>
+      </c>
+      <c r="K27" s="3">
         <v>428700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>437300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>443100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>113500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>215400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-382100</v>
+        <v>-116400</v>
       </c>
       <c r="E32" s="3">
-        <v>-252600</v>
+        <v>-388700</v>
       </c>
       <c r="F32" s="3">
-        <v>-122200</v>
+        <v>-256900</v>
       </c>
       <c r="G32" s="3">
-        <v>25400</v>
+        <v>-124300</v>
       </c>
       <c r="H32" s="3">
-        <v>-146100</v>
+        <v>25900</v>
       </c>
       <c r="I32" s="3">
-        <v>-48600</v>
+        <v>-148600</v>
       </c>
       <c r="J32" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-146400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-161600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-430900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-249700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-222000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1778300</v>
+        <v>2827800</v>
       </c>
       <c r="E33" s="3">
-        <v>930600</v>
+        <v>1809000</v>
       </c>
       <c r="F33" s="3">
-        <v>309500</v>
+        <v>946600</v>
       </c>
       <c r="G33" s="3">
-        <v>225500</v>
+        <v>314800</v>
       </c>
       <c r="H33" s="3">
-        <v>307000</v>
+        <v>229400</v>
       </c>
       <c r="I33" s="3">
-        <v>265100</v>
+        <v>312300</v>
       </c>
       <c r="J33" s="3">
+        <v>269700</v>
+      </c>
+      <c r="K33" s="3">
         <v>428700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>437300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>443100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>113500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>215400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1778300</v>
+        <v>2827800</v>
       </c>
       <c r="E35" s="3">
-        <v>930600</v>
+        <v>1809000</v>
       </c>
       <c r="F35" s="3">
-        <v>309500</v>
+        <v>946600</v>
       </c>
       <c r="G35" s="3">
-        <v>225500</v>
+        <v>314800</v>
       </c>
       <c r="H35" s="3">
-        <v>307000</v>
+        <v>229400</v>
       </c>
       <c r="I35" s="3">
-        <v>265100</v>
+        <v>312300</v>
       </c>
       <c r="J35" s="3">
+        <v>269700</v>
+      </c>
+      <c r="K35" s="3">
         <v>428700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>437300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>443100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>113500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>215400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>4228000</v>
+        <v>5636900</v>
       </c>
       <c r="E41" s="3">
-        <v>2998300</v>
+        <v>4300900</v>
       </c>
       <c r="F41" s="3">
-        <v>3044300</v>
+        <v>3050000</v>
       </c>
       <c r="G41" s="3">
-        <v>2667100</v>
+        <v>3096800</v>
       </c>
       <c r="H41" s="3">
-        <v>2603800</v>
+        <v>2713200</v>
       </c>
       <c r="I41" s="3">
-        <v>1835600</v>
+        <v>2648700</v>
       </c>
       <c r="J41" s="3">
+        <v>1867300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1698900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1646200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1783100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1565800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>115300</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>301200</v>
+        <v>155000</v>
       </c>
       <c r="E42" s="3">
-        <v>38800</v>
+        <v>306400</v>
       </c>
       <c r="F42" s="3">
-        <v>23000</v>
+        <v>39500</v>
       </c>
       <c r="G42" s="3">
-        <v>16800</v>
+        <v>23400</v>
       </c>
       <c r="H42" s="3">
-        <v>22900</v>
+        <v>17100</v>
       </c>
       <c r="I42" s="3">
-        <v>22800</v>
+        <v>23200</v>
       </c>
       <c r="J42" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K42" s="3">
         <v>21200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>26700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>97100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1595700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1675100</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1159500</v>
+        <v>1271100</v>
       </c>
       <c r="E43" s="3">
-        <v>932100</v>
+        <v>1179500</v>
       </c>
       <c r="F43" s="3">
-        <v>848800</v>
+        <v>948200</v>
       </c>
       <c r="G43" s="3">
-        <v>787300</v>
+        <v>863400</v>
       </c>
       <c r="H43" s="3">
-        <v>722300</v>
+        <v>800900</v>
       </c>
       <c r="I43" s="3">
-        <v>765200</v>
+        <v>734800</v>
       </c>
       <c r="J43" s="3">
+        <v>778400</v>
+      </c>
+      <c r="K43" s="3">
         <v>637300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>830700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>617600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1142100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>499600</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>733600</v>
+        <v>1007600</v>
       </c>
       <c r="E44" s="3">
-        <v>719000</v>
+        <v>746300</v>
       </c>
       <c r="F44" s="3">
-        <v>692300</v>
+        <v>731400</v>
       </c>
       <c r="G44" s="3">
-        <v>580300</v>
+        <v>704200</v>
       </c>
       <c r="H44" s="3">
-        <v>582000</v>
+        <v>590300</v>
       </c>
       <c r="I44" s="3">
-        <v>541900</v>
+        <v>592100</v>
       </c>
       <c r="J44" s="3">
+        <v>551200</v>
+      </c>
+      <c r="K44" s="3">
         <v>562400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>493000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>490900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>866300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>414400</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1014500</v>
+        <v>113700</v>
       </c>
       <c r="E45" s="3">
-        <v>550000</v>
+        <v>1032000</v>
       </c>
       <c r="F45" s="3">
-        <v>293400</v>
+        <v>559500</v>
       </c>
       <c r="G45" s="3">
-        <v>449600</v>
+        <v>298500</v>
       </c>
       <c r="H45" s="3">
-        <v>505400</v>
+        <v>457400</v>
       </c>
       <c r="I45" s="3">
-        <v>356300</v>
+        <v>514200</v>
       </c>
       <c r="J45" s="3">
+        <v>362400</v>
+      </c>
+      <c r="K45" s="3">
         <v>103000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>436500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>126400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>183000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>36600</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>7436800</v>
+        <v>8184400</v>
       </c>
       <c r="E46" s="3">
-        <v>5238100</v>
+        <v>7565100</v>
       </c>
       <c r="F46" s="3">
-        <v>4901800</v>
+        <v>5328400</v>
       </c>
       <c r="G46" s="3">
-        <v>4501200</v>
+        <v>4986300</v>
       </c>
       <c r="H46" s="3">
-        <v>4436400</v>
+        <v>4578900</v>
       </c>
       <c r="I46" s="3">
-        <v>3521800</v>
+        <v>4513000</v>
       </c>
       <c r="J46" s="3">
+        <v>3582500</v>
+      </c>
+      <c r="K46" s="3">
         <v>3022800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3489000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3115000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2661700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2741100</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2312800</v>
+        <v>2103200</v>
       </c>
       <c r="E47" s="3">
-        <v>1803700</v>
+        <v>2352700</v>
       </c>
       <c r="F47" s="3">
-        <v>1318000</v>
+        <v>1834800</v>
       </c>
       <c r="G47" s="3">
-        <v>1068100</v>
+        <v>1340800</v>
       </c>
       <c r="H47" s="3">
-        <v>1084600</v>
+        <v>1086600</v>
       </c>
       <c r="I47" s="3">
-        <v>1108400</v>
+        <v>1103400</v>
       </c>
       <c r="J47" s="3">
+        <v>1127500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1280000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2227500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1056700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2310700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1301900</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>4635100</v>
+        <v>6422200</v>
       </c>
       <c r="E48" s="3">
-        <v>4498600</v>
+        <v>4715000</v>
       </c>
       <c r="F48" s="3">
-        <v>5065200</v>
+        <v>4576200</v>
       </c>
       <c r="G48" s="3">
-        <v>5531400</v>
+        <v>5152600</v>
       </c>
       <c r="H48" s="3">
-        <v>6568200</v>
+        <v>5626900</v>
       </c>
       <c r="I48" s="3">
-        <v>7210000</v>
+        <v>6681500</v>
       </c>
       <c r="J48" s="3">
+        <v>7334400</v>
+      </c>
+      <c r="K48" s="3">
         <v>6017900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6042500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11405100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10614700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4869500</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>116200</v>
+        <v>138600</v>
       </c>
       <c r="E49" s="3">
-        <v>155500</v>
+        <v>118200</v>
       </c>
       <c r="F49" s="3">
-        <v>165700</v>
+        <v>158200</v>
       </c>
       <c r="G49" s="3">
-        <v>95400</v>
+        <v>168600</v>
       </c>
       <c r="H49" s="3">
-        <v>120700</v>
+        <v>97000</v>
       </c>
       <c r="I49" s="3">
-        <v>130300</v>
+        <v>122800</v>
       </c>
       <c r="J49" s="3">
+        <v>132600</v>
+      </c>
+      <c r="K49" s="3">
         <v>143600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>163300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>332500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>138200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11400</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>305100</v>
+        <v>438400</v>
       </c>
       <c r="E52" s="3">
-        <v>339400</v>
+        <v>310400</v>
       </c>
       <c r="F52" s="3">
-        <v>350800</v>
+        <v>345200</v>
       </c>
       <c r="G52" s="3">
-        <v>427400</v>
+        <v>356900</v>
       </c>
       <c r="H52" s="3">
-        <v>353900</v>
+        <v>434800</v>
       </c>
       <c r="I52" s="3">
-        <v>356100</v>
+        <v>360000</v>
       </c>
       <c r="J52" s="3">
+        <v>362200</v>
+      </c>
+      <c r="K52" s="3">
         <v>291000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>238400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>262800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>281300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>201400</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>14805900</v>
+        <v>17286900</v>
       </c>
       <c r="E54" s="3">
-        <v>12035200</v>
+        <v>15061400</v>
       </c>
       <c r="F54" s="3">
-        <v>11801600</v>
+        <v>12242900</v>
       </c>
       <c r="G54" s="3">
-        <v>11623600</v>
+        <v>12005200</v>
       </c>
       <c r="H54" s="3">
-        <v>12563900</v>
+        <v>11824100</v>
       </c>
       <c r="I54" s="3">
-        <v>12326600</v>
+        <v>12780600</v>
       </c>
       <c r="J54" s="3">
+        <v>12539200</v>
+      </c>
+      <c r="K54" s="3">
         <v>10755300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11283100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10310500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9353200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9125300</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>266600</v>
+        <v>291300</v>
       </c>
       <c r="E57" s="3">
-        <v>250600</v>
+        <v>271200</v>
       </c>
       <c r="F57" s="3">
-        <v>283000</v>
+        <v>255000</v>
       </c>
       <c r="G57" s="3">
-        <v>216800</v>
+        <v>287900</v>
       </c>
       <c r="H57" s="3">
-        <v>208400</v>
+        <v>220600</v>
       </c>
       <c r="I57" s="3">
-        <v>218500</v>
+        <v>211900</v>
       </c>
       <c r="J57" s="3">
+        <v>222300</v>
+      </c>
+      <c r="K57" s="3">
         <v>189800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>222100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>260100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>416800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>163400</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1269300</v>
+        <v>263500</v>
       </c>
       <c r="E58" s="3">
-        <v>1230300</v>
+        <v>1291200</v>
       </c>
       <c r="F58" s="3">
-        <v>1191700</v>
+        <v>1251600</v>
       </c>
       <c r="G58" s="3">
-        <v>581000</v>
+        <v>1212300</v>
       </c>
       <c r="H58" s="3">
-        <v>1683600</v>
+        <v>591000</v>
       </c>
       <c r="I58" s="3">
-        <v>989900</v>
+        <v>1712600</v>
       </c>
       <c r="J58" s="3">
+        <v>1007000</v>
+      </c>
+      <c r="K58" s="3">
         <v>386000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>361100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>743300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>975200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>567900</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1825900</v>
+        <v>2966000</v>
       </c>
       <c r="E59" s="3">
-        <v>1013400</v>
+        <v>1857400</v>
       </c>
       <c r="F59" s="3">
-        <v>843400</v>
+        <v>1030900</v>
       </c>
       <c r="G59" s="3">
-        <v>792900</v>
+        <v>858000</v>
       </c>
       <c r="H59" s="3">
-        <v>915500</v>
+        <v>806600</v>
       </c>
       <c r="I59" s="3">
-        <v>1086200</v>
+        <v>931300</v>
       </c>
       <c r="J59" s="3">
+        <v>1105000</v>
+      </c>
+      <c r="K59" s="3">
         <v>962300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1149500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>687700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1274000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>667900</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3361900</v>
+        <v>3520800</v>
       </c>
       <c r="E60" s="3">
-        <v>2494400</v>
+        <v>3419900</v>
       </c>
       <c r="F60" s="3">
-        <v>2318100</v>
+        <v>2537400</v>
       </c>
       <c r="G60" s="3">
-        <v>1590800</v>
+        <v>2358100</v>
       </c>
       <c r="H60" s="3">
-        <v>2807400</v>
+        <v>1618200</v>
       </c>
       <c r="I60" s="3">
-        <v>2294700</v>
+        <v>2855800</v>
       </c>
       <c r="J60" s="3">
+        <v>2334300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1538100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1732800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1691000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1334400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1399200</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1413600</v>
+        <v>1461900</v>
       </c>
       <c r="E61" s="3">
-        <v>950000</v>
+        <v>1438000</v>
       </c>
       <c r="F61" s="3">
-        <v>1700800</v>
+        <v>966400</v>
       </c>
       <c r="G61" s="3">
-        <v>2138600</v>
+        <v>1730100</v>
       </c>
       <c r="H61" s="3">
-        <v>1699800</v>
+        <v>2175500</v>
       </c>
       <c r="I61" s="3">
-        <v>1936000</v>
+        <v>1729100</v>
       </c>
       <c r="J61" s="3">
+        <v>1969400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1515100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1203100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>996800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1069500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>687900</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1065700</v>
+        <v>1425600</v>
       </c>
       <c r="E62" s="3">
-        <v>1074400</v>
+        <v>1084100</v>
       </c>
       <c r="F62" s="3">
-        <v>1176700</v>
+        <v>1092900</v>
       </c>
       <c r="G62" s="3">
-        <v>1309800</v>
+        <v>1197000</v>
       </c>
       <c r="H62" s="3">
-        <v>1233200</v>
+        <v>1332400</v>
       </c>
       <c r="I62" s="3">
-        <v>1122400</v>
+        <v>1254400</v>
       </c>
       <c r="J62" s="3">
+        <v>1141700</v>
+      </c>
+      <c r="K62" s="3">
         <v>407400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>242400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>268400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>365900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>120800</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>5848300</v>
+        <v>6419400</v>
       </c>
       <c r="E66" s="3">
-        <v>4522400</v>
+        <v>5949200</v>
       </c>
       <c r="F66" s="3">
-        <v>5208700</v>
+        <v>4600400</v>
       </c>
       <c r="G66" s="3">
-        <v>5054100</v>
+        <v>5298500</v>
       </c>
       <c r="H66" s="3">
-        <v>5770900</v>
+        <v>5141300</v>
       </c>
       <c r="I66" s="3">
-        <v>5422000</v>
+        <v>5870400</v>
       </c>
       <c r="J66" s="3">
+        <v>5515500</v>
+      </c>
+      <c r="K66" s="3">
         <v>3525200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3317000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3107700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2730600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2351000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>3678200</v>
+        <v>6558900</v>
       </c>
       <c r="E72" s="3">
-        <v>2556000</v>
+        <v>3741600</v>
       </c>
       <c r="F72" s="3">
-        <v>1949600</v>
+        <v>2600100</v>
       </c>
       <c r="G72" s="3">
-        <v>1963400</v>
+        <v>1983200</v>
       </c>
       <c r="H72" s="3">
-        <v>1532300</v>
+        <v>1997300</v>
       </c>
       <c r="I72" s="3">
-        <v>1519200</v>
+        <v>1558800</v>
       </c>
       <c r="J72" s="3">
+        <v>1545500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1616600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1597100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1343700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1872000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>798900</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>8957600</v>
+        <v>10867500</v>
       </c>
       <c r="E76" s="3">
-        <v>7512800</v>
+        <v>9112200</v>
       </c>
       <c r="F76" s="3">
-        <v>6592900</v>
+        <v>7642400</v>
       </c>
       <c r="G76" s="3">
-        <v>6569500</v>
+        <v>6706700</v>
       </c>
       <c r="H76" s="3">
-        <v>6793000</v>
+        <v>6682800</v>
       </c>
       <c r="I76" s="3">
-        <v>6904600</v>
+        <v>6910200</v>
       </c>
       <c r="J76" s="3">
+        <v>7023700</v>
+      </c>
+      <c r="K76" s="3">
         <v>7230100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7966100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7202800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6622600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6774300</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1778300</v>
+        <v>2827800</v>
       </c>
       <c r="E81" s="3">
-        <v>930600</v>
+        <v>1809000</v>
       </c>
       <c r="F81" s="3">
-        <v>309500</v>
+        <v>946600</v>
       </c>
       <c r="G81" s="3">
-        <v>225500</v>
+        <v>314800</v>
       </c>
       <c r="H81" s="3">
-        <v>307000</v>
+        <v>229400</v>
       </c>
       <c r="I81" s="3">
-        <v>265100</v>
+        <v>312300</v>
       </c>
       <c r="J81" s="3">
+        <v>269700</v>
+      </c>
+      <c r="K81" s="3">
         <v>428700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>437300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>443100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>113500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>215400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1500700</v>
+        <v>1432400</v>
       </c>
       <c r="E83" s="3">
-        <v>1559200</v>
+        <v>1526600</v>
       </c>
       <c r="F83" s="3">
-        <v>1574500</v>
+        <v>1586100</v>
       </c>
       <c r="G83" s="3">
-        <v>1659300</v>
+        <v>1601700</v>
       </c>
       <c r="H83" s="3">
-        <v>1692800</v>
+        <v>1687900</v>
       </c>
       <c r="I83" s="3">
-        <v>1657200</v>
+        <v>1722000</v>
       </c>
       <c r="J83" s="3">
+        <v>1685800</v>
+      </c>
+      <c r="K83" s="3">
         <v>1449700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1464500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1348200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1192100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1055600</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>2880400</v>
+        <v>4730300</v>
       </c>
       <c r="E89" s="3">
-        <v>2096000</v>
+        <v>2930100</v>
       </c>
       <c r="F89" s="3">
-        <v>1750300</v>
+        <v>2132100</v>
       </c>
       <c r="G89" s="3">
-        <v>1623800</v>
+        <v>1780500</v>
       </c>
       <c r="H89" s="3">
-        <v>1672900</v>
+        <v>1651800</v>
       </c>
       <c r="I89" s="3">
-        <v>1480800</v>
+        <v>1701700</v>
       </c>
       <c r="J89" s="3">
+        <v>1506400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1906000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1613300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1525000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1343600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1358300</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-1531300</v>
+        <v>-2598500</v>
       </c>
       <c r="E91" s="3">
-        <v>-839900</v>
+        <v>-1557800</v>
       </c>
       <c r="F91" s="3">
-        <v>-526600</v>
+        <v>-854400</v>
       </c>
       <c r="G91" s="3">
-        <v>-624500</v>
+        <v>-535700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1410300</v>
+        <v>-635300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2919000</v>
+        <v>-1434600</v>
       </c>
       <c r="J91" s="3">
+        <v>-2969300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1928900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1557400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1154500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1754100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1751400</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1981800</v>
+        <v>-1765100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1278800</v>
+        <v>-2016000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1010000</v>
+        <v>-1300800</v>
       </c>
       <c r="G94" s="3">
-        <v>-494100</v>
+        <v>-1027400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1129000</v>
+        <v>-502700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2553100</v>
+        <v>-1148500</v>
       </c>
       <c r="J94" s="3">
+        <v>-2597200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2183200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1534700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1105600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1633800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1797500</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-633500</v>
+        <v>-1214400</v>
       </c>
       <c r="E96" s="3">
-        <v>-311300</v>
+        <v>-644400</v>
       </c>
       <c r="F96" s="3">
-        <v>-220300</v>
+        <v>-316700</v>
       </c>
       <c r="G96" s="3">
-        <v>-272800</v>
+        <v>-224100</v>
       </c>
       <c r="H96" s="3">
-        <v>-194600</v>
+        <v>-277500</v>
       </c>
       <c r="I96" s="3">
-        <v>-220200</v>
+        <v>-197900</v>
       </c>
       <c r="J96" s="3">
+        <v>-224000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-221200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-225200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-177600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-210100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-457100</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>398200</v>
+        <v>-1856800</v>
       </c>
       <c r="E100" s="3">
-        <v>-816200</v>
+        <v>405100</v>
       </c>
       <c r="F100" s="3">
-        <v>-314600</v>
+        <v>-830300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1067500</v>
+        <v>-320000</v>
       </c>
       <c r="H100" s="3">
-        <v>292100</v>
+        <v>-1085900</v>
       </c>
       <c r="I100" s="3">
-        <v>1236800</v>
+        <v>297100</v>
       </c>
       <c r="J100" s="3">
+        <v>1258100</v>
+      </c>
+      <c r="K100" s="3">
         <v>479800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-297400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-137700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>119300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>323600</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-67100</v>
+        <v>227600</v>
       </c>
       <c r="E101" s="3">
-        <v>-47100</v>
+        <v>-68200</v>
       </c>
       <c r="F101" s="3">
-        <v>-48600</v>
+        <v>-47900</v>
       </c>
       <c r="G101" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="H101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-67700</v>
-      </c>
       <c r="I101" s="3">
-        <v>-27800</v>
+        <v>-68900</v>
       </c>
       <c r="J101" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="K101" s="3">
         <v>23000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>52500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>10900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-47800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>43800</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1229700</v>
+        <v>1336000</v>
       </c>
       <c r="E102" s="3">
-        <v>-46000</v>
+        <v>1251000</v>
       </c>
       <c r="F102" s="3">
-        <v>377200</v>
+        <v>-46800</v>
       </c>
       <c r="G102" s="3">
-        <v>63400</v>
+        <v>383700</v>
       </c>
       <c r="H102" s="3">
-        <v>768200</v>
+        <v>64400</v>
       </c>
       <c r="I102" s="3">
-        <v>136700</v>
+        <v>781400</v>
       </c>
       <c r="J102" s="3">
+        <v>139100</v>
+      </c>
+      <c r="K102" s="3">
         <v>225600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-166300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>292600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-218600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-71800</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9038400</v>
+        <v>9071900</v>
       </c>
       <c r="E8" s="3">
-        <v>6907900</v>
+        <v>6933500</v>
       </c>
       <c r="F8" s="3">
-        <v>5734300</v>
+        <v>5755500</v>
       </c>
       <c r="G8" s="3">
-        <v>4806200</v>
+        <v>4824000</v>
       </c>
       <c r="H8" s="3">
-        <v>4905100</v>
+        <v>4923300</v>
       </c>
       <c r="I8" s="3">
-        <v>4841300</v>
+        <v>4859200</v>
       </c>
       <c r="J8" s="3">
-        <v>4795400</v>
+        <v>4813200</v>
       </c>
       <c r="K8" s="3">
         <v>4617200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4959900</v>
+        <v>4978200</v>
       </c>
       <c r="E9" s="3">
-        <v>4571400</v>
+        <v>4588300</v>
       </c>
       <c r="F9" s="3">
-        <v>4469600</v>
+        <v>4486200</v>
       </c>
       <c r="G9" s="3">
-        <v>4114900</v>
+        <v>4130200</v>
       </c>
       <c r="H9" s="3">
-        <v>4164400</v>
+        <v>4179800</v>
       </c>
       <c r="I9" s="3">
-        <v>3963800</v>
+        <v>3978500</v>
       </c>
       <c r="J9" s="3">
-        <v>3810200</v>
+        <v>3824300</v>
       </c>
       <c r="K9" s="3">
         <v>3604400</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4078500</v>
+        <v>4093600</v>
       </c>
       <c r="E10" s="3">
-        <v>2336600</v>
+        <v>2345200</v>
       </c>
       <c r="F10" s="3">
-        <v>1264700</v>
+        <v>1269400</v>
       </c>
       <c r="G10" s="3">
-        <v>691200</v>
+        <v>693800</v>
       </c>
       <c r="H10" s="3">
-        <v>740700</v>
+        <v>743400</v>
       </c>
       <c r="I10" s="3">
-        <v>877500</v>
+        <v>880700</v>
       </c>
       <c r="J10" s="3">
-        <v>985200</v>
+        <v>988900</v>
       </c>
       <c r="K10" s="3">
         <v>1012800</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>420100</v>
+        <v>421600</v>
       </c>
       <c r="E12" s="3">
-        <v>419500</v>
+        <v>421000</v>
       </c>
       <c r="F12" s="3">
-        <v>418200</v>
+        <v>419700</v>
       </c>
       <c r="G12" s="3">
-        <v>384600</v>
+        <v>386100</v>
       </c>
       <c r="H12" s="3">
-        <v>422400</v>
+        <v>424000</v>
       </c>
       <c r="I12" s="3">
-        <v>443300</v>
+        <v>444900</v>
       </c>
       <c r="J12" s="3">
-        <v>438900</v>
+        <v>440500</v>
       </c>
       <c r="K12" s="3">
         <v>388100</v>
@@ -969,10 +969,10 @@
         <v>1500</v>
       </c>
       <c r="I14" s="3">
-        <v>30700</v>
+        <v>30800</v>
       </c>
       <c r="J14" s="3">
-        <v>67400</v>
+        <v>67600</v>
       </c>
       <c r="K14" s="3">
         <v>72300</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5656200</v>
+        <v>5677100</v>
       </c>
       <c r="E17" s="3">
-        <v>5231800</v>
+        <v>5251100</v>
       </c>
       <c r="F17" s="3">
-        <v>5020600</v>
+        <v>5039200</v>
       </c>
       <c r="G17" s="3">
-        <v>4649400</v>
+        <v>4666600</v>
       </c>
       <c r="H17" s="3">
-        <v>4718600</v>
+        <v>4736100</v>
       </c>
       <c r="I17" s="3">
-        <v>4658900</v>
+        <v>4676200</v>
       </c>
       <c r="J17" s="3">
-        <v>4647200</v>
+        <v>4664400</v>
       </c>
       <c r="K17" s="3">
         <v>4311500</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3382200</v>
+        <v>3394700</v>
       </c>
       <c r="E18" s="3">
-        <v>1676200</v>
+        <v>1682400</v>
       </c>
       <c r="F18" s="3">
-        <v>713700</v>
+        <v>716300</v>
       </c>
       <c r="G18" s="3">
-        <v>156800</v>
+        <v>157400</v>
       </c>
       <c r="H18" s="3">
-        <v>186500</v>
+        <v>187200</v>
       </c>
       <c r="I18" s="3">
-        <v>182400</v>
+        <v>183000</v>
       </c>
       <c r="J18" s="3">
-        <v>148200</v>
+        <v>148800</v>
       </c>
       <c r="K18" s="3">
         <v>305700</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>116400</v>
+        <v>116900</v>
       </c>
       <c r="E20" s="3">
-        <v>388700</v>
+        <v>390100</v>
       </c>
       <c r="F20" s="3">
-        <v>256900</v>
+        <v>257900</v>
       </c>
       <c r="G20" s="3">
-        <v>124300</v>
+        <v>124800</v>
       </c>
       <c r="H20" s="3">
-        <v>-25900</v>
+        <v>-26000</v>
       </c>
       <c r="I20" s="3">
-        <v>148600</v>
+        <v>149100</v>
       </c>
       <c r="J20" s="3">
-        <v>49500</v>
+        <v>49600</v>
       </c>
       <c r="K20" s="3">
         <v>146400</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4935900</v>
+        <v>4947100</v>
       </c>
       <c r="E21" s="3">
-        <v>3596700</v>
+        <v>3602400</v>
       </c>
       <c r="F21" s="3">
-        <v>2562100</v>
+        <v>2563800</v>
       </c>
       <c r="G21" s="3">
-        <v>1888300</v>
+        <v>1887400</v>
       </c>
       <c r="H21" s="3">
-        <v>1854300</v>
+        <v>1852800</v>
       </c>
       <c r="I21" s="3">
-        <v>2058800</v>
+        <v>2057900</v>
       </c>
       <c r="J21" s="3">
-        <v>1889200</v>
+        <v>1887900</v>
       </c>
       <c r="K21" s="3">
         <v>1876300</v>
@@ -1239,25 +1239,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>57900</v>
+        <v>58100</v>
       </c>
       <c r="E22" s="3">
-        <v>60600</v>
+        <v>60800</v>
       </c>
       <c r="F22" s="3">
-        <v>65000</v>
+        <v>65200</v>
       </c>
       <c r="G22" s="3">
-        <v>95100</v>
+        <v>95500</v>
       </c>
       <c r="H22" s="3">
-        <v>89800</v>
+        <v>90100</v>
       </c>
       <c r="I22" s="3">
-        <v>78100</v>
+        <v>78300</v>
       </c>
       <c r="J22" s="3">
-        <v>40500</v>
+        <v>40700</v>
       </c>
       <c r="K22" s="3">
         <v>15000</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3440700</v>
+        <v>3453500</v>
       </c>
       <c r="E23" s="3">
-        <v>2004300</v>
+        <v>2011700</v>
       </c>
       <c r="F23" s="3">
-        <v>905600</v>
+        <v>909000</v>
       </c>
       <c r="G23" s="3">
-        <v>186000</v>
+        <v>186700</v>
       </c>
       <c r="H23" s="3">
-        <v>70800</v>
+        <v>71100</v>
       </c>
       <c r="I23" s="3">
-        <v>252900</v>
+        <v>253800</v>
       </c>
       <c r="J23" s="3">
-        <v>157200</v>
+        <v>157800</v>
       </c>
       <c r="K23" s="3">
         <v>437100</v>
@@ -1323,25 +1323,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>586300</v>
+        <v>588500</v>
       </c>
       <c r="E24" s="3">
-        <v>217000</v>
+        <v>217800</v>
       </c>
       <c r="F24" s="3">
-        <v>24200</v>
+        <v>24300</v>
       </c>
       <c r="G24" s="3">
-        <v>-12700</v>
+        <v>-12800</v>
       </c>
       <c r="H24" s="3">
         <v>-14900</v>
       </c>
       <c r="I24" s="3">
-        <v>37900</v>
+        <v>38000</v>
       </c>
       <c r="J24" s="3">
-        <v>31900</v>
+        <v>32000</v>
       </c>
       <c r="K24" s="3">
         <v>27900</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2854400</v>
+        <v>2865000</v>
       </c>
       <c r="E26" s="3">
-        <v>1787300</v>
+        <v>1793900</v>
       </c>
       <c r="F26" s="3">
-        <v>881500</v>
+        <v>884700</v>
       </c>
       <c r="G26" s="3">
-        <v>198800</v>
+        <v>199500</v>
       </c>
       <c r="H26" s="3">
-        <v>85700</v>
+        <v>86000</v>
       </c>
       <c r="I26" s="3">
-        <v>215100</v>
+        <v>215800</v>
       </c>
       <c r="J26" s="3">
-        <v>125300</v>
+        <v>125700</v>
       </c>
       <c r="K26" s="3">
         <v>409200</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2827800</v>
+        <v>2838300</v>
       </c>
       <c r="E27" s="3">
-        <v>1809000</v>
+        <v>1815600</v>
       </c>
       <c r="F27" s="3">
-        <v>946600</v>
+        <v>950100</v>
       </c>
       <c r="G27" s="3">
-        <v>314800</v>
+        <v>316000</v>
       </c>
       <c r="H27" s="3">
-        <v>229400</v>
+        <v>230200</v>
       </c>
       <c r="I27" s="3">
-        <v>312300</v>
+        <v>313400</v>
       </c>
       <c r="J27" s="3">
-        <v>269700</v>
+        <v>270700</v>
       </c>
       <c r="K27" s="3">
         <v>428700</v>
@@ -1659,25 +1659,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-116400</v>
+        <v>-116900</v>
       </c>
       <c r="E32" s="3">
-        <v>-388700</v>
+        <v>-390100</v>
       </c>
       <c r="F32" s="3">
-        <v>-256900</v>
+        <v>-257900</v>
       </c>
       <c r="G32" s="3">
-        <v>-124300</v>
+        <v>-124800</v>
       </c>
       <c r="H32" s="3">
-        <v>25900</v>
+        <v>26000</v>
       </c>
       <c r="I32" s="3">
-        <v>-148600</v>
+        <v>-149100</v>
       </c>
       <c r="J32" s="3">
-        <v>-49500</v>
+        <v>-49600</v>
       </c>
       <c r="K32" s="3">
         <v>-146400</v>
@@ -1701,25 +1701,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>2827800</v>
+        <v>2838300</v>
       </c>
       <c r="E33" s="3">
-        <v>1809000</v>
+        <v>1815600</v>
       </c>
       <c r="F33" s="3">
-        <v>946600</v>
+        <v>950100</v>
       </c>
       <c r="G33" s="3">
-        <v>314800</v>
+        <v>316000</v>
       </c>
       <c r="H33" s="3">
-        <v>229400</v>
+        <v>230200</v>
       </c>
       <c r="I33" s="3">
-        <v>312300</v>
+        <v>313400</v>
       </c>
       <c r="J33" s="3">
-        <v>269700</v>
+        <v>270700</v>
       </c>
       <c r="K33" s="3">
         <v>428700</v>
@@ -1785,25 +1785,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>2827800</v>
+        <v>2838300</v>
       </c>
       <c r="E35" s="3">
-        <v>1809000</v>
+        <v>1815600</v>
       </c>
       <c r="F35" s="3">
-        <v>946600</v>
+        <v>950100</v>
       </c>
       <c r="G35" s="3">
-        <v>314800</v>
+        <v>316000</v>
       </c>
       <c r="H35" s="3">
-        <v>229400</v>
+        <v>230200</v>
       </c>
       <c r="I35" s="3">
-        <v>312300</v>
+        <v>313400</v>
       </c>
       <c r="J35" s="3">
-        <v>269700</v>
+        <v>270700</v>
       </c>
       <c r="K35" s="3">
         <v>428700</v>
@@ -1910,25 +1910,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>5636900</v>
+        <v>5657800</v>
       </c>
       <c r="E41" s="3">
-        <v>4300900</v>
+        <v>4316900</v>
       </c>
       <c r="F41" s="3">
-        <v>3050000</v>
+        <v>3061300</v>
       </c>
       <c r="G41" s="3">
-        <v>3096800</v>
+        <v>3108300</v>
       </c>
       <c r="H41" s="3">
-        <v>2713200</v>
+        <v>2723200</v>
       </c>
       <c r="I41" s="3">
-        <v>2648700</v>
+        <v>2658500</v>
       </c>
       <c r="J41" s="3">
-        <v>1867300</v>
+        <v>1874200</v>
       </c>
       <c r="K41" s="3">
         <v>1698900</v>
@@ -1952,22 +1952,22 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>155000</v>
+        <v>155600</v>
       </c>
       <c r="E42" s="3">
-        <v>306400</v>
+        <v>307500</v>
       </c>
       <c r="F42" s="3">
-        <v>39500</v>
+        <v>39600</v>
       </c>
       <c r="G42" s="3">
-        <v>23400</v>
+        <v>23500</v>
       </c>
       <c r="H42" s="3">
-        <v>17100</v>
+        <v>17200</v>
       </c>
       <c r="I42" s="3">
-        <v>23200</v>
+        <v>23300</v>
       </c>
       <c r="J42" s="3">
         <v>23200</v>
@@ -1994,25 +1994,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1271100</v>
+        <v>1275900</v>
       </c>
       <c r="E43" s="3">
-        <v>1179500</v>
+        <v>1183800</v>
       </c>
       <c r="F43" s="3">
-        <v>948200</v>
+        <v>951700</v>
       </c>
       <c r="G43" s="3">
-        <v>863400</v>
+        <v>866600</v>
       </c>
       <c r="H43" s="3">
-        <v>800900</v>
+        <v>803900</v>
       </c>
       <c r="I43" s="3">
-        <v>734800</v>
+        <v>737500</v>
       </c>
       <c r="J43" s="3">
-        <v>778400</v>
+        <v>781300</v>
       </c>
       <c r="K43" s="3">
         <v>637300</v>
@@ -2036,25 +2036,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1007600</v>
+        <v>1011300</v>
       </c>
       <c r="E44" s="3">
-        <v>746300</v>
+        <v>749000</v>
       </c>
       <c r="F44" s="3">
-        <v>731400</v>
+        <v>734100</v>
       </c>
       <c r="G44" s="3">
-        <v>704200</v>
+        <v>706800</v>
       </c>
       <c r="H44" s="3">
-        <v>590300</v>
+        <v>592500</v>
       </c>
       <c r="I44" s="3">
-        <v>592100</v>
+        <v>594300</v>
       </c>
       <c r="J44" s="3">
-        <v>551200</v>
+        <v>553300</v>
       </c>
       <c r="K44" s="3">
         <v>562400</v>
@@ -2078,25 +2078,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>113700</v>
+        <v>114100</v>
       </c>
       <c r="E45" s="3">
-        <v>1032000</v>
+        <v>1035800</v>
       </c>
       <c r="F45" s="3">
-        <v>559500</v>
+        <v>561500</v>
       </c>
       <c r="G45" s="3">
-        <v>298500</v>
+        <v>299600</v>
       </c>
       <c r="H45" s="3">
-        <v>457400</v>
+        <v>459100</v>
       </c>
       <c r="I45" s="3">
-        <v>514200</v>
+        <v>516100</v>
       </c>
       <c r="J45" s="3">
-        <v>362400</v>
+        <v>363800</v>
       </c>
       <c r="K45" s="3">
         <v>103000</v>
@@ -2120,25 +2120,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>8184400</v>
+        <v>8214700</v>
       </c>
       <c r="E46" s="3">
-        <v>7565100</v>
+        <v>7593100</v>
       </c>
       <c r="F46" s="3">
-        <v>5328400</v>
+        <v>5348200</v>
       </c>
       <c r="G46" s="3">
-        <v>4986300</v>
+        <v>5004800</v>
       </c>
       <c r="H46" s="3">
-        <v>4578900</v>
+        <v>4595800</v>
       </c>
       <c r="I46" s="3">
-        <v>4513000</v>
+        <v>4529700</v>
       </c>
       <c r="J46" s="3">
-        <v>3582500</v>
+        <v>3595800</v>
       </c>
       <c r="K46" s="3">
         <v>3022800</v>
@@ -2162,25 +2162,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2103200</v>
+        <v>2111000</v>
       </c>
       <c r="E47" s="3">
-        <v>2352700</v>
+        <v>2361400</v>
       </c>
       <c r="F47" s="3">
-        <v>1834800</v>
+        <v>1841600</v>
       </c>
       <c r="G47" s="3">
-        <v>1340800</v>
+        <v>1345700</v>
       </c>
       <c r="H47" s="3">
-        <v>1086600</v>
+        <v>1090600</v>
       </c>
       <c r="I47" s="3">
-        <v>1103400</v>
+        <v>1107400</v>
       </c>
       <c r="J47" s="3">
-        <v>1127500</v>
+        <v>1131600</v>
       </c>
       <c r="K47" s="3">
         <v>1280000</v>
@@ -2204,25 +2204,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>6422200</v>
+        <v>6446000</v>
       </c>
       <c r="E48" s="3">
-        <v>4715000</v>
+        <v>4732500</v>
       </c>
       <c r="F48" s="3">
-        <v>4576200</v>
+        <v>4593100</v>
       </c>
       <c r="G48" s="3">
-        <v>5152600</v>
+        <v>5171700</v>
       </c>
       <c r="H48" s="3">
-        <v>5626900</v>
+        <v>5647700</v>
       </c>
       <c r="I48" s="3">
-        <v>6681500</v>
+        <v>6706200</v>
       </c>
       <c r="J48" s="3">
-        <v>7334400</v>
+        <v>7361600</v>
       </c>
       <c r="K48" s="3">
         <v>6017900</v>
@@ -2246,25 +2246,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>138600</v>
+        <v>139200</v>
       </c>
       <c r="E49" s="3">
-        <v>118200</v>
+        <v>118600</v>
       </c>
       <c r="F49" s="3">
-        <v>158200</v>
+        <v>158800</v>
       </c>
       <c r="G49" s="3">
-        <v>168600</v>
+        <v>169200</v>
       </c>
       <c r="H49" s="3">
-        <v>97000</v>
+        <v>97400</v>
       </c>
       <c r="I49" s="3">
-        <v>122800</v>
+        <v>123300</v>
       </c>
       <c r="J49" s="3">
-        <v>132600</v>
+        <v>133100</v>
       </c>
       <c r="K49" s="3">
         <v>143600</v>
@@ -2372,25 +2372,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>438400</v>
+        <v>440000</v>
       </c>
       <c r="E52" s="3">
-        <v>310400</v>
+        <v>311500</v>
       </c>
       <c r="F52" s="3">
-        <v>345200</v>
+        <v>346500</v>
       </c>
       <c r="G52" s="3">
-        <v>356900</v>
+        <v>358200</v>
       </c>
       <c r="H52" s="3">
-        <v>434800</v>
+        <v>436400</v>
       </c>
       <c r="I52" s="3">
-        <v>360000</v>
+        <v>361300</v>
       </c>
       <c r="J52" s="3">
-        <v>362200</v>
+        <v>363500</v>
       </c>
       <c r="K52" s="3">
         <v>291000</v>
@@ -2456,25 +2456,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>17286900</v>
+        <v>17350800</v>
       </c>
       <c r="E54" s="3">
-        <v>15061400</v>
+        <v>15117100</v>
       </c>
       <c r="F54" s="3">
-        <v>12242900</v>
+        <v>12288200</v>
       </c>
       <c r="G54" s="3">
-        <v>12005200</v>
+        <v>12049600</v>
       </c>
       <c r="H54" s="3">
-        <v>11824100</v>
+        <v>11867900</v>
       </c>
       <c r="I54" s="3">
-        <v>12780600</v>
+        <v>12827900</v>
       </c>
       <c r="J54" s="3">
-        <v>12539200</v>
+        <v>12585600</v>
       </c>
       <c r="K54" s="3">
         <v>10755300</v>
@@ -2534,25 +2534,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>291300</v>
+        <v>292400</v>
       </c>
       <c r="E57" s="3">
-        <v>271200</v>
+        <v>272300</v>
       </c>
       <c r="F57" s="3">
-        <v>255000</v>
+        <v>255900</v>
       </c>
       <c r="G57" s="3">
-        <v>287900</v>
+        <v>288900</v>
       </c>
       <c r="H57" s="3">
-        <v>220600</v>
+        <v>221400</v>
       </c>
       <c r="I57" s="3">
-        <v>211900</v>
+        <v>212700</v>
       </c>
       <c r="J57" s="3">
-        <v>222300</v>
+        <v>223100</v>
       </c>
       <c r="K57" s="3">
         <v>189800</v>
@@ -2576,25 +2576,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>263500</v>
+        <v>264400</v>
       </c>
       <c r="E58" s="3">
-        <v>1291200</v>
+        <v>1295900</v>
       </c>
       <c r="F58" s="3">
-        <v>1251600</v>
+        <v>1256200</v>
       </c>
       <c r="G58" s="3">
-        <v>1212300</v>
+        <v>1216700</v>
       </c>
       <c r="H58" s="3">
-        <v>591000</v>
+        <v>593200</v>
       </c>
       <c r="I58" s="3">
-        <v>1712600</v>
+        <v>1718900</v>
       </c>
       <c r="J58" s="3">
-        <v>1007000</v>
+        <v>1010700</v>
       </c>
       <c r="K58" s="3">
         <v>386000</v>
@@ -2618,25 +2618,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2966000</v>
+        <v>2977000</v>
       </c>
       <c r="E59" s="3">
-        <v>1857400</v>
+        <v>1864300</v>
       </c>
       <c r="F59" s="3">
-        <v>1030900</v>
+        <v>1034700</v>
       </c>
       <c r="G59" s="3">
-        <v>858000</v>
+        <v>861200</v>
       </c>
       <c r="H59" s="3">
-        <v>806600</v>
+        <v>809600</v>
       </c>
       <c r="I59" s="3">
-        <v>931300</v>
+        <v>934700</v>
       </c>
       <c r="J59" s="3">
-        <v>1105000</v>
+        <v>1109000</v>
       </c>
       <c r="K59" s="3">
         <v>962300</v>
@@ -2660,25 +2660,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3520800</v>
+        <v>3533800</v>
       </c>
       <c r="E60" s="3">
-        <v>3419900</v>
+        <v>3432500</v>
       </c>
       <c r="F60" s="3">
-        <v>2537400</v>
+        <v>2546800</v>
       </c>
       <c r="G60" s="3">
-        <v>2358100</v>
+        <v>2366900</v>
       </c>
       <c r="H60" s="3">
-        <v>1618200</v>
+        <v>1624200</v>
       </c>
       <c r="I60" s="3">
-        <v>2855800</v>
+        <v>2866400</v>
       </c>
       <c r="J60" s="3">
-        <v>2334300</v>
+        <v>2342900</v>
       </c>
       <c r="K60" s="3">
         <v>1538100</v>
@@ -2702,25 +2702,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1461900</v>
+        <v>1467300</v>
       </c>
       <c r="E61" s="3">
-        <v>1438000</v>
+        <v>1443300</v>
       </c>
       <c r="F61" s="3">
-        <v>966400</v>
+        <v>969900</v>
       </c>
       <c r="G61" s="3">
-        <v>1730100</v>
+        <v>1736500</v>
       </c>
       <c r="H61" s="3">
-        <v>2175500</v>
+        <v>2183600</v>
       </c>
       <c r="I61" s="3">
-        <v>1729100</v>
+        <v>1735500</v>
       </c>
       <c r="J61" s="3">
-        <v>1969400</v>
+        <v>1976700</v>
       </c>
       <c r="K61" s="3">
         <v>1515100</v>
@@ -2744,25 +2744,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1425600</v>
+        <v>1430900</v>
       </c>
       <c r="E62" s="3">
-        <v>1084100</v>
+        <v>1088100</v>
       </c>
       <c r="F62" s="3">
-        <v>1092900</v>
+        <v>1097000</v>
       </c>
       <c r="G62" s="3">
-        <v>1197000</v>
+        <v>1201400</v>
       </c>
       <c r="H62" s="3">
-        <v>1332400</v>
+        <v>1337400</v>
       </c>
       <c r="I62" s="3">
-        <v>1254400</v>
+        <v>1259100</v>
       </c>
       <c r="J62" s="3">
-        <v>1141700</v>
+        <v>1146000</v>
       </c>
       <c r="K62" s="3">
         <v>407400</v>
@@ -2912,25 +2912,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6419400</v>
+        <v>6443100</v>
       </c>
       <c r="E66" s="3">
-        <v>5949200</v>
+        <v>5971200</v>
       </c>
       <c r="F66" s="3">
-        <v>4600400</v>
+        <v>4617400</v>
       </c>
       <c r="G66" s="3">
-        <v>5298500</v>
+        <v>5318100</v>
       </c>
       <c r="H66" s="3">
-        <v>5141300</v>
+        <v>5160300</v>
       </c>
       <c r="I66" s="3">
-        <v>5870400</v>
+        <v>5892100</v>
       </c>
       <c r="J66" s="3">
-        <v>5515500</v>
+        <v>5536000</v>
       </c>
       <c r="K66" s="3">
         <v>3525200</v>
@@ -3140,25 +3140,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>6558900</v>
+        <v>6583100</v>
       </c>
       <c r="E72" s="3">
-        <v>3741600</v>
+        <v>3755500</v>
       </c>
       <c r="F72" s="3">
-        <v>2600100</v>
+        <v>2609700</v>
       </c>
       <c r="G72" s="3">
-        <v>1983200</v>
+        <v>1990500</v>
       </c>
       <c r="H72" s="3">
-        <v>1997300</v>
+        <v>2004700</v>
       </c>
       <c r="I72" s="3">
-        <v>1558800</v>
+        <v>1564500</v>
       </c>
       <c r="J72" s="3">
-        <v>1545500</v>
+        <v>1551200</v>
       </c>
       <c r="K72" s="3">
         <v>1616600</v>
@@ -3308,25 +3308,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>10867500</v>
+        <v>10907700</v>
       </c>
       <c r="E76" s="3">
-        <v>9112200</v>
+        <v>9145900</v>
       </c>
       <c r="F76" s="3">
-        <v>7642400</v>
+        <v>7670700</v>
       </c>
       <c r="G76" s="3">
-        <v>6706700</v>
+        <v>6731500</v>
       </c>
       <c r="H76" s="3">
-        <v>6682800</v>
+        <v>6707600</v>
       </c>
       <c r="I76" s="3">
-        <v>6910200</v>
+        <v>6935800</v>
       </c>
       <c r="J76" s="3">
-        <v>7023700</v>
+        <v>7049700</v>
       </c>
       <c r="K76" s="3">
         <v>7230100</v>
@@ -3439,25 +3439,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>2827800</v>
+        <v>2838300</v>
       </c>
       <c r="E81" s="3">
-        <v>1809000</v>
+        <v>1815600</v>
       </c>
       <c r="F81" s="3">
-        <v>946600</v>
+        <v>950100</v>
       </c>
       <c r="G81" s="3">
-        <v>314800</v>
+        <v>316000</v>
       </c>
       <c r="H81" s="3">
-        <v>229400</v>
+        <v>230200</v>
       </c>
       <c r="I81" s="3">
-        <v>312300</v>
+        <v>313400</v>
       </c>
       <c r="J81" s="3">
-        <v>269700</v>
+        <v>270700</v>
       </c>
       <c r="K81" s="3">
         <v>428700</v>
@@ -3499,25 +3499,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1432400</v>
+        <v>1437700</v>
       </c>
       <c r="E83" s="3">
-        <v>1526600</v>
+        <v>1532300</v>
       </c>
       <c r="F83" s="3">
-        <v>1586100</v>
+        <v>1592000</v>
       </c>
       <c r="G83" s="3">
-        <v>1601700</v>
+        <v>1607600</v>
       </c>
       <c r="H83" s="3">
-        <v>1687900</v>
+        <v>1694200</v>
       </c>
       <c r="I83" s="3">
-        <v>1722000</v>
+        <v>1728400</v>
       </c>
       <c r="J83" s="3">
-        <v>1685800</v>
+        <v>1692100</v>
       </c>
       <c r="K83" s="3">
         <v>1449700</v>
@@ -3751,25 +3751,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>4730300</v>
+        <v>4747800</v>
       </c>
       <c r="E89" s="3">
-        <v>2930100</v>
+        <v>2941000</v>
       </c>
       <c r="F89" s="3">
-        <v>2132100</v>
+        <v>2140000</v>
       </c>
       <c r="G89" s="3">
-        <v>1780500</v>
+        <v>1787100</v>
       </c>
       <c r="H89" s="3">
-        <v>1651800</v>
+        <v>1657900</v>
       </c>
       <c r="I89" s="3">
-        <v>1701700</v>
+        <v>1708000</v>
       </c>
       <c r="J89" s="3">
-        <v>1506400</v>
+        <v>1512000</v>
       </c>
       <c r="K89" s="3">
         <v>1906000</v>
@@ -3811,25 +3811,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2598500</v>
+        <v>-2608200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1557800</v>
+        <v>-1563500</v>
       </c>
       <c r="F91" s="3">
-        <v>-854400</v>
+        <v>-857500</v>
       </c>
       <c r="G91" s="3">
-        <v>-535700</v>
+        <v>-537700</v>
       </c>
       <c r="H91" s="3">
-        <v>-635300</v>
+        <v>-637700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1434600</v>
+        <v>-1439900</v>
       </c>
       <c r="J91" s="3">
-        <v>-2969300</v>
+        <v>-2980300</v>
       </c>
       <c r="K91" s="3">
         <v>-1928900</v>
@@ -3937,25 +3937,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1765100</v>
+        <v>-1771600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2016000</v>
+        <v>-2023400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1300800</v>
+        <v>-1305600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1027400</v>
+        <v>-1031200</v>
       </c>
       <c r="H94" s="3">
-        <v>-502700</v>
+        <v>-504500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1148500</v>
+        <v>-1152800</v>
       </c>
       <c r="J94" s="3">
-        <v>-2597200</v>
+        <v>-2606800</v>
       </c>
       <c r="K94" s="3">
         <v>-2183200</v>
@@ -3997,25 +3997,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-1214400</v>
+        <v>-1218800</v>
       </c>
       <c r="E96" s="3">
-        <v>-644400</v>
+        <v>-646800</v>
       </c>
       <c r="F96" s="3">
-        <v>-316700</v>
+        <v>-317900</v>
       </c>
       <c r="G96" s="3">
-        <v>-224100</v>
+        <v>-225000</v>
       </c>
       <c r="H96" s="3">
-        <v>-277500</v>
+        <v>-278600</v>
       </c>
       <c r="I96" s="3">
-        <v>-197900</v>
+        <v>-198700</v>
       </c>
       <c r="J96" s="3">
-        <v>-224000</v>
+        <v>-224800</v>
       </c>
       <c r="K96" s="3">
         <v>-221200</v>
@@ -4165,25 +4165,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1856800</v>
+        <v>-1863600</v>
       </c>
       <c r="E100" s="3">
-        <v>405100</v>
+        <v>406600</v>
       </c>
       <c r="F100" s="3">
-        <v>-830300</v>
+        <v>-833300</v>
       </c>
       <c r="G100" s="3">
-        <v>-320000</v>
+        <v>-321200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1085900</v>
+        <v>-1089900</v>
       </c>
       <c r="I100" s="3">
-        <v>297100</v>
+        <v>298200</v>
       </c>
       <c r="J100" s="3">
-        <v>1258100</v>
+        <v>1262800</v>
       </c>
       <c r="K100" s="3">
         <v>479800</v>
@@ -4207,25 +4207,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>227600</v>
+        <v>228400</v>
       </c>
       <c r="E101" s="3">
-        <v>-68200</v>
+        <v>-68500</v>
       </c>
       <c r="F101" s="3">
-        <v>-47900</v>
+        <v>-48100</v>
       </c>
       <c r="G101" s="3">
-        <v>-49500</v>
+        <v>-49600</v>
       </c>
       <c r="H101" s="3">
         <v>1200</v>
       </c>
       <c r="I101" s="3">
-        <v>-68900</v>
+        <v>-69200</v>
       </c>
       <c r="J101" s="3">
-        <v>-28300</v>
+        <v>-28400</v>
       </c>
       <c r="K101" s="3">
         <v>23000</v>
@@ -4249,25 +4249,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1336000</v>
+        <v>1341000</v>
       </c>
       <c r="E102" s="3">
-        <v>1251000</v>
+        <v>1255600</v>
       </c>
       <c r="F102" s="3">
-        <v>-46800</v>
+        <v>-47000</v>
       </c>
       <c r="G102" s="3">
-        <v>383700</v>
+        <v>385100</v>
       </c>
       <c r="H102" s="3">
-        <v>64400</v>
+        <v>64700</v>
       </c>
       <c r="I102" s="3">
-        <v>781400</v>
+        <v>784300</v>
       </c>
       <c r="J102" s="3">
-        <v>139100</v>
+        <v>139600</v>
       </c>
       <c r="K102" s="3">
         <v>225600</v>

--- a/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9071900</v>
+        <v>8751300</v>
       </c>
       <c r="E8" s="3">
-        <v>6933500</v>
+        <v>6688500</v>
       </c>
       <c r="F8" s="3">
-        <v>5755500</v>
+        <v>5552200</v>
       </c>
       <c r="G8" s="3">
-        <v>4824000</v>
+        <v>4653500</v>
       </c>
       <c r="H8" s="3">
-        <v>4923300</v>
+        <v>4749300</v>
       </c>
       <c r="I8" s="3">
-        <v>4859200</v>
+        <v>4687500</v>
       </c>
       <c r="J8" s="3">
-        <v>4813200</v>
+        <v>4643100</v>
       </c>
       <c r="K8" s="3">
         <v>4617200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4978200</v>
+        <v>4802300</v>
       </c>
       <c r="E9" s="3">
-        <v>4588300</v>
+        <v>4426200</v>
       </c>
       <c r="F9" s="3">
-        <v>4486200</v>
+        <v>4327700</v>
       </c>
       <c r="G9" s="3">
-        <v>4130200</v>
+        <v>3984200</v>
       </c>
       <c r="H9" s="3">
-        <v>4179800</v>
+        <v>4032200</v>
       </c>
       <c r="I9" s="3">
-        <v>3978500</v>
+        <v>3837900</v>
       </c>
       <c r="J9" s="3">
-        <v>3824300</v>
+        <v>3689200</v>
       </c>
       <c r="K9" s="3">
         <v>3604400</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4093600</v>
+        <v>3949000</v>
       </c>
       <c r="E10" s="3">
-        <v>2345200</v>
+        <v>2262400</v>
       </c>
       <c r="F10" s="3">
-        <v>1269400</v>
+        <v>1224500</v>
       </c>
       <c r="G10" s="3">
-        <v>693800</v>
+        <v>669300</v>
       </c>
       <c r="H10" s="3">
-        <v>743400</v>
+        <v>717200</v>
       </c>
       <c r="I10" s="3">
-        <v>880700</v>
+        <v>849600</v>
       </c>
       <c r="J10" s="3">
-        <v>988900</v>
+        <v>953900</v>
       </c>
       <c r="K10" s="3">
         <v>1012800</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>421600</v>
+        <v>406700</v>
       </c>
       <c r="E12" s="3">
-        <v>421000</v>
+        <v>406200</v>
       </c>
       <c r="F12" s="3">
-        <v>419700</v>
+        <v>404900</v>
       </c>
       <c r="G12" s="3">
-        <v>386100</v>
+        <v>372400</v>
       </c>
       <c r="H12" s="3">
-        <v>424000</v>
+        <v>409000</v>
       </c>
       <c r="I12" s="3">
-        <v>444900</v>
+        <v>429200</v>
       </c>
       <c r="J12" s="3">
-        <v>440500</v>
+        <v>424900</v>
       </c>
       <c r="K12" s="3">
         <v>388100</v>
@@ -969,10 +969,10 @@
         <v>1500</v>
       </c>
       <c r="I14" s="3">
-        <v>30800</v>
+        <v>29700</v>
       </c>
       <c r="J14" s="3">
-        <v>67600</v>
+        <v>65200</v>
       </c>
       <c r="K14" s="3">
         <v>72300</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5677100</v>
+        <v>5476600</v>
       </c>
       <c r="E17" s="3">
-        <v>5251100</v>
+        <v>5065600</v>
       </c>
       <c r="F17" s="3">
-        <v>5039200</v>
+        <v>4861100</v>
       </c>
       <c r="G17" s="3">
-        <v>4666600</v>
+        <v>4501700</v>
       </c>
       <c r="H17" s="3">
-        <v>4736100</v>
+        <v>4568700</v>
       </c>
       <c r="I17" s="3">
-        <v>4676200</v>
+        <v>4511000</v>
       </c>
       <c r="J17" s="3">
-        <v>4664400</v>
+        <v>4499600</v>
       </c>
       <c r="K17" s="3">
         <v>4311500</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3394700</v>
+        <v>3274800</v>
       </c>
       <c r="E18" s="3">
-        <v>1682400</v>
+        <v>1622900</v>
       </c>
       <c r="F18" s="3">
-        <v>716300</v>
+        <v>691000</v>
       </c>
       <c r="G18" s="3">
-        <v>157400</v>
+        <v>151800</v>
       </c>
       <c r="H18" s="3">
-        <v>187200</v>
+        <v>180600</v>
       </c>
       <c r="I18" s="3">
-        <v>183000</v>
+        <v>176600</v>
       </c>
       <c r="J18" s="3">
-        <v>148800</v>
+        <v>143500</v>
       </c>
       <c r="K18" s="3">
         <v>305700</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>116900</v>
+        <v>112700</v>
       </c>
       <c r="E20" s="3">
-        <v>390100</v>
+        <v>376300</v>
       </c>
       <c r="F20" s="3">
-        <v>257900</v>
+        <v>248800</v>
       </c>
       <c r="G20" s="3">
-        <v>124800</v>
+        <v>120400</v>
       </c>
       <c r="H20" s="3">
-        <v>-26000</v>
+        <v>-25100</v>
       </c>
       <c r="I20" s="3">
-        <v>149100</v>
+        <v>143900</v>
       </c>
       <c r="J20" s="3">
-        <v>49600</v>
+        <v>47900</v>
       </c>
       <c r="K20" s="3">
         <v>146400</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4947100</v>
+        <v>4774400</v>
       </c>
       <c r="E21" s="3">
-        <v>3602400</v>
+        <v>3477400</v>
       </c>
       <c r="F21" s="3">
-        <v>2563800</v>
+        <v>2475500</v>
       </c>
       <c r="G21" s="3">
-        <v>1887400</v>
+        <v>1823100</v>
       </c>
       <c r="H21" s="3">
-        <v>1852800</v>
+        <v>1789900</v>
       </c>
       <c r="I21" s="3">
-        <v>2057900</v>
+        <v>1987700</v>
       </c>
       <c r="J21" s="3">
-        <v>1887900</v>
+        <v>1823700</v>
       </c>
       <c r="K21" s="3">
         <v>1876300</v>
@@ -1239,25 +1239,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>58100</v>
+        <v>56100</v>
       </c>
       <c r="E22" s="3">
-        <v>60800</v>
+        <v>58700</v>
       </c>
       <c r="F22" s="3">
-        <v>65200</v>
+        <v>62900</v>
       </c>
       <c r="G22" s="3">
-        <v>95500</v>
+        <v>92100</v>
       </c>
       <c r="H22" s="3">
-        <v>90100</v>
+        <v>86900</v>
       </c>
       <c r="I22" s="3">
-        <v>78300</v>
+        <v>75600</v>
       </c>
       <c r="J22" s="3">
-        <v>40700</v>
+        <v>39200</v>
       </c>
       <c r="K22" s="3">
         <v>15000</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3453500</v>
+        <v>3331500</v>
       </c>
       <c r="E23" s="3">
-        <v>2011700</v>
+        <v>1940600</v>
       </c>
       <c r="F23" s="3">
-        <v>909000</v>
+        <v>876900</v>
       </c>
       <c r="G23" s="3">
-        <v>186700</v>
+        <v>180100</v>
       </c>
       <c r="H23" s="3">
-        <v>71100</v>
+        <v>68600</v>
       </c>
       <c r="I23" s="3">
-        <v>253800</v>
+        <v>244900</v>
       </c>
       <c r="J23" s="3">
-        <v>157800</v>
+        <v>152200</v>
       </c>
       <c r="K23" s="3">
         <v>437100</v>
@@ -1323,25 +1323,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>588500</v>
+        <v>567700</v>
       </c>
       <c r="E24" s="3">
-        <v>217800</v>
+        <v>210100</v>
       </c>
       <c r="F24" s="3">
-        <v>24300</v>
+        <v>23400</v>
       </c>
       <c r="G24" s="3">
-        <v>-12800</v>
+        <v>-12300</v>
       </c>
       <c r="H24" s="3">
-        <v>-14900</v>
+        <v>-14400</v>
       </c>
       <c r="I24" s="3">
-        <v>38000</v>
+        <v>36600</v>
       </c>
       <c r="J24" s="3">
-        <v>32000</v>
+        <v>30900</v>
       </c>
       <c r="K24" s="3">
         <v>27900</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2865000</v>
+        <v>2763800</v>
       </c>
       <c r="E26" s="3">
-        <v>1793900</v>
+        <v>1730500</v>
       </c>
       <c r="F26" s="3">
-        <v>884700</v>
+        <v>853500</v>
       </c>
       <c r="G26" s="3">
-        <v>199500</v>
+        <v>192400</v>
       </c>
       <c r="H26" s="3">
-        <v>86000</v>
+        <v>83000</v>
       </c>
       <c r="I26" s="3">
-        <v>215800</v>
+        <v>208200</v>
       </c>
       <c r="J26" s="3">
-        <v>125700</v>
+        <v>121300</v>
       </c>
       <c r="K26" s="3">
         <v>409200</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2838300</v>
+        <v>2738000</v>
       </c>
       <c r="E27" s="3">
-        <v>1815600</v>
+        <v>1751500</v>
       </c>
       <c r="F27" s="3">
-        <v>950100</v>
+        <v>916500</v>
       </c>
       <c r="G27" s="3">
-        <v>316000</v>
+        <v>304800</v>
       </c>
       <c r="H27" s="3">
-        <v>230200</v>
+        <v>222100</v>
       </c>
       <c r="I27" s="3">
-        <v>313400</v>
+        <v>302300</v>
       </c>
       <c r="J27" s="3">
-        <v>270700</v>
+        <v>261100</v>
       </c>
       <c r="K27" s="3">
         <v>428700</v>
@@ -1659,25 +1659,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-116900</v>
+        <v>-112700</v>
       </c>
       <c r="E32" s="3">
-        <v>-390100</v>
+        <v>-376300</v>
       </c>
       <c r="F32" s="3">
-        <v>-257900</v>
+        <v>-248800</v>
       </c>
       <c r="G32" s="3">
-        <v>-124800</v>
+        <v>-120400</v>
       </c>
       <c r="H32" s="3">
-        <v>26000</v>
+        <v>25100</v>
       </c>
       <c r="I32" s="3">
-        <v>-149100</v>
+        <v>-143900</v>
       </c>
       <c r="J32" s="3">
-        <v>-49600</v>
+        <v>-47900</v>
       </c>
       <c r="K32" s="3">
         <v>-146400</v>
@@ -1701,25 +1701,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>2838300</v>
+        <v>2738000</v>
       </c>
       <c r="E33" s="3">
-        <v>1815600</v>
+        <v>1751500</v>
       </c>
       <c r="F33" s="3">
-        <v>950100</v>
+        <v>916500</v>
       </c>
       <c r="G33" s="3">
-        <v>316000</v>
+        <v>304800</v>
       </c>
       <c r="H33" s="3">
-        <v>230200</v>
+        <v>222100</v>
       </c>
       <c r="I33" s="3">
-        <v>313400</v>
+        <v>302300</v>
       </c>
       <c r="J33" s="3">
-        <v>270700</v>
+        <v>261100</v>
       </c>
       <c r="K33" s="3">
         <v>428700</v>
@@ -1785,25 +1785,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>2838300</v>
+        <v>2738000</v>
       </c>
       <c r="E35" s="3">
-        <v>1815600</v>
+        <v>1751500</v>
       </c>
       <c r="F35" s="3">
-        <v>950100</v>
+        <v>916500</v>
       </c>
       <c r="G35" s="3">
-        <v>316000</v>
+        <v>304800</v>
       </c>
       <c r="H35" s="3">
-        <v>230200</v>
+        <v>222100</v>
       </c>
       <c r="I35" s="3">
-        <v>313400</v>
+        <v>302300</v>
       </c>
       <c r="J35" s="3">
-        <v>270700</v>
+        <v>261100</v>
       </c>
       <c r="K35" s="3">
         <v>428700</v>
@@ -1910,25 +1910,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>5657800</v>
+        <v>5457900</v>
       </c>
       <c r="E41" s="3">
-        <v>4316900</v>
+        <v>4164300</v>
       </c>
       <c r="F41" s="3">
-        <v>3061300</v>
+        <v>2953100</v>
       </c>
       <c r="G41" s="3">
-        <v>3108300</v>
+        <v>2998500</v>
       </c>
       <c r="H41" s="3">
-        <v>2723200</v>
+        <v>2627000</v>
       </c>
       <c r="I41" s="3">
-        <v>2658500</v>
+        <v>2564600</v>
       </c>
       <c r="J41" s="3">
-        <v>1874200</v>
+        <v>1808000</v>
       </c>
       <c r="K41" s="3">
         <v>1698900</v>
@@ -1952,25 +1952,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>155600</v>
+        <v>150100</v>
       </c>
       <c r="E42" s="3">
-        <v>307500</v>
+        <v>296600</v>
       </c>
       <c r="F42" s="3">
-        <v>39600</v>
+        <v>38200</v>
       </c>
       <c r="G42" s="3">
-        <v>23500</v>
+        <v>22700</v>
       </c>
       <c r="H42" s="3">
-        <v>17200</v>
+        <v>16600</v>
       </c>
       <c r="I42" s="3">
-        <v>23300</v>
+        <v>22500</v>
       </c>
       <c r="J42" s="3">
-        <v>23200</v>
+        <v>22400</v>
       </c>
       <c r="K42" s="3">
         <v>21200</v>
@@ -1994,25 +1994,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1275900</v>
+        <v>1230800</v>
       </c>
       <c r="E43" s="3">
-        <v>1183800</v>
+        <v>1142000</v>
       </c>
       <c r="F43" s="3">
-        <v>951700</v>
+        <v>918100</v>
       </c>
       <c r="G43" s="3">
-        <v>866600</v>
+        <v>836000</v>
       </c>
       <c r="H43" s="3">
-        <v>803900</v>
+        <v>775500</v>
       </c>
       <c r="I43" s="3">
-        <v>737500</v>
+        <v>711400</v>
       </c>
       <c r="J43" s="3">
-        <v>781300</v>
+        <v>753700</v>
       </c>
       <c r="K43" s="3">
         <v>637300</v>
@@ -2036,25 +2036,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1011300</v>
+        <v>975600</v>
       </c>
       <c r="E44" s="3">
-        <v>749000</v>
+        <v>722600</v>
       </c>
       <c r="F44" s="3">
-        <v>734100</v>
+        <v>708100</v>
       </c>
       <c r="G44" s="3">
-        <v>706800</v>
+        <v>681800</v>
       </c>
       <c r="H44" s="3">
-        <v>592500</v>
+        <v>571600</v>
       </c>
       <c r="I44" s="3">
-        <v>594300</v>
+        <v>573300</v>
       </c>
       <c r="J44" s="3">
-        <v>553300</v>
+        <v>533700</v>
       </c>
       <c r="K44" s="3">
         <v>562400</v>
@@ -2078,25 +2078,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>114100</v>
+        <v>110100</v>
       </c>
       <c r="E45" s="3">
-        <v>1035800</v>
+        <v>999200</v>
       </c>
       <c r="F45" s="3">
-        <v>561500</v>
+        <v>541700</v>
       </c>
       <c r="G45" s="3">
-        <v>299600</v>
+        <v>289000</v>
       </c>
       <c r="H45" s="3">
-        <v>459100</v>
+        <v>442900</v>
       </c>
       <c r="I45" s="3">
-        <v>516100</v>
+        <v>497800</v>
       </c>
       <c r="J45" s="3">
-        <v>363800</v>
+        <v>350900</v>
       </c>
       <c r="K45" s="3">
         <v>103000</v>
@@ -2120,25 +2120,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>8214700</v>
+        <v>7924500</v>
       </c>
       <c r="E46" s="3">
-        <v>7593100</v>
+        <v>7324800</v>
       </c>
       <c r="F46" s="3">
-        <v>5348200</v>
+        <v>5159200</v>
       </c>
       <c r="G46" s="3">
-        <v>5004800</v>
+        <v>4828000</v>
       </c>
       <c r="H46" s="3">
-        <v>4595800</v>
+        <v>4433500</v>
       </c>
       <c r="I46" s="3">
-        <v>4529700</v>
+        <v>4369600</v>
       </c>
       <c r="J46" s="3">
-        <v>3595800</v>
+        <v>3468700</v>
       </c>
       <c r="K46" s="3">
         <v>3022800</v>
@@ -2162,25 +2162,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2111000</v>
+        <v>2036400</v>
       </c>
       <c r="E47" s="3">
-        <v>2361400</v>
+        <v>2278000</v>
       </c>
       <c r="F47" s="3">
-        <v>1841600</v>
+        <v>1776500</v>
       </c>
       <c r="G47" s="3">
-        <v>1345700</v>
+        <v>1298200</v>
       </c>
       <c r="H47" s="3">
-        <v>1090600</v>
+        <v>1052100</v>
       </c>
       <c r="I47" s="3">
-        <v>1107400</v>
+        <v>1068300</v>
       </c>
       <c r="J47" s="3">
-        <v>1131600</v>
+        <v>1091700</v>
       </c>
       <c r="K47" s="3">
         <v>1280000</v>
@@ -2204,25 +2204,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>6446000</v>
+        <v>6218300</v>
       </c>
       <c r="E48" s="3">
-        <v>4732500</v>
+        <v>4565300</v>
       </c>
       <c r="F48" s="3">
-        <v>4593100</v>
+        <v>4430800</v>
       </c>
       <c r="G48" s="3">
-        <v>5171700</v>
+        <v>4988900</v>
       </c>
       <c r="H48" s="3">
-        <v>5647700</v>
+        <v>5448200</v>
       </c>
       <c r="I48" s="3">
-        <v>6706200</v>
+        <v>6469300</v>
       </c>
       <c r="J48" s="3">
-        <v>7361600</v>
+        <v>7101500</v>
       </c>
       <c r="K48" s="3">
         <v>6017900</v>
@@ -2246,25 +2246,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>139200</v>
+        <v>134200</v>
       </c>
       <c r="E49" s="3">
-        <v>118600</v>
+        <v>114500</v>
       </c>
       <c r="F49" s="3">
-        <v>158800</v>
+        <v>153200</v>
       </c>
       <c r="G49" s="3">
-        <v>169200</v>
+        <v>163200</v>
       </c>
       <c r="H49" s="3">
-        <v>97400</v>
+        <v>93900</v>
       </c>
       <c r="I49" s="3">
-        <v>123300</v>
+        <v>118900</v>
       </c>
       <c r="J49" s="3">
-        <v>133100</v>
+        <v>128400</v>
       </c>
       <c r="K49" s="3">
         <v>143600</v>
@@ -2372,25 +2372,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>440000</v>
+        <v>424400</v>
       </c>
       <c r="E52" s="3">
-        <v>311500</v>
+        <v>300500</v>
       </c>
       <c r="F52" s="3">
-        <v>346500</v>
+        <v>334300</v>
       </c>
       <c r="G52" s="3">
-        <v>358200</v>
+        <v>345500</v>
       </c>
       <c r="H52" s="3">
-        <v>436400</v>
+        <v>421000</v>
       </c>
       <c r="I52" s="3">
-        <v>361300</v>
+        <v>348600</v>
       </c>
       <c r="J52" s="3">
-        <v>363500</v>
+        <v>350700</v>
       </c>
       <c r="K52" s="3">
         <v>291000</v>
@@ -2456,25 +2456,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>17350800</v>
+        <v>16737800</v>
       </c>
       <c r="E54" s="3">
-        <v>15117100</v>
+        <v>14583000</v>
       </c>
       <c r="F54" s="3">
-        <v>12288200</v>
+        <v>11854000</v>
       </c>
       <c r="G54" s="3">
-        <v>12049600</v>
+        <v>11623900</v>
       </c>
       <c r="H54" s="3">
-        <v>11867900</v>
+        <v>11448600</v>
       </c>
       <c r="I54" s="3">
-        <v>12827900</v>
+        <v>12374700</v>
       </c>
       <c r="J54" s="3">
-        <v>12585600</v>
+        <v>12141000</v>
       </c>
       <c r="K54" s="3">
         <v>10755300</v>
@@ -2534,25 +2534,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>292400</v>
+        <v>282000</v>
       </c>
       <c r="E57" s="3">
-        <v>272300</v>
+        <v>262600</v>
       </c>
       <c r="F57" s="3">
-        <v>255900</v>
+        <v>246900</v>
       </c>
       <c r="G57" s="3">
-        <v>288900</v>
+        <v>278700</v>
       </c>
       <c r="H57" s="3">
-        <v>221400</v>
+        <v>213600</v>
       </c>
       <c r="I57" s="3">
-        <v>212700</v>
+        <v>205200</v>
       </c>
       <c r="J57" s="3">
-        <v>223100</v>
+        <v>215200</v>
       </c>
       <c r="K57" s="3">
         <v>189800</v>
@@ -2576,25 +2576,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>264400</v>
+        <v>255100</v>
       </c>
       <c r="E58" s="3">
-        <v>1295900</v>
+        <v>1250200</v>
       </c>
       <c r="F58" s="3">
-        <v>1256200</v>
+        <v>1211800</v>
       </c>
       <c r="G58" s="3">
-        <v>1216700</v>
+        <v>1173800</v>
       </c>
       <c r="H58" s="3">
-        <v>593200</v>
+        <v>572300</v>
       </c>
       <c r="I58" s="3">
-        <v>1718900</v>
+        <v>1658200</v>
       </c>
       <c r="J58" s="3">
-        <v>1010700</v>
+        <v>975000</v>
       </c>
       <c r="K58" s="3">
         <v>386000</v>
@@ -2618,25 +2618,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2977000</v>
+        <v>2871800</v>
       </c>
       <c r="E59" s="3">
-        <v>1864300</v>
+        <v>1798500</v>
       </c>
       <c r="F59" s="3">
-        <v>1034700</v>
+        <v>998200</v>
       </c>
       <c r="G59" s="3">
-        <v>861200</v>
+        <v>830700</v>
       </c>
       <c r="H59" s="3">
-        <v>809600</v>
+        <v>781000</v>
       </c>
       <c r="I59" s="3">
-        <v>934700</v>
+        <v>901700</v>
       </c>
       <c r="J59" s="3">
-        <v>1109000</v>
+        <v>1069900</v>
       </c>
       <c r="K59" s="3">
         <v>962300</v>
@@ -2660,25 +2660,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3533800</v>
+        <v>3408900</v>
       </c>
       <c r="E60" s="3">
-        <v>3432500</v>
+        <v>3311200</v>
       </c>
       <c r="F60" s="3">
-        <v>2546800</v>
+        <v>2456800</v>
       </c>
       <c r="G60" s="3">
-        <v>2366900</v>
+        <v>2283200</v>
       </c>
       <c r="H60" s="3">
-        <v>1624200</v>
+        <v>1566800</v>
       </c>
       <c r="I60" s="3">
-        <v>2866400</v>
+        <v>2765100</v>
       </c>
       <c r="J60" s="3">
-        <v>2342900</v>
+        <v>2260100</v>
       </c>
       <c r="K60" s="3">
         <v>1538100</v>
@@ -2702,25 +2702,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1467300</v>
+        <v>1415400</v>
       </c>
       <c r="E61" s="3">
-        <v>1443300</v>
+        <v>1392300</v>
       </c>
       <c r="F61" s="3">
-        <v>969900</v>
+        <v>935700</v>
       </c>
       <c r="G61" s="3">
-        <v>1736500</v>
+        <v>1675200</v>
       </c>
       <c r="H61" s="3">
-        <v>2183600</v>
+        <v>2106400</v>
       </c>
       <c r="I61" s="3">
-        <v>1735500</v>
+        <v>1674200</v>
       </c>
       <c r="J61" s="3">
-        <v>1976700</v>
+        <v>1906900</v>
       </c>
       <c r="K61" s="3">
         <v>1515100</v>
@@ -2744,25 +2744,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1430900</v>
+        <v>1380300</v>
       </c>
       <c r="E62" s="3">
-        <v>1088100</v>
+        <v>1049700</v>
       </c>
       <c r="F62" s="3">
-        <v>1097000</v>
+        <v>1058200</v>
       </c>
       <c r="G62" s="3">
-        <v>1201400</v>
+        <v>1159000</v>
       </c>
       <c r="H62" s="3">
-        <v>1337400</v>
+        <v>1290100</v>
       </c>
       <c r="I62" s="3">
-        <v>1259100</v>
+        <v>1214600</v>
       </c>
       <c r="J62" s="3">
-        <v>1146000</v>
+        <v>1105500</v>
       </c>
       <c r="K62" s="3">
         <v>407400</v>
@@ -2912,25 +2912,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6443100</v>
+        <v>6215500</v>
       </c>
       <c r="E66" s="3">
-        <v>5971200</v>
+        <v>5760200</v>
       </c>
       <c r="F66" s="3">
-        <v>4617400</v>
+        <v>4454300</v>
       </c>
       <c r="G66" s="3">
-        <v>5318100</v>
+        <v>5130200</v>
       </c>
       <c r="H66" s="3">
-        <v>5160300</v>
+        <v>4978000</v>
       </c>
       <c r="I66" s="3">
-        <v>5892100</v>
+        <v>5684000</v>
       </c>
       <c r="J66" s="3">
-        <v>5536000</v>
+        <v>5340400</v>
       </c>
       <c r="K66" s="3">
         <v>3525200</v>
@@ -3140,25 +3140,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>6583100</v>
+        <v>6350600</v>
       </c>
       <c r="E72" s="3">
-        <v>3755500</v>
+        <v>3622800</v>
       </c>
       <c r="F72" s="3">
-        <v>2609700</v>
+        <v>2517500</v>
       </c>
       <c r="G72" s="3">
-        <v>1990500</v>
+        <v>1920200</v>
       </c>
       <c r="H72" s="3">
-        <v>2004700</v>
+        <v>1933900</v>
       </c>
       <c r="I72" s="3">
-        <v>1564500</v>
+        <v>1509300</v>
       </c>
       <c r="J72" s="3">
-        <v>1551200</v>
+        <v>1496400</v>
       </c>
       <c r="K72" s="3">
         <v>1616600</v>
@@ -3308,25 +3308,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>10907700</v>
+        <v>10522400</v>
       </c>
       <c r="E76" s="3">
-        <v>9145900</v>
+        <v>8822800</v>
       </c>
       <c r="F76" s="3">
-        <v>7670700</v>
+        <v>7399700</v>
       </c>
       <c r="G76" s="3">
-        <v>6731500</v>
+        <v>6493700</v>
       </c>
       <c r="H76" s="3">
-        <v>6707600</v>
+        <v>6470600</v>
       </c>
       <c r="I76" s="3">
-        <v>6935800</v>
+        <v>6690700</v>
       </c>
       <c r="J76" s="3">
-        <v>7049700</v>
+        <v>6800600</v>
       </c>
       <c r="K76" s="3">
         <v>7230100</v>
@@ -3439,25 +3439,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>2838300</v>
+        <v>2738000</v>
       </c>
       <c r="E81" s="3">
-        <v>1815600</v>
+        <v>1751500</v>
       </c>
       <c r="F81" s="3">
-        <v>950100</v>
+        <v>916500</v>
       </c>
       <c r="G81" s="3">
-        <v>316000</v>
+        <v>304800</v>
       </c>
       <c r="H81" s="3">
-        <v>230200</v>
+        <v>222100</v>
       </c>
       <c r="I81" s="3">
-        <v>313400</v>
+        <v>302300</v>
       </c>
       <c r="J81" s="3">
-        <v>270700</v>
+        <v>261100</v>
       </c>
       <c r="K81" s="3">
         <v>428700</v>
@@ -3499,25 +3499,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1437700</v>
+        <v>1386900</v>
       </c>
       <c r="E83" s="3">
-        <v>1532300</v>
+        <v>1478100</v>
       </c>
       <c r="F83" s="3">
-        <v>1592000</v>
+        <v>1535700</v>
       </c>
       <c r="G83" s="3">
-        <v>1607600</v>
+        <v>1550800</v>
       </c>
       <c r="H83" s="3">
-        <v>1694200</v>
+        <v>1634300</v>
       </c>
       <c r="I83" s="3">
-        <v>1728400</v>
+        <v>1667300</v>
       </c>
       <c r="J83" s="3">
-        <v>1692100</v>
+        <v>1632300</v>
       </c>
       <c r="K83" s="3">
         <v>1449700</v>
@@ -3751,25 +3751,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>4747800</v>
+        <v>4580000</v>
       </c>
       <c r="E89" s="3">
-        <v>2941000</v>
+        <v>2837000</v>
       </c>
       <c r="F89" s="3">
-        <v>2140000</v>
+        <v>2064400</v>
       </c>
       <c r="G89" s="3">
-        <v>1787100</v>
+        <v>1724000</v>
       </c>
       <c r="H89" s="3">
-        <v>1657900</v>
+        <v>1599400</v>
       </c>
       <c r="I89" s="3">
-        <v>1708000</v>
+        <v>1647700</v>
       </c>
       <c r="J89" s="3">
-        <v>1512000</v>
+        <v>1458500</v>
       </c>
       <c r="K89" s="3">
         <v>1906000</v>
@@ -3811,25 +3811,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2608200</v>
+        <v>-2516000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1563500</v>
+        <v>-1508300</v>
       </c>
       <c r="F91" s="3">
-        <v>-857500</v>
+        <v>-827200</v>
       </c>
       <c r="G91" s="3">
-        <v>-537700</v>
+        <v>-518700</v>
       </c>
       <c r="H91" s="3">
-        <v>-637700</v>
+        <v>-615100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1439900</v>
+        <v>-1389000</v>
       </c>
       <c r="J91" s="3">
-        <v>-2980300</v>
+        <v>-2875000</v>
       </c>
       <c r="K91" s="3">
         <v>-1928900</v>
@@ -3937,25 +3937,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1771600</v>
+        <v>-1709000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2023400</v>
+        <v>-1951900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1305600</v>
+        <v>-1259500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1031200</v>
+        <v>-994800</v>
       </c>
       <c r="H94" s="3">
-        <v>-504500</v>
+        <v>-486700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1152800</v>
+        <v>-1112000</v>
       </c>
       <c r="J94" s="3">
-        <v>-2606800</v>
+        <v>-2514700</v>
       </c>
       <c r="K94" s="3">
         <v>-2183200</v>
@@ -3997,25 +3997,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-1218800</v>
+        <v>-1175800</v>
       </c>
       <c r="E96" s="3">
-        <v>-646800</v>
+        <v>-624000</v>
       </c>
       <c r="F96" s="3">
-        <v>-317900</v>
+        <v>-306600</v>
       </c>
       <c r="G96" s="3">
-        <v>-225000</v>
+        <v>-217000</v>
       </c>
       <c r="H96" s="3">
-        <v>-278600</v>
+        <v>-268700</v>
       </c>
       <c r="I96" s="3">
-        <v>-198700</v>
+        <v>-191600</v>
       </c>
       <c r="J96" s="3">
-        <v>-224800</v>
+        <v>-216900</v>
       </c>
       <c r="K96" s="3">
         <v>-221200</v>
@@ -4165,25 +4165,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1863600</v>
+        <v>-1797800</v>
       </c>
       <c r="E100" s="3">
-        <v>406600</v>
+        <v>392200</v>
       </c>
       <c r="F100" s="3">
-        <v>-833300</v>
+        <v>-803900</v>
       </c>
       <c r="G100" s="3">
-        <v>-321200</v>
+        <v>-309800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1089900</v>
+        <v>-1051400</v>
       </c>
       <c r="I100" s="3">
-        <v>298200</v>
+        <v>287700</v>
       </c>
       <c r="J100" s="3">
-        <v>1262800</v>
+        <v>1218200</v>
       </c>
       <c r="K100" s="3">
         <v>479800</v>
@@ -4207,25 +4207,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>228400</v>
+        <v>220400</v>
       </c>
       <c r="E101" s="3">
-        <v>-68500</v>
+        <v>-66100</v>
       </c>
       <c r="F101" s="3">
-        <v>-48100</v>
+        <v>-46400</v>
       </c>
       <c r="G101" s="3">
-        <v>-49600</v>
+        <v>-47900</v>
       </c>
       <c r="H101" s="3">
         <v>1200</v>
       </c>
       <c r="I101" s="3">
-        <v>-69200</v>
+        <v>-66700</v>
       </c>
       <c r="J101" s="3">
-        <v>-28400</v>
+        <v>-27400</v>
       </c>
       <c r="K101" s="3">
         <v>23000</v>
@@ -4249,25 +4249,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1341000</v>
+        <v>1293600</v>
       </c>
       <c r="E102" s="3">
-        <v>1255600</v>
+        <v>1211200</v>
       </c>
       <c r="F102" s="3">
-        <v>-47000</v>
+        <v>-45400</v>
       </c>
       <c r="G102" s="3">
-        <v>385100</v>
+        <v>371500</v>
       </c>
       <c r="H102" s="3">
-        <v>64700</v>
+        <v>62400</v>
       </c>
       <c r="I102" s="3">
-        <v>784300</v>
+        <v>756600</v>
       </c>
       <c r="J102" s="3">
-        <v>139600</v>
+        <v>134700</v>
       </c>
       <c r="K102" s="3">
         <v>225600</v>

--- a/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UMC_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8751300</v>
+        <v>8737400</v>
       </c>
       <c r="E8" s="3">
-        <v>6688500</v>
+        <v>6677900</v>
       </c>
       <c r="F8" s="3">
-        <v>5552200</v>
+        <v>5543300</v>
       </c>
       <c r="G8" s="3">
-        <v>4653500</v>
+        <v>4646100</v>
       </c>
       <c r="H8" s="3">
-        <v>4749300</v>
+        <v>4741800</v>
       </c>
       <c r="I8" s="3">
-        <v>4687500</v>
+        <v>4680100</v>
       </c>
       <c r="J8" s="3">
-        <v>4643100</v>
+        <v>4635700</v>
       </c>
       <c r="K8" s="3">
         <v>4617200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4802300</v>
+        <v>4794700</v>
       </c>
       <c r="E9" s="3">
-        <v>4426200</v>
+        <v>4419100</v>
       </c>
       <c r="F9" s="3">
-        <v>4327700</v>
+        <v>4320800</v>
       </c>
       <c r="G9" s="3">
-        <v>3984200</v>
+        <v>3977900</v>
       </c>
       <c r="H9" s="3">
-        <v>4032200</v>
+        <v>4025700</v>
       </c>
       <c r="I9" s="3">
-        <v>3837900</v>
+        <v>3831800</v>
       </c>
       <c r="J9" s="3">
-        <v>3689200</v>
+        <v>3683300</v>
       </c>
       <c r="K9" s="3">
         <v>3604400</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3949000</v>
+        <v>3942700</v>
       </c>
       <c r="E10" s="3">
-        <v>2262400</v>
+        <v>2258800</v>
       </c>
       <c r="F10" s="3">
-        <v>1224500</v>
+        <v>1222600</v>
       </c>
       <c r="G10" s="3">
-        <v>669300</v>
+        <v>668200</v>
       </c>
       <c r="H10" s="3">
-        <v>717200</v>
+        <v>716000</v>
       </c>
       <c r="I10" s="3">
-        <v>849600</v>
+        <v>848300</v>
       </c>
       <c r="J10" s="3">
-        <v>953900</v>
+        <v>952400</v>
       </c>
       <c r="K10" s="3">
         <v>1012800</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>406700</v>
+        <v>406100</v>
       </c>
       <c r="E12" s="3">
-        <v>406200</v>
+        <v>405500</v>
       </c>
       <c r="F12" s="3">
-        <v>404900</v>
+        <v>404300</v>
       </c>
       <c r="G12" s="3">
-        <v>372400</v>
+        <v>371800</v>
       </c>
       <c r="H12" s="3">
-        <v>409000</v>
+        <v>408300</v>
       </c>
       <c r="I12" s="3">
-        <v>429200</v>
+        <v>428500</v>
       </c>
       <c r="J12" s="3">
-        <v>424900</v>
+        <v>424200</v>
       </c>
       <c r="K12" s="3">
         <v>388100</v>
@@ -966,13 +966,13 @@
         <v>-1700</v>
       </c>
       <c r="H14" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I14" s="3">
-        <v>29700</v>
+        <v>29600</v>
       </c>
       <c r="J14" s="3">
-        <v>65200</v>
+        <v>65100</v>
       </c>
       <c r="K14" s="3">
         <v>72300</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5476600</v>
+        <v>5467800</v>
       </c>
       <c r="E17" s="3">
-        <v>5065600</v>
+        <v>5057500</v>
       </c>
       <c r="F17" s="3">
-        <v>4861100</v>
+        <v>4853400</v>
       </c>
       <c r="G17" s="3">
-        <v>4501700</v>
+        <v>4494500</v>
       </c>
       <c r="H17" s="3">
-        <v>4568700</v>
+        <v>4561500</v>
       </c>
       <c r="I17" s="3">
-        <v>4511000</v>
+        <v>4503800</v>
       </c>
       <c r="J17" s="3">
-        <v>4499600</v>
+        <v>4492400</v>
       </c>
       <c r="K17" s="3">
         <v>4311500</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3274800</v>
+        <v>3269600</v>
       </c>
       <c r="E18" s="3">
-        <v>1622900</v>
+        <v>1620400</v>
       </c>
       <c r="F18" s="3">
-        <v>691000</v>
+        <v>689900</v>
       </c>
       <c r="G18" s="3">
-        <v>151800</v>
+        <v>151600</v>
       </c>
       <c r="H18" s="3">
-        <v>180600</v>
+        <v>180300</v>
       </c>
       <c r="I18" s="3">
-        <v>176600</v>
+        <v>176300</v>
       </c>
       <c r="J18" s="3">
-        <v>143500</v>
+        <v>143300</v>
       </c>
       <c r="K18" s="3">
         <v>305700</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>112700</v>
+        <v>112600</v>
       </c>
       <c r="E20" s="3">
-        <v>376300</v>
+        <v>375700</v>
       </c>
       <c r="F20" s="3">
-        <v>248800</v>
+        <v>248400</v>
       </c>
       <c r="G20" s="3">
-        <v>120400</v>
+        <v>120200</v>
       </c>
       <c r="H20" s="3">
-        <v>-25100</v>
+        <v>-25000</v>
       </c>
       <c r="I20" s="3">
-        <v>143900</v>
+        <v>143700</v>
       </c>
       <c r="J20" s="3">
-        <v>47900</v>
+        <v>47800</v>
       </c>
       <c r="K20" s="3">
         <v>146400</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4774400</v>
+        <v>4763700</v>
       </c>
       <c r="E21" s="3">
-        <v>3477400</v>
+        <v>3468600</v>
       </c>
       <c r="F21" s="3">
-        <v>2475500</v>
+        <v>2468200</v>
       </c>
       <c r="G21" s="3">
-        <v>1823100</v>
+        <v>1816700</v>
       </c>
       <c r="H21" s="3">
-        <v>1789900</v>
+        <v>1783400</v>
       </c>
       <c r="I21" s="3">
-        <v>1987700</v>
+        <v>1980900</v>
       </c>
       <c r="J21" s="3">
-        <v>1823700</v>
+        <v>1817200</v>
       </c>
       <c r="K21" s="3">
         <v>1876300</v>
@@ -1239,22 +1239,22 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>56100</v>
+        <v>56000</v>
       </c>
       <c r="E22" s="3">
-        <v>58700</v>
+        <v>58600</v>
       </c>
       <c r="F22" s="3">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="G22" s="3">
-        <v>92100</v>
+        <v>92000</v>
       </c>
       <c r="H22" s="3">
-        <v>86900</v>
+        <v>86800</v>
       </c>
       <c r="I22" s="3">
-        <v>75600</v>
+        <v>75500</v>
       </c>
       <c r="J22" s="3">
         <v>39200</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3331500</v>
+        <v>3326100</v>
       </c>
       <c r="E23" s="3">
-        <v>1940600</v>
+        <v>1937500</v>
       </c>
       <c r="F23" s="3">
-        <v>876900</v>
+        <v>875500</v>
       </c>
       <c r="G23" s="3">
-        <v>180100</v>
+        <v>179800</v>
       </c>
       <c r="H23" s="3">
-        <v>68600</v>
+        <v>68500</v>
       </c>
       <c r="I23" s="3">
-        <v>244900</v>
+        <v>244500</v>
       </c>
       <c r="J23" s="3">
-        <v>152200</v>
+        <v>151900</v>
       </c>
       <c r="K23" s="3">
         <v>437100</v>
@@ -1323,10 +1323,10 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>567700</v>
+        <v>566800</v>
       </c>
       <c r="E24" s="3">
-        <v>210100</v>
+        <v>209800</v>
       </c>
       <c r="F24" s="3">
         <v>23400</v>
@@ -1341,7 +1341,7 @@
         <v>36600</v>
       </c>
       <c r="J24" s="3">
-        <v>30900</v>
+        <v>30800</v>
       </c>
       <c r="K24" s="3">
         <v>27900</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2763800</v>
+        <v>2759400</v>
       </c>
       <c r="E26" s="3">
-        <v>1730500</v>
+        <v>1727800</v>
       </c>
       <c r="F26" s="3">
-        <v>853500</v>
+        <v>852100</v>
       </c>
       <c r="G26" s="3">
-        <v>192400</v>
+        <v>192100</v>
       </c>
       <c r="H26" s="3">
-        <v>83000</v>
+        <v>82900</v>
       </c>
       <c r="I26" s="3">
-        <v>208200</v>
+        <v>207900</v>
       </c>
       <c r="J26" s="3">
-        <v>121300</v>
+        <v>121100</v>
       </c>
       <c r="K26" s="3">
         <v>409200</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2738000</v>
+        <v>2733700</v>
       </c>
       <c r="E27" s="3">
-        <v>1751500</v>
+        <v>1748700</v>
       </c>
       <c r="F27" s="3">
-        <v>916500</v>
+        <v>915100</v>
       </c>
       <c r="G27" s="3">
-        <v>304800</v>
+        <v>304300</v>
       </c>
       <c r="H27" s="3">
-        <v>222100</v>
+        <v>221700</v>
       </c>
       <c r="I27" s="3">
-        <v>302300</v>
+        <v>301900</v>
       </c>
       <c r="J27" s="3">
-        <v>261100</v>
+        <v>260700</v>
       </c>
       <c r="K27" s="3">
         <v>428700</v>
@@ -1659,25 +1659,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-112700</v>
+        <v>-112600</v>
       </c>
       <c r="E32" s="3">
-        <v>-376300</v>
+        <v>-375700</v>
       </c>
       <c r="F32" s="3">
-        <v>-248800</v>
+        <v>-248400</v>
       </c>
       <c r="G32" s="3">
-        <v>-120400</v>
+        <v>-120200</v>
       </c>
       <c r="H32" s="3">
-        <v>25100</v>
+        <v>25000</v>
       </c>
       <c r="I32" s="3">
-        <v>-143900</v>
+        <v>-143700</v>
       </c>
       <c r="J32" s="3">
-        <v>-47900</v>
+        <v>-47800</v>
       </c>
       <c r="K32" s="3">
         <v>-146400</v>
@@ -1701,25 +1701,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>2738000</v>
+        <v>2733700</v>
       </c>
       <c r="E33" s="3">
-        <v>1751500</v>
+        <v>1748700</v>
       </c>
       <c r="F33" s="3">
-        <v>916500</v>
+        <v>915100</v>
       </c>
       <c r="G33" s="3">
-        <v>304800</v>
+        <v>304300</v>
       </c>
       <c r="H33" s="3">
-        <v>222100</v>
+        <v>221700</v>
       </c>
       <c r="I33" s="3">
-        <v>302300</v>
+        <v>301900</v>
       </c>
       <c r="J33" s="3">
-        <v>261100</v>
+        <v>260700</v>
       </c>
       <c r="K33" s="3">
         <v>428700</v>
@@ -1785,25 +1785,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>2738000</v>
+        <v>2733700</v>
       </c>
       <c r="E35" s="3">
-        <v>1751500</v>
+        <v>1748700</v>
       </c>
       <c r="F35" s="3">
-        <v>916500</v>
+        <v>915100</v>
       </c>
       <c r="G35" s="3">
-        <v>304800</v>
+        <v>304300</v>
       </c>
       <c r="H35" s="3">
-        <v>222100</v>
+        <v>221700</v>
       </c>
       <c r="I35" s="3">
-        <v>302300</v>
+        <v>301900</v>
       </c>
       <c r="J35" s="3">
-        <v>261100</v>
+        <v>260700</v>
       </c>
       <c r="K35" s="3">
         <v>428700</v>
@@ -1910,25 +1910,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>5457900</v>
+        <v>5449200</v>
       </c>
       <c r="E41" s="3">
-        <v>4164300</v>
+        <v>4157700</v>
       </c>
       <c r="F41" s="3">
-        <v>2953100</v>
+        <v>2948400</v>
       </c>
       <c r="G41" s="3">
-        <v>2998500</v>
+        <v>2993700</v>
       </c>
       <c r="H41" s="3">
-        <v>2627000</v>
+        <v>2622800</v>
       </c>
       <c r="I41" s="3">
-        <v>2564600</v>
+        <v>2560500</v>
       </c>
       <c r="J41" s="3">
-        <v>1808000</v>
+        <v>1805100</v>
       </c>
       <c r="K41" s="3">
         <v>1698900</v>
@@ -1952,13 +1952,13 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>150100</v>
+        <v>149900</v>
       </c>
       <c r="E42" s="3">
-        <v>296600</v>
+        <v>296200</v>
       </c>
       <c r="F42" s="3">
-        <v>38200</v>
+        <v>38100</v>
       </c>
       <c r="G42" s="3">
         <v>22700</v>
@@ -1994,25 +1994,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1230800</v>
+        <v>1228800</v>
       </c>
       <c r="E43" s="3">
-        <v>1142000</v>
+        <v>1140200</v>
       </c>
       <c r="F43" s="3">
-        <v>918100</v>
+        <v>916600</v>
       </c>
       <c r="G43" s="3">
-        <v>836000</v>
+        <v>834700</v>
       </c>
       <c r="H43" s="3">
-        <v>775500</v>
+        <v>774200</v>
       </c>
       <c r="I43" s="3">
-        <v>711400</v>
+        <v>710300</v>
       </c>
       <c r="J43" s="3">
-        <v>753700</v>
+        <v>752500</v>
       </c>
       <c r="K43" s="3">
         <v>637300</v>
@@ -2036,25 +2036,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>975600</v>
+        <v>974000</v>
       </c>
       <c r="E44" s="3">
-        <v>722600</v>
+        <v>721400</v>
       </c>
       <c r="F44" s="3">
-        <v>708100</v>
+        <v>707000</v>
       </c>
       <c r="G44" s="3">
-        <v>681800</v>
+        <v>680800</v>
       </c>
       <c r="H44" s="3">
-        <v>571600</v>
+        <v>570700</v>
       </c>
       <c r="I44" s="3">
-        <v>573300</v>
+        <v>572400</v>
       </c>
       <c r="J44" s="3">
-        <v>533700</v>
+        <v>532900</v>
       </c>
       <c r="K44" s="3">
         <v>562400</v>
@@ -2078,25 +2078,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>110100</v>
+        <v>109900</v>
       </c>
       <c r="E45" s="3">
-        <v>999200</v>
+        <v>997600</v>
       </c>
       <c r="F45" s="3">
-        <v>541700</v>
+        <v>540800</v>
       </c>
       <c r="G45" s="3">
-        <v>289000</v>
+        <v>288500</v>
       </c>
       <c r="H45" s="3">
-        <v>442900</v>
+        <v>442100</v>
       </c>
       <c r="I45" s="3">
-        <v>497800</v>
+        <v>497000</v>
       </c>
       <c r="J45" s="3">
-        <v>350900</v>
+        <v>350400</v>
       </c>
       <c r="K45" s="3">
         <v>103000</v>
@@ -2120,25 +2120,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>7924500</v>
+        <v>7911800</v>
       </c>
       <c r="E46" s="3">
-        <v>7324800</v>
+        <v>7313100</v>
       </c>
       <c r="F46" s="3">
-        <v>5159200</v>
+        <v>5151000</v>
       </c>
       <c r="G46" s="3">
-        <v>4828000</v>
+        <v>4820300</v>
       </c>
       <c r="H46" s="3">
-        <v>4433500</v>
+        <v>4426400</v>
       </c>
       <c r="I46" s="3">
-        <v>4369600</v>
+        <v>4362700</v>
       </c>
       <c r="J46" s="3">
-        <v>3468700</v>
+        <v>3463200</v>
       </c>
       <c r="K46" s="3">
         <v>3022800</v>
@@ -2162,25 +2162,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2036400</v>
+        <v>2033200</v>
       </c>
       <c r="E47" s="3">
-        <v>2278000</v>
+        <v>2274300</v>
       </c>
       <c r="F47" s="3">
-        <v>1776500</v>
+        <v>1773700</v>
       </c>
       <c r="G47" s="3">
-        <v>1298200</v>
+        <v>1296100</v>
       </c>
       <c r="H47" s="3">
-        <v>1052100</v>
+        <v>1050400</v>
       </c>
       <c r="I47" s="3">
-        <v>1068300</v>
+        <v>1066600</v>
       </c>
       <c r="J47" s="3">
-        <v>1091700</v>
+        <v>1089900</v>
       </c>
       <c r="K47" s="3">
         <v>1280000</v>
@@ -2204,25 +2204,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>6218300</v>
+        <v>6208400</v>
       </c>
       <c r="E48" s="3">
-        <v>4565300</v>
+        <v>4558000</v>
       </c>
       <c r="F48" s="3">
-        <v>4430800</v>
+        <v>4423800</v>
       </c>
       <c r="G48" s="3">
-        <v>4988900</v>
+        <v>4981000</v>
       </c>
       <c r="H48" s="3">
-        <v>5448200</v>
+        <v>5439500</v>
       </c>
       <c r="I48" s="3">
-        <v>6469300</v>
+        <v>6459000</v>
       </c>
       <c r="J48" s="3">
-        <v>7101500</v>
+        <v>7090200</v>
       </c>
       <c r="K48" s="3">
         <v>6017900</v>
@@ -2246,25 +2246,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>134200</v>
+        <v>134000</v>
       </c>
       <c r="E49" s="3">
-        <v>114500</v>
+        <v>114300</v>
       </c>
       <c r="F49" s="3">
-        <v>153200</v>
+        <v>152900</v>
       </c>
       <c r="G49" s="3">
-        <v>163200</v>
+        <v>163000</v>
       </c>
       <c r="H49" s="3">
-        <v>93900</v>
+        <v>93800</v>
       </c>
       <c r="I49" s="3">
-        <v>118900</v>
+        <v>118700</v>
       </c>
       <c r="J49" s="3">
-        <v>128400</v>
+        <v>128200</v>
       </c>
       <c r="K49" s="3">
         <v>143600</v>
@@ -2372,25 +2372,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>424400</v>
+        <v>423800</v>
       </c>
       <c r="E52" s="3">
-        <v>300500</v>
+        <v>300000</v>
       </c>
       <c r="F52" s="3">
-        <v>334300</v>
+        <v>333700</v>
       </c>
       <c r="G52" s="3">
-        <v>345500</v>
+        <v>345000</v>
       </c>
       <c r="H52" s="3">
-        <v>421000</v>
+        <v>420300</v>
       </c>
       <c r="I52" s="3">
-        <v>348600</v>
+        <v>348000</v>
       </c>
       <c r="J52" s="3">
-        <v>350700</v>
+        <v>350100</v>
       </c>
       <c r="K52" s="3">
         <v>291000</v>
@@ -2456,25 +2456,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>16737800</v>
+        <v>16711200</v>
       </c>
       <c r="E54" s="3">
-        <v>14583000</v>
+        <v>14559800</v>
       </c>
       <c r="F54" s="3">
-        <v>11854000</v>
+        <v>11835100</v>
       </c>
       <c r="G54" s="3">
-        <v>11623900</v>
+        <v>11605400</v>
       </c>
       <c r="H54" s="3">
-        <v>11448600</v>
+        <v>11430400</v>
       </c>
       <c r="I54" s="3">
-        <v>12374700</v>
+        <v>12355000</v>
       </c>
       <c r="J54" s="3">
-        <v>12141000</v>
+        <v>12121600</v>
       </c>
       <c r="K54" s="3">
         <v>10755300</v>
@@ -2534,25 +2534,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>282000</v>
+        <v>281600</v>
       </c>
       <c r="E57" s="3">
-        <v>262600</v>
+        <v>262200</v>
       </c>
       <c r="F57" s="3">
-        <v>246900</v>
+        <v>246500</v>
       </c>
       <c r="G57" s="3">
-        <v>278700</v>
+        <v>278300</v>
       </c>
       <c r="H57" s="3">
-        <v>213600</v>
+        <v>213200</v>
       </c>
       <c r="I57" s="3">
-        <v>205200</v>
+        <v>204900</v>
       </c>
       <c r="J57" s="3">
-        <v>215200</v>
+        <v>214900</v>
       </c>
       <c r="K57" s="3">
         <v>189800</v>
@@ -2576,25 +2576,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>255100</v>
+        <v>254700</v>
       </c>
       <c r="E58" s="3">
-        <v>1250200</v>
+        <v>1248200</v>
       </c>
       <c r="F58" s="3">
-        <v>1211800</v>
+        <v>1209900</v>
       </c>
       <c r="G58" s="3">
-        <v>1173800</v>
+        <v>1171900</v>
       </c>
       <c r="H58" s="3">
-        <v>572300</v>
+        <v>571400</v>
       </c>
       <c r="I58" s="3">
-        <v>1658200</v>
+        <v>1655600</v>
       </c>
       <c r="J58" s="3">
-        <v>975000</v>
+        <v>973500</v>
       </c>
       <c r="K58" s="3">
         <v>386000</v>
@@ -2618,25 +2618,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2871800</v>
+        <v>2867200</v>
       </c>
       <c r="E59" s="3">
-        <v>1798500</v>
+        <v>1795600</v>
       </c>
       <c r="F59" s="3">
-        <v>998200</v>
+        <v>996600</v>
       </c>
       <c r="G59" s="3">
-        <v>830700</v>
+        <v>829400</v>
       </c>
       <c r="H59" s="3">
-        <v>781000</v>
+        <v>779700</v>
       </c>
       <c r="I59" s="3">
-        <v>901700</v>
+        <v>900300</v>
       </c>
       <c r="J59" s="3">
-        <v>1069900</v>
+        <v>1068200</v>
       </c>
       <c r="K59" s="3">
         <v>962300</v>
@@ -2660,25 +2660,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3408900</v>
+        <v>3403500</v>
       </c>
       <c r="E60" s="3">
-        <v>3311200</v>
+        <v>3306000</v>
       </c>
       <c r="F60" s="3">
-        <v>2456800</v>
+        <v>2452900</v>
       </c>
       <c r="G60" s="3">
-        <v>2283200</v>
+        <v>2279600</v>
       </c>
       <c r="H60" s="3">
-        <v>1566800</v>
+        <v>1564300</v>
       </c>
       <c r="I60" s="3">
-        <v>2765100</v>
+        <v>2760700</v>
       </c>
       <c r="J60" s="3">
-        <v>2260100</v>
+        <v>2256500</v>
       </c>
       <c r="K60" s="3">
         <v>1538100</v>
@@ -2702,25 +2702,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1415400</v>
+        <v>1413200</v>
       </c>
       <c r="E61" s="3">
-        <v>1392300</v>
+        <v>1390100</v>
       </c>
       <c r="F61" s="3">
-        <v>935700</v>
+        <v>934200</v>
       </c>
       <c r="G61" s="3">
-        <v>1675200</v>
+        <v>1672500</v>
       </c>
       <c r="H61" s="3">
-        <v>2106400</v>
+        <v>2103100</v>
       </c>
       <c r="I61" s="3">
-        <v>1674200</v>
+        <v>1671600</v>
       </c>
       <c r="J61" s="3">
-        <v>1906900</v>
+        <v>1903800</v>
       </c>
       <c r="K61" s="3">
         <v>1515100</v>
@@ -2744,25 +2744,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1380300</v>
+        <v>1378100</v>
       </c>
       <c r="E62" s="3">
-        <v>1049700</v>
+        <v>1048000</v>
       </c>
       <c r="F62" s="3">
-        <v>1058200</v>
+        <v>1056500</v>
       </c>
       <c r="G62" s="3">
-        <v>1159000</v>
+        <v>1157100</v>
       </c>
       <c r="H62" s="3">
-        <v>1290100</v>
+        <v>1288000</v>
       </c>
       <c r="I62" s="3">
-        <v>1214600</v>
+        <v>1212700</v>
       </c>
       <c r="J62" s="3">
-        <v>1105500</v>
+        <v>1103700</v>
       </c>
       <c r="K62" s="3">
         <v>407400</v>
@@ -2912,25 +2912,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6215500</v>
+        <v>6205600</v>
       </c>
       <c r="E66" s="3">
-        <v>5760200</v>
+        <v>5751100</v>
       </c>
       <c r="F66" s="3">
-        <v>4454300</v>
+        <v>4447200</v>
       </c>
       <c r="G66" s="3">
-        <v>5130200</v>
+        <v>5122100</v>
       </c>
       <c r="H66" s="3">
-        <v>4978000</v>
+        <v>4970100</v>
       </c>
       <c r="I66" s="3">
-        <v>5684000</v>
+        <v>5674900</v>
       </c>
       <c r="J66" s="3">
-        <v>5340400</v>
+        <v>5331900</v>
       </c>
       <c r="K66" s="3">
         <v>3525200</v>
@@ -3140,25 +3140,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>6350600</v>
+        <v>6340400</v>
       </c>
       <c r="E72" s="3">
-        <v>3622800</v>
+        <v>3617000</v>
       </c>
       <c r="F72" s="3">
-        <v>2517500</v>
+        <v>2513500</v>
       </c>
       <c r="G72" s="3">
-        <v>1920200</v>
+        <v>1917100</v>
       </c>
       <c r="H72" s="3">
-        <v>1933900</v>
+        <v>1930800</v>
       </c>
       <c r="I72" s="3">
-        <v>1509300</v>
+        <v>1506900</v>
       </c>
       <c r="J72" s="3">
-        <v>1496400</v>
+        <v>1494000</v>
       </c>
       <c r="K72" s="3">
         <v>1616600</v>
@@ -3308,25 +3308,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>10522400</v>
+        <v>10505600</v>
       </c>
       <c r="E76" s="3">
-        <v>8822800</v>
+        <v>8808700</v>
       </c>
       <c r="F76" s="3">
-        <v>7399700</v>
+        <v>7387900</v>
       </c>
       <c r="G76" s="3">
-        <v>6493700</v>
+        <v>6483300</v>
       </c>
       <c r="H76" s="3">
-        <v>6470600</v>
+        <v>6460300</v>
       </c>
       <c r="I76" s="3">
-        <v>6690700</v>
+        <v>6680100</v>
       </c>
       <c r="J76" s="3">
-        <v>6800600</v>
+        <v>6789800</v>
       </c>
       <c r="K76" s="3">
         <v>7230100</v>
@@ -3439,25 +3439,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>2738000</v>
+        <v>2733700</v>
       </c>
       <c r="E81" s="3">
-        <v>1751500</v>
+        <v>1748700</v>
       </c>
       <c r="F81" s="3">
-        <v>916500</v>
+        <v>915100</v>
       </c>
       <c r="G81" s="3">
-        <v>304800</v>
+        <v>304300</v>
       </c>
       <c r="H81" s="3">
-        <v>222100</v>
+        <v>221700</v>
       </c>
       <c r="I81" s="3">
-        <v>302300</v>
+        <v>301900</v>
       </c>
       <c r="J81" s="3">
-        <v>261100</v>
+        <v>260700</v>
       </c>
       <c r="K81" s="3">
         <v>428700</v>
@@ -3499,25 +3499,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1386900</v>
+        <v>1384700</v>
       </c>
       <c r="E83" s="3">
-        <v>1478100</v>
+        <v>1475800</v>
       </c>
       <c r="F83" s="3">
-        <v>1535700</v>
+        <v>1533300</v>
       </c>
       <c r="G83" s="3">
-        <v>1550800</v>
+        <v>1548400</v>
       </c>
       <c r="H83" s="3">
-        <v>1634300</v>
+        <v>1631700</v>
       </c>
       <c r="I83" s="3">
-        <v>1667300</v>
+        <v>1664600</v>
       </c>
       <c r="J83" s="3">
-        <v>1632300</v>
+        <v>1629700</v>
       </c>
       <c r="K83" s="3">
         <v>1449700</v>
@@ -3751,25 +3751,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>4580000</v>
+        <v>4572700</v>
       </c>
       <c r="E89" s="3">
-        <v>2837000</v>
+        <v>2832500</v>
       </c>
       <c r="F89" s="3">
-        <v>2064400</v>
+        <v>2061100</v>
       </c>
       <c r="G89" s="3">
-        <v>1724000</v>
+        <v>1721200</v>
       </c>
       <c r="H89" s="3">
-        <v>1599400</v>
+        <v>1596800</v>
       </c>
       <c r="I89" s="3">
-        <v>1647700</v>
+        <v>1645100</v>
       </c>
       <c r="J89" s="3">
-        <v>1458500</v>
+        <v>1456200</v>
       </c>
       <c r="K89" s="3">
         <v>1906000</v>
@@ -3811,25 +3811,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2516000</v>
+        <v>-2512000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1508300</v>
+        <v>-1505900</v>
       </c>
       <c r="F91" s="3">
-        <v>-827200</v>
+        <v>-825900</v>
       </c>
       <c r="G91" s="3">
-        <v>-518700</v>
+        <v>-517900</v>
       </c>
       <c r="H91" s="3">
-        <v>-615100</v>
+        <v>-614100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1389000</v>
+        <v>-1386800</v>
       </c>
       <c r="J91" s="3">
-        <v>-2875000</v>
+        <v>-2870400</v>
       </c>
       <c r="K91" s="3">
         <v>-1928900</v>
@@ -3937,25 +3937,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1709000</v>
+        <v>-1706300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1951900</v>
+        <v>-1948800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1259500</v>
+        <v>-1257500</v>
       </c>
       <c r="G94" s="3">
-        <v>-994800</v>
+        <v>-993200</v>
       </c>
       <c r="H94" s="3">
-        <v>-486700</v>
+        <v>-485900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1112000</v>
+        <v>-1110300</v>
       </c>
       <c r="J94" s="3">
-        <v>-2514700</v>
+        <v>-2510700</v>
       </c>
       <c r="K94" s="3">
         <v>-2183200</v>
@@ -3997,25 +3997,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-1175800</v>
+        <v>-1173900</v>
       </c>
       <c r="E96" s="3">
-        <v>-624000</v>
+        <v>-623000</v>
       </c>
       <c r="F96" s="3">
-        <v>-306600</v>
+        <v>-306200</v>
       </c>
       <c r="G96" s="3">
-        <v>-217000</v>
+        <v>-216700</v>
       </c>
       <c r="H96" s="3">
-        <v>-268700</v>
+        <v>-268300</v>
       </c>
       <c r="I96" s="3">
-        <v>-191600</v>
+        <v>-191300</v>
       </c>
       <c r="J96" s="3">
-        <v>-216900</v>
+        <v>-216500</v>
       </c>
       <c r="K96" s="3">
         <v>-221200</v>
@@ -4165,25 +4165,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1797800</v>
+        <v>-1794900</v>
       </c>
       <c r="E100" s="3">
-        <v>392200</v>
+        <v>391600</v>
       </c>
       <c r="F100" s="3">
-        <v>-803900</v>
+        <v>-802600</v>
       </c>
       <c r="G100" s="3">
-        <v>-309800</v>
+        <v>-309300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1051400</v>
+        <v>-1049800</v>
       </c>
       <c r="I100" s="3">
-        <v>287700</v>
+        <v>287200</v>
       </c>
       <c r="J100" s="3">
-        <v>1218200</v>
+        <v>1216200</v>
       </c>
       <c r="K100" s="3">
         <v>479800</v>
@@ -4207,25 +4207,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>220400</v>
+        <v>220000</v>
       </c>
       <c r="E101" s="3">
-        <v>-66100</v>
+        <v>-66000</v>
       </c>
       <c r="F101" s="3">
-        <v>-46400</v>
+        <v>-46300</v>
       </c>
       <c r="G101" s="3">
-        <v>-47900</v>
+        <v>-47800</v>
       </c>
       <c r="H101" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I101" s="3">
-        <v>-66700</v>
+        <v>-66600</v>
       </c>
       <c r="J101" s="3">
-        <v>-27400</v>
+        <v>-27300</v>
       </c>
       <c r="K101" s="3">
         <v>23000</v>
@@ -4249,25 +4249,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1293600</v>
+        <v>1291500</v>
       </c>
       <c r="E102" s="3">
-        <v>1211200</v>
+        <v>1209300</v>
       </c>
       <c r="F102" s="3">
-        <v>-45400</v>
+        <v>-45300</v>
       </c>
       <c r="G102" s="3">
-        <v>371500</v>
+        <v>370900</v>
       </c>
       <c r="H102" s="3">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="I102" s="3">
-        <v>756600</v>
+        <v>755400</v>
       </c>
       <c r="J102" s="3">
-        <v>134700</v>
+        <v>134400</v>
       </c>
       <c r="K102" s="3">
         <v>225600</v>
